--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="147">
   <si>
     <t>Feature</t>
   </si>
@@ -228,6 +228,237 @@
   </si>
   <si>
     <t>to the right boundary of text visible in a window</t>
+  </si>
+  <si>
+    <t>ctrl left mouse click</t>
+  </si>
+  <si>
+    <t>adds selection block and caret</t>
+  </si>
+  <si>
+    <t>unless caret is already there</t>
+  </si>
+  <si>
+    <t>single selection from mouse down position</t>
+  </si>
+  <si>
+    <t>left button mouse drag</t>
+  </si>
+  <si>
+    <t>right button mouse drag</t>
+  </si>
+  <si>
+    <t>ignored</t>
+  </si>
+  <si>
+    <t>shift + left button mouse drag</t>
+  </si>
+  <si>
+    <t>shift + right button mouse drag</t>
+  </si>
+  <si>
+    <t>ctrl + left button mouse drag</t>
+  </si>
+  <si>
+    <t>ctrl + right button mouse drag</t>
+  </si>
+  <si>
+    <t>adds selection block from the anchor point</t>
+  </si>
+  <si>
+    <t>extends single selection from the anchor point</t>
+  </si>
+  <si>
+    <t>combines overlapping selection blocks</t>
+  </si>
+  <si>
+    <t>highlights mathcing tokens if enabled</t>
+  </si>
+  <si>
+    <t>pluggable matching token highlight</t>
+  </si>
+  <si>
+    <t>matching token highlight logic</t>
+  </si>
+  <si>
+    <t>spell checking logic</t>
+  </si>
+  <si>
+    <t>type character</t>
+  </si>
+  <si>
+    <t>move caret up</t>
+  </si>
+  <si>
+    <t>move caret down</t>
+  </si>
+  <si>
+    <t>move caret left</t>
+  </si>
+  <si>
+    <t>move caret right</t>
+  </si>
+  <si>
+    <t>page up</t>
+  </si>
+  <si>
+    <t>page down</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>configurable: start of line, start of text on line</t>
+  </si>
+  <si>
+    <t>configurable: end of line, end of text on line</t>
+  </si>
+  <si>
+    <t>home/end: start of line or text</t>
+  </si>
+  <si>
+    <t>move caret word left</t>
+  </si>
+  <si>
+    <t>move caret word right</t>
+  </si>
+  <si>
+    <t>delete character</t>
+  </si>
+  <si>
+    <t>backspace</t>
+  </si>
+  <si>
+    <t>Key Strokes</t>
+  </si>
+  <si>
+    <t>undo</t>
+  </si>
+  <si>
+    <t>redo</t>
+  </si>
+  <si>
+    <t>delete line</t>
+  </si>
+  <si>
+    <t>insert line</t>
+  </si>
+  <si>
+    <t>backspace delete word</t>
+  </si>
+  <si>
+    <t>works with multiple carets</t>
+  </si>
+  <si>
+    <t>shift window up</t>
+  </si>
+  <si>
+    <t>configurable line number area</t>
+  </si>
+  <si>
+    <t>show line numbers</t>
+  </si>
+  <si>
+    <t>line number area highlight logic</t>
+  </si>
+  <si>
+    <t>configurable book mark area</t>
+  </si>
+  <si>
+    <t>bookmark area logic</t>
+  </si>
+  <si>
+    <t>configurable bird eye view area</t>
+  </si>
+  <si>
+    <t>bird eye view area</t>
+  </si>
+  <si>
+    <t>select left</t>
+  </si>
+  <si>
+    <t>select right</t>
+  </si>
+  <si>
+    <t>select up</t>
+  </si>
+  <si>
+    <t>select down</t>
+  </si>
+  <si>
+    <t>select page up</t>
+  </si>
+  <si>
+    <t>select page down</t>
+  </si>
+  <si>
+    <t>shift window down</t>
+  </si>
+  <si>
+    <t>semantics</t>
+  </si>
+  <si>
+    <t>shift: selects</t>
+  </si>
+  <si>
+    <t>ctrl: adds selection block</t>
+  </si>
+  <si>
+    <t>alt: mimics rectangular selection</t>
+  </si>
+  <si>
+    <t>alt + click: ignored</t>
+  </si>
+  <si>
+    <t>alt + shift click</t>
+  </si>
+  <si>
+    <t>clears selection, moves caret</t>
+  </si>
+  <si>
+    <t>alt + ctrl click</t>
+  </si>
+  <si>
+    <t>adds caret</t>
+  </si>
+  <si>
+    <t>does not affect existing selection</t>
+  </si>
+  <si>
+    <t>ctrl + shift: ctrl ignored</t>
+  </si>
+  <si>
+    <t>right click: always invokes a popup</t>
+  </si>
+  <si>
+    <t>alt + drag</t>
+  </si>
+  <si>
+    <t>rectangular selection from the last anchor point</t>
+  </si>
+  <si>
+    <t>alt + shift drag</t>
+  </si>
+  <si>
+    <t>alt + ctrl drag</t>
+  </si>
+  <si>
+    <t>adds rectangular selection block</t>
+  </si>
+  <si>
+    <t>scroll wheel</t>
+  </si>
+  <si>
+    <t>keyboard modifier keys ignored</t>
+  </si>
+  <si>
+    <t>scrolls the viewport</t>
+  </si>
+  <si>
+    <t>custom component with highlight markers?</t>
   </si>
 </sst>
 </file>
@@ -236,7 +467,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -347,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -430,7 +661,13 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,8 +732,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954903"/>
-          <c:h val="0.89627228525120017"/>
+          <c:w val="0.91978071330954914"/>
+          <c:h val="0.89627228525120006"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -528,30 +765,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42706</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>42707</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$49</c:f>
+              <c:f>Progress!$B$48:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -584,30 +827,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42706</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>42707</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$49</c:f>
+              <c:f>Progress!$C$48:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,30 +889,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42706</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>42707</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$49</c:f>
+              <c:f>Progress!$D$48:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,46 +951,52 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42706</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>42707</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$53</c:f>
+              <c:f>Progress!$E$48:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="128900096"/>
-        <c:axId val="128652032"/>
+        <c:axId val="129692416"/>
+        <c:axId val="129693952"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="128900096"/>
+        <c:axId val="129692416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +1029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128652032"/>
+        <c:crossAx val="129693952"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -778,7 +1039,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="128652032"/>
+        <c:axId val="129693952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,7 +1081,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128900096"/>
+        <c:crossAx val="129692416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -910,7 +1171,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001144" r="0.75000000000001144" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001155" r="0.75000000000001155" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -964,7 +1225,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127248E-2"/>
+          <c:x val="4.4510450248127269E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -999,40 +1260,46 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42706</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>42707</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$49</c:f>
+              <c:f>Progress!$G$48:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39583333333333331</c:v>
+                  <c:v>0.38775510204081631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16153846153846155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="128677760"/>
-        <c:axId val="128679296"/>
+        <c:axId val="129410560"/>
+        <c:axId val="129412096"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="128677760"/>
+        <c:axId val="129410560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,13 +1307,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-409]mmmm\ d\,\ yyyy;@" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="128679296"/>
+        <c:crossAx val="129412096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="128679296"/>
+        <c:axId val="129412096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1089,7 +1356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128677760"/>
+        <c:crossAx val="129410560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1138,7 +1405,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001144" r="0.75000000000001144" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001155" r="0.75000000000001155" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1189,30 +1456,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42706</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>42707</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$49</c:f>
+              <c:f>Progress!$C$48:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,40 +1518,46 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42706</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>42707</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$49</c:f>
+              <c:f>Progress!$D$48:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="129045248"/>
-        <c:axId val="129046784"/>
+        <c:axId val="129899904"/>
+        <c:axId val="129905792"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="129045248"/>
+        <c:axId val="129899904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,7 +1590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129046784"/>
+        <c:crossAx val="129905792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1322,7 +1601,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="129046784"/>
+        <c:axId val="129905792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,7 +1643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129045248"/>
+        <c:crossAx val="129899904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1413,7 +1692,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001144" r="0.75000000000001144" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001155" r="0.75000000000001155" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1463,7 +1742,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1871,10 +2150,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D317"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -1990,8 +2269,12 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
-      <c r="B16" s="22"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1">
@@ -2020,9 +2303,7 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
-      <c r="B22" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="4"/>
     </row>
@@ -2032,12 +2313,10 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
-      <c r="B24" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
@@ -2046,18 +2325,30 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
-      <c r="B26" s="22"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="22"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="22"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
@@ -2066,30 +2357,48 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
-      <c r="B30" s="22"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
-      <c r="B31" s="22"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
-      <c r="B32" s="22"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="22"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
-      <c r="B34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="7"/>
+      <c r="B34" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
@@ -2098,53 +2407,39 @@
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
-      <c r="B37" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="7"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
       <c r="B40" s="22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="20" t="s">
-        <v>43</v>
+      <c r="B41" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -2152,27 +2447,35 @@
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="22"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="22"/>
-      <c r="C43" s="7"/>
+      <c r="B43" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="22" t="s">
-        <v>33</v>
+      <c r="B44" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="20" t="s">
-        <v>34</v>
+      <c r="B45" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>14</v>
@@ -2181,7 +2484,7 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="20" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>14</v>
@@ -2189,8 +2492,8 @@
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="20" t="s">
-        <v>36</v>
+      <c r="B47" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>14</v>
@@ -2198,13 +2501,21 @@
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="22"/>
-      <c r="C48" s="7"/>
+      <c r="B48" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="22"/>
-      <c r="C49" s="7"/>
+      <c r="B49" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
@@ -2218,29 +2529,43 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="22"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="22"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="22"/>
-      <c r="C54" s="7"/>
+      <c r="B54" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="22"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B56" s="22"/>
       <c r="C56" s="7"/>
       <c r="D56" s="4"/>
     </row>
@@ -2250,25 +2575,17 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
-      <c r="B58" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="20"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="7"/>
       <c r="D60" s="4"/>
     </row>
@@ -2278,56 +2595,64 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="20"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="7"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="20"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="7"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="7"/>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="22"/>
+      <c r="B66" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="C66" s="7"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="20"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="22"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="22"/>
-      <c r="C69" s="7"/>
+      <c r="B69" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="22" t="s">
-        <v>58</v>
+      <c r="B70" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -2335,12 +2660,8 @@
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
@@ -2364,31 +2685,35 @@
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="7" t="s">
+      <c r="B76" s="22"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="2:4" s="6" customFormat="1">
+      <c r="B77" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="2:4" s="6" customFormat="1">
+      <c r="B78" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="2:4" s="6" customFormat="1">
+      <c r="B79" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="22"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22"/>
-      <c r="C79" s="7"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
@@ -2397,23 +2722,31 @@
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="7"/>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="22"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="7"/>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="22"/>
-      <c r="C83" s="7"/>
+      <c r="B83" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="22"/>
-      <c r="C84" s="7"/>
+      <c r="B84" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
@@ -2422,7 +2755,7 @@
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="22"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="7"/>
       <c r="D86" s="4"/>
     </row>
@@ -2437,13 +2770,21 @@
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22"/>
-      <c r="C89" s="7"/>
+      <c r="B89" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="22"/>
-      <c r="C90" s="7"/>
+      <c r="B90" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
@@ -2467,13 +2808,21 @@
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="22"/>
-      <c r="C95" s="7"/>
+      <c r="B95" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="20"/>
-      <c r="C96" s="7"/>
+      <c r="B96" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
@@ -2482,53 +2831,41 @@
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="7"/>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
-      <c r="B99" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B99" s="22"/>
+      <c r="C99" s="7"/>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
-      <c r="B100" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B100" s="22"/>
+      <c r="C100" s="7"/>
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="20" t="s">
-        <v>64</v>
+      <c r="B101" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
       <c r="B102" s="20" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
       <c r="B103" s="20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>14</v>
@@ -2536,91 +2873,102 @@
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="20"/>
-      <c r="C104" s="9"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="7"/>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B105" s="22"/>
+      <c r="C105" s="7"/>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B106" s="22"/>
+      <c r="C106" s="7"/>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="20" t="s">
-        <v>65</v>
+      <c r="B107" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
       <c r="B108" s="20" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C108" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="2:4" s="6" customFormat="1">
+      <c r="B109" s="22"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="2:4" s="6" customFormat="1">
+      <c r="B110" s="22"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="2:4" s="6" customFormat="1">
+      <c r="B111" s="22"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="2:4" s="6" customFormat="1">
+      <c r="B112" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C112" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C109" s="7" t="s">
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="2:4" s="6" customFormat="1">
+      <c r="B113" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="20"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="19"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B114" s="22"/>
       <c r="C114" s="7"/>
       <c r="D114" s="4"/>
     </row>
+    <row r="115" spans="2:4" s="6" customFormat="1">
+      <c r="B115" s="22"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="2:4" s="6" customFormat="1">
+      <c r="B116" s="22"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="2:4" s="6" customFormat="1">
+      <c r="B117" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="4"/>
+    </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C118" s="7"/>
+      <c r="B118" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
@@ -2629,26 +2977,18 @@
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B120" s="22"/>
+      <c r="C120" s="7"/>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B121" s="22"/>
+      <c r="C121" s="7"/>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
       <c r="B122" s="22" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>14</v>
@@ -2656,8 +2996,12 @@
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="22"/>
-      <c r="C123" s="7"/>
+      <c r="B123" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
@@ -2676,18 +3020,30 @@
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="22"/>
-      <c r="C127" s="7"/>
+      <c r="B127" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="22"/>
-      <c r="C128" s="7"/>
+      <c r="B128" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="22"/>
-      <c r="C129" s="7"/>
+      <c r="B129" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
@@ -2706,66 +3062,64 @@
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="22"/>
-      <c r="C133" s="7"/>
+      <c r="B133" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C134" s="7"/>
+      <c r="B134" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="22"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="7"/>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B136" s="20"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
       <c r="B137" s="22" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B138" s="22"/>
+      <c r="C138" s="7"/>
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C139" s="7" t="s">
+      <c r="B139" s="22"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="2:4" s="6" customFormat="1">
+      <c r="B140" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C140" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="22"/>
-      <c r="C140" s="7"/>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="22" t="s">
-        <v>49</v>
+      <c r="B141" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>14</v>
@@ -2773,12 +3127,8 @@
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B142" s="22"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
@@ -2788,7 +3138,7 @@
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
       <c r="B144" s="22" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>14</v>
@@ -2796,8 +3146,8 @@
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="22" t="s">
-        <v>52</v>
+      <c r="B145" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>14</v>
@@ -2805,8 +3155,8 @@
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="22" t="s">
-        <v>53</v>
+      <c r="B146" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>14</v>
@@ -2824,18 +3174,30 @@
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="22"/>
-      <c r="C149" s="7"/>
+      <c r="B149" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="22"/>
-      <c r="C150" s="7"/>
+      <c r="B150" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="22"/>
-      <c r="C151" s="7"/>
+      <c r="B151" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
@@ -2849,20 +3211,30 @@
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="22"/>
-      <c r="C154" s="7"/>
+      <c r="B154" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="22"/>
-      <c r="C155" s="7"/>
+      <c r="B155" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C156" s="7"/>
+      <c r="B156" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
@@ -2871,107 +3243,1014 @@
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="22"/>
-      <c r="C158" s="7"/>
+      <c r="B158" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="22"/>
-      <c r="C159" s="4"/>
+      <c r="B159" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
-      <c r="B160" s="19"/>
-      <c r="C160" s="4"/>
+      <c r="B160" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" s="6" customFormat="1">
-      <c r="B161" s="21"/>
-      <c r="C161" s="4"/>
+    <row r="161" spans="2:4" s="6" customFormat="1">
+      <c r="B161" s="22"/>
+      <c r="C161" s="7"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" s="6" customFormat="1">
-      <c r="B162" s="21"/>
-      <c r="C162" s="4"/>
+    <row r="162" spans="2:4" s="6" customFormat="1">
+      <c r="B162" s="22"/>
+      <c r="C162" s="7"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="3"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="3"/>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="3"/>
-      <c r="B164" s="8" t="s">
+    <row r="163" spans="2:4" s="6" customFormat="1">
+      <c r="B163" s="22"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="2:4" s="6" customFormat="1">
+      <c r="B164" s="22"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="2:4" s="6" customFormat="1">
+      <c r="B165" s="22"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="2:4" s="6" customFormat="1">
+      <c r="B166" s="22"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="2:4" s="6" customFormat="1">
+      <c r="B167" s="22"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="2:4" s="6" customFormat="1">
+      <c r="B168" s="22"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="2:4" s="6" customFormat="1">
+      <c r="B169" s="20"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="4"/>
+    </row>
+    <row r="170" spans="2:4" s="6" customFormat="1">
+      <c r="B170" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="2:4" s="6" customFormat="1">
+      <c r="B171" s="20"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="2:4" s="6" customFormat="1">
+      <c r="B172" s="20"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="2:4" s="6" customFormat="1">
+      <c r="B173" s="20"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="2:4" s="6" customFormat="1">
+      <c r="B174" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="2:4" s="6" customFormat="1">
+      <c r="B175" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="2:4" s="6" customFormat="1">
+      <c r="B176" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="2:4" s="6" customFormat="1">
+      <c r="B177" s="20"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="2:4" s="6" customFormat="1">
+      <c r="B178" s="20"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="2:4" s="6" customFormat="1">
+      <c r="B179" s="20"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="2:4" s="6" customFormat="1">
+      <c r="B180" s="20"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="2:4" s="6" customFormat="1">
+      <c r="B181" s="20"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="2:4" s="6" customFormat="1">
+      <c r="B182" s="20"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="2:4" s="6" customFormat="1">
+      <c r="B183" s="20"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="2:4" s="6" customFormat="1">
+      <c r="B184" s="20"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="2:4" s="6" customFormat="1">
+      <c r="B185" s="20"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="2:4" s="6" customFormat="1">
+      <c r="B186" s="20"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="2:4" s="6" customFormat="1">
+      <c r="B187" s="20"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="2:4" s="6" customFormat="1">
+      <c r="B188" s="22"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="2:4" s="6" customFormat="1">
+      <c r="B189" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="2:4" s="6" customFormat="1">
+      <c r="B190" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="2:4" s="6" customFormat="1">
+      <c r="B191" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="2:4" s="6" customFormat="1">
+      <c r="B192" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="2:4" s="6" customFormat="1">
+      <c r="B193" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="2:4" s="6" customFormat="1">
+      <c r="B194" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="2:4" s="6" customFormat="1">
+      <c r="B195" s="20"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="2:4" s="6" customFormat="1">
+      <c r="B196" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="2:4" s="6" customFormat="1">
+      <c r="B197" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="2:4" s="6" customFormat="1">
+      <c r="B198" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="2:4" s="6" customFormat="1">
+      <c r="B199" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="2:4" s="6" customFormat="1">
+      <c r="B200" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="2:4" s="6" customFormat="1">
+      <c r="B201" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="2:4" s="6" customFormat="1">
+      <c r="B202" s="20"/>
+      <c r="C202" s="9"/>
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="2:4" s="6" customFormat="1">
+      <c r="B203" s="19"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="2:4" s="6" customFormat="1">
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+    </row>
+    <row r="205" spans="2:4" s="6" customFormat="1">
+      <c r="B205" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" s="7"/>
+      <c r="D205" s="4"/>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" t="s">
+        <v>110</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" t="s">
+        <v>88</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" t="s">
+        <v>102</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" t="s">
+        <v>103</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="C212" s="9"/>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" t="s">
+        <v>89</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" t="s">
+        <v>90</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" t="s">
+        <v>91</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" t="s">
+        <v>92</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" t="s">
+        <v>93</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" t="s">
+        <v>94</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219" t="s">
+        <v>95</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="B220" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="B221" t="s">
+        <v>96</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3">
+      <c r="B222" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3">
+      <c r="B223" t="s">
+        <v>100</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3">
+      <c r="B224" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" s="45"/>
+      <c r="C227" s="9"/>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" s="45"/>
+      <c r="C228" s="9"/>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229" s="45"/>
+      <c r="C229" s="9"/>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="C230" s="9"/>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="B231" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="C232" s="9"/>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="B234" t="s">
+        <v>108</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="C235" s="9"/>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="C236" s="9"/>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="B237" t="s">
+        <v>119</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" t="s">
+        <v>120</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239" t="s">
+        <v>121</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240" t="s">
+        <v>122</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" t="s">
+        <v>123</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" t="s">
+        <v>124</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="C243" s="9"/>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="C244" s="9"/>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="C245" s="9"/>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="C246" s="9"/>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="C247" s="9"/>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="C248" s="9"/>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="C249" s="9"/>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="C250" s="9"/>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="C251" s="9"/>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="C252" s="9"/>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="C253" s="9"/>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="C254" s="9"/>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C255" s="9"/>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" t="s">
+        <v>51</v>
+      </c>
+      <c r="C256" s="9"/>
+    </row>
+    <row r="257" spans="2:4">
+      <c r="B257" t="s">
+        <v>52</v>
+      </c>
+      <c r="C257" s="9"/>
+    </row>
+    <row r="258" spans="2:4">
+      <c r="B258" t="s">
+        <v>53</v>
+      </c>
+      <c r="C258" s="9"/>
+    </row>
+    <row r="259" spans="2:4">
+      <c r="C259" s="9"/>
+    </row>
+    <row r="260" spans="2:4">
+      <c r="B260" t="s">
+        <v>105</v>
+      </c>
+      <c r="C260" s="9"/>
+    </row>
+    <row r="261" spans="2:4">
+      <c r="B261" t="s">
+        <v>106</v>
+      </c>
+      <c r="C261" s="9"/>
+    </row>
+    <row r="262" spans="2:4">
+      <c r="C262" s="9"/>
+    </row>
+    <row r="263" spans="2:4">
+      <c r="C263" s="9"/>
+    </row>
+    <row r="264" spans="2:4">
+      <c r="C264" s="9"/>
+    </row>
+    <row r="266" spans="2:4" s="6" customFormat="1">
+      <c r="B266" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C266" s="7"/>
+      <c r="D266" s="4"/>
+    </row>
+    <row r="267" spans="2:4" s="6" customFormat="1">
+      <c r="B267" s="22"/>
+      <c r="C267" s="7"/>
+      <c r="D267" s="4"/>
+    </row>
+    <row r="268" spans="2:4" s="6" customFormat="1">
+      <c r="B268" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D268" s="4"/>
+    </row>
+    <row r="269" spans="2:4" s="6" customFormat="1">
+      <c r="B269" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D269" s="4"/>
+    </row>
+    <row r="270" spans="2:4" s="6" customFormat="1">
+      <c r="B270" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D270" s="4"/>
+    </row>
+    <row r="271" spans="2:4" s="6" customFormat="1">
+      <c r="B271" s="22"/>
+      <c r="C271" s="7"/>
+      <c r="D271" s="4"/>
+    </row>
+    <row r="272" spans="2:4" s="6" customFormat="1">
+      <c r="B272" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D272" s="4"/>
+    </row>
+    <row r="273" spans="2:4" s="6" customFormat="1">
+      <c r="B273" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D273" s="4"/>
+    </row>
+    <row r="274" spans="2:4" s="6" customFormat="1">
+      <c r="B274" s="22"/>
+      <c r="C274" s="7"/>
+      <c r="D274" s="4"/>
+    </row>
+    <row r="275" spans="2:4" s="6" customFormat="1">
+      <c r="B275" s="22"/>
+      <c r="C275" s="7"/>
+      <c r="D275" s="4"/>
+    </row>
+    <row r="276" spans="2:4" s="6" customFormat="1">
+      <c r="B276" s="22"/>
+      <c r="C276" s="7"/>
+      <c r="D276" s="4"/>
+    </row>
+    <row r="277" spans="2:4" s="6" customFormat="1">
+      <c r="B277" s="22"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="4"/>
+    </row>
+    <row r="278" spans="2:4" s="6" customFormat="1">
+      <c r="B278" s="22"/>
+      <c r="C278" s="7"/>
+      <c r="D278" s="4"/>
+    </row>
+    <row r="279" spans="2:4" s="6" customFormat="1">
+      <c r="B279" s="22"/>
+      <c r="C279" s="7"/>
+      <c r="D279" s="4"/>
+    </row>
+    <row r="280" spans="2:4" s="6" customFormat="1">
+      <c r="B280" s="22"/>
+      <c r="C280" s="7"/>
+      <c r="D280" s="4"/>
+    </row>
+    <row r="281" spans="2:4" s="6" customFormat="1">
+      <c r="B281" s="22"/>
+      <c r="C281" s="7"/>
+      <c r="D281" s="4"/>
+    </row>
+    <row r="282" spans="2:4" s="6" customFormat="1">
+      <c r="B282" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C282" s="7"/>
+      <c r="D282" s="4"/>
+    </row>
+    <row r="283" spans="2:4" s="6" customFormat="1">
+      <c r="B283" s="22"/>
+      <c r="C283" s="7"/>
+      <c r="D283" s="4"/>
+    </row>
+    <row r="284" spans="2:4" s="6" customFormat="1">
+      <c r="B284" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" s="4"/>
+    </row>
+    <row r="285" spans="2:4" s="6" customFormat="1">
+      <c r="B285" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D285" s="4"/>
+    </row>
+    <row r="286" spans="2:4" s="6" customFormat="1">
+      <c r="B286" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D286" s="4"/>
+    </row>
+    <row r="287" spans="2:4" s="6" customFormat="1">
+      <c r="B287" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" s="4"/>
+    </row>
+    <row r="288" spans="2:4" s="6" customFormat="1">
+      <c r="B288" s="22"/>
+      <c r="C288" s="7"/>
+      <c r="D288" s="4"/>
+    </row>
+    <row r="289" spans="2:4" s="6" customFormat="1">
+      <c r="B289" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" s="4"/>
+    </row>
+    <row r="290" spans="2:4" s="6" customFormat="1">
+      <c r="B290" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D290" s="4"/>
+    </row>
+    <row r="291" spans="2:4" s="6" customFormat="1">
+      <c r="B291" s="22"/>
+      <c r="C291" s="7"/>
+      <c r="D291" s="4"/>
+    </row>
+    <row r="292" spans="2:4" s="6" customFormat="1">
+      <c r="B292" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" s="4"/>
+    </row>
+    <row r="293" spans="2:4" s="6" customFormat="1">
+      <c r="B293" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" s="4"/>
+    </row>
+    <row r="294" spans="2:4" s="6" customFormat="1">
+      <c r="B294" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="4"/>
+    </row>
+    <row r="295" spans="2:4" s="6" customFormat="1">
+      <c r="B295" s="22"/>
+      <c r="C295" s="7"/>
+      <c r="D295" s="4"/>
+    </row>
+    <row r="296" spans="2:4" s="6" customFormat="1">
+      <c r="B296" s="22"/>
+      <c r="C296" s="7"/>
+      <c r="D296" s="4"/>
+    </row>
+    <row r="297" spans="2:4" s="6" customFormat="1">
+      <c r="B297" s="22"/>
+      <c r="C297" s="7"/>
+      <c r="D297" s="4"/>
+    </row>
+    <row r="298" spans="2:4" s="6" customFormat="1">
+      <c r="B298" s="22"/>
+      <c r="C298" s="7"/>
+      <c r="D298" s="4"/>
+    </row>
+    <row r="299" spans="2:4" s="6" customFormat="1">
+      <c r="B299" s="22"/>
+      <c r="C299" s="7"/>
+      <c r="D299" s="4"/>
+    </row>
+    <row r="300" spans="2:4" s="6" customFormat="1">
+      <c r="B300" s="22"/>
+      <c r="C300" s="7"/>
+      <c r="D300" s="4"/>
+    </row>
+    <row r="301" spans="2:4" s="6" customFormat="1">
+      <c r="B301" s="22"/>
+      <c r="C301" s="7"/>
+      <c r="D301" s="4"/>
+    </row>
+    <row r="302" spans="2:4" s="6" customFormat="1">
+      <c r="B302" s="22"/>
+      <c r="C302" s="7"/>
+      <c r="D302" s="4"/>
+    </row>
+    <row r="303" spans="2:4" s="6" customFormat="1">
+      <c r="B303" s="22"/>
+      <c r="C303" s="7"/>
+      <c r="D303" s="4"/>
+    </row>
+    <row r="304" spans="2:4" s="6" customFormat="1">
+      <c r="B304" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C304" s="7"/>
+      <c r="D304" s="4"/>
+    </row>
+    <row r="305" spans="1:4" s="6" customFormat="1">
+      <c r="B305" s="22"/>
+      <c r="C305" s="7"/>
+      <c r="D305" s="4"/>
+    </row>
+    <row r="306" spans="1:4" s="6" customFormat="1">
+      <c r="B306" s="22"/>
+      <c r="C306" s="7"/>
+      <c r="D306" s="4"/>
+    </row>
+    <row r="307" spans="1:4" s="6" customFormat="1">
+      <c r="B307" s="22"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+    </row>
+    <row r="308" spans="1:4" s="6" customFormat="1">
+      <c r="B308" s="19"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+    </row>
+    <row r="309" spans="1:4" s="6" customFormat="1">
+      <c r="B309" s="21"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+    </row>
+    <row r="310" spans="1:4" s="6" customFormat="1">
+      <c r="B310" s="21"/>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4"/>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="3"/>
+      <c r="B311" s="11"/>
+      <c r="C311" s="11"/>
+      <c r="D311" s="3"/>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="3"/>
+      <c r="B312" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C164" s="6">
-        <f>COUNTIF(C5:C163,"y")</f>
-        <v>19</v>
-      </c>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="3"/>
-      <c r="B165" s="8" t="s">
+      <c r="C312" s="6">
+        <f>COUNTIF(C5:C311,"y")</f>
+        <v>21</v>
+      </c>
+      <c r="D312" s="2"/>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="3"/>
+      <c r="B313" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C165" s="6">
-        <f>COUNTIF(C5:C163,"n")</f>
-        <v>29</v>
-      </c>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="3"/>
-      <c r="B166" s="8" t="s">
+      <c r="C313" s="6">
+        <f>COUNTIF(C5:C311,"n")</f>
+        <v>107</v>
+      </c>
+      <c r="D313" s="2"/>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="3"/>
+      <c r="B314" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C166" s="7">
-        <f>COUNTIF(C5:C163,"TBD")</f>
-        <v>1</v>
-      </c>
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="3"/>
-      <c r="B167" s="8" t="s">
+      <c r="C314" s="7">
+        <f>COUNTIF(C5:C311,"TBD")</f>
+        <v>2</v>
+      </c>
+      <c r="D314" s="2"/>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="3"/>
+      <c r="B315" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C167">
-        <f>SUM(C164:C166)</f>
-        <v>49</v>
-      </c>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="1:4" ht="18">
-      <c r="A168" s="3"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="10" t="s">
+      <c r="C315">
+        <f>SUM(C312:C314)</f>
+        <v>130</v>
+      </c>
+      <c r="D315" s="2"/>
+    </row>
+    <row r="316" spans="1:4" ht="18">
+      <c r="A316" s="3"/>
+      <c r="B316" s="10"/>
+      <c r="C316" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D168" s="41">
-        <f>C164/(C165+C164 + C166)</f>
-        <v>0.38775510204081631</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="3"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="3"/>
+      <c r="D316" s="41">
+        <f>C312/(C313+C312 + C314)</f>
+        <v>0.16153846153846155</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="3"/>
+      <c r="B317" s="11"/>
+      <c r="C317" s="11"/>
+      <c r="D317" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C114 C118:C64917">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C266:C65065 C207 C209:C264 C1:C3 C6:C205">
+    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2986,12 +4265,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT863"/>
+  <dimension ref="A1:IT864"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O27" sqref="O27"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3250,7 +4529,7 @@
       </c>
       <c r="K48" s="32"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:11" s="6" customFormat="1">
       <c r="A49" s="44">
         <v>42706</v>
       </c>
@@ -3261,7 +4540,7 @@
         <v>29</v>
       </c>
       <c r="D49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
@@ -3271,104 +4550,119 @@
       </c>
       <c r="G49" s="30">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="44"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="30"/>
+        <v>0.38775510204081631</v>
+      </c>
+      <c r="K49" s="32"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="44">
+        <v>42707</v>
+      </c>
+      <c r="B50" s="4">
+        <v>21</v>
+      </c>
+      <c r="C50" s="4">
+        <v>107</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="28">
+        <v>0</v>
+      </c>
+      <c r="G50" s="30">
+        <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
+        <v>0.16153846153846155</v>
+      </c>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:11">
       <c r="A51" s="44"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="31"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="30"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="14" t="s">
+    <row r="52" spans="1:11">
+      <c r="A52" s="44"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D53" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E53" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F53" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="38">
-        <f>MIN(G49)</f>
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="39">
-        <f>SUM(B53:D53)</f>
-        <v>49</v>
-      </c>
-      <c r="B53" s="15">
-        <f>Features!C164</f>
-        <v>19</v>
-      </c>
-      <c r="C53" s="16">
-        <f>Features!C165</f>
-        <v>29</v>
-      </c>
-      <c r="D53" s="17">
-        <f>Features!C166</f>
-        <v>1</v>
-      </c>
-      <c r="E53" s="18">
-        <f>MIN(E49)</f>
+      <c r="G53" s="38">
+        <f>MIN(G50)</f>
+        <v>0.16153846153846155</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="39">
+        <f>SUM(B54:D54)</f>
+        <v>130</v>
+      </c>
+      <c r="B54" s="15">
+        <f>Features!C312</f>
+        <v>21</v>
+      </c>
+      <c r="C54" s="16">
+        <f>Features!C313</f>
+        <v>107</v>
+      </c>
+      <c r="D54" s="17">
+        <f>Features!C314</f>
+        <v>2</v>
+      </c>
+      <c r="E54" s="18">
+        <f>MIN(E50)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="4"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="30"/>
       <c r="H54" s="7"/>
-      <c r="J54" s="36"/>
-    </row>
-    <row r="55" spans="1:10">
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="30"/>
       <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="J55" s="36"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="4"/>
-      <c r="B56" s="19"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -3376,9 +4670,9 @@
       <c r="G56" s="30"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:11">
       <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -3386,7 +4680,7 @@
       <c r="G57" s="30"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:11">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3396,9 +4690,9 @@
       <c r="G58" s="30"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:11">
       <c r="A59" s="4"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -3406,7 +4700,7 @@
       <c r="G59" s="30"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:11">
       <c r="A60" s="4"/>
       <c r="B60" s="19"/>
       <c r="C60" s="4"/>
@@ -3416,9 +4710,9 @@
       <c r="G60" s="30"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:11">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -3426,7 +4720,7 @@
       <c r="G61" s="30"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:11">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3436,9 +4730,9 @@
       <c r="G62" s="30"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:11">
       <c r="A63" s="4"/>
-      <c r="B63" s="7"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -3446,9 +4740,9 @@
       <c r="G63" s="30"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:11">
       <c r="A64" s="4"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -3467,7 +4761,7 @@
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="7"/>
+      <c r="A66" s="4"/>
       <c r="B66" s="20"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
@@ -3478,7 +4772,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -3609,7 +4903,7 @@
     <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
+      <c r="C80" s="4"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -3618,7 +4912,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="7"/>
-      <c r="B81" s="6"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -3626,15 +4920,15 @@
       <c r="G81" s="30"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="4"/>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1">
       <c r="A83" s="4"/>
@@ -3808,7 +5102,7 @@
     </row>
     <row r="100" spans="1:8" s="2" customFormat="1">
       <c r="A100" s="4"/>
-      <c r="B100" s="6"/>
+      <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -3818,7 +5112,7 @@
     </row>
     <row r="101" spans="1:8" s="2" customFormat="1">
       <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -3848,7 +5142,7 @@
     </row>
     <row r="104" spans="1:8" s="2" customFormat="1">
       <c r="A104" s="4"/>
-      <c r="B104" s="19"/>
+      <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -3888,7 +5182,7 @@
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1">
       <c r="A108" s="4"/>
-      <c r="B108" s="21"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -3898,7 +5192,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -3908,7 +5202,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="6"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -3918,7 +5212,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -3928,7 +5222,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="19"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -3948,7 +5242,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -4008,7 +5302,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="19"/>
+      <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -4108,7 +5402,7 @@
     </row>
     <row r="130" spans="1:254" s="2" customFormat="1">
       <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -4158,7 +5452,7 @@
     </row>
     <row r="135" spans="1:254" s="2" customFormat="1">
       <c r="A135" s="4"/>
-      <c r="B135" s="19"/>
+      <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -4178,7 +5472,7 @@
     </row>
     <row r="137" spans="1:254" s="2" customFormat="1">
       <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -4217,284 +5511,284 @@
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:254" s="2" customFormat="1">
-      <c r="A141" s="21"/>
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="35"/>
-      <c r="H141" s="21"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5"/>
-      <c r="V141" s="5"/>
-      <c r="W141" s="5"/>
-      <c r="X141" s="5"/>
-      <c r="Y141" s="5"/>
-      <c r="Z141" s="5"/>
-      <c r="AA141" s="5"/>
-      <c r="AB141" s="5"/>
-      <c r="AC141" s="5"/>
-      <c r="AD141" s="5"/>
-      <c r="AE141" s="5"/>
-      <c r="AF141" s="5"/>
-      <c r="AG141" s="5"/>
-      <c r="AH141" s="5"/>
-      <c r="AI141" s="5"/>
-      <c r="AJ141" s="5"/>
-      <c r="AK141" s="5"/>
-      <c r="AL141" s="5"/>
-      <c r="AM141" s="5"/>
-      <c r="AN141" s="5"/>
-      <c r="AO141" s="5"/>
-      <c r="AP141" s="5"/>
-      <c r="AQ141" s="5"/>
-      <c r="AR141" s="5"/>
-      <c r="AS141" s="5"/>
-      <c r="AT141" s="5"/>
-      <c r="AU141" s="5"/>
-      <c r="AV141" s="5"/>
-      <c r="AW141" s="5"/>
-      <c r="AX141" s="5"/>
-      <c r="AY141" s="5"/>
-      <c r="AZ141" s="5"/>
-      <c r="BA141" s="5"/>
-      <c r="BB141" s="5"/>
-      <c r="BC141" s="5"/>
-      <c r="BD141" s="5"/>
-      <c r="BE141" s="5"/>
-      <c r="BF141" s="5"/>
-      <c r="BG141" s="5"/>
-      <c r="BH141" s="5"/>
-      <c r="BI141" s="5"/>
-      <c r="BJ141" s="5"/>
-      <c r="BK141" s="5"/>
-      <c r="BL141" s="5"/>
-      <c r="BM141" s="5"/>
-      <c r="BN141" s="5"/>
-      <c r="BO141" s="5"/>
-      <c r="BP141" s="5"/>
-      <c r="BQ141" s="5"/>
-      <c r="BR141" s="5"/>
-      <c r="BS141" s="5"/>
-      <c r="BT141" s="5"/>
-      <c r="BU141" s="5"/>
-      <c r="BV141" s="5"/>
-      <c r="BW141" s="5"/>
-      <c r="BX141" s="5"/>
-      <c r="BY141" s="5"/>
-      <c r="BZ141" s="5"/>
-      <c r="CA141" s="5"/>
-      <c r="CB141" s="5"/>
-      <c r="CC141" s="5"/>
-      <c r="CD141" s="5"/>
-      <c r="CE141" s="5"/>
-      <c r="CF141" s="5"/>
-      <c r="CG141" s="5"/>
-      <c r="CH141" s="5"/>
-      <c r="CI141" s="5"/>
-      <c r="CJ141" s="5"/>
-      <c r="CK141" s="5"/>
-      <c r="CL141" s="5"/>
-      <c r="CM141" s="5"/>
-      <c r="CN141" s="5"/>
-      <c r="CO141" s="5"/>
-      <c r="CP141" s="5"/>
-      <c r="CQ141" s="5"/>
-      <c r="CR141" s="5"/>
-      <c r="CS141" s="5"/>
-      <c r="CT141" s="5"/>
-      <c r="CU141" s="5"/>
-      <c r="CV141" s="5"/>
-      <c r="CW141" s="5"/>
-      <c r="CX141" s="5"/>
-      <c r="CY141" s="5"/>
-      <c r="CZ141" s="5"/>
-      <c r="DA141" s="5"/>
-      <c r="DB141" s="5"/>
-      <c r="DC141" s="5"/>
-      <c r="DD141" s="5"/>
-      <c r="DE141" s="5"/>
-      <c r="DF141" s="5"/>
-      <c r="DG141" s="5"/>
-      <c r="DH141" s="5"/>
-      <c r="DI141" s="5"/>
-      <c r="DJ141" s="5"/>
-      <c r="DK141" s="5"/>
-      <c r="DL141" s="5"/>
-      <c r="DM141" s="5"/>
-      <c r="DN141" s="5"/>
-      <c r="DO141" s="5"/>
-      <c r="DP141" s="5"/>
-      <c r="DQ141" s="5"/>
-      <c r="DR141" s="5"/>
-      <c r="DS141" s="5"/>
-      <c r="DT141" s="5"/>
-      <c r="DU141" s="5"/>
-      <c r="DV141" s="5"/>
-      <c r="DW141" s="5"/>
-      <c r="DX141" s="5"/>
-      <c r="DY141" s="5"/>
-      <c r="DZ141" s="5"/>
-      <c r="EA141" s="5"/>
-      <c r="EB141" s="5"/>
-      <c r="EC141" s="5"/>
-      <c r="ED141" s="5"/>
-      <c r="EE141" s="5"/>
-      <c r="EF141" s="5"/>
-      <c r="EG141" s="5"/>
-      <c r="EH141" s="5"/>
-      <c r="EI141" s="5"/>
-      <c r="EJ141" s="5"/>
-      <c r="EK141" s="5"/>
-      <c r="EL141" s="5"/>
-      <c r="EM141" s="5"/>
-      <c r="EN141" s="5"/>
-      <c r="EO141" s="5"/>
-      <c r="EP141" s="5"/>
-      <c r="EQ141" s="5"/>
-      <c r="ER141" s="5"/>
-      <c r="ES141" s="5"/>
-      <c r="ET141" s="5"/>
-      <c r="EU141" s="5"/>
-      <c r="EV141" s="5"/>
-      <c r="EW141" s="5"/>
-      <c r="EX141" s="5"/>
-      <c r="EY141" s="5"/>
-      <c r="EZ141" s="5"/>
-      <c r="FA141" s="5"/>
-      <c r="FB141" s="5"/>
-      <c r="FC141" s="5"/>
-      <c r="FD141" s="5"/>
-      <c r="FE141" s="5"/>
-      <c r="FF141" s="5"/>
-      <c r="FG141" s="5"/>
-      <c r="FH141" s="5"/>
-      <c r="FI141" s="5"/>
-      <c r="FJ141" s="5"/>
-      <c r="FK141" s="5"/>
-      <c r="FL141" s="5"/>
-      <c r="FM141" s="5"/>
-      <c r="FN141" s="5"/>
-      <c r="FO141" s="5"/>
-      <c r="FP141" s="5"/>
-      <c r="FQ141" s="5"/>
-      <c r="FR141" s="5"/>
-      <c r="FS141" s="5"/>
-      <c r="FT141" s="5"/>
-      <c r="FU141" s="5"/>
-      <c r="FV141" s="5"/>
-      <c r="FW141" s="5"/>
-      <c r="FX141" s="5"/>
-      <c r="FY141" s="5"/>
-      <c r="FZ141" s="5"/>
-      <c r="GA141" s="5"/>
-      <c r="GB141" s="5"/>
-      <c r="GC141" s="5"/>
-      <c r="GD141" s="5"/>
-      <c r="GE141" s="5"/>
-      <c r="GF141" s="5"/>
-      <c r="GG141" s="5"/>
-      <c r="GH141" s="5"/>
-      <c r="GI141" s="5"/>
-      <c r="GJ141" s="5"/>
-      <c r="GK141" s="5"/>
-      <c r="GL141" s="5"/>
-      <c r="GM141" s="5"/>
-      <c r="GN141" s="5"/>
-      <c r="GO141" s="5"/>
-      <c r="GP141" s="5"/>
-      <c r="GQ141" s="5"/>
-      <c r="GR141" s="5"/>
-      <c r="GS141" s="5"/>
-      <c r="GT141" s="5"/>
-      <c r="GU141" s="5"/>
-      <c r="GV141" s="5"/>
-      <c r="GW141" s="5"/>
-      <c r="GX141" s="5"/>
-      <c r="GY141" s="5"/>
-      <c r="GZ141" s="5"/>
-      <c r="HA141" s="5"/>
-      <c r="HB141" s="5"/>
-      <c r="HC141" s="5"/>
-      <c r="HD141" s="5"/>
-      <c r="HE141" s="5"/>
-      <c r="HF141" s="5"/>
-      <c r="HG141" s="5"/>
-      <c r="HH141" s="5"/>
-      <c r="HI141" s="5"/>
-      <c r="HJ141" s="5"/>
-      <c r="HK141" s="5"/>
-      <c r="HL141" s="5"/>
-      <c r="HM141" s="5"/>
-      <c r="HN141" s="5"/>
-      <c r="HO141" s="5"/>
-      <c r="HP141" s="5"/>
-      <c r="HQ141" s="5"/>
-      <c r="HR141" s="5"/>
-      <c r="HS141" s="5"/>
-      <c r="HT141" s="5"/>
-      <c r="HU141" s="5"/>
-      <c r="HV141" s="5"/>
-      <c r="HW141" s="5"/>
-      <c r="HX141" s="5"/>
-      <c r="HY141" s="5"/>
-      <c r="HZ141" s="5"/>
-      <c r="IA141" s="5"/>
-      <c r="IB141" s="5"/>
-      <c r="IC141" s="5"/>
-      <c r="ID141" s="5"/>
-      <c r="IE141" s="5"/>
-      <c r="IF141" s="5"/>
-      <c r="IG141" s="5"/>
-      <c r="IH141" s="5"/>
-      <c r="II141" s="5"/>
-      <c r="IJ141" s="5"/>
-      <c r="IK141" s="5"/>
-      <c r="IL141" s="5"/>
-      <c r="IM141" s="5"/>
-      <c r="IN141" s="5"/>
-      <c r="IO141" s="5"/>
-      <c r="IP141" s="5"/>
-      <c r="IQ141" s="5"/>
-      <c r="IR141" s="5"/>
-      <c r="IS141" s="5"/>
-      <c r="IT141" s="5"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:254" s="2" customFormat="1">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="34"/>
-      <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="1:254">
-      <c r="A143" s="7"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="7"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="5"/>
+      <c r="AA142" s="5"/>
+      <c r="AB142" s="5"/>
+      <c r="AC142" s="5"/>
+      <c r="AD142" s="5"/>
+      <c r="AE142" s="5"/>
+      <c r="AF142" s="5"/>
+      <c r="AG142" s="5"/>
+      <c r="AH142" s="5"/>
+      <c r="AI142" s="5"/>
+      <c r="AJ142" s="5"/>
+      <c r="AK142" s="5"/>
+      <c r="AL142" s="5"/>
+      <c r="AM142" s="5"/>
+      <c r="AN142" s="5"/>
+      <c r="AO142" s="5"/>
+      <c r="AP142" s="5"/>
+      <c r="AQ142" s="5"/>
+      <c r="AR142" s="5"/>
+      <c r="AS142" s="5"/>
+      <c r="AT142" s="5"/>
+      <c r="AU142" s="5"/>
+      <c r="AV142" s="5"/>
+      <c r="AW142" s="5"/>
+      <c r="AX142" s="5"/>
+      <c r="AY142" s="5"/>
+      <c r="AZ142" s="5"/>
+      <c r="BA142" s="5"/>
+      <c r="BB142" s="5"/>
+      <c r="BC142" s="5"/>
+      <c r="BD142" s="5"/>
+      <c r="BE142" s="5"/>
+      <c r="BF142" s="5"/>
+      <c r="BG142" s="5"/>
+      <c r="BH142" s="5"/>
+      <c r="BI142" s="5"/>
+      <c r="BJ142" s="5"/>
+      <c r="BK142" s="5"/>
+      <c r="BL142" s="5"/>
+      <c r="BM142" s="5"/>
+      <c r="BN142" s="5"/>
+      <c r="BO142" s="5"/>
+      <c r="BP142" s="5"/>
+      <c r="BQ142" s="5"/>
+      <c r="BR142" s="5"/>
+      <c r="BS142" s="5"/>
+      <c r="BT142" s="5"/>
+      <c r="BU142" s="5"/>
+      <c r="BV142" s="5"/>
+      <c r="BW142" s="5"/>
+      <c r="BX142" s="5"/>
+      <c r="BY142" s="5"/>
+      <c r="BZ142" s="5"/>
+      <c r="CA142" s="5"/>
+      <c r="CB142" s="5"/>
+      <c r="CC142" s="5"/>
+      <c r="CD142" s="5"/>
+      <c r="CE142" s="5"/>
+      <c r="CF142" s="5"/>
+      <c r="CG142" s="5"/>
+      <c r="CH142" s="5"/>
+      <c r="CI142" s="5"/>
+      <c r="CJ142" s="5"/>
+      <c r="CK142" s="5"/>
+      <c r="CL142" s="5"/>
+      <c r="CM142" s="5"/>
+      <c r="CN142" s="5"/>
+      <c r="CO142" s="5"/>
+      <c r="CP142" s="5"/>
+      <c r="CQ142" s="5"/>
+      <c r="CR142" s="5"/>
+      <c r="CS142" s="5"/>
+      <c r="CT142" s="5"/>
+      <c r="CU142" s="5"/>
+      <c r="CV142" s="5"/>
+      <c r="CW142" s="5"/>
+      <c r="CX142" s="5"/>
+      <c r="CY142" s="5"/>
+      <c r="CZ142" s="5"/>
+      <c r="DA142" s="5"/>
+      <c r="DB142" s="5"/>
+      <c r="DC142" s="5"/>
+      <c r="DD142" s="5"/>
+      <c r="DE142" s="5"/>
+      <c r="DF142" s="5"/>
+      <c r="DG142" s="5"/>
+      <c r="DH142" s="5"/>
+      <c r="DI142" s="5"/>
+      <c r="DJ142" s="5"/>
+      <c r="DK142" s="5"/>
+      <c r="DL142" s="5"/>
+      <c r="DM142" s="5"/>
+      <c r="DN142" s="5"/>
+      <c r="DO142" s="5"/>
+      <c r="DP142" s="5"/>
+      <c r="DQ142" s="5"/>
+      <c r="DR142" s="5"/>
+      <c r="DS142" s="5"/>
+      <c r="DT142" s="5"/>
+      <c r="DU142" s="5"/>
+      <c r="DV142" s="5"/>
+      <c r="DW142" s="5"/>
+      <c r="DX142" s="5"/>
+      <c r="DY142" s="5"/>
+      <c r="DZ142" s="5"/>
+      <c r="EA142" s="5"/>
+      <c r="EB142" s="5"/>
+      <c r="EC142" s="5"/>
+      <c r="ED142" s="5"/>
+      <c r="EE142" s="5"/>
+      <c r="EF142" s="5"/>
+      <c r="EG142" s="5"/>
+      <c r="EH142" s="5"/>
+      <c r="EI142" s="5"/>
+      <c r="EJ142" s="5"/>
+      <c r="EK142" s="5"/>
+      <c r="EL142" s="5"/>
+      <c r="EM142" s="5"/>
+      <c r="EN142" s="5"/>
+      <c r="EO142" s="5"/>
+      <c r="EP142" s="5"/>
+      <c r="EQ142" s="5"/>
+      <c r="ER142" s="5"/>
+      <c r="ES142" s="5"/>
+      <c r="ET142" s="5"/>
+      <c r="EU142" s="5"/>
+      <c r="EV142" s="5"/>
+      <c r="EW142" s="5"/>
+      <c r="EX142" s="5"/>
+      <c r="EY142" s="5"/>
+      <c r="EZ142" s="5"/>
+      <c r="FA142" s="5"/>
+      <c r="FB142" s="5"/>
+      <c r="FC142" s="5"/>
+      <c r="FD142" s="5"/>
+      <c r="FE142" s="5"/>
+      <c r="FF142" s="5"/>
+      <c r="FG142" s="5"/>
+      <c r="FH142" s="5"/>
+      <c r="FI142" s="5"/>
+      <c r="FJ142" s="5"/>
+      <c r="FK142" s="5"/>
+      <c r="FL142" s="5"/>
+      <c r="FM142" s="5"/>
+      <c r="FN142" s="5"/>
+      <c r="FO142" s="5"/>
+      <c r="FP142" s="5"/>
+      <c r="FQ142" s="5"/>
+      <c r="FR142" s="5"/>
+      <c r="FS142" s="5"/>
+      <c r="FT142" s="5"/>
+      <c r="FU142" s="5"/>
+      <c r="FV142" s="5"/>
+      <c r="FW142" s="5"/>
+      <c r="FX142" s="5"/>
+      <c r="FY142" s="5"/>
+      <c r="FZ142" s="5"/>
+      <c r="GA142" s="5"/>
+      <c r="GB142" s="5"/>
+      <c r="GC142" s="5"/>
+      <c r="GD142" s="5"/>
+      <c r="GE142" s="5"/>
+      <c r="GF142" s="5"/>
+      <c r="GG142" s="5"/>
+      <c r="GH142" s="5"/>
+      <c r="GI142" s="5"/>
+      <c r="GJ142" s="5"/>
+      <c r="GK142" s="5"/>
+      <c r="GL142" s="5"/>
+      <c r="GM142" s="5"/>
+      <c r="GN142" s="5"/>
+      <c r="GO142" s="5"/>
+      <c r="GP142" s="5"/>
+      <c r="GQ142" s="5"/>
+      <c r="GR142" s="5"/>
+      <c r="GS142" s="5"/>
+      <c r="GT142" s="5"/>
+      <c r="GU142" s="5"/>
+      <c r="GV142" s="5"/>
+      <c r="GW142" s="5"/>
+      <c r="GX142" s="5"/>
+      <c r="GY142" s="5"/>
+      <c r="GZ142" s="5"/>
+      <c r="HA142" s="5"/>
+      <c r="HB142" s="5"/>
+      <c r="HC142" s="5"/>
+      <c r="HD142" s="5"/>
+      <c r="HE142" s="5"/>
+      <c r="HF142" s="5"/>
+      <c r="HG142" s="5"/>
+      <c r="HH142" s="5"/>
+      <c r="HI142" s="5"/>
+      <c r="HJ142" s="5"/>
+      <c r="HK142" s="5"/>
+      <c r="HL142" s="5"/>
+      <c r="HM142" s="5"/>
+      <c r="HN142" s="5"/>
+      <c r="HO142" s="5"/>
+      <c r="HP142" s="5"/>
+      <c r="HQ142" s="5"/>
+      <c r="HR142" s="5"/>
+      <c r="HS142" s="5"/>
+      <c r="HT142" s="5"/>
+      <c r="HU142" s="5"/>
+      <c r="HV142" s="5"/>
+      <c r="HW142" s="5"/>
+      <c r="HX142" s="5"/>
+      <c r="HY142" s="5"/>
+      <c r="HZ142" s="5"/>
+      <c r="IA142" s="5"/>
+      <c r="IB142" s="5"/>
+      <c r="IC142" s="5"/>
+      <c r="ID142" s="5"/>
+      <c r="IE142" s="5"/>
+      <c r="IF142" s="5"/>
+      <c r="IG142" s="5"/>
+      <c r="IH142" s="5"/>
+      <c r="II142" s="5"/>
+      <c r="IJ142" s="5"/>
+      <c r="IK142" s="5"/>
+      <c r="IL142" s="5"/>
+      <c r="IM142" s="5"/>
+      <c r="IN142" s="5"/>
+      <c r="IO142" s="5"/>
+      <c r="IP142" s="5"/>
+      <c r="IQ142" s="5"/>
+      <c r="IR142" s="5"/>
+      <c r="IS142" s="5"/>
+      <c r="IT142" s="5"/>
+    </row>
+    <row r="143" spans="1:254" s="2" customFormat="1">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:254">
       <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
+      <c r="B144" s="6"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -4504,7 +5798,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="7"/>
-      <c r="B145" s="20"/>
+      <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -4514,7 +5808,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -4525,7 +5819,7 @@
     <row r="147" spans="1:8">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
-      <c r="C147" s="4"/>
+      <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -4565,7 +5859,7 @@
     <row r="151" spans="1:8">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
+      <c r="C151" s="4"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
@@ -4574,7 +5868,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="7"/>
-      <c r="B152" s="22"/>
+      <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -4594,7 +5888,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -4604,7 +5898,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="7"/>
-      <c r="B155" s="20"/>
+      <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -4624,7 +5918,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -4644,7 +5938,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="7"/>
-      <c r="B159" s="20"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -4664,7 +5958,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -4684,7 +5978,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="20"/>
+      <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -4704,7 +5998,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -4744,7 +6038,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="7"/>
-      <c r="B169" s="6"/>
+      <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -4754,8 +6048,8 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
@@ -4764,7 +6058,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="19"/>
+      <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -4834,7 +6128,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="7"/>
-      <c r="B178" s="4"/>
+      <c r="B178" s="19"/>
       <c r="C178" s="4"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -4844,7 +6138,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="19"/>
+      <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -4854,7 +6148,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="21"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -4874,7 +6168,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="19"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -4915,7 +6209,7 @@
     <row r="186" spans="1:8">
       <c r="A186" s="7"/>
       <c r="B186" s="19"/>
-      <c r="C186" s="7"/>
+      <c r="C186" s="4"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
@@ -4924,7 +6218,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
-      <c r="B187" s="4"/>
+      <c r="B187" s="19"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -4944,7 +6238,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="19"/>
+      <c r="B189" s="4"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -5004,7 +6298,7 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="7"/>
-      <c r="B195" s="21"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -5044,7 +6338,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="7"/>
-      <c r="B199" s="4"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -5054,7 +6348,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="6"/>
+      <c r="B200" s="4"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -5064,7 +6358,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="4"/>
+      <c r="B201" s="6"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -5074,7 +6368,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="19"/>
+      <c r="B202" s="4"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -5124,7 +6418,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="21"/>
+      <c r="B207" s="19"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -5134,7 +6428,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="19"/>
+      <c r="B208" s="21"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -5184,7 +6478,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="7"/>
-      <c r="B213" s="21"/>
+      <c r="B213" s="19"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -5244,7 +6538,7 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="7"/>
-      <c r="B219" s="4"/>
+      <c r="B219" s="21"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -5254,7 +6548,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="6"/>
+      <c r="B220" s="4"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -5264,8 +6558,8 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
@@ -5274,7 +6568,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="19"/>
+      <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -5284,7 +6578,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="7"/>
+      <c r="B223" s="19"/>
       <c r="C223" s="4"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -5294,7 +6588,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="20"/>
+      <c r="B224" s="7"/>
       <c r="C224" s="4"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -5334,7 +6628,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="4"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -5344,7 +6638,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="20"/>
+      <c r="B229" s="7"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -5354,7 +6648,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="23"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -5374,7 +6668,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="20"/>
+      <c r="B232" s="23"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -5414,7 +6708,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="4"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -5424,7 +6718,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="20"/>
+      <c r="B237" s="7"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -5474,7 +6768,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -5484,8 +6778,8 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="20"/>
-      <c r="C243" s="7"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
       <c r="F243" s="7"/>
@@ -5494,7 +6788,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -5504,7 +6798,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="20"/>
+      <c r="B245" s="7"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -5514,7 +6808,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="23"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -5564,8 +6858,8 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="20"/>
-      <c r="C251" s="4"/>
+      <c r="B251" s="23"/>
+      <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
@@ -5574,7 +6868,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="23"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="4"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -5584,7 +6878,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="24"/>
+      <c r="B253" s="23"/>
       <c r="C253" s="4"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -5612,9 +6906,9 @@
       <c r="G255" s="30"/>
       <c r="H255" s="7"/>
     </row>
-    <row r="256" spans="1:8" ht="11.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="25"/>
+      <c r="B256" s="24"/>
       <c r="C256" s="4"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -5622,9 +6916,9 @@
       <c r="G256" s="30"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" ht="11.25">
       <c r="A257" s="7"/>
-      <c r="B257" s="23"/>
+      <c r="B257" s="25"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -5664,7 +6958,7 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="7"/>
-      <c r="B261" s="24"/>
+      <c r="B261" s="23"/>
       <c r="C261" s="4"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -5694,7 +6988,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="23"/>
+      <c r="B264" s="24"/>
       <c r="C264" s="4"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -5704,7 +6998,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="24"/>
+      <c r="B265" s="23"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -5712,15 +7006,15 @@
       <c r="G265" s="30"/>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="1:8" s="2" customFormat="1">
-      <c r="A266" s="4"/>
+    <row r="266" spans="1:8">
+      <c r="A266" s="7"/>
       <c r="B266" s="24"/>
       <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="4"/>
-      <c r="F266" s="4"/>
-      <c r="G266" s="34"/>
-      <c r="H266" s="4"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="7"/>
+      <c r="F266" s="7"/>
+      <c r="G266" s="30"/>
+      <c r="H266" s="7"/>
     </row>
     <row r="267" spans="1:8" s="2" customFormat="1">
       <c r="A267" s="4"/>
@@ -5732,19 +7026,19 @@
       <c r="G267" s="34"/>
       <c r="H267" s="4"/>
     </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="7"/>
+    <row r="268" spans="1:8" s="2" customFormat="1">
+      <c r="A268" s="4"/>
       <c r="B268" s="24"/>
       <c r="C268" s="4"/>
-      <c r="D268" s="7"/>
-      <c r="E268" s="7"/>
-      <c r="F268" s="7"/>
-      <c r="G268" s="30"/>
-      <c r="H268" s="7"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4"/>
+      <c r="F268" s="4"/>
+      <c r="G268" s="34"/>
+      <c r="H268" s="4"/>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="7"/>
-      <c r="B269" s="23"/>
+      <c r="B269" s="24"/>
       <c r="C269" s="4"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -5754,7 +7048,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="24"/>
+      <c r="B270" s="23"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -5784,7 +7078,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="22"/>
+      <c r="B273" s="24"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -5794,7 +7088,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="7"/>
+      <c r="B274" s="22"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -5814,7 +7108,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="20"/>
+      <c r="B276" s="7"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -5834,7 +7128,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="7"/>
+      <c r="B278" s="20"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -5865,7 +7159,7 @@
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
-      <c r="C281" s="7"/>
+      <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
@@ -5874,7 +7168,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="6"/>
+      <c r="B282" s="7"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -5884,7 +7178,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
+      <c r="B283" s="6"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -5964,7 +7258,7 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="7"/>
-      <c r="B291" s="6"/>
+      <c r="B291" s="7"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
@@ -5974,8 +7268,8 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
+      <c r="B292" s="6"/>
+      <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
       <c r="F292" s="7"/>
@@ -5984,7 +7278,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="19"/>
+      <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -6014,7 +7308,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="4"/>
+      <c r="B296" s="19"/>
       <c r="C296" s="4"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -6074,7 +7368,7 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="7"/>
-      <c r="B302" s="19"/>
+      <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
@@ -6094,7 +7388,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="7"/>
-      <c r="B304" s="21"/>
+      <c r="B304" s="19"/>
       <c r="C304" s="4"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -6104,8 +7398,8 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="7"/>
-      <c r="C305" s="7"/>
+      <c r="B305" s="21"/>
+      <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
@@ -6114,7 +7408,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="6"/>
+      <c r="B306" s="7"/>
       <c r="C306" s="7"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -6122,15 +7416,15 @@
       <c r="G306" s="30"/>
       <c r="H306" s="7"/>
     </row>
-    <row r="307" spans="1:8" s="2" customFormat="1">
-      <c r="A307" s="4"/>
-      <c r="B307" s="4"/>
-      <c r="C307" s="9"/>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
-      <c r="F307" s="4"/>
-      <c r="G307" s="34"/>
-      <c r="H307" s="4"/>
+    <row r="307" spans="1:8">
+      <c r="A307" s="7"/>
+      <c r="B307" s="6"/>
+      <c r="C307" s="7"/>
+      <c r="D307" s="7"/>
+      <c r="E307" s="7"/>
+      <c r="F307" s="7"/>
+      <c r="G307" s="30"/>
+      <c r="H307" s="7"/>
     </row>
     <row r="308" spans="1:8" s="2" customFormat="1">
       <c r="A308" s="4"/>
@@ -6154,7 +7448,7 @@
     </row>
     <row r="310" spans="1:8" s="2" customFormat="1">
       <c r="A310" s="4"/>
-      <c r="B310" s="19"/>
+      <c r="B310" s="4"/>
       <c r="C310" s="9"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -6204,8 +7498,8 @@
     </row>
     <row r="315" spans="1:8" s="2" customFormat="1">
       <c r="A315" s="4"/>
-      <c r="B315" s="26"/>
-      <c r="C315" s="4"/>
+      <c r="B315" s="19"/>
+      <c r="C315" s="9"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
@@ -6254,7 +7548,7 @@
     </row>
     <row r="320" spans="1:8" s="2" customFormat="1">
       <c r="A320" s="4"/>
-      <c r="B320" s="21"/>
+      <c r="B320" s="26"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -6304,7 +7598,7 @@
     </row>
     <row r="325" spans="1:8" s="2" customFormat="1">
       <c r="A325" s="4"/>
-      <c r="B325" s="19"/>
+      <c r="B325" s="21"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -6314,7 +7608,7 @@
     </row>
     <row r="326" spans="1:8" s="2" customFormat="1">
       <c r="A326" s="4"/>
-      <c r="B326" s="21"/>
+      <c r="B326" s="19"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -6324,7 +7618,7 @@
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="4"/>
+      <c r="B327" s="21"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -6332,20 +7626,20 @@
       <c r="G327" s="34"/>
       <c r="H327" s="4"/>
     </row>
-    <row r="328" spans="1:8">
-      <c r="A328" s="7"/>
-      <c r="B328" s="6"/>
-      <c r="C328" s="7"/>
-      <c r="D328" s="7"/>
-      <c r="E328" s="7"/>
-      <c r="F328" s="7"/>
-      <c r="G328" s="30"/>
-      <c r="H328" s="7"/>
+    <row r="328" spans="1:8" s="2" customFormat="1">
+      <c r="A328" s="4"/>
+      <c r="B328" s="4"/>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4"/>
+      <c r="G328" s="34"/>
+      <c r="H328" s="4"/>
     </row>
     <row r="329" spans="1:8">
       <c r="A329" s="7"/>
-      <c r="B329" s="7"/>
-      <c r="C329" s="4"/>
+      <c r="B329" s="6"/>
+      <c r="C329" s="7"/>
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
@@ -6414,7 +7708,7 @@
     </row>
     <row r="336" spans="1:8">
       <c r="A336" s="7"/>
-      <c r="B336" s="4"/>
+      <c r="B336" s="7"/>
       <c r="C336" s="4"/>
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
@@ -6425,7 +7719,7 @@
     <row r="337" spans="1:8">
       <c r="A337" s="7"/>
       <c r="B337" s="4"/>
-      <c r="C337" s="7"/>
+      <c r="C337" s="4"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
@@ -6434,7 +7728,7 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="7"/>
-      <c r="B338" s="6"/>
+      <c r="B338" s="4"/>
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
@@ -6444,7 +7738,7 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
-      <c r="B339" s="7"/>
+      <c r="B339" s="6"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
@@ -6454,7 +7748,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="22"/>
+      <c r="B340" s="7"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -6464,7 +7758,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="7"/>
+      <c r="B341" s="22"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -6504,7 +7798,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
-      <c r="B345" s="6"/>
+      <c r="B345" s="7"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -6514,7 +7808,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="7"/>
+      <c r="B346" s="6"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -6524,7 +7818,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="20"/>
+      <c r="B347" s="7"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -6554,7 +7848,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="22"/>
+      <c r="B350" s="20"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -6564,7 +7858,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="20"/>
+      <c r="B351" s="22"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -6584,7 +7878,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="22"/>
+      <c r="B353" s="20"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -6594,7 +7888,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="20"/>
+      <c r="B354" s="22"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -6604,7 +7898,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="22"/>
+      <c r="B355" s="20"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -6614,7 +7908,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="20"/>
+      <c r="B356" s="22"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -6644,7 +7938,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="7"/>
+      <c r="B359" s="20"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -6654,7 +7948,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="27"/>
+      <c r="B360" s="7"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -6664,7 +7958,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="22"/>
+      <c r="B361" s="27"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -6674,8 +7968,8 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="7"/>
-      <c r="C362" s="4"/>
+      <c r="B362" s="22"/>
+      <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
@@ -6684,7 +7978,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="20"/>
+      <c r="B363" s="7"/>
       <c r="C363" s="4"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -6714,7 +8008,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="7"/>
+      <c r="B366" s="20"/>
       <c r="C366" s="4"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -6744,7 +8038,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="20"/>
+      <c r="B369" s="7"/>
       <c r="C369" s="4"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -6764,8 +8058,8 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="7"/>
-      <c r="C371" s="7"/>
+      <c r="B371" s="20"/>
+      <c r="C371" s="4"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
@@ -6774,7 +8068,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="6"/>
+      <c r="B372" s="7"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -6784,7 +8078,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="7"/>
+      <c r="B373" s="6"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -6844,7 +8138,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="6"/>
+      <c r="B379" s="7"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -6854,7 +8148,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
+      <c r="B380" s="6"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -6875,7 +8169,7 @@
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
       <c r="B382" s="7"/>
-      <c r="C382" s="4"/>
+      <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
@@ -6884,7 +8178,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="20"/>
+      <c r="B383" s="7"/>
       <c r="C383" s="4"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -6895,7 +8189,7 @@
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
       <c r="B384" s="20"/>
-      <c r="C384" s="7"/>
+      <c r="C384" s="4"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
@@ -6904,7 +8198,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="27"/>
+      <c r="B385" s="20"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -6914,7 +8208,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="22"/>
+      <c r="B386" s="27"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -6964,7 +8258,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="7"/>
+      <c r="B391" s="22"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -6974,7 +8268,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="6"/>
+      <c r="B392" s="7"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -6984,7 +8278,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="7"/>
+      <c r="B393" s="6"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -6994,7 +8288,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="20"/>
+      <c r="B394" s="7"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -7004,7 +8298,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="22"/>
+      <c r="B395" s="20"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -7024,7 +8318,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="20"/>
+      <c r="B397" s="22"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -7064,7 +8358,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="7"/>
+      <c r="B401" s="20"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -7074,7 +8368,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="20"/>
+      <c r="B402" s="7"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -7094,7 +8388,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="22"/>
+      <c r="B404" s="20"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -7104,7 +8398,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="7"/>
+      <c r="B405" s="22"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -7114,7 +8408,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="6"/>
+      <c r="B406" s="7"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -7124,7 +8418,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="7"/>
+      <c r="B407" s="6"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -7144,7 +8438,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="6"/>
+      <c r="B409" s="7"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -7154,7 +8448,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="6"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -7164,7 +8458,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="20"/>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -7184,7 +8478,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="20"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -7194,7 +8488,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="6"/>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -7204,7 +8498,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="6"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -7254,7 +8548,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="6"/>
+      <c r="B420" s="7"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -7264,7 +8558,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
+      <c r="B421" s="6"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -7324,7 +8618,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="7"/>
-      <c r="B427" s="6"/>
+      <c r="B427" s="7"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -7334,7 +8628,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="7"/>
+      <c r="B428" s="6"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -7354,7 +8648,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="6"/>
+      <c r="B430" s="7"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -7364,7 +8658,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="4"/>
+      <c r="B431" s="6"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -7384,7 +8678,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
+      <c r="B433" s="4"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -7414,7 +8708,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="6"/>
+      <c r="B436" s="7"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -7424,8 +8718,8 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="7"/>
-      <c r="C437" s="4"/>
+      <c r="B437" s="6"/>
+      <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
       <c r="F437" s="7"/>
@@ -7475,7 +8769,7 @@
     <row r="442" spans="1:8">
       <c r="A442" s="7"/>
       <c r="B442" s="7"/>
-      <c r="C442" s="7"/>
+      <c r="C442" s="4"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
       <c r="F442" s="7"/>
@@ -7484,7 +8778,7 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
-      <c r="B443" s="6"/>
+      <c r="B443" s="7"/>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -7494,8 +8788,8 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="7"/>
-      <c r="C444" s="4"/>
+      <c r="B444" s="6"/>
+      <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
       <c r="F444" s="7"/>
@@ -7535,7 +8829,7 @@
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
-      <c r="C448" s="7"/>
+      <c r="C448" s="4"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
       <c r="F448" s="7"/>
@@ -7544,7 +8838,7 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
-      <c r="B449" s="6"/>
+      <c r="B449" s="7"/>
       <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
@@ -7554,7 +8848,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="22"/>
+      <c r="B450" s="6"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -7614,7 +8908,7 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
-      <c r="B456" s="7"/>
+      <c r="B456" s="22"/>
       <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
@@ -7624,7 +8918,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="6"/>
+      <c r="B457" s="7"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -7634,7 +8928,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="22"/>
+      <c r="B458" s="6"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -7663,8 +8957,8 @@
       <c r="H460" s="7"/>
     </row>
     <row r="461" spans="1:8">
-      <c r="A461" s="6"/>
-      <c r="B461" s="7"/>
+      <c r="A461" s="7"/>
+      <c r="B461" s="22"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -7673,7 +8967,7 @@
       <c r="H461" s="7"/>
     </row>
     <row r="462" spans="1:8">
-      <c r="A462" s="7"/>
+      <c r="A462" s="6"/>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
@@ -7714,7 +9008,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="7"/>
-      <c r="B466" s="28"/>
+      <c r="B466" s="7"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -7744,7 +9038,7 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="7"/>
-      <c r="B469" s="7"/>
+      <c r="B469" s="28"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -7754,7 +9048,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="28"/>
+      <c r="B470" s="7"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -7764,7 +9058,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="7"/>
+      <c r="B471" s="28"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -7774,21 +9068,21 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="29"/>
-      <c r="C472" s="30"/>
+      <c r="B472" s="7"/>
+      <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
-      <c r="F472" s="29"/>
+      <c r="F472" s="7"/>
       <c r="G472" s="30"/>
       <c r="H472" s="7"/>
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="7"/>
-      <c r="C473" s="7"/>
+      <c r="B473" s="29"/>
+      <c r="C473" s="30"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
-      <c r="F473" s="7"/>
+      <c r="F473" s="29"/>
       <c r="G473" s="30"/>
       <c r="H473" s="7"/>
     </row>
@@ -11692,6 +12986,16 @@
       <c r="G863" s="30"/>
       <c r="H863" s="7"/>
     </row>
+    <row r="864" spans="1:8">
+      <c r="A864" s="7"/>
+      <c r="B864" s="7"/>
+      <c r="C864" s="7"/>
+      <c r="D864" s="7"/>
+      <c r="E864" s="7"/>
+      <c r="F864" s="7"/>
+      <c r="G864" s="30"/>
+      <c r="H864" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="152">
   <si>
     <t>Feature</t>
   </si>
@@ -459,6 +459,21 @@
   </si>
   <si>
     <t>custom component with highlight markers?</t>
+  </si>
+  <si>
+    <t>replaces selection</t>
+  </si>
+  <si>
+    <t>editable</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>Editing</t>
   </si>
 </sst>
 </file>
@@ -672,7 +687,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -856,7 +913,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,7 +1346,7 @@
                   <c:v>0.38775510204081631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16153846153846155</c:v>
+                  <c:v>0.15909090909090909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,7 +1542,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2150,10 +2207,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D317"/>
+  <dimension ref="A1:D343"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2326,7 +2383,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="22" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -2335,7 +2392,7 @@
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
       <c r="B27" s="22" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>14</v>
@@ -2344,7 +2401,7 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>14</v>
@@ -2352,22 +2409,22 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
-      <c r="B29" s="22"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
-      <c r="B30" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>14</v>
@@ -2376,7 +2433,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>14</v>
@@ -2385,7 +2442,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>14</v>
@@ -2394,7 +2451,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>14</v>
@@ -2402,8 +2459,12 @@
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
-      <c r="B35" s="22"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
@@ -2417,47 +2478,43 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B38" s="22"/>
       <c r="C38" s="7"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="22"/>
+      <c r="B39" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C39" s="7"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
       <c r="B41" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
       <c r="B42" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="2:4" s="6" customFormat="1">
+      <c r="B43" s="22" t="s">
         <v>41</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>2</v>
@@ -2466,25 +2523,25 @@
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="2:4" s="6" customFormat="1">
+      <c r="B45" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="22" t="s">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="2:4" s="6" customFormat="1">
+      <c r="B46" s="22" t="s">
         <v>42</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="20" t="s">
-        <v>43</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>14</v>
@@ -2492,8 +2549,8 @@
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="22" t="s">
-        <v>112</v>
+      <c r="B47" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>14</v>
@@ -2502,7 +2559,7 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>14</v>
@@ -2511,7 +2568,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>14</v>
@@ -2519,8 +2576,12 @@
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
-      <c r="B50" s="22"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
@@ -2529,17 +2590,13 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="22"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="2:4" s="6" customFormat="1">
+      <c r="B53" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="20" t="s">
-        <v>34</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>14</v>
@@ -2548,7 +2605,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>14</v>
@@ -2557,7 +2614,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -2565,8 +2622,12 @@
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="22"/>
-      <c r="C56" s="7"/>
+      <c r="B56" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
@@ -2605,36 +2666,32 @@
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B64" s="22"/>
       <c r="C64" s="7"/>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="22"/>
+      <c r="B65" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C65" s="7"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="22" t="s">
-        <v>126</v>
-      </c>
+      <c r="B66" s="22"/>
       <c r="C66" s="7"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B67" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="7"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
@@ -2643,7 +2700,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -2652,7 +2709,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -2660,8 +2717,12 @@
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="22"/>
-      <c r="C71" s="7"/>
+      <c r="B71" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
@@ -2690,17 +2751,13 @@
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="22"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="2:4" s="6" customFormat="1">
+      <c r="B78" s="22" t="s">
         <v>55</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="20" t="s">
-        <v>54</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>2</v>
@@ -2709,20 +2766,24 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="2:4" s="6" customFormat="1">
+      <c r="B80" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="22"/>
-      <c r="C80" s="7"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="20"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="7"/>
       <c r="D81" s="4"/>
     </row>
@@ -2732,17 +2793,13 @@
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="20"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="2:4" s="6" customFormat="1">
+      <c r="B84" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -2750,17 +2807,21 @@
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="22"/>
-      <c r="C85" s="7"/>
+      <c r="B85" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="20"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="7"/>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="22"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="7"/>
       <c r="D87" s="4"/>
     </row>
@@ -2770,26 +2831,26 @@
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="22"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="2:4" s="6" customFormat="1">
+      <c r="B90" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="20" t="s">
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="2:4" s="6" customFormat="1">
+      <c r="B91" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="22"/>
-      <c r="C91" s="7"/>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
@@ -2808,26 +2869,26 @@
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="22"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="2:4" s="6" customFormat="1">
+      <c r="B96" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="20" t="s">
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="2:4" s="6" customFormat="1">
+      <c r="B97" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C97" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="22"/>
-      <c r="C97" s="7"/>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
@@ -2846,17 +2907,13 @@
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="22"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="2:4" s="6" customFormat="1">
+      <c r="B102" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>14</v>
@@ -2865,7 +2922,7 @@
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
       <c r="B103" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>14</v>
@@ -2873,8 +2930,12 @@
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="22"/>
-      <c r="C104" s="7"/>
+      <c r="B104" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
@@ -2888,17 +2949,13 @@
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="22"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="2:4" s="6" customFormat="1">
+      <c r="B108" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="20" t="s">
-        <v>73</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>2</v>
@@ -2906,8 +2963,12 @@
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="22"/>
-      <c r="C109" s="7"/>
+      <c r="B109" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
@@ -2921,17 +2982,13 @@
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="22" t="s">
+      <c r="B112" s="22"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="2:4" s="6" customFormat="1">
+      <c r="B113" s="22" t="s">
         <v>75</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="20" t="s">
-        <v>76</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>14</v>
@@ -2939,8 +2996,12 @@
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="22"/>
-      <c r="C114" s="7"/>
+      <c r="B114" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
@@ -2954,17 +3015,13 @@
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="22" t="s">
+      <c r="B117" s="22"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="2:4" s="6" customFormat="1">
+      <c r="B118" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>14</v>
@@ -2972,8 +3029,12 @@
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="22"/>
-      <c r="C119" s="7"/>
+      <c r="B119" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
@@ -2987,17 +3048,13 @@
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="22" t="s">
+      <c r="B122" s="22"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="2:4" s="6" customFormat="1">
+      <c r="B123" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="20" t="s">
-        <v>76</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>14</v>
@@ -3005,8 +3062,12 @@
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="22"/>
-      <c r="C124" s="7"/>
+      <c r="B124" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
@@ -3020,17 +3081,13 @@
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="22"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="2:4" s="6" customFormat="1">
+      <c r="B128" s="22" t="s">
         <v>79</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="20" t="s">
-        <v>81</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>14</v>
@@ -3039,7 +3096,7 @@
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
       <c r="B129" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>14</v>
@@ -3047,8 +3104,12 @@
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="22"/>
-      <c r="C130" s="7"/>
+      <c r="B130" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
@@ -3062,17 +3123,13 @@
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="22" t="s">
+      <c r="B133" s="22"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="2:4" s="6" customFormat="1">
+      <c r="B134" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="20" t="s">
-        <v>76</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>14</v>
@@ -3080,8 +3137,12 @@
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="20"/>
-      <c r="C135" s="7"/>
+      <c r="B135" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
@@ -3090,17 +3151,17 @@
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="22" t="s">
+      <c r="B137" s="20"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="2:4" s="6" customFormat="1">
+      <c r="B138" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C138" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="22"/>
-      <c r="C138" s="7"/>
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
@@ -3109,17 +3170,13 @@
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="22" t="s">
+      <c r="B140" s="22"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="2:4" s="6" customFormat="1">
+      <c r="B141" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="20" t="s">
-        <v>132</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>14</v>
@@ -3127,8 +3184,12 @@
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="22"/>
-      <c r="C142" s="7"/>
+      <c r="B142" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
@@ -3137,17 +3198,13 @@
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="22" t="s">
+      <c r="B144" s="22"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="2:4" s="6" customFormat="1">
+      <c r="B145" s="22" t="s">
         <v>133</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="20" t="s">
-        <v>134</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>14</v>
@@ -3156,7 +3213,7 @@
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
       <c r="B146" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>14</v>
@@ -3164,8 +3221,12 @@
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="22"/>
-      <c r="C147" s="7"/>
+      <c r="B147" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
@@ -3174,17 +3235,13 @@
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="22" t="s">
+      <c r="B149" s="22"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="2:4" s="6" customFormat="1">
+      <c r="B150" s="22" t="s">
         <v>138</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" s="4"/>
-    </row>
-    <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="20" t="s">
-        <v>54</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>14</v>
@@ -3193,7 +3250,7 @@
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
       <c r="B151" s="20" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>14</v>
@@ -3201,8 +3258,12 @@
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="22"/>
-      <c r="C152" s="7"/>
+      <c r="B152" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
@@ -3211,17 +3272,13 @@
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="22" t="s">
+      <c r="B154" s="22"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="2:4" s="6" customFormat="1">
+      <c r="B155" s="22" t="s">
         <v>140</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="20" t="s">
-        <v>54</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>14</v>
@@ -3230,7 +3287,7 @@
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="20" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>14</v>
@@ -3238,22 +3295,22 @@
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="22"/>
-      <c r="C157" s="7"/>
+      <c r="B157" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="22" t="s">
+      <c r="B158" s="22"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="2:4" s="6" customFormat="1">
+      <c r="B159" s="22" t="s">
         <v>141</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" s="4"/>
-    </row>
-    <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="20" t="s">
-        <v>142</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>14</v>
@@ -3262,7 +3319,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="20" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>14</v>
@@ -3270,8 +3327,12 @@
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="22"/>
-      <c r="C161" s="7"/>
+      <c r="B161" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
@@ -3310,22 +3371,22 @@
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="20"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="7"/>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="22" t="s">
+      <c r="B170" s="20"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="2:4" s="6" customFormat="1">
+      <c r="B171" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C171" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D170" s="4"/>
-    </row>
-    <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="20"/>
-      <c r="C171" s="7"/>
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
@@ -3339,17 +3400,13 @@
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="22" t="s">
+      <c r="B174" s="20"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="2:4" s="6" customFormat="1">
+      <c r="B175" s="22" t="s">
         <v>143</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D174" s="4"/>
-    </row>
-    <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="20" t="s">
-        <v>144</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>14</v>
@@ -3358,7 +3415,7 @@
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
       <c r="B176" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>14</v>
@@ -3366,8 +3423,12 @@
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="20"/>
-      <c r="C177" s="7"/>
+      <c r="B177" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
@@ -3421,22 +3482,18 @@
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="22"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="7"/>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="22" t="s">
+      <c r="B189" s="22"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="2:4" s="6" customFormat="1">
+      <c r="B190" s="22" t="s">
         <v>41</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="20" t="s">
-        <v>63</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>2</v>
@@ -3445,7 +3502,7 @@
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
       <c r="B191" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>2</v>
@@ -3454,7 +3511,7 @@
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
       <c r="B192" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>2</v>
@@ -3463,7 +3520,7 @@
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
       <c r="B193" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>2</v>
@@ -3472,30 +3529,30 @@
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
       <c r="B194" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="2:4" s="6" customFormat="1">
+      <c r="B195" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C195" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D194" s="4"/>
-    </row>
-    <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="20"/>
-      <c r="C195" s="9"/>
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="22" t="s">
+      <c r="B196" s="20"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="2:4" s="6" customFormat="1">
+      <c r="B197" s="22" t="s">
         <v>42</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D196" s="4"/>
-    </row>
-    <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="20" t="s">
-        <v>63</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>14</v>
@@ -3504,16 +3561,16 @@
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
       <c r="B198" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C198" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C198" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>14</v>
@@ -3522,7 +3579,7 @@
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>14</v>
@@ -3531,7 +3588,7 @@
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
       <c r="B201" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>14</v>
@@ -3539,65 +3596,75 @@
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="20"/>
-      <c r="C202" s="9"/>
+      <c r="B202" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="19"/>
-      <c r="C203" s="4"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="7"/>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="7"/>
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B205" s="4"/>
       <c r="C205" s="7"/>
       <c r="D205" s="4"/>
     </row>
+    <row r="206" spans="2:4" s="6" customFormat="1">
+      <c r="B206" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C206" s="7"/>
+      <c r="D206" s="4"/>
+    </row>
     <row r="207" spans="2:4">
-      <c r="B207" t="s">
-        <v>110</v>
-      </c>
-      <c r="C207" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C207" s="7"/>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="B208" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C208" s="7"/>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" t="s">
-        <v>88</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C209" s="7"/>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" t="s">
-        <v>102</v>
-      </c>
-      <c r="C210" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C210" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" t="s">
-        <v>103</v>
-      </c>
-      <c r="C211" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C211" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="212" spans="2:3">
-      <c r="C212" s="9"/>
+      <c r="B212" t="s">
+        <v>91</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C213" s="9" t="s">
         <v>14</v>
@@ -3605,7 +3672,7 @@
     </row>
     <row r="214" spans="2:3">
       <c r="B214" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C214" s="9" t="s">
         <v>14</v>
@@ -3613,7 +3680,7 @@
     </row>
     <row r="215" spans="2:3">
       <c r="B215" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C215" s="9" t="s">
         <v>14</v>
@@ -3621,15 +3688,15 @@
     </row>
     <row r="216" spans="2:3">
       <c r="B216" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C216" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" t="s">
-        <v>93</v>
+      <c r="B217" s="45" t="s">
+        <v>97</v>
       </c>
       <c r="C217" s="9" t="s">
         <v>14</v>
@@ -3637,127 +3704,120 @@
     </row>
     <row r="218" spans="2:3">
       <c r="B218" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="219" spans="2:3">
-      <c r="B219" t="s">
-        <v>95</v>
+      <c r="B219" s="45" t="s">
+        <v>98</v>
       </c>
       <c r="C219" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="45" t="s">
-        <v>97</v>
+      <c r="B220" t="s">
+        <v>100</v>
       </c>
       <c r="C220" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" t="s">
-        <v>96</v>
+      <c r="B221" s="45" t="s">
+        <v>101</v>
       </c>
       <c r="C221" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="45" t="s">
-        <v>98</v>
+      <c r="B222" s="46" t="s">
+        <v>111</v>
       </c>
       <c r="C222" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" t="s">
-        <v>100</v>
+      <c r="B223" s="46" t="s">
+        <v>125</v>
       </c>
       <c r="C223" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B224" s="45"/>
+      <c r="C224" s="9"/>
     </row>
     <row r="225" spans="2:3">
-      <c r="B225" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C225" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B225" s="45"/>
+      <c r="C225" s="9"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B226" s="45"/>
+      <c r="C226" s="9"/>
     </row>
     <row r="227" spans="2:3">
-      <c r="B227" s="45"/>
       <c r="C227" s="9"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="45"/>
       <c r="C228" s="9"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="45"/>
       <c r="C229" s="9"/>
     </row>
     <row r="230" spans="2:3">
       <c r="C230" s="9"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C231" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B231" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C231" s="9"/>
     </row>
     <row r="232" spans="2:3">
       <c r="C232" s="9"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C233" s="9" t="s">
+      <c r="B233" t="s">
+        <v>119</v>
+      </c>
+      <c r="C233" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="234" spans="2:3">
       <c r="B234" t="s">
-        <v>108</v>
-      </c>
-      <c r="C234" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C234" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="235" spans="2:3">
-      <c r="C235" s="9"/>
+      <c r="B235" t="s">
+        <v>121</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="236" spans="2:3">
-      <c r="C236" s="9"/>
+      <c r="B236" t="s">
+        <v>122</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="237" spans="2:3">
       <c r="B237" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>14</v>
@@ -3765,327 +3825,241 @@
     </row>
     <row r="238" spans="2:3">
       <c r="B238" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" t="s">
-        <v>121</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C239" s="9"/>
     </row>
     <row r="240" spans="2:3">
-      <c r="B240" t="s">
-        <v>122</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C240" s="9"/>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" t="s">
-        <v>123</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C241" s="9"/>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" t="s">
-        <v>124</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C242" s="9"/>
     </row>
     <row r="243" spans="2:3">
+      <c r="B243" s="43" t="s">
+        <v>151</v>
+      </c>
       <c r="C243" s="9"/>
     </row>
     <row r="244" spans="2:3">
       <c r="C244" s="9"/>
     </row>
     <row r="245" spans="2:3">
-      <c r="C245" s="9"/>
+      <c r="B245" t="s">
+        <v>147</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="246" spans="2:3">
-      <c r="C246" s="9"/>
-    </row>
-    <row r="247" spans="2:3">
-      <c r="C247" s="9"/>
+      <c r="B246" t="s">
+        <v>110</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="248" spans="2:3">
-      <c r="C248" s="9"/>
+      <c r="B248" t="s">
+        <v>88</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="249" spans="2:3">
-      <c r="C249" s="9"/>
+      <c r="B249" t="s">
+        <v>102</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="250" spans="2:3">
-      <c r="C250" s="9"/>
+      <c r="B250" t="s">
+        <v>103</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="251" spans="2:3">
       <c r="C251" s="9"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="C252" s="9"/>
+      <c r="B252" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="253" spans="2:3">
       <c r="C253" s="9"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="C254" s="9"/>
+      <c r="B254" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="3" t="s">
+      <c r="B255" t="s">
+        <v>108</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="C256" s="9"/>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257" s="9"/>
+    </row>
+    <row r="258" spans="3:3">
+      <c r="C258" s="9"/>
+    </row>
+    <row r="259" spans="3:3">
+      <c r="C259" s="9"/>
+    </row>
+    <row r="260" spans="3:3">
+      <c r="C260" s="9"/>
+    </row>
+    <row r="261" spans="3:3">
+      <c r="C261" s="9"/>
+    </row>
+    <row r="262" spans="3:3">
+      <c r="C262" s="9"/>
+    </row>
+    <row r="263" spans="3:3">
+      <c r="C263" s="9"/>
+    </row>
+    <row r="264" spans="3:3">
+      <c r="C264" s="9"/>
+    </row>
+    <row r="265" spans="3:3">
+      <c r="C265" s="9"/>
+    </row>
+    <row r="266" spans="3:3">
+      <c r="C266" s="9"/>
+    </row>
+    <row r="267" spans="3:3">
+      <c r="C267" s="9"/>
+    </row>
+    <row r="268" spans="3:3">
+      <c r="C268" s="9"/>
+    </row>
+    <row r="269" spans="3:3">
+      <c r="C269" s="9"/>
+    </row>
+    <row r="270" spans="3:3">
+      <c r="C270" s="9"/>
+    </row>
+    <row r="271" spans="3:3">
+      <c r="C271" s="9"/>
+    </row>
+    <row r="272" spans="3:3">
+      <c r="C272" s="9"/>
+    </row>
+    <row r="273" spans="2:3">
+      <c r="C273" s="9"/>
+    </row>
+    <row r="274" spans="2:3">
+      <c r="C274" s="9"/>
+    </row>
+    <row r="275" spans="2:3">
+      <c r="C275" s="9"/>
+    </row>
+    <row r="276" spans="2:3">
+      <c r="C276" s="9"/>
+    </row>
+    <row r="277" spans="2:3">
+      <c r="C277" s="9"/>
+    </row>
+    <row r="278" spans="2:3">
+      <c r="C278" s="9"/>
+    </row>
+    <row r="279" spans="2:3">
+      <c r="C279" s="9"/>
+    </row>
+    <row r="280" spans="2:3">
+      <c r="C280" s="9"/>
+    </row>
+    <row r="281" spans="2:3">
+      <c r="B281" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C255" s="9"/>
-    </row>
-    <row r="256" spans="2:3">
-      <c r="B256" t="s">
+      <c r="C281" s="9"/>
+    </row>
+    <row r="282" spans="2:3">
+      <c r="B282" t="s">
         <v>51</v>
       </c>
-      <c r="C256" s="9"/>
-    </row>
-    <row r="257" spans="2:4">
-      <c r="B257" t="s">
+      <c r="C282" s="9"/>
+    </row>
+    <row r="283" spans="2:3">
+      <c r="B283" t="s">
         <v>52</v>
       </c>
-      <c r="C257" s="9"/>
-    </row>
-    <row r="258" spans="2:4">
-      <c r="B258" t="s">
+      <c r="C283" s="9"/>
+    </row>
+    <row r="284" spans="2:3">
+      <c r="B284" t="s">
         <v>53</v>
       </c>
-      <c r="C258" s="9"/>
-    </row>
-    <row r="259" spans="2:4">
-      <c r="C259" s="9"/>
-    </row>
-    <row r="260" spans="2:4">
-      <c r="B260" t="s">
+      <c r="C284" s="9"/>
+    </row>
+    <row r="285" spans="2:3">
+      <c r="C285" s="9"/>
+    </row>
+    <row r="286" spans="2:3">
+      <c r="B286" t="s">
         <v>105</v>
       </c>
-      <c r="C260" s="9"/>
-    </row>
-    <row r="261" spans="2:4">
-      <c r="B261" t="s">
+      <c r="C286" s="9"/>
+    </row>
+    <row r="287" spans="2:3">
+      <c r="B287" t="s">
         <v>106</v>
       </c>
-      <c r="C261" s="9"/>
-    </row>
-    <row r="262" spans="2:4">
-      <c r="C262" s="9"/>
-    </row>
-    <row r="263" spans="2:4">
-      <c r="C263" s="9"/>
-    </row>
-    <row r="264" spans="2:4">
-      <c r="C264" s="9"/>
-    </row>
-    <row r="266" spans="2:4" s="6" customFormat="1">
-      <c r="B266" s="3" t="s">
+      <c r="C287" s="9"/>
+    </row>
+    <row r="288" spans="2:3">
+      <c r="C288" s="9"/>
+    </row>
+    <row r="289" spans="2:4">
+      <c r="C289" s="9"/>
+    </row>
+    <row r="290" spans="2:4">
+      <c r="C290" s="9"/>
+    </row>
+    <row r="292" spans="2:4" s="6" customFormat="1">
+      <c r="B292" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C266" s="7"/>
-      <c r="D266" s="4"/>
-    </row>
-    <row r="267" spans="2:4" s="6" customFormat="1">
-      <c r="B267" s="22"/>
-      <c r="C267" s="7"/>
-      <c r="D267" s="4"/>
-    </row>
-    <row r="268" spans="2:4" s="6" customFormat="1">
-      <c r="B268" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D268" s="4"/>
-    </row>
-    <row r="269" spans="2:4" s="6" customFormat="1">
-      <c r="B269" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D269" s="4"/>
-    </row>
-    <row r="270" spans="2:4" s="6" customFormat="1">
-      <c r="B270" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D270" s="4"/>
-    </row>
-    <row r="271" spans="2:4" s="6" customFormat="1">
-      <c r="B271" s="22"/>
-      <c r="C271" s="7"/>
-      <c r="D271" s="4"/>
-    </row>
-    <row r="272" spans="2:4" s="6" customFormat="1">
-      <c r="B272" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D272" s="4"/>
-    </row>
-    <row r="273" spans="2:4" s="6" customFormat="1">
-      <c r="B273" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D273" s="4"/>
-    </row>
-    <row r="274" spans="2:4" s="6" customFormat="1">
-      <c r="B274" s="22"/>
-      <c r="C274" s="7"/>
-      <c r="D274" s="4"/>
-    </row>
-    <row r="275" spans="2:4" s="6" customFormat="1">
-      <c r="B275" s="22"/>
-      <c r="C275" s="7"/>
-      <c r="D275" s="4"/>
-    </row>
-    <row r="276" spans="2:4" s="6" customFormat="1">
-      <c r="B276" s="22"/>
-      <c r="C276" s="7"/>
-      <c r="D276" s="4"/>
-    </row>
-    <row r="277" spans="2:4" s="6" customFormat="1">
-      <c r="B277" s="22"/>
-      <c r="C277" s="7"/>
-      <c r="D277" s="4"/>
-    </row>
-    <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" s="22"/>
-      <c r="C278" s="7"/>
-      <c r="D278" s="4"/>
-    </row>
-    <row r="279" spans="2:4" s="6" customFormat="1">
-      <c r="B279" s="22"/>
-      <c r="C279" s="7"/>
-      <c r="D279" s="4"/>
-    </row>
-    <row r="280" spans="2:4" s="6" customFormat="1">
-      <c r="B280" s="22"/>
-      <c r="C280" s="7"/>
-      <c r="D280" s="4"/>
-    </row>
-    <row r="281" spans="2:4" s="6" customFormat="1">
-      <c r="B281" s="22"/>
-      <c r="C281" s="7"/>
-      <c r="D281" s="4"/>
-    </row>
-    <row r="282" spans="2:4" s="6" customFormat="1">
-      <c r="B282" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C282" s="7"/>
-      <c r="D282" s="4"/>
-    </row>
-    <row r="283" spans="2:4" s="6" customFormat="1">
-      <c r="B283" s="22"/>
-      <c r="C283" s="7"/>
-      <c r="D283" s="4"/>
-    </row>
-    <row r="284" spans="2:4" s="6" customFormat="1">
-      <c r="B284" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C284" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D284" s="4"/>
-    </row>
-    <row r="285" spans="2:4" s="6" customFormat="1">
-      <c r="B285" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C285" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D285" s="4"/>
-    </row>
-    <row r="286" spans="2:4" s="6" customFormat="1">
-      <c r="B286" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D286" s="4"/>
-    </row>
-    <row r="287" spans="2:4" s="6" customFormat="1">
-      <c r="B287" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C287" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D287" s="4"/>
-    </row>
-    <row r="288" spans="2:4" s="6" customFormat="1">
-      <c r="B288" s="22"/>
-      <c r="C288" s="7"/>
-      <c r="D288" s="4"/>
-    </row>
-    <row r="289" spans="2:4" s="6" customFormat="1">
-      <c r="B289" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C289" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D289" s="4"/>
-    </row>
-    <row r="290" spans="2:4" s="6" customFormat="1">
-      <c r="B290" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C290" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D290" s="4"/>
-    </row>
-    <row r="291" spans="2:4" s="6" customFormat="1">
-      <c r="B291" s="22"/>
-      <c r="C291" s="7"/>
-      <c r="D291" s="4"/>
-    </row>
-    <row r="292" spans="2:4" s="6" customFormat="1">
-      <c r="B292" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C292" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C292" s="7"/>
       <c r="D292" s="4"/>
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
-      <c r="B293" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C293" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B293" s="22"/>
+      <c r="C293" s="7"/>
       <c r="D293" s="4"/>
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
       <c r="B294" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>14</v>
@@ -4093,13 +4067,21 @@
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" s="22"/>
-      <c r="C295" s="7"/>
+      <c r="B295" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
-      <c r="B296" s="22"/>
-      <c r="C296" s="7"/>
+      <c r="B296" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D296" s="4"/>
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
@@ -4108,13 +4090,21 @@
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
-      <c r="B298" s="22"/>
-      <c r="C298" s="7"/>
+      <c r="B298" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
-      <c r="B299" s="22"/>
-      <c r="C299" s="7"/>
+      <c r="B299" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
@@ -4138,119 +4128,287 @@
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
-      <c r="B304" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B304" s="22"/>
       <c r="C304" s="7"/>
       <c r="D304" s="4"/>
     </row>
-    <row r="305" spans="1:4" s="6" customFormat="1">
+    <row r="305" spans="2:4" s="6" customFormat="1">
       <c r="B305" s="22"/>
       <c r="C305" s="7"/>
       <c r="D305" s="4"/>
     </row>
-    <row r="306" spans="1:4" s="6" customFormat="1">
+    <row r="306" spans="2:4" s="6" customFormat="1">
       <c r="B306" s="22"/>
       <c r="C306" s="7"/>
       <c r="D306" s="4"/>
     </row>
-    <row r="307" spans="1:4" s="6" customFormat="1">
+    <row r="307" spans="2:4" s="6" customFormat="1">
       <c r="B307" s="22"/>
-      <c r="C307" s="4"/>
+      <c r="C307" s="7"/>
       <c r="D307" s="4"/>
     </row>
-    <row r="308" spans="1:4" s="6" customFormat="1">
-      <c r="B308" s="19"/>
-      <c r="C308" s="4"/>
+    <row r="308" spans="2:4" s="6" customFormat="1">
+      <c r="B308" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C308" s="7"/>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="1:4" s="6" customFormat="1">
-      <c r="B309" s="21"/>
-      <c r="C309" s="4"/>
+    <row r="309" spans="2:4" s="6" customFormat="1">
+      <c r="B309" s="22"/>
+      <c r="C309" s="7"/>
       <c r="D309" s="4"/>
     </row>
-    <row r="310" spans="1:4" s="6" customFormat="1">
-      <c r="B310" s="21"/>
-      <c r="C310" s="4"/>
+    <row r="310" spans="2:4" s="6" customFormat="1">
+      <c r="B310" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D310" s="4"/>
     </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="3"/>
-      <c r="B311" s="11"/>
-      <c r="C311" s="11"/>
-      <c r="D311" s="3"/>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="3"/>
-      <c r="B312" s="8" t="s">
+    <row r="311" spans="2:4" s="6" customFormat="1">
+      <c r="B311" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D311" s="4"/>
+    </row>
+    <row r="312" spans="2:4" s="6" customFormat="1">
+      <c r="B312" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D312" s="4"/>
+    </row>
+    <row r="313" spans="2:4" s="6" customFormat="1">
+      <c r="B313" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D313" s="4"/>
+    </row>
+    <row r="314" spans="2:4" s="6" customFormat="1">
+      <c r="B314" s="22"/>
+      <c r="C314" s="7"/>
+      <c r="D314" s="4"/>
+    </row>
+    <row r="315" spans="2:4" s="6" customFormat="1">
+      <c r="B315" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D315" s="4"/>
+    </row>
+    <row r="316" spans="2:4" s="6" customFormat="1">
+      <c r="B316" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D316" s="4"/>
+    </row>
+    <row r="317" spans="2:4" s="6" customFormat="1">
+      <c r="B317" s="22"/>
+      <c r="C317" s="7"/>
+      <c r="D317" s="4"/>
+    </row>
+    <row r="318" spans="2:4" s="6" customFormat="1">
+      <c r="B318" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D318" s="4"/>
+    </row>
+    <row r="319" spans="2:4" s="6" customFormat="1">
+      <c r="B319" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D319" s="4"/>
+    </row>
+    <row r="320" spans="2:4" s="6" customFormat="1">
+      <c r="B320" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D320" s="4"/>
+    </row>
+    <row r="321" spans="2:4" s="6" customFormat="1">
+      <c r="B321" s="22"/>
+      <c r="C321" s="7"/>
+      <c r="D321" s="4"/>
+    </row>
+    <row r="322" spans="2:4" s="6" customFormat="1">
+      <c r="B322" s="22"/>
+      <c r="C322" s="7"/>
+      <c r="D322" s="4"/>
+    </row>
+    <row r="323" spans="2:4" s="6" customFormat="1">
+      <c r="B323" s="22"/>
+      <c r="C323" s="7"/>
+      <c r="D323" s="4"/>
+    </row>
+    <row r="324" spans="2:4" s="6" customFormat="1">
+      <c r="B324" s="22"/>
+      <c r="C324" s="7"/>
+      <c r="D324" s="4"/>
+    </row>
+    <row r="325" spans="2:4" s="6" customFormat="1">
+      <c r="B325" s="22"/>
+      <c r="C325" s="7"/>
+      <c r="D325" s="4"/>
+    </row>
+    <row r="326" spans="2:4" s="6" customFormat="1">
+      <c r="B326" s="22"/>
+      <c r="C326" s="7"/>
+      <c r="D326" s="4"/>
+    </row>
+    <row r="327" spans="2:4" s="6" customFormat="1">
+      <c r="B327" s="22"/>
+      <c r="C327" s="7"/>
+      <c r="D327" s="4"/>
+    </row>
+    <row r="328" spans="2:4" s="6" customFormat="1">
+      <c r="B328" s="22"/>
+      <c r="C328" s="7"/>
+      <c r="D328" s="4"/>
+    </row>
+    <row r="329" spans="2:4" s="6" customFormat="1">
+      <c r="B329" s="22"/>
+      <c r="C329" s="7"/>
+      <c r="D329" s="4"/>
+    </row>
+    <row r="330" spans="2:4" s="6" customFormat="1">
+      <c r="B330" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C330" s="7"/>
+      <c r="D330" s="4"/>
+    </row>
+    <row r="331" spans="2:4" s="6" customFormat="1">
+      <c r="B331" s="22"/>
+      <c r="C331" s="7"/>
+      <c r="D331" s="4"/>
+    </row>
+    <row r="332" spans="2:4" s="6" customFormat="1">
+      <c r="B332" s="22"/>
+      <c r="C332" s="7"/>
+      <c r="D332" s="4"/>
+    </row>
+    <row r="333" spans="2:4" s="6" customFormat="1">
+      <c r="B333" s="22"/>
+      <c r="C333" s="4"/>
+      <c r="D333" s="4"/>
+    </row>
+    <row r="334" spans="2:4" s="6" customFormat="1">
+      <c r="B334" s="19"/>
+      <c r="C334" s="4"/>
+      <c r="D334" s="4"/>
+    </row>
+    <row r="335" spans="2:4" s="6" customFormat="1">
+      <c r="B335" s="21"/>
+      <c r="C335" s="4"/>
+      <c r="D335" s="4"/>
+    </row>
+    <row r="336" spans="2:4" s="6" customFormat="1">
+      <c r="B336" s="21"/>
+      <c r="C336" s="4"/>
+      <c r="D336" s="4"/>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="3"/>
+      <c r="B337" s="11"/>
+      <c r="C337" s="11"/>
+      <c r="D337" s="3"/>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="3"/>
+      <c r="B338" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C312" s="6">
-        <f>COUNTIF(C5:C311,"y")</f>
+      <c r="C338" s="6">
+        <f>COUNTIF(C5:C337,"y")</f>
         <v>21</v>
       </c>
-      <c r="D312" s="2"/>
-    </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="3"/>
-      <c r="B313" s="8" t="s">
+      <c r="D338" s="2"/>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="3"/>
+      <c r="B339" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C313" s="6">
-        <f>COUNTIF(C5:C311,"n")</f>
-        <v>107</v>
-      </c>
-      <c r="D313" s="2"/>
-    </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="3"/>
-      <c r="B314" s="8" t="s">
+      <c r="C339" s="6">
+        <f>COUNTIF(C5:C337,"n")</f>
+        <v>109</v>
+      </c>
+      <c r="D339" s="2"/>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="3"/>
+      <c r="B340" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C314" s="7">
-        <f>COUNTIF(C5:C311,"TBD")</f>
+      <c r="C340" s="7">
+        <f>COUNTIF(C5:C337,"TBD")</f>
         <v>2</v>
       </c>
-      <c r="D314" s="2"/>
-    </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="3"/>
-      <c r="B315" s="8" t="s">
+      <c r="D340" s="2"/>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="3"/>
+      <c r="B341" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C315">
-        <f>SUM(C312:C314)</f>
-        <v>130</v>
-      </c>
-      <c r="D315" s="2"/>
-    </row>
-    <row r="316" spans="1:4" ht="18">
-      <c r="A316" s="3"/>
-      <c r="B316" s="10"/>
-      <c r="C316" s="10" t="s">
+      <c r="C341">
+        <f>SUM(C338:C340)</f>
+        <v>132</v>
+      </c>
+      <c r="D341" s="2"/>
+    </row>
+    <row r="342" spans="1:4" ht="18">
+      <c r="A342" s="3"/>
+      <c r="B342" s="10"/>
+      <c r="C342" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D316" s="41">
-        <f>C312/(C313+C312 + C314)</f>
-        <v>0.16153846153846155</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="3"/>
-      <c r="B317" s="11"/>
-      <c r="C317" s="11"/>
-      <c r="D317" s="3"/>
+      <c r="D342" s="41">
+        <f>C338/(C339+C338 + C340)</f>
+        <v>0.15909090909090909</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="3"/>
+      <c r="B343" s="11"/>
+      <c r="C343" s="11"/>
+      <c r="D343" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C266:C65065 C207 C209:C264 C1:C3 C6:C205">
-    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C292:C65091 C248:C290 C1:C3 C6:C246">
+    <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4270,7 +4428,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O27" sqref="O27"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4562,7 +4720,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D50" s="4">
         <v>2</v>
@@ -4575,7 +4733,7 @@
       </c>
       <c r="G50" s="30">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
-        <v>0.16153846153846155</v>
+        <v>0.15909090909090909</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -4620,25 +4778,25 @@
       </c>
       <c r="G53" s="38">
         <f>MIN(G50)</f>
-        <v>0.16153846153846155</v>
+        <v>0.15909090909090909</v>
       </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="39">
         <f>SUM(B54:D54)</f>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B54" s="15">
-        <f>Features!C312</f>
+        <f>Features!C338</f>
         <v>21</v>
       </c>
       <c r="C54" s="16">
-        <f>Features!C313</f>
-        <v>107</v>
+        <f>Features!C339</f>
+        <v>109</v>
       </c>
       <c r="D54" s="17">
-        <f>Features!C314</f>
+        <f>Features!C340</f>
         <v>2</v>
       </c>
       <c r="E54" s="18">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="156">
   <si>
     <t>Feature</t>
   </si>
@@ -474,6 +474,18 @@
   </si>
   <si>
     <t>Editing</t>
+  </si>
+  <si>
+    <t>is modified</t>
+  </si>
+  <si>
+    <t>bottom area</t>
+  </si>
+  <si>
+    <t>pops up with multiple search results</t>
+  </si>
+  <si>
+    <t>tabbed?</t>
   </si>
 </sst>
 </file>
@@ -687,70 +699,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -789,8 +738,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954914"/>
-          <c:h val="0.89627228525120006"/>
+          <c:w val="0.91978071330954936"/>
+          <c:h val="0.89627228525119984"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -833,7 +782,7 @@
                   <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42707</c:v>
+                  <c:v>42708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,7 +844,7 @@
                   <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42707</c:v>
+                  <c:v>42708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -913,7 +862,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,7 +906,7 @@
                   <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42707</c:v>
+                  <c:v>42708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,7 +968,7 @@
                   <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42707</c:v>
+                  <c:v>42708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1049,11 +998,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="129692416"/>
-        <c:axId val="129693952"/>
+        <c:axId val="125497344"/>
+        <c:axId val="125498880"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="129692416"/>
+        <c:axId val="125497344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129693952"/>
+        <c:crossAx val="125498880"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1096,7 +1045,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="129693952"/>
+        <c:axId val="125498880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129692416"/>
+        <c:crossAx val="125497344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1228,7 +1177,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001155" r="0.75000000000001155" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001177" r="0.75000000000001177" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1282,7 +1231,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127269E-2"/>
+          <c:x val="4.451045024812731E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1328,7 +1277,7 @@
                   <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42707</c:v>
+                  <c:v>42708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,17 +1295,17 @@
                   <c:v>0.38775510204081631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15909090909090909</c:v>
+                  <c:v>0.15789473684210525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="129410560"/>
-        <c:axId val="129412096"/>
+        <c:axId val="125219584"/>
+        <c:axId val="125221120"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="129410560"/>
+        <c:axId val="125219584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,13 +1313,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-409]mmmm\ d\,\ yyyy;@" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="129412096"/>
+        <c:crossAx val="125221120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="129412096"/>
+        <c:axId val="125221120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1413,7 +1362,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129410560"/>
+        <c:crossAx val="125219584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1462,7 +1411,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001155" r="0.75000000000001155" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001177" r="0.75000000000001177" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1524,7 +1473,7 @@
                   <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42707</c:v>
+                  <c:v>42708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,7 +1491,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,7 +1535,7 @@
                   <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42707</c:v>
+                  <c:v>42708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1610,11 +1559,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="129899904"/>
-        <c:axId val="129905792"/>
+        <c:axId val="125504128"/>
+        <c:axId val="125510016"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="129899904"/>
+        <c:axId val="125504128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,7 +1596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129905792"/>
+        <c:crossAx val="125510016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1658,7 +1607,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="129905792"/>
+        <c:axId val="125510016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,7 +1649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129899904"/>
+        <c:crossAx val="125504128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1749,7 +1698,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001155" r="0.75000000000001155" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001177" r="0.75000000000001177" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2207,10 +2156,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D343"/>
+  <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B235" sqref="B235"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2585,49 +2534,45 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="22"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="22"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="22" t="s">
-        <v>33</v>
+      <c r="B53" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
@@ -2646,23 +2591,39 @@
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="22"/>
-      <c r="C60" s="7"/>
+      <c r="B60" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="22"/>
-      <c r="C61" s="7"/>
+      <c r="B61" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="22"/>
-      <c r="C62" s="7"/>
+      <c r="B62" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="22"/>
-      <c r="C63" s="7"/>
+      <c r="B63" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
@@ -2671,9 +2632,7 @@
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B65" s="22"/>
       <c r="C65" s="7"/>
       <c r="D65" s="4"/>
     </row>
@@ -2683,50 +2642,34 @@
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="22" t="s">
-        <v>126</v>
-      </c>
+      <c r="B67" s="22"/>
       <c r="C67" s="7"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="22"/>
+      <c r="B72" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C72" s="7"/>
       <c r="D72" s="4"/>
     </row>
@@ -2736,50 +2679,56 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="22"/>
+      <c r="B74" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="C74" s="7"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="22"/>
-      <c r="C75" s="7"/>
+      <c r="B75" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="22"/>
-      <c r="C76" s="7"/>
+      <c r="B76" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="22"/>
-      <c r="C77" s="7"/>
+      <c r="B77" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="22" t="s">
-        <v>55</v>
+      <c r="B78" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B80" s="22"/>
+      <c r="C80" s="7"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
@@ -2788,41 +2737,45 @@
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="20"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="7"/>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="20"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="7"/>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" s="7" t="s">
+      <c r="B84" s="22"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="2:4" s="6" customFormat="1">
+      <c r="B85" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="2:4" s="6" customFormat="1">
+      <c r="B86" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" s="6" customFormat="1">
+      <c r="B87" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="22"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="20"/>
-      <c r="C87" s="7"/>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
@@ -2831,31 +2784,31 @@
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="7"/>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C90" s="7" t="s">
+      <c r="B90" s="20"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="2:4" s="6" customFormat="1">
+      <c r="B91" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="22"/>
-      <c r="C92" s="7"/>
+      <c r="B92" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
@@ -2864,7 +2817,7 @@
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="22"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="7"/>
       <c r="D94" s="4"/>
     </row>
@@ -2874,26 +2827,26 @@
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C96" s="7" t="s">
+      <c r="B96" s="22"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="2:4" s="6" customFormat="1">
+      <c r="B97" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="22"/>
-      <c r="C98" s="7"/>
+      <c r="B98" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
@@ -2912,17 +2865,13 @@
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B102" s="22"/>
+      <c r="C102" s="7"/>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="20" t="s">
-        <v>71</v>
+      <c r="B103" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>14</v>
@@ -2931,10 +2880,10 @@
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
       <c r="B104" s="20" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D104" s="4"/>
     </row>
@@ -2954,31 +2903,35 @@
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B108" s="22"/>
+      <c r="C108" s="7"/>
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="20" t="s">
-        <v>73</v>
+      <c r="B109" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22"/>
-      <c r="C110" s="7"/>
+      <c r="B110" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="22"/>
-      <c r="C111" s="7"/>
+      <c r="B111" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
@@ -2987,31 +2940,31 @@
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B113" s="22"/>
+      <c r="C113" s="7"/>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B114" s="22"/>
+      <c r="C114" s="7"/>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="22"/>
-      <c r="C115" s="7"/>
+      <c r="B115" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="22"/>
-      <c r="C116" s="7"/>
+      <c r="B116" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
@@ -3020,31 +2973,31 @@
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C118" s="7" t="s">
+      <c r="B118" s="22"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="2:4" s="6" customFormat="1">
+      <c r="B119" s="22"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="2:4" s="6" customFormat="1">
+      <c r="B120" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C120" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C119" s="7" t="s">
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="2:4" s="6" customFormat="1">
+      <c r="B121" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C121" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="22"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="22"/>
-      <c r="C121" s="7"/>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
@@ -3053,31 +3006,31 @@
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C123" s="7" t="s">
+      <c r="B123" s="22"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="2:4" s="6" customFormat="1">
+      <c r="B124" s="22"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="2:4" s="6" customFormat="1">
+      <c r="B125" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C124" s="7" t="s">
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="2:4" s="6" customFormat="1">
+      <c r="B126" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="22"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="22"/>
-      <c r="C126" s="7"/>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
@@ -3086,26 +3039,18 @@
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B128" s="22"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B129" s="22"/>
+      <c r="C129" s="7"/>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="20" t="s">
-        <v>83</v>
+      <c r="B130" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>14</v>
@@ -3113,8 +3058,12 @@
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="22"/>
-      <c r="C131" s="7"/>
+      <c r="B131" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
@@ -3128,17 +3077,13 @@
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B134" s="22"/>
+      <c r="C134" s="7"/>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="20" t="s">
-        <v>76</v>
+      <c r="B135" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>14</v>
@@ -3146,22 +3091,26 @@
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="20"/>
-      <c r="C136" s="7"/>
+      <c r="B136" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="20"/>
-      <c r="C137" s="7"/>
+      <c r="B137" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B138" s="22"/>
+      <c r="C138" s="7"/>
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
@@ -3176,7 +3125,7 @@
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
       <c r="B141" s="22" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>14</v>
@@ -3185,7 +3134,7 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="20" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>14</v>
@@ -3193,18 +3142,18 @@
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="22"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="7"/>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="22"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="7"/>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
       <c r="B145" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>14</v>
@@ -3212,54 +3161,46 @@
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C146" s="7" t="s">
+      <c r="B146" s="22"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="2:4" s="6" customFormat="1">
+      <c r="B147" s="22"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="2:4" s="6" customFormat="1">
+      <c r="B148" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C148" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C147" s="7" t="s">
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="2:4" s="6" customFormat="1">
+      <c r="B149" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C149" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="22"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="4"/>
-    </row>
-    <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="22"/>
-      <c r="C149" s="7"/>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B150" s="22"/>
+      <c r="C150" s="7"/>
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B151" s="22"/>
+      <c r="C151" s="7"/>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="20" t="s">
-        <v>139</v>
+      <c r="B152" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>14</v>
@@ -3267,36 +3208,36 @@
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="22"/>
-      <c r="C153" s="7"/>
+      <c r="B153" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="22"/>
-      <c r="C154" s="7"/>
+      <c r="B154" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B155" s="22"/>
+      <c r="C155" s="7"/>
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B156" s="22"/>
+      <c r="C156" s="7"/>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="20" t="s">
-        <v>139</v>
+      <c r="B157" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>14</v>
@@ -3304,13 +3245,17 @@
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="22"/>
-      <c r="C158" s="7"/>
+      <c r="B158" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="22" t="s">
-        <v>141</v>
+      <c r="B159" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>14</v>
@@ -3318,36 +3263,40 @@
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
-      <c r="B160" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C160" s="7" t="s">
+      <c r="B160" s="22"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="2:4" s="6" customFormat="1">
+      <c r="B161" s="22"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="2:4" s="6" customFormat="1">
+      <c r="B162" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C162" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D160" s="4"/>
-    </row>
-    <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C161" s="7" t="s">
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="2:4" s="6" customFormat="1">
+      <c r="B163" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C163" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="22"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="22"/>
-      <c r="C163" s="7"/>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="22"/>
-      <c r="C164" s="7"/>
+      <c r="B164" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
@@ -3356,18 +3305,30 @@
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
-      <c r="B166" s="22"/>
-      <c r="C166" s="7"/>
+      <c r="B166" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="22"/>
-      <c r="C167" s="7"/>
+      <c r="B167" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="22"/>
-      <c r="C168" s="7"/>
+      <c r="B168" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
@@ -3376,64 +3337,52 @@
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="20"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="7"/>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B171" s="22"/>
+      <c r="C171" s="7"/>
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="20"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="7"/>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="20"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="7"/>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="20"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="7"/>
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C175" s="7" t="s">
+      <c r="B175" s="22"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="2:4" s="6" customFormat="1">
+      <c r="B176" s="22"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="2:4" s="6" customFormat="1">
+      <c r="B177" s="20"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="2:4" s="6" customFormat="1">
+      <c r="B178" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C178" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D175" s="4"/>
-    </row>
-    <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D176" s="4"/>
-    </row>
-    <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D177" s="4"/>
-    </row>
-    <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="20"/>
-      <c r="C178" s="7"/>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
@@ -3452,18 +3401,30 @@
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="20"/>
-      <c r="C182" s="7"/>
+      <c r="B182" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="20"/>
-      <c r="C183" s="7"/>
+      <c r="B183" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="20"/>
-      <c r="C184" s="7"/>
+      <c r="B184" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
@@ -3487,75 +3448,51 @@
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="22"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="7"/>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B190" s="20"/>
+      <c r="C190" s="7"/>
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B191" s="20"/>
+      <c r="C191" s="7"/>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B192" s="20"/>
+      <c r="C192" s="7"/>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B193" s="20"/>
+      <c r="C193" s="7"/>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B194" s="20"/>
+      <c r="C194" s="7"/>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B195" s="20"/>
+      <c r="C195" s="7"/>
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="20"/>
-      <c r="C196" s="9"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="7"/>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
       <c r="B197" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D197" s="4"/>
     </row>
@@ -3563,8 +3500,8 @@
       <c r="B198" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C198" s="9" t="s">
-        <v>14</v>
+      <c r="C198" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D198" s="4"/>
     </row>
@@ -3573,7 +3510,7 @@
         <v>65</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D199" s="4"/>
     </row>
@@ -3582,22 +3519,22 @@
         <v>64</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
       <c r="B201" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
       <c r="B202" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>14</v>
@@ -3606,371 +3543,409 @@
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
       <c r="B203" s="20"/>
-      <c r="C203" s="7"/>
+      <c r="C203" s="9"/>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="19"/>
-      <c r="C204" s="7"/>
+      <c r="B204" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="4"/>
-      <c r="C205" s="7"/>
+      <c r="B205" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" s="4"/>
+    </row>
+    <row r="207" spans="2:4" s="6" customFormat="1">
+      <c r="B207" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="2:4" s="6" customFormat="1">
+      <c r="B208" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" s="4"/>
+    </row>
+    <row r="209" spans="2:4" s="6" customFormat="1">
+      <c r="B209" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" s="4"/>
+    </row>
+    <row r="210" spans="2:4" s="6" customFormat="1">
+      <c r="B210" s="20"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="4"/>
+    </row>
+    <row r="211" spans="2:4" s="6" customFormat="1">
+      <c r="B211" s="19"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="4"/>
+    </row>
+    <row r="212" spans="2:4" s="6" customFormat="1">
+      <c r="B212" s="4"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="4"/>
+    </row>
+    <row r="213" spans="2:4" s="6" customFormat="1">
+      <c r="B213" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C206" s="7"/>
-      <c r="D206" s="4"/>
-    </row>
-    <row r="207" spans="2:4">
-      <c r="C207" s="7"/>
-    </row>
-    <row r="208" spans="2:4">
-      <c r="B208" s="43" t="s">
+      <c r="C213" s="7"/>
+      <c r="D213" s="4"/>
+    </row>
+    <row r="214" spans="2:4">
+      <c r="C214" s="7"/>
+    </row>
+    <row r="215" spans="2:4">
+      <c r="B215" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C208" s="7"/>
-    </row>
-    <row r="209" spans="2:3">
-      <c r="C209" s="7"/>
-    </row>
-    <row r="210" spans="2:3">
-      <c r="B210" t="s">
+      <c r="C215" s="7"/>
+    </row>
+    <row r="216" spans="2:4">
+      <c r="C216" s="7"/>
+    </row>
+    <row r="217" spans="2:4">
+      <c r="B217" t="s">
         <v>89</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3">
-      <c r="B211" t="s">
-        <v>90</v>
-      </c>
-      <c r="C211" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3">
-      <c r="B212" t="s">
-        <v>91</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3">
-      <c r="B213" t="s">
-        <v>92</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3">
-      <c r="B214" t="s">
-        <v>93</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3">
-      <c r="B215" t="s">
-        <v>94</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3">
-      <c r="B216" t="s">
-        <v>95</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3">
-      <c r="B217" s="45" t="s">
-        <v>97</v>
       </c>
       <c r="C217" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="2:3">
+    <row r="218" spans="2:4">
       <c r="B218" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="2:3">
-      <c r="B219" s="45" t="s">
-        <v>98</v>
+    <row r="219" spans="2:4">
+      <c r="B219" t="s">
+        <v>91</v>
       </c>
       <c r="C219" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="2:3">
+    <row r="220" spans="2:4">
       <c r="B220" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C220" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="2:3">
-      <c r="B221" s="45" t="s">
-        <v>101</v>
+    <row r="221" spans="2:4">
+      <c r="B221" t="s">
+        <v>93</v>
       </c>
       <c r="C221" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="2:3">
-      <c r="B222" s="46" t="s">
-        <v>111</v>
+    <row r="222" spans="2:4">
+      <c r="B222" t="s">
+        <v>94</v>
       </c>
       <c r="C222" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="2:3">
-      <c r="B223" s="46" t="s">
-        <v>125</v>
+    <row r="223" spans="2:4">
+      <c r="B223" t="s">
+        <v>95</v>
       </c>
       <c r="C223" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="2:3">
-      <c r="B224" s="45"/>
-      <c r="C224" s="9"/>
+    <row r="224" spans="2:4">
+      <c r="B224" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="225" spans="2:3">
-      <c r="B225" s="45"/>
-      <c r="C225" s="9"/>
+      <c r="B225" t="s">
+        <v>96</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="45"/>
-      <c r="C226" s="9"/>
+      <c r="B226" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="227" spans="2:3">
-      <c r="C227" s="9"/>
+      <c r="B227" t="s">
+        <v>100</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="228" spans="2:3">
-      <c r="C228" s="9"/>
+      <c r="B228" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="229" spans="2:3">
-      <c r="C229" s="9"/>
+      <c r="B229" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="230" spans="2:3">
-      <c r="C230" s="9"/>
+      <c r="B230" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="43" t="s">
+      <c r="B231" s="45"/>
+      <c r="C231" s="9"/>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" s="45"/>
+      <c r="C232" s="9"/>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" s="45"/>
+      <c r="C233" s="9"/>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="C234" s="9"/>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="C235" s="9"/>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="C236" s="9"/>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="C237" s="9"/>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="C231" s="9"/>
-    </row>
-    <row r="232" spans="2:3">
-      <c r="C232" s="9"/>
-    </row>
-    <row r="233" spans="2:3">
-      <c r="B233" t="s">
-        <v>119</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3">
-      <c r="B234" t="s">
-        <v>120</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="235" spans="2:3">
-      <c r="B235" t="s">
-        <v>121</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3">
-      <c r="B236" t="s">
-        <v>122</v>
-      </c>
-      <c r="C236" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="237" spans="2:3">
-      <c r="B237" t="s">
-        <v>123</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="238" spans="2:3">
-      <c r="B238" t="s">
-        <v>124</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C238" s="9"/>
     </row>
     <row r="239" spans="2:3">
       <c r="C239" s="9"/>
     </row>
     <row r="240" spans="2:3">
-      <c r="C240" s="9"/>
+      <c r="B240" t="s">
+        <v>119</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="241" spans="2:3">
-      <c r="C241" s="9"/>
+      <c r="B241" t="s">
+        <v>120</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="242" spans="2:3">
-      <c r="C242" s="9"/>
+      <c r="B242" t="s">
+        <v>121</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="C243" s="9"/>
+      <c r="B243" t="s">
+        <v>122</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="244" spans="2:3">
-      <c r="C244" s="9"/>
+      <c r="B244" t="s">
+        <v>123</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="245" spans="2:3">
       <c r="B245" t="s">
-        <v>147</v>
-      </c>
-      <c r="C245" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C245" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="246" spans="2:3">
-      <c r="B246" t="s">
-        <v>110</v>
-      </c>
-      <c r="C246" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C246" s="9"/>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="C247" s="9"/>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" t="s">
-        <v>88</v>
-      </c>
-      <c r="C248" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C248" s="9"/>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" t="s">
-        <v>102</v>
-      </c>
-      <c r="C249" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C249" s="9"/>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" t="s">
-        <v>103</v>
-      </c>
-      <c r="C250" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B250" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C250" s="9"/>
     </row>
     <row r="251" spans="2:3">
       <c r="C251" s="9"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="46" t="s">
-        <v>109</v>
+      <c r="B252" t="s">
+        <v>147</v>
       </c>
       <c r="C252" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="253" spans="2:3">
-      <c r="C253" s="9"/>
-    </row>
-    <row r="254" spans="2:3">
-      <c r="B254" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C254" s="9" t="s">
+      <c r="B253" t="s">
+        <v>110</v>
+      </c>
+      <c r="C253" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="255" spans="2:3">
       <c r="B255" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="256" spans="2:3">
-      <c r="C256" s="9"/>
-    </row>
-    <row r="257" spans="3:3">
-      <c r="C257" s="9"/>
-    </row>
-    <row r="258" spans="3:3">
+      <c r="B256" t="s">
+        <v>102</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="B257" t="s">
+        <v>103</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3">
       <c r="C258" s="9"/>
     </row>
-    <row r="259" spans="3:3">
-      <c r="C259" s="9"/>
-    </row>
-    <row r="260" spans="3:3">
+    <row r="259" spans="2:3">
+      <c r="B259" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
       <c r="C260" s="9"/>
     </row>
-    <row r="261" spans="3:3">
-      <c r="C261" s="9"/>
-    </row>
-    <row r="262" spans="3:3">
-      <c r="C262" s="9"/>
-    </row>
-    <row r="263" spans="3:3">
+    <row r="261" spans="2:3">
+      <c r="B261" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" t="s">
+        <v>108</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
       <c r="C263" s="9"/>
     </row>
-    <row r="264" spans="3:3">
+    <row r="264" spans="2:3">
       <c r="C264" s="9"/>
     </row>
-    <row r="265" spans="3:3">
+    <row r="265" spans="2:3">
       <c r="C265" s="9"/>
     </row>
-    <row r="266" spans="3:3">
+    <row r="266" spans="2:3">
       <c r="C266" s="9"/>
     </row>
-    <row r="267" spans="3:3">
+    <row r="267" spans="2:3">
       <c r="C267" s="9"/>
     </row>
-    <row r="268" spans="3:3">
+    <row r="268" spans="2:3">
       <c r="C268" s="9"/>
     </row>
-    <row r="269" spans="3:3">
+    <row r="269" spans="2:3">
       <c r="C269" s="9"/>
     </row>
-    <row r="270" spans="3:3">
+    <row r="270" spans="2:3">
       <c r="C270" s="9"/>
     </row>
-    <row r="271" spans="3:3">
+    <row r="271" spans="2:3">
       <c r="C271" s="9"/>
     </row>
-    <row r="272" spans="3:3">
+    <row r="272" spans="2:3">
       <c r="C272" s="9"/>
     </row>
     <row r="273" spans="2:3">
@@ -3998,113 +3973,79 @@
       <c r="C280" s="9"/>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="C281" s="9"/>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" t="s">
-        <v>51</v>
-      </c>
       <c r="C282" s="9"/>
     </row>
     <row r="283" spans="2:3">
-      <c r="B283" t="s">
-        <v>52</v>
-      </c>
       <c r="C283" s="9"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" t="s">
-        <v>53</v>
-      </c>
       <c r="C284" s="9"/>
     </row>
     <row r="285" spans="2:3">
       <c r="C285" s="9"/>
     </row>
     <row r="286" spans="2:3">
-      <c r="B286" t="s">
+      <c r="C286" s="9"/>
+    </row>
+    <row r="287" spans="2:3">
+      <c r="C287" s="9"/>
+    </row>
+    <row r="288" spans="2:3">
+      <c r="B288" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C288" s="9"/>
+    </row>
+    <row r="289" spans="2:4">
+      <c r="B289" t="s">
+        <v>51</v>
+      </c>
+      <c r="C289" s="9"/>
+    </row>
+    <row r="290" spans="2:4">
+      <c r="B290" t="s">
+        <v>52</v>
+      </c>
+      <c r="C290" s="9"/>
+    </row>
+    <row r="291" spans="2:4">
+      <c r="B291" t="s">
+        <v>53</v>
+      </c>
+      <c r="C291" s="9"/>
+    </row>
+    <row r="292" spans="2:4">
+      <c r="C292" s="9"/>
+    </row>
+    <row r="293" spans="2:4">
+      <c r="B293" t="s">
         <v>105</v>
       </c>
-      <c r="C286" s="9"/>
-    </row>
-    <row r="287" spans="2:3">
-      <c r="B287" t="s">
+      <c r="C293" s="9"/>
+    </row>
+    <row r="294" spans="2:4">
+      <c r="B294" t="s">
         <v>106</v>
       </c>
-      <c r="C287" s="9"/>
-    </row>
-    <row r="288" spans="2:3">
-      <c r="C288" s="9"/>
-    </row>
-    <row r="289" spans="2:4">
-      <c r="C289" s="9"/>
-    </row>
-    <row r="290" spans="2:4">
-      <c r="C290" s="9"/>
-    </row>
-    <row r="292" spans="2:4" s="6" customFormat="1">
-      <c r="B292" s="3" t="s">
+      <c r="C294" s="9"/>
+    </row>
+    <row r="295" spans="2:4">
+      <c r="C295" s="9"/>
+    </row>
+    <row r="296" spans="2:4">
+      <c r="C296" s="9"/>
+    </row>
+    <row r="297" spans="2:4">
+      <c r="C297" s="9"/>
+    </row>
+    <row r="299" spans="2:4" s="6" customFormat="1">
+      <c r="B299" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C292" s="7"/>
-      <c r="D292" s="4"/>
-    </row>
-    <row r="293" spans="2:4" s="6" customFormat="1">
-      <c r="B293" s="22"/>
-      <c r="C293" s="7"/>
-      <c r="D293" s="4"/>
-    </row>
-    <row r="294" spans="2:4" s="6" customFormat="1">
-      <c r="B294" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C294" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D294" s="4"/>
-    </row>
-    <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C295" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D295" s="4"/>
-    </row>
-    <row r="296" spans="2:4" s="6" customFormat="1">
-      <c r="B296" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C296" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D296" s="4"/>
-    </row>
-    <row r="297" spans="2:4" s="6" customFormat="1">
-      <c r="B297" s="22"/>
-      <c r="C297" s="7"/>
-      <c r="D297" s="4"/>
-    </row>
-    <row r="298" spans="2:4" s="6" customFormat="1">
-      <c r="B298" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D298" s="4"/>
-    </row>
-    <row r="299" spans="2:4" s="6" customFormat="1">
-      <c r="B299" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C299" s="7"/>
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
@@ -4113,18 +4054,30 @@
       <c r="D300" s="4"/>
     </row>
     <row r="301" spans="2:4" s="6" customFormat="1">
-      <c r="B301" s="22"/>
-      <c r="C301" s="7"/>
+      <c r="B301" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D301" s="4"/>
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
-      <c r="B302" s="22"/>
-      <c r="C302" s="7"/>
+      <c r="B302" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
-      <c r="B303" s="22"/>
-      <c r="C303" s="7"/>
+      <c r="B303" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
@@ -4133,13 +4086,21 @@
       <c r="D304" s="4"/>
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
-      <c r="B305" s="22"/>
-      <c r="C305" s="7"/>
+      <c r="B305" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D305" s="4"/>
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
-      <c r="B306" s="22"/>
-      <c r="C306" s="7"/>
+      <c r="B306" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D306" s="4"/>
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
@@ -4148,9 +4109,7 @@
       <c r="D307" s="4"/>
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
-      <c r="B308" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B308" s="22"/>
       <c r="C308" s="7"/>
       <c r="D308" s="4"/>
     </row>
@@ -4160,39 +4119,23 @@
       <c r="D309" s="4"/>
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
-      <c r="B310" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C310" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B310" s="22"/>
+      <c r="C310" s="7"/>
       <c r="D310" s="4"/>
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B311" s="22"/>
+      <c r="C311" s="7"/>
       <c r="D311" s="4"/>
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C312" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B312" s="22"/>
+      <c r="C312" s="7"/>
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
-      <c r="B313" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C313" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B313" s="22"/>
+      <c r="C313" s="7"/>
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
@@ -4201,49 +4144,47 @@
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
-      <c r="B315" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C315" s="7" t="s">
+      <c r="B315" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C315" s="7"/>
+      <c r="D315" s="4"/>
+    </row>
+    <row r="316" spans="2:4" s="6" customFormat="1">
+      <c r="B316" s="22"/>
+      <c r="C316" s="7"/>
+      <c r="D316" s="4"/>
+    </row>
+    <row r="317" spans="2:4" s="6" customFormat="1">
+      <c r="B317" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C317" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D315" s="4"/>
-    </row>
-    <row r="316" spans="2:4" s="6" customFormat="1">
-      <c r="B316" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C316" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D316" s="4"/>
-    </row>
-    <row r="317" spans="2:4" s="6" customFormat="1">
-      <c r="B317" s="22"/>
-      <c r="C317" s="7"/>
       <c r="D317" s="4"/>
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
       <c r="B318" s="22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D318" s="4"/>
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
       <c r="B319" s="22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D319" s="4"/>
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
       <c r="B320" s="22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>14</v>
@@ -4256,13 +4197,21 @@
       <c r="D321" s="4"/>
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
-      <c r="B322" s="22"/>
-      <c r="C322" s="7"/>
+      <c r="B322" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D322" s="4"/>
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
-      <c r="B323" s="22"/>
-      <c r="C323" s="7"/>
+      <c r="B323" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D323" s="4"/>
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
@@ -4271,18 +4220,30 @@
       <c r="D324" s="4"/>
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
-      <c r="B325" s="22"/>
-      <c r="C325" s="7"/>
+      <c r="B325" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D325" s="4"/>
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="22"/>
-      <c r="C326" s="7"/>
+      <c r="B326" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="22"/>
-      <c r="C327" s="7"/>
+      <c r="B327" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
@@ -4291,14 +4252,16 @@
       <c r="D328" s="4"/>
     </row>
     <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="22"/>
-      <c r="C329" s="7"/>
+      <c r="B329" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
-      <c r="B330" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B330" s="22"/>
       <c r="C330" s="7"/>
       <c r="D330" s="4"/>
     </row>
@@ -4314,94 +4277,131 @@
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
       <c r="B333" s="22"/>
-      <c r="C333" s="4"/>
+      <c r="C333" s="7"/>
       <c r="D333" s="4"/>
     </row>
     <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="19"/>
-      <c r="C334" s="4"/>
+      <c r="B334" s="22"/>
+      <c r="C334" s="7"/>
       <c r="D334" s="4"/>
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="21"/>
-      <c r="C335" s="4"/>
+      <c r="B335" s="22"/>
+      <c r="C335" s="7"/>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="21"/>
-      <c r="C336" s="4"/>
+      <c r="B336" s="22"/>
+      <c r="C336" s="7"/>
       <c r="D336" s="4"/>
     </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="3"/>
-      <c r="B337" s="11"/>
-      <c r="C337" s="11"/>
-      <c r="D337" s="3"/>
-    </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="3"/>
-      <c r="B338" s="8" t="s">
+    <row r="337" spans="1:4" s="6" customFormat="1">
+      <c r="B337" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C337" s="7"/>
+      <c r="D337" s="4"/>
+    </row>
+    <row r="338" spans="1:4" s="6" customFormat="1">
+      <c r="B338" s="22"/>
+      <c r="C338" s="7"/>
+      <c r="D338" s="4"/>
+    </row>
+    <row r="339" spans="1:4" s="6" customFormat="1">
+      <c r="B339" s="22"/>
+      <c r="C339" s="7"/>
+      <c r="D339" s="4"/>
+    </row>
+    <row r="340" spans="1:4" s="6" customFormat="1">
+      <c r="B340" s="22"/>
+      <c r="C340" s="4"/>
+      <c r="D340" s="4"/>
+    </row>
+    <row r="341" spans="1:4" s="6" customFormat="1">
+      <c r="B341" s="19"/>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+    </row>
+    <row r="342" spans="1:4" s="6" customFormat="1">
+      <c r="B342" s="21"/>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+    </row>
+    <row r="343" spans="1:4" s="6" customFormat="1">
+      <c r="B343" s="21"/>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4"/>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="3"/>
+      <c r="B344" s="11"/>
+      <c r="C344" s="11"/>
+      <c r="D344" s="3"/>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="3"/>
+      <c r="B345" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C338" s="6">
-        <f>COUNTIF(C5:C337,"y")</f>
+      <c r="C345" s="6">
+        <f>COUNTIF(C5:C344,"y")</f>
         <v>21</v>
       </c>
-      <c r="D338" s="2"/>
-    </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="3"/>
-      <c r="B339" s="8" t="s">
+      <c r="D345" s="2"/>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="3"/>
+      <c r="B346" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C339" s="6">
-        <f>COUNTIF(C5:C337,"n")</f>
-        <v>109</v>
-      </c>
-      <c r="D339" s="2"/>
-    </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="3"/>
-      <c r="B340" s="8" t="s">
+      <c r="C346" s="6">
+        <f>COUNTIF(C5:C344,"n")</f>
+        <v>112</v>
+      </c>
+      <c r="D346" s="2"/>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="3"/>
+      <c r="B347" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C340" s="7">
-        <f>COUNTIF(C5:C337,"TBD")</f>
-        <v>2</v>
-      </c>
-      <c r="D340" s="2"/>
-    </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="3"/>
-      <c r="B341" s="8" t="s">
+      <c r="C347" s="7">
+        <f>COUNTIF(C5:C344,"TBD")</f>
+        <v>3</v>
+      </c>
+      <c r="D347" s="2"/>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="3"/>
+      <c r="B348" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C341">
-        <f>SUM(C338:C340)</f>
-        <v>132</v>
-      </c>
-      <c r="D341" s="2"/>
-    </row>
-    <row r="342" spans="1:4" ht="18">
-      <c r="A342" s="3"/>
-      <c r="B342" s="10"/>
-      <c r="C342" s="10" t="s">
+      <c r="C348">
+        <f>SUM(C345:C347)</f>
+        <v>136</v>
+      </c>
+      <c r="D348" s="2"/>
+    </row>
+    <row r="349" spans="1:4" ht="18">
+      <c r="A349" s="3"/>
+      <c r="B349" s="10"/>
+      <c r="C349" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D342" s="41">
-        <f>C338/(C339+C338 + C340)</f>
-        <v>0.15909090909090909</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="3"/>
-      <c r="B343" s="11"/>
-      <c r="C343" s="11"/>
-      <c r="D343" s="3"/>
+      <c r="D349" s="41">
+        <f>C345/(C346+C345 + C347)</f>
+        <v>0.15441176470588236</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="3"/>
+      <c r="B350" s="11"/>
+      <c r="C350" s="11"/>
+      <c r="D350" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C292:C65091 C248:C290 C1:C3 C6:C246">
+  <conditionalFormatting sqref="C299:C65098 C255:C297 C1:C3 C6:C253">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -4425,10 +4425,10 @@
   </sheetPr>
   <dimension ref="A1:IT864"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O27" sqref="O27"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4714,13 +4714,13 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="44">
-        <v>42707</v>
+        <v>42708</v>
       </c>
       <c r="B50" s="4">
         <v>21</v>
       </c>
       <c r="C50" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D50" s="4">
         <v>2</v>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="G50" s="30">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
-        <v>0.15909090909090909</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -4778,26 +4778,26 @@
       </c>
       <c r="G53" s="38">
         <f>MIN(G50)</f>
-        <v>0.15909090909090909</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="39">
         <f>SUM(B54:D54)</f>
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B54" s="15">
-        <f>Features!C338</f>
+        <f>Features!C345</f>
         <v>21</v>
       </c>
       <c r="C54" s="16">
-        <f>Features!C339</f>
-        <v>109</v>
+        <f>Features!C346</f>
+        <v>112</v>
       </c>
       <c r="D54" s="17">
-        <f>Features!C340</f>
-        <v>2</v>
+        <f>Features!C347</f>
+        <v>3</v>
       </c>
       <c r="E54" s="18">
         <f>MIN(E50)</f>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -862,7 +862,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,7 +924,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,7 +1295,7 @@
                   <c:v>0.38775510204081631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15789473684210525</c:v>
+                  <c:v>0.15441176470588236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,7 +1491,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,7 +1553,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2158,7 +2158,7 @@
   </sheetPr>
   <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -4425,10 +4425,10 @@
   </sheetPr>
   <dimension ref="A1:IT864"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O27" sqref="O27"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4720,10 +4720,10 @@
         <v>21</v>
       </c>
       <c r="C50" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D50" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="G50" s="30">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
-        <v>0.15789473684210525</v>
+        <v>0.15441176470588236</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="G53" s="38">
         <f>MIN(G50)</f>
-        <v>0.15789473684210525</v>
+        <v>0.15441176470588236</v>
       </c>
       <c r="H53" s="7"/>
     </row>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="158">
   <si>
     <t>Feature</t>
   </si>
@@ -486,15 +486,22 @@
   </si>
   <si>
     <t>tabbed?</t>
+  </si>
+  <si>
+    <t>ETA:</t>
+  </si>
+  <si>
+    <t>service components between lines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -605,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -694,6 +701,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,7 +873,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,7 +1306,7 @@
                   <c:v>0.38775510204081631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15441176470588236</c:v>
+                  <c:v>0.15328467153284672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,7 +1502,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2159,7 +2170,7 @@
   <dimension ref="A1:D350"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2561,8 +2572,12 @@
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="22"/>
-      <c r="C54" s="7"/>
+      <c r="B54" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
@@ -4356,7 +4371,7 @@
       </c>
       <c r="C346" s="6">
         <f>COUNTIF(C5:C344,"n")</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D346" s="2"/>
     </row>
@@ -4378,7 +4393,7 @@
       </c>
       <c r="C348">
         <f>SUM(C345:C347)</f>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D348" s="2"/>
     </row>
@@ -4390,7 +4405,7 @@
       </c>
       <c r="D349" s="41">
         <f>C345/(C346+C345 + C347)</f>
-        <v>0.15441176470588236</v>
+        <v>0.15328467153284672</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -4428,13 +4443,13 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O27" sqref="O27"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
@@ -4720,7 +4735,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D50" s="4">
         <v>3</v>
@@ -4733,7 +4748,7 @@
       </c>
       <c r="G50" s="30">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
-        <v>0.15441176470588236</v>
+        <v>0.15328467153284672</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -4778,14 +4793,14 @@
       </c>
       <c r="G53" s="38">
         <f>MIN(G50)</f>
-        <v>0.15441176470588236</v>
+        <v>0.15328467153284672</v>
       </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="39">
         <f>SUM(B54:D54)</f>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B54" s="15">
         <f>Features!C345</f>
@@ -4793,7 +4808,7 @@
       </c>
       <c r="C54" s="16">
         <f>Features!C346</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D54" s="17">
         <f>Features!C347</f>
@@ -4839,8 +4854,13 @@
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="A58" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="47">
+        <f>A48+A54/B54*(A50-A48)</f>
+        <v>42757.714285714283</v>
+      </c>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="160">
   <si>
     <t>Feature</t>
   </si>
@@ -458,9 +458,6 @@
     <t>scrolls the viewport</t>
   </si>
   <si>
-    <t>custom component with highlight markers?</t>
-  </si>
-  <si>
     <t>replaces selection</t>
   </si>
   <si>
@@ -492,6 +489,15 @@
   </si>
   <si>
     <t>service components between lines</t>
+  </si>
+  <si>
+    <t>enabled horizontal scroll bar</t>
+  </si>
+  <si>
+    <t>vertical scrollbar policy</t>
+  </si>
+  <si>
+    <t>horizontal scrollbar policy</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -702,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -749,8 +755,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954936"/>
-          <c:h val="0.89627228525119984"/>
+          <c:w val="0.91978071330954958"/>
+          <c:h val="0.89627228525119973"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -793,7 +799,7 @@
                   <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42708</c:v>
+                  <c:v>42826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,7 +817,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,7 +861,7 @@
                   <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42708</c:v>
+                  <c:v>42826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,7 +879,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,7 +923,7 @@
                   <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42708</c:v>
+                  <c:v>42826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,7 +985,7 @@
                   <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42708</c:v>
+                  <c:v>42826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,11 +1015,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="125497344"/>
-        <c:axId val="125498880"/>
+        <c:axId val="112250240"/>
+        <c:axId val="111940736"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="125497344"/>
+        <c:axId val="112250240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125498880"/>
+        <c:crossAx val="111940736"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1056,7 +1062,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125498880"/>
+        <c:axId val="111940736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,7 +1104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125497344"/>
+        <c:crossAx val="112250240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1120,8 +1126,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12417582417582419"/>
-          <c:y val="0.54132901134521882"/>
+          <c:x val="4.5828229804607754E-2"/>
+          <c:y val="0.33819556996218259"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1188,7 +1194,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001177" r="0.75000000000001177" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1242,7 +1248,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.451045024812731E-2"/>
+          <c:x val="4.4510450248127324E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1288,7 +1294,7 @@
                   <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42708</c:v>
+                  <c:v>42826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,17 +1312,17 @@
                   <c:v>0.38775510204081631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15328467153284672</c:v>
+                  <c:v>0.15714285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="125219584"/>
-        <c:axId val="125221120"/>
+        <c:axId val="111980928"/>
+        <c:axId val="111982464"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="125219584"/>
+        <c:axId val="111980928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,13 +1330,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-409]mmmm\ d\,\ yyyy;@" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="125221120"/>
+        <c:crossAx val="111982464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125221120"/>
+        <c:axId val="111982464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1373,7 +1379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125219584"/>
+        <c:crossAx val="111980928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1422,7 +1428,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001177" r="0.75000000000001177" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1484,7 +1490,7 @@
                   <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42708</c:v>
+                  <c:v>42826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,7 +1508,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,7 +1552,7 @@
                   <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42708</c:v>
+                  <c:v>42826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1570,11 +1576,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="125504128"/>
-        <c:axId val="125510016"/>
+        <c:axId val="112597248"/>
+        <c:axId val="112599040"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="125504128"/>
+        <c:axId val="112597248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125510016"/>
+        <c:crossAx val="112599040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1618,7 +1624,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125510016"/>
+        <c:axId val="112599040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +1666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125504128"/>
+        <c:crossAx val="112597248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1709,7 +1715,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001177" r="0.75000000000001177" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1783,16 +1789,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2167,10 +2173,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D350"/>
+  <dimension ref="A1:D369"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2343,7 +2349,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -2378,13 +2384,17 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
-      <c r="B30" s="22"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>14</v>
@@ -2392,17 +2402,13 @@
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
-      <c r="B32" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>14</v>
@@ -2411,7 +2417,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>14</v>
@@ -2420,7 +2426,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>14</v>
@@ -2428,13 +2434,21 @@
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="22"/>
-      <c r="C36" s="7"/>
+      <c r="B36" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
-      <c r="B37" s="22"/>
-      <c r="C37" s="7"/>
+      <c r="B37" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
@@ -2443,9 +2457,7 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B39" s="22"/>
       <c r="C39" s="7"/>
       <c r="D39" s="4"/>
     </row>
@@ -2455,26 +2467,20 @@
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7"/>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>2</v>
@@ -2483,43 +2489,43 @@
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="20" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="2:4" s="6" customFormat="1">
+      <c r="B45" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="22" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>14</v>
@@ -2527,8 +2533,8 @@
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="22" t="s">
-        <v>115</v>
+      <c r="B49" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>14</v>
@@ -2537,7 +2543,7 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>14</v>
@@ -2546,7 +2552,7 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="22" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
@@ -2554,8 +2560,8 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="20" t="s">
-        <v>154</v>
+      <c r="B52" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>14</v>
@@ -2563,17 +2569,17 @@
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="20" t="s">
-        <v>155</v>
+      <c r="B53" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="22" t="s">
-        <v>157</v>
+      <c r="B54" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>14</v>
@@ -2581,13 +2587,21 @@
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="22"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="22"/>
-      <c r="C56" s="7"/>
+      <c r="B56" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
@@ -2606,26 +2620,18 @@
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="22"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="2:4" s="6" customFormat="1">
+      <c r="B61" s="22"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="2:4" s="6" customFormat="1">
+      <c r="B62" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>14</v>
@@ -2634,7 +2640,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -2642,13 +2648,21 @@
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="22"/>
-      <c r="C64" s="7"/>
+      <c r="B64" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="22"/>
-      <c r="C65" s="7"/>
+      <c r="B65" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
@@ -2672,37 +2686,53 @@
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="22"/>
-      <c r="C70" s="7"/>
+      <c r="B70" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="22"/>
-      <c r="C71" s="7"/>
+      <c r="B71" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="7"/>
+      <c r="B72" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="22"/>
-      <c r="C73" s="7"/>
+      <c r="B73" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" s="7"/>
+      <c r="B74" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="20" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -2710,50 +2740,62 @@
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C77" s="7" t="s">
+      <c r="B77" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22"/>
-      <c r="C79" s="7"/>
+      <c r="B79" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="22"/>
-      <c r="C80" s="7"/>
+      <c r="B80" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22"/>
-      <c r="C81" s="7"/>
+      <c r="B81" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="22"/>
-      <c r="C82" s="7"/>
+      <c r="B82" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
@@ -2767,30 +2809,18 @@
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="7"/>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="7"/>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B87" s="22"/>
+      <c r="C87" s="7"/>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
@@ -2799,31 +2829,23 @@
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="20"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="7"/>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="20"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="7"/>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B91" s="22"/>
+      <c r="C91" s="7"/>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="7"/>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
@@ -2832,7 +2854,7 @@
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="20"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="7"/>
       <c r="D94" s="4"/>
     </row>
@@ -2847,21 +2869,13 @@
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B97" s="22"/>
+      <c r="C97" s="7"/>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="7"/>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
@@ -2885,21 +2899,15 @@
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B103" s="22"/>
+      <c r="C103" s="7"/>
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="B104" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="7"/>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
@@ -2908,23 +2916,33 @@
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="22"/>
+      <c r="B106" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="C106" s="7"/>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="22"/>
-      <c r="C107" s="7"/>
+      <c r="B107" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="22"/>
-      <c r="C108" s="7"/>
+      <c r="B108" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="22" t="s">
-        <v>70</v>
+      <c r="B109" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -2933,7 +2951,7 @@
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
       <c r="B110" s="20" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>14</v>
@@ -2941,12 +2959,8 @@
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B111" s="22"/>
+      <c r="C111" s="7"/>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
@@ -2965,87 +2979,83 @@
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C115" s="7" t="s">
+      <c r="B115" s="22"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="2:4" s="6" customFormat="1">
+      <c r="B116" s="22"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="2:4" s="6" customFormat="1">
+      <c r="B117" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C116" s="7" t="s">
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="2:4" s="6" customFormat="1">
+      <c r="B118" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="22"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="22"/>
-      <c r="C118" s="7"/>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="22"/>
-      <c r="C119" s="7"/>
+      <c r="B119" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B120" s="22"/>
+      <c r="C120" s="7"/>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B121" s="20"/>
+      <c r="C121" s="7"/>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="22"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="7"/>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="22"/>
-      <c r="C123" s="7"/>
+      <c r="B123" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="22"/>
-      <c r="C124" s="7"/>
+      <c r="B124" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B125" s="22"/>
+      <c r="C125" s="7"/>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B126" s="20"/>
+      <c r="C126" s="7"/>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
@@ -3059,26 +3069,26 @@
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="22"/>
-      <c r="C129" s="7"/>
+      <c r="B129" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="22" t="s">
-        <v>78</v>
+      <c r="B130" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B131" s="22"/>
+      <c r="C131" s="7"/>
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
@@ -3098,7 +3108,7 @@
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
       <c r="B135" s="22" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>14</v>
@@ -3107,20 +3117,16 @@
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
       <c r="B136" s="20" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B137" s="22"/>
+      <c r="C137" s="7"/>
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
@@ -3140,7 +3146,7 @@
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
       <c r="B141" s="22" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>14</v>
@@ -3149,7 +3155,7 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>14</v>
@@ -3157,22 +3163,22 @@
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="20"/>
-      <c r="C143" s="7"/>
+      <c r="B143" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="20"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="7"/>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B145" s="22"/>
+      <c r="C145" s="7"/>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
@@ -3181,26 +3187,26 @@
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="22"/>
-      <c r="C147" s="7"/>
+      <c r="B147" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="22" t="s">
-        <v>131</v>
+      <c r="B148" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B149" s="22"/>
+      <c r="C149" s="7"/>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
@@ -3215,7 +3221,7 @@
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
       <c r="B152" s="22" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>14</v>
@@ -3224,7 +3230,7 @@
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="20" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>14</v>
@@ -3232,12 +3238,8 @@
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B154" s="22"/>
+      <c r="C154" s="7"/>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
@@ -3252,7 +3254,7 @@
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
       <c r="B157" s="22" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>14</v>
@@ -3261,7 +3263,7 @@
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
       <c r="B158" s="20" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>14</v>
@@ -3269,12 +3271,8 @@
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B159" s="22"/>
+      <c r="C159" s="7"/>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
@@ -3289,7 +3287,7 @@
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
       <c r="B162" s="22" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>14</v>
@@ -3298,7 +3296,7 @@
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
       <c r="B163" s="20" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>14</v>
@@ -3306,12 +3304,8 @@
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B164" s="22"/>
+      <c r="C164" s="7"/>
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
@@ -3320,17 +3314,13 @@
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
-      <c r="B166" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B166" s="22"/>
+      <c r="C166" s="7"/>
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="20" t="s">
-        <v>142</v>
+      <c r="B167" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>14</v>
@@ -3339,7 +3329,7 @@
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
       <c r="B168" s="20" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>14</v>
@@ -3347,8 +3337,12 @@
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="22"/>
-      <c r="C169" s="7"/>
+      <c r="B169" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
@@ -3367,75 +3361,83 @@
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="22"/>
-      <c r="C173" s="7"/>
+      <c r="B173" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="22"/>
-      <c r="C174" s="7"/>
+      <c r="B174" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="22"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="7"/>
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="22"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="7"/>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="20"/>
-      <c r="C177" s="7"/>
+      <c r="B177" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B178" s="22"/>
+      <c r="C178" s="7"/>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="20"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="7"/>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="20"/>
-      <c r="C180" s="7"/>
+      <c r="B180" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="20"/>
-      <c r="C181" s="7"/>
+      <c r="B181" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B182" s="22"/>
+      <c r="C182" s="7"/>
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B183" s="22"/>
+      <c r="C183" s="7"/>
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="20" t="s">
-        <v>145</v>
+      <c r="B184" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>14</v>
@@ -3443,501 +3445,511 @@
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="20"/>
-      <c r="C185" s="7"/>
+      <c r="B185" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="20"/>
-      <c r="C186" s="7"/>
+      <c r="B186" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="20"/>
+      <c r="B187" s="22"/>
       <c r="C187" s="7"/>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="20"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="7"/>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="20"/>
-      <c r="C189" s="7"/>
+      <c r="B189" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="20"/>
-      <c r="C190" s="7"/>
+      <c r="B190" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="20"/>
-      <c r="C191" s="7"/>
+      <c r="B191" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="20"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="7"/>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="20"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="7"/>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="20"/>
-      <c r="C194" s="7"/>
+      <c r="B194" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="20"/>
-      <c r="C195" s="7"/>
+      <c r="B195" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="22"/>
-      <c r="C196" s="7"/>
+      <c r="B196" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B197" s="22"/>
+      <c r="C197" s="7"/>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="20" t="s">
-        <v>63</v>
+      <c r="B198" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="20" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="20" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B201" s="22"/>
+      <c r="C201" s="7"/>
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C202" s="7" t="s">
+      <c r="B202" s="22"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="2:4" s="6" customFormat="1">
+      <c r="B203" s="22"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="2:4" s="6" customFormat="1">
+      <c r="B204" s="22"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="4"/>
+    </row>
+    <row r="205" spans="2:4" s="6" customFormat="1">
+      <c r="B205" s="22"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="4"/>
+    </row>
+    <row r="206" spans="2:4" s="6" customFormat="1">
+      <c r="B206" s="22"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="4"/>
+    </row>
+    <row r="207" spans="2:4" s="6" customFormat="1">
+      <c r="B207" s="22"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="2:4" s="6" customFormat="1">
+      <c r="B208" s="22"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="4"/>
+    </row>
+    <row r="209" spans="2:4" s="6" customFormat="1">
+      <c r="B209" s="20"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="4"/>
+    </row>
+    <row r="210" spans="2:4" s="6" customFormat="1">
+      <c r="B210" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C210" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="4"/>
-    </row>
-    <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="20"/>
-      <c r="C203" s="9"/>
-      <c r="D203" s="4"/>
-    </row>
-    <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C204" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D204" s="4"/>
-    </row>
-    <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D205" s="4"/>
-    </row>
-    <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D206" s="4"/>
-    </row>
-    <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D207" s="4"/>
-    </row>
-    <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D208" s="4"/>
-    </row>
-    <row r="209" spans="2:4" s="6" customFormat="1">
-      <c r="B209" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D209" s="4"/>
-    </row>
-    <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="20"/>
-      <c r="C210" s="7"/>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
-      <c r="B211" s="19"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="7"/>
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="4"/>
+      <c r="B212" s="20"/>
       <c r="C212" s="7"/>
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B213" s="20"/>
       <c r="C213" s="7"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="2:4">
-      <c r="C214" s="7"/>
-    </row>
-    <row r="215" spans="2:4">
-      <c r="B215" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="C215" s="7"/>
-    </row>
-    <row r="216" spans="2:4">
-      <c r="C216" s="7"/>
-    </row>
-    <row r="217" spans="2:4">
-      <c r="B217" t="s">
+    <row r="214" spans="2:4" s="6" customFormat="1">
+      <c r="B214" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="2:4" s="6" customFormat="1">
+      <c r="B215" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="2:4" s="6" customFormat="1">
+      <c r="B216" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D216" s="4"/>
+    </row>
+    <row r="217" spans="2:4" s="6" customFormat="1">
+      <c r="B217" s="20"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="4"/>
+    </row>
+    <row r="218" spans="2:4" s="6" customFormat="1">
+      <c r="B218" s="20"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="4"/>
+    </row>
+    <row r="219" spans="2:4" s="6" customFormat="1">
+      <c r="B219" s="20"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="4"/>
+    </row>
+    <row r="220" spans="2:4" s="6" customFormat="1">
+      <c r="B220" s="20"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="2:4" s="6" customFormat="1">
+      <c r="B221" s="20"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="2:4" s="6" customFormat="1">
+      <c r="B222" s="20"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="4"/>
+    </row>
+    <row r="223" spans="2:4" s="6" customFormat="1">
+      <c r="B223" s="20"/>
+      <c r="C223" s="7"/>
+      <c r="D223" s="4"/>
+    </row>
+    <row r="224" spans="2:4" s="6" customFormat="1">
+      <c r="B224" s="20"/>
+      <c r="C224" s="7"/>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="2:4" s="6" customFormat="1">
+      <c r="B225" s="20"/>
+      <c r="C225" s="7"/>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="2:4" s="6" customFormat="1">
+      <c r="B226" s="20"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="2:4" s="6" customFormat="1">
+      <c r="B227" s="20"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="2:4" s="6" customFormat="1">
+      <c r="B228" s="22"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="2:4" s="6" customFormat="1">
+      <c r="B229" s="20"/>
+      <c r="C229" s="7"/>
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="2:4" s="6" customFormat="1">
+      <c r="B230" s="19"/>
+      <c r="C230" s="7"/>
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="2:4" s="6" customFormat="1">
+      <c r="B231" s="4"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="2:4" s="6" customFormat="1">
+      <c r="B232" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C232" s="7"/>
+      <c r="D232" s="4"/>
+    </row>
+    <row r="233" spans="2:4">
+      <c r="C233" s="7"/>
+    </row>
+    <row r="234" spans="2:4">
+      <c r="B234" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C234" s="7"/>
+    </row>
+    <row r="235" spans="2:4">
+      <c r="C235" s="7"/>
+    </row>
+    <row r="236" spans="2:4">
+      <c r="B236" t="s">
         <v>89</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C236" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="2:4">
-      <c r="B218" t="s">
+    <row r="237" spans="2:4">
+      <c r="B237" t="s">
         <v>90</v>
       </c>
-      <c r="C218" s="9" t="s">
+      <c r="C237" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="2:4">
-      <c r="B219" t="s">
+    <row r="238" spans="2:4">
+      <c r="B238" t="s">
         <v>91</v>
       </c>
-      <c r="C219" s="9" t="s">
+      <c r="C238" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="2:4">
-      <c r="B220" t="s">
+    <row r="239" spans="2:4">
+      <c r="B239" t="s">
         <v>92</v>
       </c>
-      <c r="C220" s="9" t="s">
+      <c r="C239" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="2:4">
-      <c r="B221" t="s">
+    <row r="240" spans="2:4">
+      <c r="B240" t="s">
         <v>93</v>
       </c>
-      <c r="C221" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4">
-      <c r="B222" t="s">
-        <v>94</v>
-      </c>
-      <c r="C222" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4">
-      <c r="B223" t="s">
-        <v>95</v>
-      </c>
-      <c r="C223" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4">
-      <c r="B224" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3">
-      <c r="B225" t="s">
-        <v>96</v>
-      </c>
-      <c r="C225" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3">
-      <c r="B226" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3">
-      <c r="B227" t="s">
-        <v>100</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3">
-      <c r="B228" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3">
-      <c r="B229" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="230" spans="2:3">
-      <c r="B230" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C230" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="231" spans="2:3">
-      <c r="B231" s="45"/>
-      <c r="C231" s="9"/>
-    </row>
-    <row r="232" spans="2:3">
-      <c r="B232" s="45"/>
-      <c r="C232" s="9"/>
-    </row>
-    <row r="233" spans="2:3">
-      <c r="B233" s="45"/>
-      <c r="C233" s="9"/>
-    </row>
-    <row r="234" spans="2:3">
-      <c r="C234" s="9"/>
-    </row>
-    <row r="235" spans="2:3">
-      <c r="C235" s="9"/>
-    </row>
-    <row r="236" spans="2:3">
-      <c r="C236" s="9"/>
-    </row>
-    <row r="237" spans="2:3">
-      <c r="C237" s="9"/>
-    </row>
-    <row r="238" spans="2:3">
-      <c r="B238" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C238" s="9"/>
-    </row>
-    <row r="239" spans="2:3">
-      <c r="C239" s="9"/>
-    </row>
-    <row r="240" spans="2:3">
-      <c r="B240" t="s">
-        <v>119</v>
-      </c>
-      <c r="C240" s="7" t="s">
+      <c r="C240" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="241" spans="2:3">
       <c r="B241" t="s">
-        <v>120</v>
-      </c>
-      <c r="C241" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="242" spans="2:3">
       <c r="B242" t="s">
-        <v>121</v>
-      </c>
-      <c r="C242" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" t="s">
-        <v>122</v>
-      </c>
-      <c r="C243" s="7" t="s">
+      <c r="B243" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="244" spans="2:3">
       <c r="B244" t="s">
-        <v>123</v>
-      </c>
-      <c r="C244" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C244" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" t="s">
-        <v>124</v>
-      </c>
-      <c r="C245" s="7" t="s">
+      <c r="B245" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C245" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="246" spans="2:3">
-      <c r="C246" s="9"/>
+      <c r="B246" t="s">
+        <v>100</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="247" spans="2:3">
-      <c r="C247" s="9"/>
+      <c r="B247" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="248" spans="2:3">
-      <c r="C248" s="9"/>
+      <c r="B248" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="249" spans="2:3">
-      <c r="C249" s="9"/>
+      <c r="B249" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" s="43" t="s">
-        <v>151</v>
-      </c>
+      <c r="B250" s="45"/>
       <c r="C250" s="9"/>
     </row>
     <row r="251" spans="2:3">
+      <c r="B251" s="45"/>
       <c r="C251" s="9"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" t="s">
-        <v>147</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B252" s="45"/>
+      <c r="C252" s="9"/>
     </row>
     <row r="253" spans="2:3">
-      <c r="B253" t="s">
-        <v>110</v>
-      </c>
-      <c r="C253" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C253" s="9"/>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="C254" s="9"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" t="s">
-        <v>88</v>
-      </c>
-      <c r="C255" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C255" s="9"/>
     </row>
     <row r="256" spans="2:3">
-      <c r="B256" t="s">
-        <v>102</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C256" s="9"/>
     </row>
     <row r="257" spans="2:3">
-      <c r="B257" t="s">
-        <v>103</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B257" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C257" s="9"/>
     </row>
     <row r="258" spans="2:3">
       <c r="C258" s="9"/>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C259" s="9" t="s">
+      <c r="B259" t="s">
+        <v>119</v>
+      </c>
+      <c r="C259" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="260" spans="2:3">
-      <c r="C260" s="9"/>
+      <c r="B260" t="s">
+        <v>120</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C261" s="9" t="s">
+      <c r="B261" t="s">
+        <v>121</v>
+      </c>
+      <c r="C261" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="262" spans="2:3">
       <c r="B262" t="s">
-        <v>108</v>
-      </c>
-      <c r="C262" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C262" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="263" spans="2:3">
-      <c r="C263" s="9"/>
+      <c r="B263" t="s">
+        <v>123</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="264" spans="2:3">
-      <c r="C264" s="9"/>
+      <c r="B264" t="s">
+        <v>124</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="265" spans="2:3">
       <c r="C265" s="9"/>
@@ -3952,43 +3964,83 @@
       <c r="C268" s="9"/>
     </row>
     <row r="269" spans="2:3">
+      <c r="B269" s="43" t="s">
+        <v>150</v>
+      </c>
       <c r="C269" s="9"/>
     </row>
     <row r="270" spans="2:3">
       <c r="C270" s="9"/>
     </row>
     <row r="271" spans="2:3">
-      <c r="C271" s="9"/>
+      <c r="B271" t="s">
+        <v>146</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="272" spans="2:3">
-      <c r="C272" s="9"/>
-    </row>
-    <row r="273" spans="2:3">
-      <c r="C273" s="9"/>
+      <c r="B272" t="s">
+        <v>110</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="274" spans="2:3">
-      <c r="C274" s="9"/>
+      <c r="B274" t="s">
+        <v>88</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="275" spans="2:3">
-      <c r="C275" s="9"/>
+      <c r="B275" t="s">
+        <v>102</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="276" spans="2:3">
-      <c r="C276" s="9"/>
+      <c r="B276" t="s">
+        <v>103</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="277" spans="2:3">
       <c r="C277" s="9"/>
     </row>
     <row r="278" spans="2:3">
-      <c r="C278" s="9"/>
+      <c r="B278" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="279" spans="2:3">
       <c r="C279" s="9"/>
     </row>
     <row r="280" spans="2:3">
-      <c r="C280" s="9"/>
+      <c r="B280" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="281" spans="2:3">
-      <c r="C281" s="9"/>
+      <c r="B281" t="s">
+        <v>108</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="282" spans="2:3">
       <c r="C282" s="9"/>
@@ -4009,197 +4061,125 @@
       <c r="C287" s="9"/>
     </row>
     <row r="288" spans="2:3">
-      <c r="B288" s="3" t="s">
+      <c r="C288" s="9"/>
+    </row>
+    <row r="289" spans="3:3">
+      <c r="C289" s="9"/>
+    </row>
+    <row r="290" spans="3:3">
+      <c r="C290" s="9"/>
+    </row>
+    <row r="291" spans="3:3">
+      <c r="C291" s="9"/>
+    </row>
+    <row r="292" spans="3:3">
+      <c r="C292" s="9"/>
+    </row>
+    <row r="293" spans="3:3">
+      <c r="C293" s="9"/>
+    </row>
+    <row r="294" spans="3:3">
+      <c r="C294" s="9"/>
+    </row>
+    <row r="295" spans="3:3">
+      <c r="C295" s="9"/>
+    </row>
+    <row r="296" spans="3:3">
+      <c r="C296" s="9"/>
+    </row>
+    <row r="297" spans="3:3">
+      <c r="C297" s="9"/>
+    </row>
+    <row r="298" spans="3:3">
+      <c r="C298" s="9"/>
+    </row>
+    <row r="299" spans="3:3">
+      <c r="C299" s="9"/>
+    </row>
+    <row r="300" spans="3:3">
+      <c r="C300" s="9"/>
+    </row>
+    <row r="301" spans="3:3">
+      <c r="C301" s="9"/>
+    </row>
+    <row r="302" spans="3:3">
+      <c r="C302" s="9"/>
+    </row>
+    <row r="303" spans="3:3">
+      <c r="C303" s="9"/>
+    </row>
+    <row r="304" spans="3:3">
+      <c r="C304" s="9"/>
+    </row>
+    <row r="305" spans="2:4">
+      <c r="C305" s="9"/>
+    </row>
+    <row r="306" spans="2:4">
+      <c r="C306" s="9"/>
+    </row>
+    <row r="307" spans="2:4">
+      <c r="B307" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C288" s="9"/>
-    </row>
-    <row r="289" spans="2:4">
-      <c r="B289" t="s">
+      <c r="C307" s="9"/>
+    </row>
+    <row r="308" spans="2:4">
+      <c r="B308" t="s">
         <v>51</v>
       </c>
-      <c r="C289" s="9"/>
-    </row>
-    <row r="290" spans="2:4">
-      <c r="B290" t="s">
+      <c r="C308" s="9"/>
+    </row>
+    <row r="309" spans="2:4">
+      <c r="B309" t="s">
         <v>52</v>
       </c>
-      <c r="C290" s="9"/>
-    </row>
-    <row r="291" spans="2:4">
-      <c r="B291" t="s">
+      <c r="C309" s="9"/>
+    </row>
+    <row r="310" spans="2:4">
+      <c r="B310" t="s">
         <v>53</v>
       </c>
-      <c r="C291" s="9"/>
-    </row>
-    <row r="292" spans="2:4">
-      <c r="C292" s="9"/>
-    </row>
-    <row r="293" spans="2:4">
-      <c r="B293" t="s">
+      <c r="C310" s="9"/>
+    </row>
+    <row r="311" spans="2:4">
+      <c r="C311" s="9"/>
+    </row>
+    <row r="312" spans="2:4">
+      <c r="B312" t="s">
         <v>105</v>
       </c>
-      <c r="C293" s="9"/>
-    </row>
-    <row r="294" spans="2:4">
-      <c r="B294" t="s">
+      <c r="C312" s="9"/>
+    </row>
+    <row r="313" spans="2:4">
+      <c r="B313" t="s">
         <v>106</v>
       </c>
-      <c r="C294" s="9"/>
-    </row>
-    <row r="295" spans="2:4">
-      <c r="C295" s="9"/>
-    </row>
-    <row r="296" spans="2:4">
-      <c r="C296" s="9"/>
-    </row>
-    <row r="297" spans="2:4">
-      <c r="C297" s="9"/>
-    </row>
-    <row r="299" spans="2:4" s="6" customFormat="1">
-      <c r="B299" s="3" t="s">
+      <c r="C313" s="9"/>
+    </row>
+    <row r="314" spans="2:4">
+      <c r="C314" s="9"/>
+    </row>
+    <row r="315" spans="2:4">
+      <c r="C315" s="9"/>
+    </row>
+    <row r="316" spans="2:4">
+      <c r="C316" s="9"/>
+    </row>
+    <row r="318" spans="2:4" s="6" customFormat="1">
+      <c r="B318" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C299" s="7"/>
-      <c r="D299" s="4"/>
-    </row>
-    <row r="300" spans="2:4" s="6" customFormat="1">
-      <c r="B300" s="22"/>
-      <c r="C300" s="7"/>
-      <c r="D300" s="4"/>
-    </row>
-    <row r="301" spans="2:4" s="6" customFormat="1">
-      <c r="B301" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C301" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D301" s="4"/>
-    </row>
-    <row r="302" spans="2:4" s="6" customFormat="1">
-      <c r="B302" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C302" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D302" s="4"/>
-    </row>
-    <row r="303" spans="2:4" s="6" customFormat="1">
-      <c r="B303" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D303" s="4"/>
-    </row>
-    <row r="304" spans="2:4" s="6" customFormat="1">
-      <c r="B304" s="22"/>
-      <c r="C304" s="7"/>
-      <c r="D304" s="4"/>
-    </row>
-    <row r="305" spans="2:4" s="6" customFormat="1">
-      <c r="B305" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C305" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D305" s="4"/>
-    </row>
-    <row r="306" spans="2:4" s="6" customFormat="1">
-      <c r="B306" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C306" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D306" s="4"/>
-    </row>
-    <row r="307" spans="2:4" s="6" customFormat="1">
-      <c r="B307" s="22"/>
-      <c r="C307" s="7"/>
-      <c r="D307" s="4"/>
-    </row>
-    <row r="308" spans="2:4" s="6" customFormat="1">
-      <c r="B308" s="22"/>
-      <c r="C308" s="7"/>
-      <c r="D308" s="4"/>
-    </row>
-    <row r="309" spans="2:4" s="6" customFormat="1">
-      <c r="B309" s="22"/>
-      <c r="C309" s="7"/>
-      <c r="D309" s="4"/>
-    </row>
-    <row r="310" spans="2:4" s="6" customFormat="1">
-      <c r="B310" s="22"/>
-      <c r="C310" s="7"/>
-      <c r="D310" s="4"/>
-    </row>
-    <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="22"/>
-      <c r="C311" s="7"/>
-      <c r="D311" s="4"/>
-    </row>
-    <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="22"/>
-      <c r="C312" s="7"/>
-      <c r="D312" s="4"/>
-    </row>
-    <row r="313" spans="2:4" s="6" customFormat="1">
-      <c r="B313" s="22"/>
-      <c r="C313" s="7"/>
-      <c r="D313" s="4"/>
-    </row>
-    <row r="314" spans="2:4" s="6" customFormat="1">
-      <c r="B314" s="22"/>
-      <c r="C314" s="7"/>
-      <c r="D314" s="4"/>
-    </row>
-    <row r="315" spans="2:4" s="6" customFormat="1">
-      <c r="B315" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C315" s="7"/>
-      <c r="D315" s="4"/>
-    </row>
-    <row r="316" spans="2:4" s="6" customFormat="1">
-      <c r="B316" s="22"/>
-      <c r="C316" s="7"/>
-      <c r="D316" s="4"/>
-    </row>
-    <row r="317" spans="2:4" s="6" customFormat="1">
-      <c r="B317" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C317" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D317" s="4"/>
-    </row>
-    <row r="318" spans="2:4" s="6" customFormat="1">
-      <c r="B318" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C318" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C318" s="7"/>
       <c r="D318" s="4"/>
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
-      <c r="B319" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C319" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B319" s="22"/>
+      <c r="C319" s="7"/>
       <c r="D319" s="4"/>
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
       <c r="B320" s="22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>14</v>
@@ -4207,13 +4187,17 @@
       <c r="D320" s="4"/>
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
-      <c r="B321" s="22"/>
-      <c r="C321" s="7"/>
+      <c r="B321" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D321" s="4"/>
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
       <c r="B322" s="22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>14</v>
@@ -4221,22 +4205,22 @@
       <c r="D322" s="4"/>
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
-      <c r="B323" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C323" s="7" t="s">
+      <c r="B323" s="22"/>
+      <c r="C323" s="7"/>
+      <c r="D323" s="4"/>
+    </row>
+    <row r="324" spans="2:4" s="6" customFormat="1">
+      <c r="B324" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C324" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D323" s="4"/>
-    </row>
-    <row r="324" spans="2:4" s="6" customFormat="1">
-      <c r="B324" s="22"/>
-      <c r="C324" s="7"/>
       <c r="D324" s="4"/>
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
       <c r="B325" s="22" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>14</v>
@@ -4244,21 +4228,13 @@
       <c r="D325" s="4"/>
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C326" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B326" s="22"/>
+      <c r="C326" s="7"/>
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B327" s="22"/>
+      <c r="C327" s="7"/>
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
@@ -4267,12 +4243,8 @@
       <c r="D328" s="4"/>
     </row>
     <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B329" s="22"/>
+      <c r="C329" s="7"/>
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
@@ -4296,7 +4268,9 @@
       <c r="D333" s="4"/>
     </row>
     <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="22"/>
+      <c r="B334" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C334" s="7"/>
       <c r="D334" s="4"/>
     </row>
@@ -4306,117 +4280,252 @@
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="22"/>
-      <c r="C336" s="7"/>
+      <c r="B336" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D336" s="4"/>
     </row>
-    <row r="337" spans="1:4" s="6" customFormat="1">
-      <c r="B337" s="3" t="s">
+    <row r="337" spans="2:4" s="6" customFormat="1">
+      <c r="B337" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D337" s="4"/>
+    </row>
+    <row r="338" spans="2:4" s="6" customFormat="1">
+      <c r="B338" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D338" s="4"/>
+    </row>
+    <row r="339" spans="2:4" s="6" customFormat="1">
+      <c r="B339" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D339" s="4"/>
+    </row>
+    <row r="340" spans="2:4" s="6" customFormat="1">
+      <c r="B340" s="22"/>
+      <c r="C340" s="7"/>
+      <c r="D340" s="4"/>
+    </row>
+    <row r="341" spans="2:4" s="6" customFormat="1">
+      <c r="B341" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D341" s="4"/>
+    </row>
+    <row r="342" spans="2:4" s="6" customFormat="1">
+      <c r="B342" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D342" s="4"/>
+    </row>
+    <row r="343" spans="2:4" s="6" customFormat="1">
+      <c r="B343" s="22"/>
+      <c r="C343" s="7"/>
+      <c r="D343" s="4"/>
+    </row>
+    <row r="344" spans="2:4" s="6" customFormat="1">
+      <c r="B344" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D344" s="4"/>
+    </row>
+    <row r="345" spans="2:4" s="6" customFormat="1">
+      <c r="B345" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D345" s="4"/>
+    </row>
+    <row r="346" spans="2:4" s="6" customFormat="1">
+      <c r="B346" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D346" s="4"/>
+    </row>
+    <row r="347" spans="2:4" s="6" customFormat="1">
+      <c r="B347" s="22"/>
+      <c r="C347" s="7"/>
+      <c r="D347" s="4"/>
+    </row>
+    <row r="348" spans="2:4" s="6" customFormat="1">
+      <c r="B348" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D348" s="4"/>
+    </row>
+    <row r="349" spans="2:4" s="6" customFormat="1">
+      <c r="B349" s="22"/>
+      <c r="C349" s="7"/>
+      <c r="D349" s="4"/>
+    </row>
+    <row r="350" spans="2:4" s="6" customFormat="1">
+      <c r="B350" s="22"/>
+      <c r="C350" s="7"/>
+      <c r="D350" s="4"/>
+    </row>
+    <row r="351" spans="2:4" s="6" customFormat="1">
+      <c r="B351" s="22"/>
+      <c r="C351" s="7"/>
+      <c r="D351" s="4"/>
+    </row>
+    <row r="352" spans="2:4" s="6" customFormat="1">
+      <c r="B352" s="22"/>
+      <c r="C352" s="7"/>
+      <c r="D352" s="4"/>
+    </row>
+    <row r="353" spans="1:4" s="6" customFormat="1">
+      <c r="B353" s="22"/>
+      <c r="C353" s="7"/>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="1:4" s="6" customFormat="1">
+      <c r="B354" s="22"/>
+      <c r="C354" s="7"/>
+      <c r="D354" s="4"/>
+    </row>
+    <row r="355" spans="1:4" s="6" customFormat="1">
+      <c r="B355" s="22"/>
+      <c r="C355" s="7"/>
+      <c r="D355" s="4"/>
+    </row>
+    <row r="356" spans="1:4" s="6" customFormat="1">
+      <c r="B356" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C337" s="7"/>
-      <c r="D337" s="4"/>
-    </row>
-    <row r="338" spans="1:4" s="6" customFormat="1">
-      <c r="B338" s="22"/>
-      <c r="C338" s="7"/>
-      <c r="D338" s="4"/>
-    </row>
-    <row r="339" spans="1:4" s="6" customFormat="1">
-      <c r="B339" s="22"/>
-      <c r="C339" s="7"/>
-      <c r="D339" s="4"/>
-    </row>
-    <row r="340" spans="1:4" s="6" customFormat="1">
-      <c r="B340" s="22"/>
-      <c r="C340" s="4"/>
-      <c r="D340" s="4"/>
-    </row>
-    <row r="341" spans="1:4" s="6" customFormat="1">
-      <c r="B341" s="19"/>
-      <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
-    </row>
-    <row r="342" spans="1:4" s="6" customFormat="1">
-      <c r="B342" s="21"/>
-      <c r="C342" s="4"/>
-      <c r="D342" s="4"/>
-    </row>
-    <row r="343" spans="1:4" s="6" customFormat="1">
-      <c r="B343" s="21"/>
-      <c r="C343" s="4"/>
-      <c r="D343" s="4"/>
-    </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="3"/>
-      <c r="B344" s="11"/>
-      <c r="C344" s="11"/>
-      <c r="D344" s="3"/>
-    </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="3"/>
-      <c r="B345" s="8" t="s">
+      <c r="C356" s="7"/>
+      <c r="D356" s="4"/>
+    </row>
+    <row r="357" spans="1:4" s="6" customFormat="1">
+      <c r="B357" s="22"/>
+      <c r="C357" s="7"/>
+      <c r="D357" s="4"/>
+    </row>
+    <row r="358" spans="1:4" s="6" customFormat="1">
+      <c r="B358" s="22"/>
+      <c r="C358" s="7"/>
+      <c r="D358" s="4"/>
+    </row>
+    <row r="359" spans="1:4" s="6" customFormat="1">
+      <c r="B359" s="22"/>
+      <c r="C359" s="4"/>
+      <c r="D359" s="4"/>
+    </row>
+    <row r="360" spans="1:4" s="6" customFormat="1">
+      <c r="B360" s="19"/>
+      <c r="C360" s="4"/>
+      <c r="D360" s="4"/>
+    </row>
+    <row r="361" spans="1:4" s="6" customFormat="1">
+      <c r="B361" s="21"/>
+      <c r="C361" s="4"/>
+      <c r="D361" s="4"/>
+    </row>
+    <row r="362" spans="1:4" s="6" customFormat="1">
+      <c r="B362" s="21"/>
+      <c r="C362" s="4"/>
+      <c r="D362" s="4"/>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="3"/>
+      <c r="B363" s="11"/>
+      <c r="C363" s="11"/>
+      <c r="D363" s="3"/>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="3"/>
+      <c r="B364" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C345" s="6">
-        <f>COUNTIF(C5:C344,"y")</f>
-        <v>21</v>
-      </c>
-      <c r="D345" s="2"/>
-    </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="3"/>
-      <c r="B346" s="8" t="s">
+      <c r="C364" s="6">
+        <f>COUNTIF(C5:C363,"y")</f>
+        <v>22</v>
+      </c>
+      <c r="D364" s="2"/>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="3"/>
+      <c r="B365" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C346" s="6">
-        <f>COUNTIF(C5:C344,"n")</f>
-        <v>113</v>
-      </c>
-      <c r="D346" s="2"/>
-    </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="3"/>
-      <c r="B347" s="8" t="s">
+      <c r="C365" s="6">
+        <f>COUNTIF(C5:C363,"n")</f>
+        <v>115</v>
+      </c>
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="3"/>
+      <c r="B366" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C347" s="7">
-        <f>COUNTIF(C5:C344,"TBD")</f>
-        <v>3</v>
-      </c>
-      <c r="D347" s="2"/>
-    </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="3"/>
-      <c r="B348" s="8" t="s">
+      <c r="C366" s="7">
+        <f>COUNTIF(C5:C363,"TBD")</f>
+        <v>2</v>
+      </c>
+      <c r="D366" s="2"/>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="3"/>
+      <c r="B367" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C348">
-        <f>SUM(C345:C347)</f>
-        <v>137</v>
-      </c>
-      <c r="D348" s="2"/>
-    </row>
-    <row r="349" spans="1:4" ht="18">
-      <c r="A349" s="3"/>
-      <c r="B349" s="10"/>
-      <c r="C349" s="10" t="s">
+      <c r="C367">
+        <f>SUM(C364:C366)</f>
+        <v>139</v>
+      </c>
+      <c r="D367" s="2"/>
+    </row>
+    <row r="368" spans="1:4" ht="18">
+      <c r="A368" s="3"/>
+      <c r="B368" s="10"/>
+      <c r="C368" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D349" s="41">
-        <f>C345/(C346+C345 + C347)</f>
-        <v>0.15328467153284672</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="3"/>
-      <c r="B350" s="11"/>
-      <c r="C350" s="11"/>
-      <c r="D350" s="3"/>
+      <c r="D368" s="41">
+        <f>C364/(C365+C364 + C366)</f>
+        <v>0.15827338129496402</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="3"/>
+      <c r="B369" s="11"/>
+      <c r="C369" s="11"/>
+      <c r="D369" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C299:C65098 C255:C297 C1:C3 C6:C253">
+  <conditionalFormatting sqref="C318:C65117 C274:C316 C1:C3 C6:C272">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -4443,7 +4552,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O27" sqref="O27"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4729,13 +4838,13 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="44">
-        <v>42708</v>
+        <v>42826</v>
       </c>
       <c r="B50" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50" s="4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D50" s="4">
         <v>3</v>
@@ -4748,7 +4857,7 @@
       </c>
       <c r="G50" s="30">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
-        <v>0.15328467153284672</v>
+        <v>0.15714285714285714</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -4793,26 +4902,26 @@
       </c>
       <c r="G53" s="38">
         <f>MIN(G50)</f>
-        <v>0.15328467153284672</v>
+        <v>0.15714285714285714</v>
       </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="39">
         <f>SUM(B54:D54)</f>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B54" s="15">
-        <f>Features!C345</f>
-        <v>21</v>
+        <f>Features!C364</f>
+        <v>22</v>
       </c>
       <c r="C54" s="16">
-        <f>Features!C346</f>
-        <v>113</v>
+        <f>Features!C365</f>
+        <v>115</v>
       </c>
       <c r="D54" s="17">
-        <f>Features!C347</f>
-        <v>3</v>
+        <f>Features!C366</f>
+        <v>2</v>
       </c>
       <c r="E54" s="18">
         <f>MIN(E50)</f>
@@ -4855,11 +4964,11 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B58" s="47">
         <f>A48+A54/B54*(A50-A48)</f>
-        <v>42757.714285714283</v>
+        <v>43501.409090909088</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="174">
   <si>
     <t>Feature</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Public Actions</t>
   </si>
   <si>
-    <t>API Spec</t>
-  </si>
-  <si>
     <t>int line index (2 billion lines)</t>
   </si>
   <si>
@@ -498,6 +495,51 @@
   </si>
   <si>
     <t>horizontal scrollbar policy</t>
+  </si>
+  <si>
+    <t>select all</t>
+  </si>
+  <si>
+    <t>stop blinking on mouse dragging</t>
+  </si>
+  <si>
+    <t>stop blinking when editing</t>
+  </si>
+  <si>
+    <t>blink</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>wrap text property</t>
+  </si>
+  <si>
+    <t>display caret property</t>
+  </si>
+  <si>
+    <t>blink rate property</t>
+  </si>
+  <si>
+    <t>editable property</t>
+  </si>
+  <si>
+    <t>model property</t>
+  </si>
+  <si>
+    <t>display loading</t>
+  </si>
+  <si>
+    <t>focus border</t>
+  </si>
+  <si>
+    <t>multiple selection property</t>
+  </si>
+  <si>
+    <t>scrolls to visible when dragging outside of the component boundaries</t>
   </si>
 </sst>
 </file>
@@ -755,8 +797,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954958"/>
-          <c:h val="0.89627228525119973"/>
+          <c:w val="0.9197807133095498"/>
+          <c:h val="0.89627228525119962"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -788,10 +830,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -801,15 +843,18 @@
                 <c:pt idx="2">
                   <c:v>42826</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42847</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$50</c:f>
+              <c:f>Progress!$B$48:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -818,6 +863,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,10 +898,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -863,15 +911,18 @@
                 <c:pt idx="2">
                   <c:v>42826</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42847</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$50</c:f>
+              <c:f>Progress!$C$48:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -880,6 +931,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,10 +966,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -925,15 +979,18 @@
                 <c:pt idx="2">
                   <c:v>42826</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42847</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$50</c:f>
+              <c:f>Progress!$D$48:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -942,6 +999,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,10 +1034,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -987,15 +1047,18 @@
                 <c:pt idx="2">
                   <c:v>42826</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42847</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$54</c:f>
+              <c:f>Progress!$E$48:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1005,21 +1068,24 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="112250240"/>
-        <c:axId val="111940736"/>
+        <c:axId val="122211712"/>
+        <c:axId val="121967744"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="112250240"/>
+        <c:axId val="122211712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111940736"/>
+        <c:crossAx val="121967744"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1062,7 +1128,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="111940736"/>
+        <c:axId val="121967744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +1170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112250240"/>
+        <c:crossAx val="122211712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1126,8 +1192,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.5828229804607754E-2"/>
-          <c:y val="0.33819556996218259"/>
+          <c:x val="4.582822980460776E-2"/>
+          <c:y val="0.3381955699621827"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1194,7 +1260,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001199" r="0.75000000000001199" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1248,7 +1314,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127324E-2"/>
+          <c:x val="4.4510450248127331E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1283,10 +1349,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1296,15 +1362,18 @@
                 <c:pt idx="2">
                   <c:v>42826</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42847</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$50</c:f>
+              <c:f>Progress!$G$48:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1314,15 +1383,18 @@
                 <c:pt idx="2">
                   <c:v>0.15714285714285714</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="111980928"/>
-        <c:axId val="111982464"/>
+        <c:axId val="122012032"/>
+        <c:axId val="122013568"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="111980928"/>
+        <c:axId val="122012032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,13 +1402,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-409]mmmm\ d\,\ yyyy;@" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="111982464"/>
+        <c:crossAx val="122013568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="111982464"/>
+        <c:axId val="122013568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1379,7 +1451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111980928"/>
+        <c:crossAx val="122012032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1428,7 +1500,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001199" r="0.75000000000001199" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1479,10 +1551,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1492,15 +1564,18 @@
                 <c:pt idx="2">
                   <c:v>42826</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42847</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$50</c:f>
+              <c:f>Progress!$C$48:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1509,6 +1584,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1541,10 +1619,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1554,15 +1632,18 @@
                 <c:pt idx="2">
                   <c:v>42826</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42847</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$50</c:f>
+              <c:f>Progress!$D$48:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1572,15 +1653,18 @@
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="112597248"/>
-        <c:axId val="112599040"/>
+        <c:axId val="122362112"/>
+        <c:axId val="122368000"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="112597248"/>
+        <c:axId val="122362112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112599040"/>
+        <c:crossAx val="122368000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1624,7 +1708,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="112599040"/>
+        <c:axId val="122368000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1666,7 +1750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112597248"/>
+        <c:crossAx val="122362112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1715,7 +1799,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001199" r="0.75000000000001199" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1765,7 +1849,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2173,10 +2257,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D369"/>
+  <dimension ref="A1:D412"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2224,7 +2308,7 @@
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="B7" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>2</v>
@@ -2233,7 +2317,7 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="B8" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -2247,7 +2331,7 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>2</v>
@@ -2256,7 +2340,7 @@
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="B11" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>2</v>
@@ -2270,7 +2354,7 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="B13" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>2</v>
@@ -2279,7 +2363,7 @@
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="B14" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>2</v>
@@ -2293,7 +2377,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2337,7 +2421,7 @@
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="4"/>
@@ -2349,7 +2433,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -2358,16 +2442,16 @@
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
       <c r="B27" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>14</v>
@@ -2376,7 +2460,7 @@
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>14</v>
@@ -2385,7 +2469,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -2394,7 +2478,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>14</v>
@@ -2408,7 +2492,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>14</v>
@@ -2417,7 +2501,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>14</v>
@@ -2426,7 +2510,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>14</v>
@@ -2435,7 +2519,7 @@
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>14</v>
@@ -2444,7 +2528,7 @@
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
       <c r="B37" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>14</v>
@@ -2480,16 +2564,16 @@
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="22" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="20" t="s">
-        <v>157</v>
+      <c r="B44" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
@@ -2497,17 +2581,13 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>2</v>
@@ -2516,43 +2596,43 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="20" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="2:4" s="6" customFormat="1">
+      <c r="B50" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" s="6" customFormat="1">
-      <c r="B50" s="22" t="s">
-        <v>112</v>
-      </c>
       <c r="C50" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="22" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
@@ -2560,8 +2640,8 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="22" t="s">
-        <v>117</v>
+      <c r="B52" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>14</v>
@@ -2570,7 +2650,7 @@
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="22" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>14</v>
@@ -2578,8 +2658,8 @@
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="20" t="s">
-        <v>153</v>
+      <c r="B54" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>14</v>
@@ -2587,17 +2667,17 @@
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="20" t="s">
-        <v>154</v>
+      <c r="B55" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -2605,18 +2685,30 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="22"/>
-      <c r="C57" s="7"/>
+      <c r="B57" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
-      <c r="B58" s="22"/>
-      <c r="C58" s="7"/>
+      <c r="B58" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="22"/>
-      <c r="C59" s="7"/>
+      <c r="B59" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
@@ -2625,22 +2717,26 @@
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="22"/>
-      <c r="C61" s="7"/>
+      <c r="B61" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="22" t="s">
-        <v>33</v>
+      <c r="B62" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="20" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -2649,7 +2745,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="20" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -2657,73 +2753,69 @@
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="7" t="s">
+      <c r="B65" s="22"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="2:4" s="6" customFormat="1">
+      <c r="B66" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="22"/>
-      <c r="C66" s="7"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="22"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="22"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="22"/>
-      <c r="C69" s="7"/>
+      <c r="B69" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B73" s="22"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="20" t="s">
-        <v>66</v>
+      <c r="B74" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>2</v>
@@ -2732,39 +2824,43 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="20"/>
-      <c r="C76" s="9"/>
+      <c r="B76" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>14</v>
+      <c r="B77" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>14</v>
@@ -2772,50 +2868,62 @@
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="9"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" s="7" t="s">
+      <c r="B81" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="22"/>
-      <c r="C83" s="7"/>
+      <c r="B83" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="22"/>
-      <c r="C84" s="7"/>
+      <c r="B84" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="22"/>
-      <c r="C85" s="7"/>
+      <c r="B85" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="22"/>
-      <c r="C86" s="7"/>
+      <c r="B86" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
@@ -2904,9 +3012,7 @@
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B104" s="22"/>
       <c r="C104" s="7"/>
       <c r="D104" s="4"/>
     </row>
@@ -2916,66 +3022,68 @@
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="22" t="s">
-        <v>126</v>
-      </c>
+      <c r="B106" s="22"/>
       <c r="C106" s="7"/>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="22"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="2:4" s="6" customFormat="1">
+      <c r="B108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="2:4" s="6" customFormat="1">
+      <c r="B109" s="22"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="2:4" s="6" customFormat="1">
+      <c r="B110" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="2:4" s="6" customFormat="1">
+      <c r="B111" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="2:4" s="6" customFormat="1">
+      <c r="B112" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C112" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="20" t="s">
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="2:4" s="6" customFormat="1">
+      <c r="B113" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C113" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C109" s="7" t="s">
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="2:4" s="6" customFormat="1">
+      <c r="B114" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="22"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="22"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="22"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="22"/>
-      <c r="C114" s="7"/>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
@@ -2989,30 +3097,18 @@
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B117" s="22"/>
+      <c r="C117" s="7"/>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B118" s="22"/>
+      <c r="C118" s="7"/>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B119" s="22"/>
+      <c r="C119" s="7"/>
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
@@ -3021,18 +3117,26 @@
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="20"/>
-      <c r="C121" s="7"/>
+      <c r="B121" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="20"/>
-      <c r="C122" s="7"/>
+      <c r="B122" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="22" t="s">
-        <v>56</v>
+      <c r="B123" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>14</v>
@@ -3040,16 +3144,12 @@
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B124" s="22"/>
+      <c r="C124" s="7"/>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="22"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="7"/>
       <c r="D125" s="4"/>
     </row>
@@ -3059,31 +3159,31 @@
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="22"/>
-      <c r="C127" s="7"/>
+      <c r="B127" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="22"/>
-      <c r="C128" s="7"/>
+      <c r="B128" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B129" s="22"/>
+      <c r="C129" s="7"/>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="7"/>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
@@ -3097,31 +3197,31 @@
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="22"/>
-      <c r="C133" s="7"/>
+      <c r="B133" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="22"/>
-      <c r="C134" s="7"/>
+      <c r="B134" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B135" s="22"/>
+      <c r="C135" s="7"/>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="B136" s="22"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
@@ -3135,40 +3235,36 @@
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="22"/>
-      <c r="C139" s="7"/>
+      <c r="B139" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="22"/>
-      <c r="C140" s="7"/>
+      <c r="B140" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B141" s="22"/>
+      <c r="C141" s="7"/>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B142" s="22"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B143" s="22"/>
+      <c r="C143" s="7"/>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
@@ -3177,31 +3273,35 @@
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="22"/>
-      <c r="C145" s="7"/>
+      <c r="B145" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="22"/>
-      <c r="C146" s="7"/>
+      <c r="B146" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="22" t="s">
-        <v>74</v>
+      <c r="B147" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B148" s="22"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
@@ -3215,22 +3315,26 @@
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="22"/>
-      <c r="C151" s="7"/>
+      <c r="B151" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="22" t="s">
-        <v>75</v>
+      <c r="B152" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="20" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>14</v>
@@ -3248,13 +3352,17 @@
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="22"/>
-      <c r="C156" s="7"/>
+      <c r="B156" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="22" t="s">
-        <v>77</v>
+      <c r="B157" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>14</v>
@@ -3262,12 +3370,8 @@
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B158" s="22"/>
+      <c r="C158" s="7"/>
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
@@ -3281,13 +3385,17 @@
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="22"/>
-      <c r="C161" s="7"/>
+      <c r="B161" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="22" t="s">
-        <v>78</v>
+      <c r="B162" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>14</v>
@@ -3295,12 +3403,8 @@
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B163" s="22"/>
+      <c r="C163" s="7"/>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
@@ -3314,13 +3418,17 @@
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
-      <c r="B166" s="22"/>
-      <c r="C166" s="7"/>
+      <c r="B166" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="22" t="s">
-        <v>79</v>
+      <c r="B167" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>14</v>
@@ -3328,21 +3436,13 @@
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B168" s="22"/>
+      <c r="C168" s="7"/>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B169" s="22"/>
+      <c r="C169" s="7"/>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
@@ -3351,18 +3451,26 @@
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="22"/>
-      <c r="C171" s="7"/>
+      <c r="B171" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="22"/>
-      <c r="C172" s="7"/>
+      <c r="B172" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="22" t="s">
-        <v>80</v>
+      <c r="B173" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>14</v>
@@ -3370,27 +3478,23 @@
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B174" s="22"/>
+      <c r="C174" s="7"/>
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="20"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="7"/>
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="20"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="7"/>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
       <c r="B177" s="22" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>14</v>
@@ -3398,27 +3502,27 @@
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="22"/>
-      <c r="C178" s="7"/>
+      <c r="B178" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="22"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="7"/>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B180" s="20"/>
+      <c r="C180" s="7"/>
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="20" t="s">
-        <v>132</v>
+      <c r="B181" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>14</v>
@@ -3437,7 +3541,7 @@
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
       <c r="B184" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>14</v>
@@ -3446,7 +3550,7 @@
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
       <c r="B185" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>14</v>
@@ -3454,12 +3558,8 @@
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B186" s="22"/>
+      <c r="C186" s="7"/>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
@@ -3468,13 +3568,17 @@
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="22"/>
-      <c r="C188" s="7"/>
+      <c r="B188" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="22" t="s">
-        <v>138</v>
+      <c r="B189" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>14</v>
@@ -3483,7 +3587,7 @@
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
       <c r="B190" s="20" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>14</v>
@@ -3491,12 +3595,8 @@
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B191" s="22"/>
+      <c r="C191" s="7"/>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
@@ -3505,13 +3605,17 @@
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="22"/>
-      <c r="C193" s="7"/>
+      <c r="B193" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="22" t="s">
-        <v>140</v>
+      <c r="B194" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>14</v>
@@ -3520,7 +3624,7 @@
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
       <c r="B195" s="20" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>14</v>
@@ -3528,12 +3632,8 @@
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B196" s="22"/>
+      <c r="C196" s="7"/>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
@@ -3543,7 +3643,7 @@
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
       <c r="B198" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>14</v>
@@ -3552,7 +3652,7 @@
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="20" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>14</v>
@@ -3561,7 +3661,7 @@
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>14</v>
@@ -3574,18 +3674,30 @@
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="22"/>
-      <c r="C202" s="7"/>
+      <c r="B202" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="22"/>
-      <c r="C203" s="7"/>
+      <c r="B203" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="22"/>
-      <c r="C204" s="7"/>
+      <c r="B204" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
@@ -3609,26 +3721,22 @@
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
-      <c r="B209" s="20"/>
+      <c r="B209" s="22"/>
       <c r="C209" s="7"/>
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B210" s="22"/>
+      <c r="C210" s="7"/>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
-      <c r="B211" s="20"/>
+      <c r="B211" s="22"/>
       <c r="C211" s="7"/>
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="20"/>
+      <c r="B212" s="22"/>
       <c r="C212" s="7"/>
       <c r="D212" s="4"/>
     </row>
@@ -3639,7 +3747,7 @@
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
       <c r="B214" s="22" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>14</v>
@@ -3647,21 +3755,13 @@
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B215" s="20"/>
+      <c r="C215" s="7"/>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B216" s="20"/>
+      <c r="C216" s="7"/>
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
@@ -3670,18 +3770,30 @@
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="20"/>
-      <c r="C218" s="7"/>
+      <c r="B218" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="20"/>
-      <c r="C219" s="7"/>
+      <c r="B219" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
-      <c r="B220" s="20"/>
-      <c r="C220" s="7"/>
+      <c r="B220" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D220" s="4"/>
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
@@ -3720,7 +3832,7 @@
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="22"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="7"/>
       <c r="D228" s="4"/>
     </row>
@@ -3730,69 +3842,57 @@
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
-      <c r="B230" s="19"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="7"/>
       <c r="D230" s="4"/>
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
-      <c r="B231" s="4"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="7"/>
       <c r="D231" s="4"/>
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B232" s="22"/>
       <c r="C232" s="7"/>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="2:4">
+    <row r="233" spans="2:4" s="6" customFormat="1">
+      <c r="B233" s="20"/>
       <c r="C233" s="7"/>
-    </row>
-    <row r="234" spans="2:4">
-      <c r="B234" s="43" t="s">
-        <v>148</v>
-      </c>
+      <c r="D233" s="4"/>
+    </row>
+    <row r="234" spans="2:4" s="6" customFormat="1">
+      <c r="B234" s="19"/>
       <c r="C234" s="7"/>
-    </row>
-    <row r="235" spans="2:4">
+      <c r="D234" s="4"/>
+    </row>
+    <row r="235" spans="2:4" s="6" customFormat="1">
+      <c r="B235" s="4"/>
       <c r="C235" s="7"/>
-    </row>
-    <row r="236" spans="2:4">
-      <c r="B236" t="s">
-        <v>89</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="D235" s="4"/>
+    </row>
+    <row r="236" spans="2:4" s="6" customFormat="1">
+      <c r="B236" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C236" s="7"/>
+      <c r="D236" s="4"/>
     </row>
     <row r="237" spans="2:4">
-      <c r="B237" t="s">
-        <v>90</v>
-      </c>
-      <c r="C237" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C237" s="7"/>
     </row>
     <row r="238" spans="2:4">
-      <c r="B238" t="s">
-        <v>91</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B238" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C238" s="7"/>
     </row>
     <row r="239" spans="2:4">
-      <c r="B239" t="s">
-        <v>92</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C239" s="7"/>
     </row>
     <row r="240" spans="2:4">
       <c r="B240" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>14</v>
@@ -3800,7 +3900,7 @@
     </row>
     <row r="241" spans="2:3">
       <c r="B241" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>14</v>
@@ -3808,15 +3908,15 @@
     </row>
     <row r="242" spans="2:3">
       <c r="B242" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="45" t="s">
-        <v>97</v>
+      <c r="B243" t="s">
+        <v>91</v>
       </c>
       <c r="C243" s="9" t="s">
         <v>14</v>
@@ -3824,15 +3924,15 @@
     </row>
     <row r="244" spans="2:3">
       <c r="B244" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C244" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="45" t="s">
-        <v>98</v>
+      <c r="B245" t="s">
+        <v>93</v>
       </c>
       <c r="C245" s="9" t="s">
         <v>14</v>
@@ -3840,7 +3940,7 @@
     </row>
     <row r="246" spans="2:3">
       <c r="B246" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C246" s="9" t="s">
         <v>14</v>
@@ -3848,96 +3948,96 @@
     </row>
     <row r="247" spans="2:3">
       <c r="B247" s="45" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C247" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="46" t="s">
-        <v>111</v>
+      <c r="B248" t="s">
+        <v>95</v>
       </c>
       <c r="C248" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" s="46" t="s">
-        <v>125</v>
+      <c r="B249" s="45" t="s">
+        <v>97</v>
       </c>
       <c r="C249" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" s="45"/>
-      <c r="C250" s="9"/>
+      <c r="B250" t="s">
+        <v>99</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="251" spans="2:3">
-      <c r="B251" s="45"/>
-      <c r="C251" s="9"/>
+      <c r="B251" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="45"/>
-      <c r="C252" s="9"/>
+      <c r="B252" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="253" spans="2:3">
-      <c r="C253" s="9"/>
+      <c r="B253" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="254" spans="2:3">
+      <c r="B254" s="45"/>
       <c r="C254" s="9"/>
     </row>
     <row r="255" spans="2:3">
+      <c r="B255" s="45"/>
       <c r="C255" s="9"/>
     </row>
     <row r="256" spans="2:3">
+      <c r="B256" s="45"/>
       <c r="C256" s="9"/>
     </row>
     <row r="257" spans="2:3">
-      <c r="B257" s="43" t="s">
-        <v>149</v>
-      </c>
       <c r="C257" s="9"/>
     </row>
     <row r="258" spans="2:3">
       <c r="C258" s="9"/>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" t="s">
-        <v>119</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C259" s="9"/>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" t="s">
-        <v>120</v>
-      </c>
-      <c r="C260" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C260" s="9"/>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" t="s">
-        <v>121</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B261" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C261" s="9"/>
     </row>
     <row r="262" spans="2:3">
-      <c r="B262" t="s">
-        <v>122</v>
-      </c>
-      <c r="C262" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C262" s="9"/>
     </row>
     <row r="263" spans="2:3">
       <c r="B263" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>14</v>
@@ -3945,114 +4045,139 @@
     </row>
     <row r="264" spans="2:3">
       <c r="B264" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="265" spans="2:3">
-      <c r="C265" s="9"/>
+      <c r="B265" t="s">
+        <v>120</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="266" spans="2:3">
-      <c r="C266" s="9"/>
+      <c r="B266" t="s">
+        <v>121</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="267" spans="2:3">
-      <c r="C267" s="9"/>
+      <c r="B267" t="s">
+        <v>122</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="268" spans="2:3">
-      <c r="C268" s="9"/>
+      <c r="B268" t="s">
+        <v>123</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C269" s="9"/>
+      <c r="B269" t="s">
+        <v>159</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="270" spans="2:3">
       <c r="C270" s="9"/>
     </row>
     <row r="271" spans="2:3">
-      <c r="B271" t="s">
-        <v>146</v>
-      </c>
-      <c r="C271" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C271" s="9"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" t="s">
-        <v>110</v>
-      </c>
-      <c r="C272" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C272" s="9"/>
+    </row>
+    <row r="273" spans="2:3">
+      <c r="B273" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C273" s="9"/>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" t="s">
-        <v>88</v>
-      </c>
-      <c r="C274" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C274" s="9"/>
     </row>
     <row r="275" spans="2:3">
       <c r="B275" t="s">
-        <v>102</v>
-      </c>
-      <c r="C275" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C275" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="276" spans="2:3">
       <c r="B276" t="s">
-        <v>103</v>
-      </c>
-      <c r="C276" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C276" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="2:3">
-      <c r="C277" s="9"/>
-    </row>
     <row r="278" spans="2:3">
-      <c r="B278" s="46" t="s">
-        <v>109</v>
+      <c r="B278" t="s">
+        <v>87</v>
       </c>
       <c r="C278" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="279" spans="2:3">
-      <c r="C279" s="9"/>
+      <c r="B279" t="s">
+        <v>101</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="280" spans="2:3">
-      <c r="B280" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C280" s="9" t="s">
+      <c r="B280" t="s">
+        <v>102</v>
+      </c>
+      <c r="C280" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" t="s">
+      <c r="C281" s="9"/>
+    </row>
+    <row r="282" spans="2:3">
+      <c r="B282" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C281" s="9" t="s">
+      <c r="C282" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="282" spans="2:3">
-      <c r="C282" s="9"/>
     </row>
     <row r="283" spans="2:3">
       <c r="C283" s="9"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="C284" s="9"/>
+      <c r="B284" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="285" spans="2:3">
-      <c r="C285" s="9"/>
+      <c r="B285" t="s">
+        <v>107</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="286" spans="2:3">
       <c r="C286" s="9"/>
@@ -4111,139 +4236,112 @@
     <row r="304" spans="3:3">
       <c r="C304" s="9"/>
     </row>
-    <row r="305" spans="2:4">
+    <row r="305" spans="2:3">
       <c r="C305" s="9"/>
     </row>
-    <row r="306" spans="2:4">
+    <row r="306" spans="2:3">
       <c r="C306" s="9"/>
     </row>
-    <row r="307" spans="2:4">
-      <c r="B307" s="3" t="s">
+    <row r="307" spans="2:3">
+      <c r="C307" s="9"/>
+    </row>
+    <row r="308" spans="2:3">
+      <c r="C308" s="9"/>
+    </row>
+    <row r="309" spans="2:3">
+      <c r="C309" s="9"/>
+    </row>
+    <row r="310" spans="2:3">
+      <c r="C310" s="9"/>
+    </row>
+    <row r="311" spans="2:3">
+      <c r="B311" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C311" s="9"/>
+    </row>
+    <row r="312" spans="2:3">
+      <c r="B312" t="s">
+        <v>50</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3">
+      <c r="B313" t="s">
+        <v>51</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3">
+      <c r="B314" t="s">
+        <v>52</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3">
+      <c r="C315" s="9"/>
+    </row>
+    <row r="316" spans="2:3">
+      <c r="B316" t="s">
         <v>104</v>
       </c>
-      <c r="C307" s="9"/>
-    </row>
-    <row r="308" spans="2:4">
-      <c r="B308" t="s">
-        <v>51</v>
-      </c>
-      <c r="C308" s="9"/>
-    </row>
-    <row r="309" spans="2:4">
-      <c r="B309" t="s">
-        <v>52</v>
-      </c>
-      <c r="C309" s="9"/>
-    </row>
-    <row r="310" spans="2:4">
-      <c r="B310" t="s">
-        <v>53</v>
-      </c>
-      <c r="C310" s="9"/>
-    </row>
-    <row r="311" spans="2:4">
-      <c r="C311" s="9"/>
-    </row>
-    <row r="312" spans="2:4">
-      <c r="B312" t="s">
+      <c r="C316" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3">
+      <c r="B317" t="s">
         <v>105</v>
       </c>
-      <c r="C312" s="9"/>
-    </row>
-    <row r="313" spans="2:4">
-      <c r="B313" t="s">
-        <v>106</v>
-      </c>
-      <c r="C313" s="9"/>
-    </row>
-    <row r="314" spans="2:4">
-      <c r="C314" s="9"/>
-    </row>
-    <row r="315" spans="2:4">
-      <c r="C315" s="9"/>
-    </row>
-    <row r="316" spans="2:4">
-      <c r="C316" s="9"/>
-    </row>
-    <row r="318" spans="2:4" s="6" customFormat="1">
-      <c r="B318" s="3" t="s">
+      <c r="C317" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3">
+      <c r="C318" s="9"/>
+    </row>
+    <row r="319" spans="2:3">
+      <c r="B319" t="s">
+        <v>159</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="C320" s="9"/>
+    </row>
+    <row r="321" spans="2:4">
+      <c r="C321" s="9"/>
+    </row>
+    <row r="322" spans="2:4">
+      <c r="C322" s="9"/>
+    </row>
+    <row r="323" spans="2:4">
+      <c r="C323" s="9"/>
+    </row>
+    <row r="324" spans="2:4">
+      <c r="C324" s="9"/>
+    </row>
+    <row r="325" spans="2:4">
+      <c r="C325" s="9"/>
+    </row>
+    <row r="326" spans="2:4">
+      <c r="C326" s="9"/>
+    </row>
+    <row r="327" spans="2:4">
+      <c r="C327" s="9"/>
+    </row>
+    <row r="329" spans="2:4" s="6" customFormat="1">
+      <c r="B329" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C318" s="7"/>
-      <c r="D318" s="4"/>
-    </row>
-    <row r="319" spans="2:4" s="6" customFormat="1">
-      <c r="B319" s="22"/>
-      <c r="C319" s="7"/>
-      <c r="D319" s="4"/>
-    </row>
-    <row r="320" spans="2:4" s="6" customFormat="1">
-      <c r="B320" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C320" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D320" s="4"/>
-    </row>
-    <row r="321" spans="2:4" s="6" customFormat="1">
-      <c r="B321" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D321" s="4"/>
-    </row>
-    <row r="322" spans="2:4" s="6" customFormat="1">
-      <c r="B322" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C322" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D322" s="4"/>
-    </row>
-    <row r="323" spans="2:4" s="6" customFormat="1">
-      <c r="B323" s="22"/>
-      <c r="C323" s="7"/>
-      <c r="D323" s="4"/>
-    </row>
-    <row r="324" spans="2:4" s="6" customFormat="1">
-      <c r="B324" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C324" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D324" s="4"/>
-    </row>
-    <row r="325" spans="2:4" s="6" customFormat="1">
-      <c r="B325" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C325" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D325" s="4"/>
-    </row>
-    <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="22"/>
-      <c r="C326" s="7"/>
-      <c r="D326" s="4"/>
-    </row>
-    <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="22"/>
-      <c r="C327" s="7"/>
-      <c r="D327" s="4"/>
-    </row>
-    <row r="328" spans="2:4" s="6" customFormat="1">
-      <c r="B328" s="22"/>
-      <c r="C328" s="7"/>
-      <c r="D328" s="4"/>
-    </row>
-    <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="22"/>
       <c r="C329" s="7"/>
       <c r="D329" s="4"/>
     </row>
@@ -4253,35 +4351,49 @@
       <c r="D330" s="4"/>
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
-      <c r="B331" s="22"/>
-      <c r="C331" s="7"/>
+      <c r="B331" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D331" s="4"/>
     </row>
     <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="22"/>
-      <c r="C332" s="7"/>
+      <c r="B332" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D332" s="4"/>
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
-      <c r="B333" s="22"/>
-      <c r="C333" s="7"/>
+      <c r="B333" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D333" s="4"/>
     </row>
     <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B334" s="22"/>
       <c r="C334" s="7"/>
       <c r="D334" s="4"/>
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="22"/>
-      <c r="C335" s="7"/>
+      <c r="B335" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
       <c r="B336" s="22" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>14</v>
@@ -4289,30 +4401,22 @@
       <c r="D336" s="4"/>
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
-      <c r="B337" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C337" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B337" s="22"/>
+      <c r="C337" s="7"/>
       <c r="D337" s="4"/>
     </row>
     <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="22" t="s">
-        <v>48</v>
+      <c r="B338" t="s">
+        <v>159</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D338" s="4"/>
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C339" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B339" s="22"/>
+      <c r="C339" s="7"/>
       <c r="D339" s="4"/>
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
@@ -4321,21 +4425,13 @@
       <c r="D340" s="4"/>
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
-      <c r="B341" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B341" s="22"/>
+      <c r="C341" s="7"/>
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C342" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B342" s="22"/>
+      <c r="C342" s="7"/>
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
@@ -4344,54 +4440,56 @@
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
-      <c r="B344" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C344" s="7" t="s">
+      <c r="B344" s="22"/>
+      <c r="C344" s="7"/>
+      <c r="D344" s="4"/>
+    </row>
+    <row r="345" spans="2:4" s="6" customFormat="1">
+      <c r="B345" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C345" s="7"/>
+      <c r="D345" s="4"/>
+    </row>
+    <row r="346" spans="2:4" s="6" customFormat="1">
+      <c r="B346" s="22"/>
+      <c r="C346" s="7"/>
+      <c r="D346" s="4"/>
+    </row>
+    <row r="347" spans="2:4" s="6" customFormat="1">
+      <c r="B347" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C347" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D344" s="4"/>
-    </row>
-    <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C345" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D345" s="4"/>
-    </row>
-    <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C346" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D346" s="4"/>
-    </row>
-    <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="22"/>
-      <c r="C347" s="7"/>
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
       <c r="B348" s="22" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="C348" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D348" s="4"/>
+    </row>
+    <row r="349" spans="2:4" s="6" customFormat="1">
+      <c r="B349" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D349" s="4"/>
+    </row>
+    <row r="350" spans="2:4" s="6" customFormat="1">
+      <c r="B350" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C350" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D348" s="4"/>
-    </row>
-    <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="22"/>
-      <c r="C349" s="7"/>
-      <c r="D349" s="4"/>
-    </row>
-    <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="22"/>
-      <c r="C350" s="7"/>
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
@@ -4400,132 +4498,399 @@
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="22"/>
-      <c r="C352" s="7"/>
+      <c r="B352" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D352" s="4"/>
     </row>
-    <row r="353" spans="1:4" s="6" customFormat="1">
-      <c r="B353" s="22"/>
-      <c r="C353" s="7"/>
+    <row r="353" spans="2:4" s="6" customFormat="1">
+      <c r="B353" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D353" s="4"/>
     </row>
-    <row r="354" spans="1:4" s="6" customFormat="1">
+    <row r="354" spans="2:4" s="6" customFormat="1">
       <c r="B354" s="22"/>
       <c r="C354" s="7"/>
       <c r="D354" s="4"/>
     </row>
-    <row r="355" spans="1:4" s="6" customFormat="1">
-      <c r="B355" s="22"/>
-      <c r="C355" s="7"/>
+    <row r="355" spans="2:4" s="6" customFormat="1">
+      <c r="B355" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D355" s="4"/>
     </row>
-    <row r="356" spans="1:4" s="6" customFormat="1">
-      <c r="B356" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C356" s="7"/>
+    <row r="356" spans="2:4" s="6" customFormat="1">
+      <c r="B356" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D356" s="4"/>
     </row>
-    <row r="357" spans="1:4" s="6" customFormat="1">
-      <c r="B357" s="22"/>
-      <c r="C357" s="7"/>
+    <row r="357" spans="2:4" s="6" customFormat="1">
+      <c r="B357" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D357" s="4"/>
     </row>
-    <row r="358" spans="1:4" s="6" customFormat="1">
+    <row r="358" spans="2:4" s="6" customFormat="1">
       <c r="B358" s="22"/>
       <c r="C358" s="7"/>
       <c r="D358" s="4"/>
     </row>
-    <row r="359" spans="1:4" s="6" customFormat="1">
-      <c r="B359" s="22"/>
-      <c r="C359" s="4"/>
+    <row r="359" spans="2:4" s="6" customFormat="1">
+      <c r="B359" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D359" s="4"/>
     </row>
-    <row r="360" spans="1:4" s="6" customFormat="1">
-      <c r="B360" s="19"/>
-      <c r="C360" s="4"/>
+    <row r="360" spans="2:4" s="6" customFormat="1">
+      <c r="B360" s="22"/>
+      <c r="C360" s="7"/>
       <c r="D360" s="4"/>
     </row>
-    <row r="361" spans="1:4" s="6" customFormat="1">
-      <c r="B361" s="21"/>
-      <c r="C361" s="4"/>
+    <row r="361" spans="2:4" s="6" customFormat="1">
+      <c r="B361" s="22"/>
+      <c r="C361" s="7"/>
       <c r="D361" s="4"/>
     </row>
-    <row r="362" spans="1:4" s="6" customFormat="1">
-      <c r="B362" s="21"/>
-      <c r="C362" s="4"/>
+    <row r="362" spans="2:4" s="6" customFormat="1">
+      <c r="B362" s="22"/>
+      <c r="C362" s="7"/>
       <c r="D362" s="4"/>
     </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="3"/>
-      <c r="B363" s="11"/>
-      <c r="C363" s="11"/>
-      <c r="D363" s="3"/>
-    </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="3"/>
-      <c r="B364" s="8" t="s">
+    <row r="363" spans="2:4" s="6" customFormat="1">
+      <c r="B363" s="22"/>
+      <c r="C363" s="7"/>
+      <c r="D363" s="4"/>
+    </row>
+    <row r="364" spans="2:4" s="6" customFormat="1">
+      <c r="B364" s="22"/>
+      <c r="C364" s="7"/>
+      <c r="D364" s="4"/>
+    </row>
+    <row r="365" spans="2:4" s="6" customFormat="1">
+      <c r="B365" s="22"/>
+      <c r="C365" s="7"/>
+      <c r="D365" s="4"/>
+    </row>
+    <row r="366" spans="2:4" s="6" customFormat="1">
+      <c r="B366" s="22"/>
+      <c r="C366" s="7"/>
+      <c r="D366" s="4"/>
+    </row>
+    <row r="367" spans="2:4" s="6" customFormat="1">
+      <c r="B367" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C367" s="7"/>
+      <c r="D367" s="4"/>
+    </row>
+    <row r="368" spans="2:4" s="6" customFormat="1">
+      <c r="B368" s="22"/>
+      <c r="C368" s="7"/>
+      <c r="D368" s="4"/>
+    </row>
+    <row r="369" spans="2:4" s="6" customFormat="1">
+      <c r="B369" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C369" s="7"/>
+      <c r="D369" s="4"/>
+    </row>
+    <row r="370" spans="2:4" s="6" customFormat="1">
+      <c r="B370" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="371" spans="2:4" s="6" customFormat="1">
+      <c r="B371" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D371" s="4"/>
+    </row>
+    <row r="372" spans="2:4" s="6" customFormat="1">
+      <c r="B372" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D372" s="4"/>
+    </row>
+    <row r="373" spans="2:4" s="6" customFormat="1">
+      <c r="B373" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D373" s="4"/>
+    </row>
+    <row r="374" spans="2:4" s="6" customFormat="1">
+      <c r="B374" s="22"/>
+      <c r="C374" s="7"/>
+      <c r="D374" s="4"/>
+    </row>
+    <row r="375" spans="2:4" s="6" customFormat="1">
+      <c r="B375" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C375" s="7"/>
+      <c r="D375" s="4"/>
+    </row>
+    <row r="376" spans="2:4" s="6" customFormat="1">
+      <c r="B376" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D376" s="4"/>
+    </row>
+    <row r="377" spans="2:4" s="6" customFormat="1">
+      <c r="B377" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D377" s="4"/>
+    </row>
+    <row r="378" spans="2:4" s="6" customFormat="1">
+      <c r="B378" s="22"/>
+      <c r="C378" s="7"/>
+      <c r="D378" s="4"/>
+    </row>
+    <row r="379" spans="2:4" s="6" customFormat="1">
+      <c r="B379" s="22"/>
+      <c r="C379" s="7"/>
+      <c r="D379" s="4"/>
+    </row>
+    <row r="380" spans="2:4" s="6" customFormat="1">
+      <c r="B380" s="22"/>
+      <c r="C380" s="7"/>
+      <c r="D380" s="4"/>
+    </row>
+    <row r="381" spans="2:4" s="6" customFormat="1">
+      <c r="B381" s="22"/>
+      <c r="C381" s="7"/>
+      <c r="D381" s="4"/>
+    </row>
+    <row r="382" spans="2:4" s="6" customFormat="1">
+      <c r="B382" s="22"/>
+      <c r="C382" s="7"/>
+      <c r="D382" s="4"/>
+    </row>
+    <row r="383" spans="2:4" s="6" customFormat="1">
+      <c r="B383" s="22"/>
+      <c r="C383" s="7"/>
+      <c r="D383" s="4"/>
+    </row>
+    <row r="384" spans="2:4" s="6" customFormat="1">
+      <c r="B384" s="22"/>
+      <c r="C384" s="7"/>
+      <c r="D384" s="4"/>
+    </row>
+    <row r="385" spans="2:4" s="6" customFormat="1">
+      <c r="B385" s="22"/>
+      <c r="C385" s="7"/>
+      <c r="D385" s="4"/>
+    </row>
+    <row r="386" spans="2:4" s="6" customFormat="1">
+      <c r="B386" s="22"/>
+      <c r="C386" s="7"/>
+      <c r="D386" s="4"/>
+    </row>
+    <row r="387" spans="2:4" s="6" customFormat="1">
+      <c r="B387" s="22"/>
+      <c r="C387" s="7"/>
+      <c r="D387" s="4"/>
+    </row>
+    <row r="388" spans="2:4" s="6" customFormat="1">
+      <c r="B388" s="22"/>
+      <c r="C388" s="7"/>
+      <c r="D388" s="4"/>
+    </row>
+    <row r="389" spans="2:4" s="6" customFormat="1">
+      <c r="B389" s="22"/>
+      <c r="C389" s="7"/>
+      <c r="D389" s="4"/>
+    </row>
+    <row r="390" spans="2:4" s="6" customFormat="1">
+      <c r="B390" s="22"/>
+      <c r="C390" s="7"/>
+      <c r="D390" s="4"/>
+    </row>
+    <row r="391" spans="2:4" s="6" customFormat="1">
+      <c r="B391" s="22"/>
+      <c r="C391" s="7"/>
+      <c r="D391" s="4"/>
+    </row>
+    <row r="392" spans="2:4" s="6" customFormat="1">
+      <c r="B392" s="22"/>
+      <c r="C392" s="7"/>
+      <c r="D392" s="4"/>
+    </row>
+    <row r="393" spans="2:4" s="6" customFormat="1">
+      <c r="B393" s="22"/>
+      <c r="C393" s="7"/>
+      <c r="D393" s="4"/>
+    </row>
+    <row r="394" spans="2:4" s="6" customFormat="1">
+      <c r="B394" s="22"/>
+      <c r="C394" s="7"/>
+      <c r="D394" s="4"/>
+    </row>
+    <row r="395" spans="2:4" s="6" customFormat="1">
+      <c r="B395" s="22"/>
+      <c r="C395" s="7"/>
+      <c r="D395" s="4"/>
+    </row>
+    <row r="396" spans="2:4" s="6" customFormat="1">
+      <c r="B396" s="22"/>
+      <c r="C396" s="7"/>
+      <c r="D396" s="4"/>
+    </row>
+    <row r="397" spans="2:4" s="6" customFormat="1">
+      <c r="B397" s="22"/>
+      <c r="C397" s="7"/>
+      <c r="D397" s="4"/>
+    </row>
+    <row r="398" spans="2:4" s="6" customFormat="1">
+      <c r="B398" s="22"/>
+      <c r="C398" s="7"/>
+      <c r="D398" s="4"/>
+    </row>
+    <row r="399" spans="2:4" s="6" customFormat="1">
+      <c r="B399" s="22"/>
+      <c r="C399" s="7"/>
+      <c r="D399" s="4"/>
+    </row>
+    <row r="400" spans="2:4" s="6" customFormat="1">
+      <c r="B400" s="22"/>
+      <c r="C400" s="7"/>
+      <c r="D400" s="4"/>
+    </row>
+    <row r="401" spans="1:4" s="6" customFormat="1">
+      <c r="B401" s="22"/>
+      <c r="C401" s="7"/>
+      <c r="D401" s="4"/>
+    </row>
+    <row r="402" spans="1:4" s="6" customFormat="1">
+      <c r="B402" s="22"/>
+      <c r="C402" s="4"/>
+      <c r="D402" s="4"/>
+    </row>
+    <row r="403" spans="1:4" s="6" customFormat="1">
+      <c r="B403" s="19"/>
+      <c r="C403" s="4"/>
+      <c r="D403" s="4"/>
+    </row>
+    <row r="404" spans="1:4" s="6" customFormat="1">
+      <c r="B404" s="21"/>
+      <c r="C404" s="4"/>
+      <c r="D404" s="4"/>
+    </row>
+    <row r="405" spans="1:4" s="6" customFormat="1">
+      <c r="B405" s="21"/>
+      <c r="C405" s="4"/>
+      <c r="D405" s="4"/>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="3"/>
+      <c r="B406" s="11"/>
+      <c r="C406" s="11"/>
+      <c r="D406" s="3"/>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="3"/>
+      <c r="B407" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C364" s="6">
-        <f>COUNTIF(C5:C363,"y")</f>
-        <v>22</v>
-      </c>
-      <c r="D364" s="2"/>
-    </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="3"/>
-      <c r="B365" s="8" t="s">
+      <c r="C407" s="6">
+        <f>COUNTIF(C5:C406,"y")</f>
+        <v>32</v>
+      </c>
+      <c r="D407" s="2"/>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="3"/>
+      <c r="B408" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C365" s="6">
-        <f>COUNTIF(C5:C363,"n")</f>
-        <v>115</v>
-      </c>
-      <c r="D365" s="2"/>
-    </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="3"/>
-      <c r="B366" s="8" t="s">
+      <c r="C408" s="6">
+        <f>COUNTIF(C5:C406,"n")</f>
+        <v>126</v>
+      </c>
+      <c r="D408" s="2"/>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="3"/>
+      <c r="B409" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C366" s="7">
-        <f>COUNTIF(C5:C363,"TBD")</f>
+      <c r="C409" s="7">
+        <f>COUNTIF(C5:C406,"TBD")</f>
         <v>2</v>
       </c>
-      <c r="D366" s="2"/>
-    </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="3"/>
-      <c r="B367" s="8" t="s">
+      <c r="D409" s="2"/>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="3"/>
+      <c r="B410" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C367">
-        <f>SUM(C364:C366)</f>
-        <v>139</v>
-      </c>
-      <c r="D367" s="2"/>
-    </row>
-    <row r="368" spans="1:4" ht="18">
-      <c r="A368" s="3"/>
-      <c r="B368" s="10"/>
-      <c r="C368" s="10" t="s">
+      <c r="C410">
+        <f>SUM(C407:C409)</f>
+        <v>160</v>
+      </c>
+      <c r="D410" s="2"/>
+    </row>
+    <row r="411" spans="1:4" ht="18">
+      <c r="A411" s="3"/>
+      <c r="B411" s="10"/>
+      <c r="C411" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D368" s="41">
-        <f>C364/(C365+C364 + C366)</f>
-        <v>0.15827338129496402</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="3"/>
-      <c r="B369" s="11"/>
-      <c r="C369" s="11"/>
-      <c r="D369" s="3"/>
+      <c r="D411" s="41">
+        <f>C407/(C408+C407 + C409)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="3"/>
+      <c r="B412" s="11"/>
+      <c r="C412" s="11"/>
+      <c r="D412" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C318:C65117 C274:C316 C1:C3 C6:C272">
+  <conditionalFormatting sqref="C329:C65160 C278:C327 C1:C3 C6:C276">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -4547,12 +4912,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT864"/>
+  <dimension ref="A1:IT865"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O27" sqref="O27"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4862,13 +5227,28 @@
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="44"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="30"/>
+      <c r="A51" s="44">
+        <v>42847</v>
+      </c>
+      <c r="B51" s="4">
+        <v>32</v>
+      </c>
+      <c r="C51" s="4">
+        <v>126</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="28">
+        <v>0</v>
+      </c>
+      <c r="G51" s="30">
+        <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
+        <v>0.2</v>
+      </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:11">
@@ -4877,84 +5257,84 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="31"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="30"/>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="44"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D54" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E54" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F54" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="38">
-        <f>MIN(G50)</f>
-        <v>0.15714285714285714</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="39">
-        <f>SUM(B54:D54)</f>
-        <v>139</v>
-      </c>
-      <c r="B54" s="15">
-        <f>Features!C364</f>
-        <v>22</v>
-      </c>
-      <c r="C54" s="16">
-        <f>Features!C365</f>
-        <v>115</v>
-      </c>
-      <c r="D54" s="17">
-        <f>Features!C366</f>
+      <c r="G54" s="38">
+        <f>MIN(G51)</f>
+        <v>0.2</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="39">
+        <f>SUM(B55:D55)</f>
+        <v>160</v>
+      </c>
+      <c r="B55" s="15">
+        <f>Features!C407</f>
+        <v>32</v>
+      </c>
+      <c r="C55" s="16">
+        <f>Features!C408</f>
+        <v>126</v>
+      </c>
+      <c r="D55" s="17">
+        <f>Features!C409</f>
         <v>2</v>
       </c>
-      <c r="E54" s="18">
-        <f>MIN(E50)</f>
+      <c r="E55" s="18">
+        <f>MIN(E51)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="4"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="30"/>
       <c r="H55" s="7"/>
-      <c r="J55" s="36"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="30"/>
       <c r="H56" s="7"/>
+      <c r="J56" s="36"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="4"/>
-      <c r="B57" s="19"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -4963,13 +5343,8 @@
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="B58" s="47">
-        <f>A48+A54/B54*(A50-A48)</f>
-        <v>43501.409090909088</v>
-      </c>
+      <c r="A58" s="4"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -4978,8 +5353,13 @@
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="47">
+        <f>A48+A55/B55*(A51-A48)</f>
+        <v>43439</v>
+      </c>
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -4989,7 +5369,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="4"/>
-      <c r="B60" s="19"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -5009,7 +5389,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -5029,7 +5409,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="4"/>
-      <c r="B64" s="7"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -5039,7 +5419,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -5058,7 +5438,7 @@
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="7"/>
+      <c r="A67" s="4"/>
       <c r="B67" s="20"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
@@ -5069,7 +5449,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -5200,7 +5580,7 @@
     <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+      <c r="C81" s="4"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -5209,7 +5589,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7"/>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -5217,15 +5597,15 @@
       <c r="G82" s="30"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="4"/>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8" s="2" customFormat="1">
       <c r="A84" s="4"/>
@@ -5399,7 +5779,7 @@
     </row>
     <row r="101" spans="1:8" s="2" customFormat="1">
       <c r="A101" s="4"/>
-      <c r="B101" s="6"/>
+      <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -5409,7 +5789,7 @@
     </row>
     <row r="102" spans="1:8" s="2" customFormat="1">
       <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -5439,7 +5819,7 @@
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1">
       <c r="A105" s="4"/>
-      <c r="B105" s="19"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -5479,7 +5859,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="21"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -5489,7 +5869,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -5499,7 +5879,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="6"/>
+      <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -5509,7 +5889,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -5519,7 +5899,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="19"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -5539,7 +5919,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -5599,7 +5979,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="19"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -5699,7 +6079,7 @@
     </row>
     <row r="131" spans="1:254" s="2" customFormat="1">
       <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -5749,7 +6129,7 @@
     </row>
     <row r="136" spans="1:254" s="2" customFormat="1">
       <c r="A136" s="4"/>
-      <c r="B136" s="19"/>
+      <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -5769,7 +6149,7 @@
     </row>
     <row r="138" spans="1:254" s="2" customFormat="1">
       <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -5808,284 +6188,284 @@
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:254" s="2" customFormat="1">
-      <c r="A142" s="21"/>
-      <c r="B142" s="21"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="21"/>
-      <c r="E142" s="21"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="21"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-      <c r="U142" s="5"/>
-      <c r="V142" s="5"/>
-      <c r="W142" s="5"/>
-      <c r="X142" s="5"/>
-      <c r="Y142" s="5"/>
-      <c r="Z142" s="5"/>
-      <c r="AA142" s="5"/>
-      <c r="AB142" s="5"/>
-      <c r="AC142" s="5"/>
-      <c r="AD142" s="5"/>
-      <c r="AE142" s="5"/>
-      <c r="AF142" s="5"/>
-      <c r="AG142" s="5"/>
-      <c r="AH142" s="5"/>
-      <c r="AI142" s="5"/>
-      <c r="AJ142" s="5"/>
-      <c r="AK142" s="5"/>
-      <c r="AL142" s="5"/>
-      <c r="AM142" s="5"/>
-      <c r="AN142" s="5"/>
-      <c r="AO142" s="5"/>
-      <c r="AP142" s="5"/>
-      <c r="AQ142" s="5"/>
-      <c r="AR142" s="5"/>
-      <c r="AS142" s="5"/>
-      <c r="AT142" s="5"/>
-      <c r="AU142" s="5"/>
-      <c r="AV142" s="5"/>
-      <c r="AW142" s="5"/>
-      <c r="AX142" s="5"/>
-      <c r="AY142" s="5"/>
-      <c r="AZ142" s="5"/>
-      <c r="BA142" s="5"/>
-      <c r="BB142" s="5"/>
-      <c r="BC142" s="5"/>
-      <c r="BD142" s="5"/>
-      <c r="BE142" s="5"/>
-      <c r="BF142" s="5"/>
-      <c r="BG142" s="5"/>
-      <c r="BH142" s="5"/>
-      <c r="BI142" s="5"/>
-      <c r="BJ142" s="5"/>
-      <c r="BK142" s="5"/>
-      <c r="BL142" s="5"/>
-      <c r="BM142" s="5"/>
-      <c r="BN142" s="5"/>
-      <c r="BO142" s="5"/>
-      <c r="BP142" s="5"/>
-      <c r="BQ142" s="5"/>
-      <c r="BR142" s="5"/>
-      <c r="BS142" s="5"/>
-      <c r="BT142" s="5"/>
-      <c r="BU142" s="5"/>
-      <c r="BV142" s="5"/>
-      <c r="BW142" s="5"/>
-      <c r="BX142" s="5"/>
-      <c r="BY142" s="5"/>
-      <c r="BZ142" s="5"/>
-      <c r="CA142" s="5"/>
-      <c r="CB142" s="5"/>
-      <c r="CC142" s="5"/>
-      <c r="CD142" s="5"/>
-      <c r="CE142" s="5"/>
-      <c r="CF142" s="5"/>
-      <c r="CG142" s="5"/>
-      <c r="CH142" s="5"/>
-      <c r="CI142" s="5"/>
-      <c r="CJ142" s="5"/>
-      <c r="CK142" s="5"/>
-      <c r="CL142" s="5"/>
-      <c r="CM142" s="5"/>
-      <c r="CN142" s="5"/>
-      <c r="CO142" s="5"/>
-      <c r="CP142" s="5"/>
-      <c r="CQ142" s="5"/>
-      <c r="CR142" s="5"/>
-      <c r="CS142" s="5"/>
-      <c r="CT142" s="5"/>
-      <c r="CU142" s="5"/>
-      <c r="CV142" s="5"/>
-      <c r="CW142" s="5"/>
-      <c r="CX142" s="5"/>
-      <c r="CY142" s="5"/>
-      <c r="CZ142" s="5"/>
-      <c r="DA142" s="5"/>
-      <c r="DB142" s="5"/>
-      <c r="DC142" s="5"/>
-      <c r="DD142" s="5"/>
-      <c r="DE142" s="5"/>
-      <c r="DF142" s="5"/>
-      <c r="DG142" s="5"/>
-      <c r="DH142" s="5"/>
-      <c r="DI142" s="5"/>
-      <c r="DJ142" s="5"/>
-      <c r="DK142" s="5"/>
-      <c r="DL142" s="5"/>
-      <c r="DM142" s="5"/>
-      <c r="DN142" s="5"/>
-      <c r="DO142" s="5"/>
-      <c r="DP142" s="5"/>
-      <c r="DQ142" s="5"/>
-      <c r="DR142" s="5"/>
-      <c r="DS142" s="5"/>
-      <c r="DT142" s="5"/>
-      <c r="DU142" s="5"/>
-      <c r="DV142" s="5"/>
-      <c r="DW142" s="5"/>
-      <c r="DX142" s="5"/>
-      <c r="DY142" s="5"/>
-      <c r="DZ142" s="5"/>
-      <c r="EA142" s="5"/>
-      <c r="EB142" s="5"/>
-      <c r="EC142" s="5"/>
-      <c r="ED142" s="5"/>
-      <c r="EE142" s="5"/>
-      <c r="EF142" s="5"/>
-      <c r="EG142" s="5"/>
-      <c r="EH142" s="5"/>
-      <c r="EI142" s="5"/>
-      <c r="EJ142" s="5"/>
-      <c r="EK142" s="5"/>
-      <c r="EL142" s="5"/>
-      <c r="EM142" s="5"/>
-      <c r="EN142" s="5"/>
-      <c r="EO142" s="5"/>
-      <c r="EP142" s="5"/>
-      <c r="EQ142" s="5"/>
-      <c r="ER142" s="5"/>
-      <c r="ES142" s="5"/>
-      <c r="ET142" s="5"/>
-      <c r="EU142" s="5"/>
-      <c r="EV142" s="5"/>
-      <c r="EW142" s="5"/>
-      <c r="EX142" s="5"/>
-      <c r="EY142" s="5"/>
-      <c r="EZ142" s="5"/>
-      <c r="FA142" s="5"/>
-      <c r="FB142" s="5"/>
-      <c r="FC142" s="5"/>
-      <c r="FD142" s="5"/>
-      <c r="FE142" s="5"/>
-      <c r="FF142" s="5"/>
-      <c r="FG142" s="5"/>
-      <c r="FH142" s="5"/>
-      <c r="FI142" s="5"/>
-      <c r="FJ142" s="5"/>
-      <c r="FK142" s="5"/>
-      <c r="FL142" s="5"/>
-      <c r="FM142" s="5"/>
-      <c r="FN142" s="5"/>
-      <c r="FO142" s="5"/>
-      <c r="FP142" s="5"/>
-      <c r="FQ142" s="5"/>
-      <c r="FR142" s="5"/>
-      <c r="FS142" s="5"/>
-      <c r="FT142" s="5"/>
-      <c r="FU142" s="5"/>
-      <c r="FV142" s="5"/>
-      <c r="FW142" s="5"/>
-      <c r="FX142" s="5"/>
-      <c r="FY142" s="5"/>
-      <c r="FZ142" s="5"/>
-      <c r="GA142" s="5"/>
-      <c r="GB142" s="5"/>
-      <c r="GC142" s="5"/>
-      <c r="GD142" s="5"/>
-      <c r="GE142" s="5"/>
-      <c r="GF142" s="5"/>
-      <c r="GG142" s="5"/>
-      <c r="GH142" s="5"/>
-      <c r="GI142" s="5"/>
-      <c r="GJ142" s="5"/>
-      <c r="GK142" s="5"/>
-      <c r="GL142" s="5"/>
-      <c r="GM142" s="5"/>
-      <c r="GN142" s="5"/>
-      <c r="GO142" s="5"/>
-      <c r="GP142" s="5"/>
-      <c r="GQ142" s="5"/>
-      <c r="GR142" s="5"/>
-      <c r="GS142" s="5"/>
-      <c r="GT142" s="5"/>
-      <c r="GU142" s="5"/>
-      <c r="GV142" s="5"/>
-      <c r="GW142" s="5"/>
-      <c r="GX142" s="5"/>
-      <c r="GY142" s="5"/>
-      <c r="GZ142" s="5"/>
-      <c r="HA142" s="5"/>
-      <c r="HB142" s="5"/>
-      <c r="HC142" s="5"/>
-      <c r="HD142" s="5"/>
-      <c r="HE142" s="5"/>
-      <c r="HF142" s="5"/>
-      <c r="HG142" s="5"/>
-      <c r="HH142" s="5"/>
-      <c r="HI142" s="5"/>
-      <c r="HJ142" s="5"/>
-      <c r="HK142" s="5"/>
-      <c r="HL142" s="5"/>
-      <c r="HM142" s="5"/>
-      <c r="HN142" s="5"/>
-      <c r="HO142" s="5"/>
-      <c r="HP142" s="5"/>
-      <c r="HQ142" s="5"/>
-      <c r="HR142" s="5"/>
-      <c r="HS142" s="5"/>
-      <c r="HT142" s="5"/>
-      <c r="HU142" s="5"/>
-      <c r="HV142" s="5"/>
-      <c r="HW142" s="5"/>
-      <c r="HX142" s="5"/>
-      <c r="HY142" s="5"/>
-      <c r="HZ142" s="5"/>
-      <c r="IA142" s="5"/>
-      <c r="IB142" s="5"/>
-      <c r="IC142" s="5"/>
-      <c r="ID142" s="5"/>
-      <c r="IE142" s="5"/>
-      <c r="IF142" s="5"/>
-      <c r="IG142" s="5"/>
-      <c r="IH142" s="5"/>
-      <c r="II142" s="5"/>
-      <c r="IJ142" s="5"/>
-      <c r="IK142" s="5"/>
-      <c r="IL142" s="5"/>
-      <c r="IM142" s="5"/>
-      <c r="IN142" s="5"/>
-      <c r="IO142" s="5"/>
-      <c r="IP142" s="5"/>
-      <c r="IQ142" s="5"/>
-      <c r="IR142" s="5"/>
-      <c r="IS142" s="5"/>
-      <c r="IT142" s="5"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:254" s="2" customFormat="1">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="34"/>
-      <c r="H143" s="4"/>
-    </row>
-    <row r="144" spans="1:254">
-      <c r="A144" s="7"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="7"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="5"/>
+      <c r="Y143" s="5"/>
+      <c r="Z143" s="5"/>
+      <c r="AA143" s="5"/>
+      <c r="AB143" s="5"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="5"/>
+      <c r="AE143" s="5"/>
+      <c r="AF143" s="5"/>
+      <c r="AG143" s="5"/>
+      <c r="AH143" s="5"/>
+      <c r="AI143" s="5"/>
+      <c r="AJ143" s="5"/>
+      <c r="AK143" s="5"/>
+      <c r="AL143" s="5"/>
+      <c r="AM143" s="5"/>
+      <c r="AN143" s="5"/>
+      <c r="AO143" s="5"/>
+      <c r="AP143" s="5"/>
+      <c r="AQ143" s="5"/>
+      <c r="AR143" s="5"/>
+      <c r="AS143" s="5"/>
+      <c r="AT143" s="5"/>
+      <c r="AU143" s="5"/>
+      <c r="AV143" s="5"/>
+      <c r="AW143" s="5"/>
+      <c r="AX143" s="5"/>
+      <c r="AY143" s="5"/>
+      <c r="AZ143" s="5"/>
+      <c r="BA143" s="5"/>
+      <c r="BB143" s="5"/>
+      <c r="BC143" s="5"/>
+      <c r="BD143" s="5"/>
+      <c r="BE143" s="5"/>
+      <c r="BF143" s="5"/>
+      <c r="BG143" s="5"/>
+      <c r="BH143" s="5"/>
+      <c r="BI143" s="5"/>
+      <c r="BJ143" s="5"/>
+      <c r="BK143" s="5"/>
+      <c r="BL143" s="5"/>
+      <c r="BM143" s="5"/>
+      <c r="BN143" s="5"/>
+      <c r="BO143" s="5"/>
+      <c r="BP143" s="5"/>
+      <c r="BQ143" s="5"/>
+      <c r="BR143" s="5"/>
+      <c r="BS143" s="5"/>
+      <c r="BT143" s="5"/>
+      <c r="BU143" s="5"/>
+      <c r="BV143" s="5"/>
+      <c r="BW143" s="5"/>
+      <c r="BX143" s="5"/>
+      <c r="BY143" s="5"/>
+      <c r="BZ143" s="5"/>
+      <c r="CA143" s="5"/>
+      <c r="CB143" s="5"/>
+      <c r="CC143" s="5"/>
+      <c r="CD143" s="5"/>
+      <c r="CE143" s="5"/>
+      <c r="CF143" s="5"/>
+      <c r="CG143" s="5"/>
+      <c r="CH143" s="5"/>
+      <c r="CI143" s="5"/>
+      <c r="CJ143" s="5"/>
+      <c r="CK143" s="5"/>
+      <c r="CL143" s="5"/>
+      <c r="CM143" s="5"/>
+      <c r="CN143" s="5"/>
+      <c r="CO143" s="5"/>
+      <c r="CP143" s="5"/>
+      <c r="CQ143" s="5"/>
+      <c r="CR143" s="5"/>
+      <c r="CS143" s="5"/>
+      <c r="CT143" s="5"/>
+      <c r="CU143" s="5"/>
+      <c r="CV143" s="5"/>
+      <c r="CW143" s="5"/>
+      <c r="CX143" s="5"/>
+      <c r="CY143" s="5"/>
+      <c r="CZ143" s="5"/>
+      <c r="DA143" s="5"/>
+      <c r="DB143" s="5"/>
+      <c r="DC143" s="5"/>
+      <c r="DD143" s="5"/>
+      <c r="DE143" s="5"/>
+      <c r="DF143" s="5"/>
+      <c r="DG143" s="5"/>
+      <c r="DH143" s="5"/>
+      <c r="DI143" s="5"/>
+      <c r="DJ143" s="5"/>
+      <c r="DK143" s="5"/>
+      <c r="DL143" s="5"/>
+      <c r="DM143" s="5"/>
+      <c r="DN143" s="5"/>
+      <c r="DO143" s="5"/>
+      <c r="DP143" s="5"/>
+      <c r="DQ143" s="5"/>
+      <c r="DR143" s="5"/>
+      <c r="DS143" s="5"/>
+      <c r="DT143" s="5"/>
+      <c r="DU143" s="5"/>
+      <c r="DV143" s="5"/>
+      <c r="DW143" s="5"/>
+      <c r="DX143" s="5"/>
+      <c r="DY143" s="5"/>
+      <c r="DZ143" s="5"/>
+      <c r="EA143" s="5"/>
+      <c r="EB143" s="5"/>
+      <c r="EC143" s="5"/>
+      <c r="ED143" s="5"/>
+      <c r="EE143" s="5"/>
+      <c r="EF143" s="5"/>
+      <c r="EG143" s="5"/>
+      <c r="EH143" s="5"/>
+      <c r="EI143" s="5"/>
+      <c r="EJ143" s="5"/>
+      <c r="EK143" s="5"/>
+      <c r="EL143" s="5"/>
+      <c r="EM143" s="5"/>
+      <c r="EN143" s="5"/>
+      <c r="EO143" s="5"/>
+      <c r="EP143" s="5"/>
+      <c r="EQ143" s="5"/>
+      <c r="ER143" s="5"/>
+      <c r="ES143" s="5"/>
+      <c r="ET143" s="5"/>
+      <c r="EU143" s="5"/>
+      <c r="EV143" s="5"/>
+      <c r="EW143" s="5"/>
+      <c r="EX143" s="5"/>
+      <c r="EY143" s="5"/>
+      <c r="EZ143" s="5"/>
+      <c r="FA143" s="5"/>
+      <c r="FB143" s="5"/>
+      <c r="FC143" s="5"/>
+      <c r="FD143" s="5"/>
+      <c r="FE143" s="5"/>
+      <c r="FF143" s="5"/>
+      <c r="FG143" s="5"/>
+      <c r="FH143" s="5"/>
+      <c r="FI143" s="5"/>
+      <c r="FJ143" s="5"/>
+      <c r="FK143" s="5"/>
+      <c r="FL143" s="5"/>
+      <c r="FM143" s="5"/>
+      <c r="FN143" s="5"/>
+      <c r="FO143" s="5"/>
+      <c r="FP143" s="5"/>
+      <c r="FQ143" s="5"/>
+      <c r="FR143" s="5"/>
+      <c r="FS143" s="5"/>
+      <c r="FT143" s="5"/>
+      <c r="FU143" s="5"/>
+      <c r="FV143" s="5"/>
+      <c r="FW143" s="5"/>
+      <c r="FX143" s="5"/>
+      <c r="FY143" s="5"/>
+      <c r="FZ143" s="5"/>
+      <c r="GA143" s="5"/>
+      <c r="GB143" s="5"/>
+      <c r="GC143" s="5"/>
+      <c r="GD143" s="5"/>
+      <c r="GE143" s="5"/>
+      <c r="GF143" s="5"/>
+      <c r="GG143" s="5"/>
+      <c r="GH143" s="5"/>
+      <c r="GI143" s="5"/>
+      <c r="GJ143" s="5"/>
+      <c r="GK143" s="5"/>
+      <c r="GL143" s="5"/>
+      <c r="GM143" s="5"/>
+      <c r="GN143" s="5"/>
+      <c r="GO143" s="5"/>
+      <c r="GP143" s="5"/>
+      <c r="GQ143" s="5"/>
+      <c r="GR143" s="5"/>
+      <c r="GS143" s="5"/>
+      <c r="GT143" s="5"/>
+      <c r="GU143" s="5"/>
+      <c r="GV143" s="5"/>
+      <c r="GW143" s="5"/>
+      <c r="GX143" s="5"/>
+      <c r="GY143" s="5"/>
+      <c r="GZ143" s="5"/>
+      <c r="HA143" s="5"/>
+      <c r="HB143" s="5"/>
+      <c r="HC143" s="5"/>
+      <c r="HD143" s="5"/>
+      <c r="HE143" s="5"/>
+      <c r="HF143" s="5"/>
+      <c r="HG143" s="5"/>
+      <c r="HH143" s="5"/>
+      <c r="HI143" s="5"/>
+      <c r="HJ143" s="5"/>
+      <c r="HK143" s="5"/>
+      <c r="HL143" s="5"/>
+      <c r="HM143" s="5"/>
+      <c r="HN143" s="5"/>
+      <c r="HO143" s="5"/>
+      <c r="HP143" s="5"/>
+      <c r="HQ143" s="5"/>
+      <c r="HR143" s="5"/>
+      <c r="HS143" s="5"/>
+      <c r="HT143" s="5"/>
+      <c r="HU143" s="5"/>
+      <c r="HV143" s="5"/>
+      <c r="HW143" s="5"/>
+      <c r="HX143" s="5"/>
+      <c r="HY143" s="5"/>
+      <c r="HZ143" s="5"/>
+      <c r="IA143" s="5"/>
+      <c r="IB143" s="5"/>
+      <c r="IC143" s="5"/>
+      <c r="ID143" s="5"/>
+      <c r="IE143" s="5"/>
+      <c r="IF143" s="5"/>
+      <c r="IG143" s="5"/>
+      <c r="IH143" s="5"/>
+      <c r="II143" s="5"/>
+      <c r="IJ143" s="5"/>
+      <c r="IK143" s="5"/>
+      <c r="IL143" s="5"/>
+      <c r="IM143" s="5"/>
+      <c r="IN143" s="5"/>
+      <c r="IO143" s="5"/>
+      <c r="IP143" s="5"/>
+      <c r="IQ143" s="5"/>
+      <c r="IR143" s="5"/>
+      <c r="IS143" s="5"/>
+      <c r="IT143" s="5"/>
+    </row>
+    <row r="144" spans="1:254" s="2" customFormat="1">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
+      <c r="B145" s="6"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -6095,7 +6475,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7"/>
-      <c r="B146" s="20"/>
+      <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -6105,7 +6485,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -6116,7 +6496,7 @@
     <row r="148" spans="1:8">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="4"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
@@ -6156,7 +6536,7 @@
     <row r="152" spans="1:8">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
+      <c r="C152" s="4"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
@@ -6165,7 +6545,7 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="7"/>
-      <c r="B153" s="22"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -6185,7 +6565,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -6195,7 +6575,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="7"/>
-      <c r="B156" s="20"/>
+      <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -6215,7 +6595,7 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -6235,7 +6615,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="7"/>
-      <c r="B160" s="20"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -6255,7 +6635,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -6275,7 +6655,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="20"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -6295,7 +6675,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -6335,7 +6715,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="6"/>
+      <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -6345,8 +6725,8 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
@@ -6355,7 +6735,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="19"/>
+      <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -6425,7 +6805,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="4"/>
+      <c r="B179" s="19"/>
       <c r="C179" s="4"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -6435,7 +6815,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="19"/>
+      <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -6445,7 +6825,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="21"/>
+      <c r="B181" s="19"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -6465,7 +6845,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="19"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -6506,7 +6886,7 @@
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
       <c r="B187" s="19"/>
-      <c r="C187" s="7"/>
+      <c r="C187" s="4"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
@@ -6515,7 +6895,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="4"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -6535,7 +6915,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="19"/>
+      <c r="B190" s="4"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -6595,7 +6975,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="7"/>
-      <c r="B196" s="21"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -6635,7 +7015,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="4"/>
+      <c r="B200" s="21"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -6645,7 +7025,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="6"/>
+      <c r="B201" s="4"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -6655,7 +7035,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="4"/>
+      <c r="B202" s="6"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -6665,7 +7045,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="19"/>
+      <c r="B203" s="4"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -6715,7 +7095,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="21"/>
+      <c r="B208" s="19"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -6725,7 +7105,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="19"/>
+      <c r="B209" s="21"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -6775,7 +7155,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="7"/>
-      <c r="B214" s="21"/>
+      <c r="B214" s="19"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -6835,7 +7215,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="4"/>
+      <c r="B220" s="21"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -6845,7 +7225,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="6"/>
+      <c r="B221" s="4"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -6855,8 +7235,8 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
@@ -6865,7 +7245,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="19"/>
+      <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -6875,7 +7255,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
+      <c r="B224" s="19"/>
       <c r="C224" s="4"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -6885,7 +7265,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="20"/>
+      <c r="B225" s="7"/>
       <c r="C225" s="4"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -6925,7 +7305,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -6935,7 +7315,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="20"/>
+      <c r="B230" s="7"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -6945,7 +7325,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="23"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -6965,7 +7345,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="20"/>
+      <c r="B233" s="23"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -7005,7 +7385,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -7015,7 +7395,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="20"/>
+      <c r="B238" s="7"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -7065,7 +7445,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -7075,8 +7455,8 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="20"/>
-      <c r="C244" s="7"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
@@ -7085,7 +7465,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -7095,7 +7475,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="20"/>
+      <c r="B246" s="7"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -7105,7 +7485,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="23"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -7155,8 +7535,8 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="20"/>
-      <c r="C252" s="4"/>
+      <c r="B252" s="23"/>
+      <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
@@ -7165,7 +7545,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="23"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="4"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -7175,7 +7555,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="24"/>
+      <c r="B254" s="23"/>
       <c r="C254" s="4"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -7203,9 +7583,9 @@
       <c r="G256" s="30"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="1:8" ht="11.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="25"/>
+      <c r="B257" s="24"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -7213,9 +7593,9 @@
       <c r="G257" s="30"/>
       <c r="H257" s="7"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" ht="11.25">
       <c r="A258" s="7"/>
-      <c r="B258" s="23"/>
+      <c r="B258" s="25"/>
       <c r="C258" s="4"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -7255,7 +7635,7 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="24"/>
+      <c r="B262" s="23"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -7285,7 +7665,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="23"/>
+      <c r="B265" s="24"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -7295,7 +7675,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="24"/>
+      <c r="B266" s="23"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -7303,15 +7683,15 @@
       <c r="G266" s="30"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="1:8" s="2" customFormat="1">
-      <c r="A267" s="4"/>
+    <row r="267" spans="1:8">
+      <c r="A267" s="7"/>
       <c r="B267" s="24"/>
       <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="4"/>
-      <c r="G267" s="34"/>
-      <c r="H267" s="4"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="30"/>
+      <c r="H267" s="7"/>
     </row>
     <row r="268" spans="1:8" s="2" customFormat="1">
       <c r="A268" s="4"/>
@@ -7323,19 +7703,19 @@
       <c r="G268" s="34"/>
       <c r="H268" s="4"/>
     </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="7"/>
+    <row r="269" spans="1:8" s="2" customFormat="1">
+      <c r="A269" s="4"/>
       <c r="B269" s="24"/>
       <c r="C269" s="4"/>
-      <c r="D269" s="7"/>
-      <c r="E269" s="7"/>
-      <c r="F269" s="7"/>
-      <c r="G269" s="30"/>
-      <c r="H269" s="7"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4"/>
+      <c r="F269" s="4"/>
+      <c r="G269" s="34"/>
+      <c r="H269" s="4"/>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="23"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -7345,7 +7725,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="24"/>
+      <c r="B271" s="23"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -7375,7 +7755,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="22"/>
+      <c r="B274" s="24"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -7385,7 +7765,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="7"/>
+      <c r="B275" s="22"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -7405,7 +7785,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="20"/>
+      <c r="B277" s="7"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -7425,7 +7805,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="7"/>
+      <c r="B279" s="20"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -7456,7 +7836,7 @@
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
-      <c r="C282" s="7"/>
+      <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
@@ -7465,7 +7845,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="6"/>
+      <c r="B283" s="7"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -7475,7 +7855,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
+      <c r="B284" s="6"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -7555,7 +7935,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="6"/>
+      <c r="B292" s="7"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -7565,8 +7945,8 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
@@ -7575,7 +7955,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="19"/>
+      <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -7605,7 +7985,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="4"/>
+      <c r="B297" s="19"/>
       <c r="C297" s="4"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -7665,7 +8045,7 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="7"/>
-      <c r="B303" s="19"/>
+      <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -7685,7 +8065,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="21"/>
+      <c r="B305" s="19"/>
       <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -7695,8 +8075,8 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="7"/>
-      <c r="C306" s="7"/>
+      <c r="B306" s="21"/>
+      <c r="C306" s="4"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
@@ -7705,7 +8085,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="6"/>
+      <c r="B307" s="7"/>
       <c r="C307" s="7"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -7713,15 +8093,15 @@
       <c r="G307" s="30"/>
       <c r="H307" s="7"/>
     </row>
-    <row r="308" spans="1:8" s="2" customFormat="1">
-      <c r="A308" s="4"/>
-      <c r="B308" s="4"/>
-      <c r="C308" s="9"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4"/>
-      <c r="F308" s="4"/>
-      <c r="G308" s="34"/>
-      <c r="H308" s="4"/>
+    <row r="308" spans="1:8">
+      <c r="A308" s="7"/>
+      <c r="B308" s="6"/>
+      <c r="C308" s="7"/>
+      <c r="D308" s="7"/>
+      <c r="E308" s="7"/>
+      <c r="F308" s="7"/>
+      <c r="G308" s="30"/>
+      <c r="H308" s="7"/>
     </row>
     <row r="309" spans="1:8" s="2" customFormat="1">
       <c r="A309" s="4"/>
@@ -7745,7 +8125,7 @@
     </row>
     <row r="311" spans="1:8" s="2" customFormat="1">
       <c r="A311" s="4"/>
-      <c r="B311" s="19"/>
+      <c r="B311" s="4"/>
       <c r="C311" s="9"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -7795,8 +8175,8 @@
     </row>
     <row r="316" spans="1:8" s="2" customFormat="1">
       <c r="A316" s="4"/>
-      <c r="B316" s="26"/>
-      <c r="C316" s="4"/>
+      <c r="B316" s="19"/>
+      <c r="C316" s="9"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
@@ -7845,7 +8225,7 @@
     </row>
     <row r="321" spans="1:8" s="2" customFormat="1">
       <c r="A321" s="4"/>
-      <c r="B321" s="21"/>
+      <c r="B321" s="26"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -7895,7 +8275,7 @@
     </row>
     <row r="326" spans="1:8" s="2" customFormat="1">
       <c r="A326" s="4"/>
-      <c r="B326" s="19"/>
+      <c r="B326" s="21"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -7905,7 +8285,7 @@
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="21"/>
+      <c r="B327" s="19"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -7915,7 +8295,7 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="4"/>
+      <c r="B328" s="21"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -7923,20 +8303,20 @@
       <c r="G328" s="34"/>
       <c r="H328" s="4"/>
     </row>
-    <row r="329" spans="1:8">
-      <c r="A329" s="7"/>
-      <c r="B329" s="6"/>
-      <c r="C329" s="7"/>
-      <c r="D329" s="7"/>
-      <c r="E329" s="7"/>
-      <c r="F329" s="7"/>
-      <c r="G329" s="30"/>
-      <c r="H329" s="7"/>
+    <row r="329" spans="1:8" s="2" customFormat="1">
+      <c r="A329" s="4"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4"/>
+      <c r="G329" s="34"/>
+      <c r="H329" s="4"/>
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="7"/>
-      <c r="B330" s="7"/>
-      <c r="C330" s="4"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="7"/>
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
@@ -8005,7 +8385,7 @@
     </row>
     <row r="337" spans="1:8">
       <c r="A337" s="7"/>
-      <c r="B337" s="4"/>
+      <c r="B337" s="7"/>
       <c r="C337" s="4"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
@@ -8016,7 +8396,7 @@
     <row r="338" spans="1:8">
       <c r="A338" s="7"/>
       <c r="B338" s="4"/>
-      <c r="C338" s="7"/>
+      <c r="C338" s="4"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
@@ -8025,7 +8405,7 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
-      <c r="B339" s="6"/>
+      <c r="B339" s="4"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
@@ -8035,7 +8415,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="7"/>
+      <c r="B340" s="6"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -8045,7 +8425,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="22"/>
+      <c r="B341" s="7"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -8055,7 +8435,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="7"/>
+      <c r="B342" s="22"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -8095,7 +8475,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="6"/>
+      <c r="B346" s="7"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -8105,7 +8485,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="7"/>
+      <c r="B347" s="6"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -8115,7 +8495,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="20"/>
+      <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -8145,7 +8525,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="22"/>
+      <c r="B351" s="20"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -8155,7 +8535,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="20"/>
+      <c r="B352" s="22"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -8175,7 +8555,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="22"/>
+      <c r="B354" s="20"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -8185,7 +8565,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="20"/>
+      <c r="B355" s="22"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -8195,7 +8575,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="22"/>
+      <c r="B356" s="20"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -8205,7 +8585,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="20"/>
+      <c r="B357" s="22"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -8235,7 +8615,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="7"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -8245,7 +8625,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="27"/>
+      <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -8255,7 +8635,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="22"/>
+      <c r="B362" s="27"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -8265,8 +8645,8 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="7"/>
-      <c r="C363" s="4"/>
+      <c r="B363" s="22"/>
+      <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
@@ -8275,7 +8655,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="20"/>
+      <c r="B364" s="7"/>
       <c r="C364" s="4"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -8305,7 +8685,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="7"/>
+      <c r="B367" s="20"/>
       <c r="C367" s="4"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -8335,7 +8715,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="20"/>
+      <c r="B370" s="7"/>
       <c r="C370" s="4"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -8355,8 +8735,8 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="7"/>
-      <c r="C372" s="7"/>
+      <c r="B372" s="20"/>
+      <c r="C372" s="4"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
@@ -8365,7 +8745,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="6"/>
+      <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -8375,7 +8755,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="7"/>
+      <c r="B374" s="6"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -8435,7 +8815,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="6"/>
+      <c r="B380" s="7"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -8445,7 +8825,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="7"/>
+      <c r="B381" s="6"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -8466,7 +8846,7 @@
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
-      <c r="C383" s="4"/>
+      <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
@@ -8475,7 +8855,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="20"/>
+      <c r="B384" s="7"/>
       <c r="C384" s="4"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -8486,7 +8866,7 @@
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
       <c r="B385" s="20"/>
-      <c r="C385" s="7"/>
+      <c r="C385" s="4"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
@@ -8495,7 +8875,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="27"/>
+      <c r="B386" s="20"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -8505,7 +8885,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="22"/>
+      <c r="B387" s="27"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -8555,7 +8935,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="7"/>
+      <c r="B392" s="22"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -8565,7 +8945,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="6"/>
+      <c r="B393" s="7"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -8575,7 +8955,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="7"/>
+      <c r="B394" s="6"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -8585,7 +8965,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="20"/>
+      <c r="B395" s="7"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -8595,7 +8975,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="22"/>
+      <c r="B396" s="20"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -8615,7 +8995,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="20"/>
+      <c r="B398" s="22"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -8655,7 +9035,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="7"/>
+      <c r="B402" s="20"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -8665,7 +9045,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="20"/>
+      <c r="B403" s="7"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -8685,7 +9065,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="22"/>
+      <c r="B405" s="20"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -8695,7 +9075,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="7"/>
+      <c r="B406" s="22"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -8705,7 +9085,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="6"/>
+      <c r="B407" s="7"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -8715,7 +9095,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="7"/>
+      <c r="B408" s="6"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -8735,7 +9115,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="6"/>
+      <c r="B410" s="7"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -8745,7 +9125,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="6"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -8755,7 +9135,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="20"/>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -8775,7 +9155,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="20"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -8785,7 +9165,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="6"/>
+      <c r="B415" s="7"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -8795,7 +9175,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="6"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -8845,7 +9225,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="6"/>
+      <c r="B421" s="7"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -8855,7 +9235,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
+      <c r="B422" s="6"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -8915,7 +9295,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="6"/>
+      <c r="B428" s="7"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -8925,7 +9305,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="7"/>
+      <c r="B429" s="6"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -8945,7 +9325,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="6"/>
+      <c r="B431" s="7"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -8955,7 +9335,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="4"/>
+      <c r="B432" s="6"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -8975,7 +9355,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="7"/>
+      <c r="B434" s="4"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -9005,7 +9385,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="6"/>
+      <c r="B437" s="7"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -9015,8 +9395,8 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
-      <c r="C438" s="4"/>
+      <c r="B438" s="6"/>
+      <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
       <c r="F438" s="7"/>
@@ -9066,7 +9446,7 @@
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
-      <c r="C443" s="7"/>
+      <c r="C443" s="4"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
       <c r="F443" s="7"/>
@@ -9075,7 +9455,7 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="6"/>
+      <c r="B444" s="7"/>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -9085,8 +9465,8 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
-      <c r="B445" s="7"/>
-      <c r="C445" s="4"/>
+      <c r="B445" s="6"/>
+      <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
@@ -9126,7 +9506,7 @@
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
-      <c r="C449" s="7"/>
+      <c r="C449" s="4"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
@@ -9135,7 +9515,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="6"/>
+      <c r="B450" s="7"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -9145,7 +9525,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="22"/>
+      <c r="B451" s="6"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -9205,7 +9585,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="7"/>
+      <c r="B457" s="22"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -9215,7 +9595,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="6"/>
+      <c r="B458" s="7"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -9225,7 +9605,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="22"/>
+      <c r="B459" s="6"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -9254,8 +9634,8 @@
       <c r="H461" s="7"/>
     </row>
     <row r="462" spans="1:8">
-      <c r="A462" s="6"/>
-      <c r="B462" s="7"/>
+      <c r="A462" s="7"/>
+      <c r="B462" s="22"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -9264,7 +9644,7 @@
       <c r="H462" s="7"/>
     </row>
     <row r="463" spans="1:8">
-      <c r="A463" s="7"/>
+      <c r="A463" s="6"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
@@ -9305,7 +9685,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="7"/>
-      <c r="B467" s="28"/>
+      <c r="B467" s="7"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -9335,7 +9715,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="7"/>
+      <c r="B470" s="28"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -9345,7 +9725,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="28"/>
+      <c r="B471" s="7"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -9355,7 +9735,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="7"/>
+      <c r="B472" s="28"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -9365,21 +9745,21 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="29"/>
-      <c r="C473" s="30"/>
+      <c r="B473" s="7"/>
+      <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
-      <c r="F473" s="29"/>
+      <c r="F473" s="7"/>
       <c r="G473" s="30"/>
       <c r="H473" s="7"/>
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
-      <c r="C474" s="7"/>
+      <c r="B474" s="29"/>
+      <c r="C474" s="30"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
-      <c r="F474" s="7"/>
+      <c r="F474" s="29"/>
       <c r="G474" s="30"/>
       <c r="H474" s="7"/>
     </row>
@@ -13283,6 +13663,16 @@
       <c r="G864" s="30"/>
       <c r="H864" s="7"/>
     </row>
+    <row r="865" spans="1:8">
+      <c r="A865" s="7"/>
+      <c r="B865" s="7"/>
+      <c r="C865" s="7"/>
+      <c r="D865" s="7"/>
+      <c r="E865" s="7"/>
+      <c r="F865" s="7"/>
+      <c r="G865" s="30"/>
+      <c r="H865" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="175">
   <si>
     <t>Feature</t>
   </si>
@@ -449,12 +449,6 @@
     <t>scroll wheel</t>
   </si>
   <si>
-    <t>keyboard modifier keys ignored</t>
-  </si>
-  <si>
-    <t>scrolls the viewport</t>
-  </si>
-  <si>
     <t>replaces selection</t>
   </si>
   <si>
@@ -540,6 +534,15 @@
   </si>
   <si>
     <t>scrolls to visible when dragging outside of the component boundaries</t>
+  </si>
+  <si>
+    <t>block scroll up</t>
+  </si>
+  <si>
+    <t>block scroll down</t>
+  </si>
+  <si>
+    <t>ctrl-scroll wheel</t>
   </si>
 </sst>
 </file>
@@ -797,8 +800,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.9197807133095498"/>
-          <c:h val="0.89627228525119962"/>
+          <c:w val="0.91978071330954991"/>
+          <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -830,10 +833,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -846,15 +849,18 @@
                 <c:pt idx="3">
                   <c:v>42847</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>42855</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$51</c:f>
+              <c:f>Progress!$B$48:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -866,6 +872,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,10 +907,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -914,15 +923,18 @@
                 <c:pt idx="3">
                   <c:v>42847</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>42855</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$51</c:f>
+              <c:f>Progress!$C$48:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -934,6 +946,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -966,10 +981,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -982,15 +997,18 @@
                 <c:pt idx="3">
                   <c:v>42847</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>42855</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$51</c:f>
+              <c:f>Progress!$D$48:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1001,6 +1019,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1034,10 +1055,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1050,15 +1071,18 @@
                 <c:pt idx="3">
                   <c:v>42847</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>42855</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$55</c:f>
+              <c:f>Progress!$E$48:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1071,21 +1095,24 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122211712"/>
-        <c:axId val="121967744"/>
+        <c:axId val="133090688"/>
+        <c:axId val="132781184"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="122211712"/>
+        <c:axId val="133090688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121967744"/>
+        <c:crossAx val="132781184"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1128,7 +1155,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121967744"/>
+        <c:axId val="132781184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +1197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122211712"/>
+        <c:crossAx val="133090688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1192,8 +1219,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.582822980460776E-2"/>
-          <c:y val="0.3381955699621827"/>
+          <c:x val="4.5828229804607774E-2"/>
+          <c:y val="0.33819556996218281"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1260,7 +1287,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001199" r="0.75000000000001199" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000121" r="0.7500000000000121" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1314,7 +1341,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127331E-2"/>
+          <c:x val="4.4510450248127345E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1349,10 +1376,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1365,15 +1392,18 @@
                 <c:pt idx="3">
                   <c:v>42847</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>42855</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$51</c:f>
+              <c:f>Progress!$G$48:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1386,15 +1416,18 @@
                 <c:pt idx="3">
                   <c:v>0.2</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25766871165644173</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122012032"/>
-        <c:axId val="122013568"/>
+        <c:axId val="132817280"/>
+        <c:axId val="132818816"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="122012032"/>
+        <c:axId val="132817280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,13 +1435,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-409]mmmm\ d\,\ yyyy;@" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="122013568"/>
+        <c:crossAx val="132818816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="122013568"/>
+        <c:axId val="132818816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1451,7 +1484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122012032"/>
+        <c:crossAx val="132817280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1500,7 +1533,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001199" r="0.75000000000001199" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000121" r="0.7500000000000121" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1551,10 +1584,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1567,15 +1600,18 @@
                 <c:pt idx="3">
                   <c:v>42847</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>42855</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$51</c:f>
+              <c:f>Progress!$C$48:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1587,6 +1623,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1619,10 +1658,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1635,15 +1674,18 @@
                 <c:pt idx="3">
                   <c:v>42847</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>42855</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$51</c:f>
+              <c:f>Progress!$D$48:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1656,15 +1698,18 @@
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122362112"/>
-        <c:axId val="122368000"/>
+        <c:axId val="132835584"/>
+        <c:axId val="132841472"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="122362112"/>
+        <c:axId val="132835584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,7 +1742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122368000"/>
+        <c:crossAx val="132841472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1708,7 +1753,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="122368000"/>
+        <c:axId val="132841472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +1795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122362112"/>
+        <c:crossAx val="132835584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1799,7 +1844,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001199" r="0.75000000000001199" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000121" r="0.7500000000000121" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1849,7 +1894,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2259,8 +2304,8 @@
   </sheetPr>
   <dimension ref="A1:D412"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2433,7 +2478,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -2469,7 +2514,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -2478,7 +2523,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>14</v>
@@ -2564,7 +2609,7 @@
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>14</v>
@@ -2573,7 +2618,7 @@
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
@@ -2596,7 +2641,7 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>14</v>
@@ -2677,7 +2722,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -2686,7 +2731,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -2695,7 +2740,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>61</v>
@@ -2704,7 +2749,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
@@ -2727,7 +2772,7 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>2</v>
@@ -2736,7 +2781,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -2745,7 +2790,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -3334,7 +3379,7 @@
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>14</v>
@@ -3774,41 +3819,53 @@
         <v>142</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
       <c r="B219" s="20" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
       <c r="B220" s="20" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D220" s="4"/>
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
-      <c r="B221" s="20"/>
-      <c r="C221" s="7"/>
+      <c r="B221" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D221" s="4"/>
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="20"/>
-      <c r="C222" s="7"/>
+      <c r="B222" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
-      <c r="B223" s="20"/>
-      <c r="C223" s="7"/>
+      <c r="B223" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
@@ -3883,7 +3940,7 @@
     </row>
     <row r="238" spans="2:4">
       <c r="B238" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C238" s="7"/>
     </row>
@@ -3926,16 +3983,16 @@
       <c r="B244" t="s">
         <v>92</v>
       </c>
-      <c r="C244" s="9" t="s">
-        <v>14</v>
+      <c r="C244" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="2:3">
       <c r="B245" t="s">
         <v>93</v>
       </c>
-      <c r="C245" s="9" t="s">
-        <v>14</v>
+      <c r="C245" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="2:3">
@@ -4028,7 +4085,7 @@
     </row>
     <row r="261" spans="2:3">
       <c r="B261" s="43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C261" s="9"/>
     </row>
@@ -4085,10 +4142,10 @@
     </row>
     <row r="269" spans="2:3">
       <c r="B269" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="2:3">
@@ -4102,7 +4159,7 @@
     </row>
     <row r="273" spans="2:3">
       <c r="B273" s="43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C273" s="9"/>
     </row>
@@ -4111,7 +4168,7 @@
     </row>
     <row r="275" spans="2:3">
       <c r="B275" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C275" s="9" t="s">
         <v>14</v>
@@ -4308,10 +4365,10 @@
     </row>
     <row r="319" spans="2:3">
       <c r="B319" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="2:3">
@@ -4407,7 +4464,7 @@
     </row>
     <row r="338" spans="2:4" s="6" customFormat="1">
       <c r="B338" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>14</v>
@@ -4554,7 +4611,7 @@
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
       <c r="B359" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>14</v>
@@ -4598,7 +4655,7 @@
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
       <c r="B367" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C367" s="7"/>
       <c r="D367" s="4"/>
@@ -4610,14 +4667,14 @@
     </row>
     <row r="369" spans="2:4" s="6" customFormat="1">
       <c r="B369" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C369" s="7"/>
       <c r="D369" s="4"/>
     </row>
     <row r="370" spans="2:4" s="6" customFormat="1">
       <c r="B370" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>2</v>
@@ -4626,7 +4683,7 @@
     </row>
     <row r="371" spans="2:4" s="6" customFormat="1">
       <c r="B371" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>2</v>
@@ -4635,7 +4692,7 @@
     </row>
     <row r="372" spans="2:4" s="6" customFormat="1">
       <c r="B372" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>14</v>
@@ -4644,7 +4701,7 @@
     </row>
     <row r="373" spans="2:4" s="6" customFormat="1">
       <c r="B373" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>2</v>
@@ -4665,7 +4722,7 @@
     </row>
     <row r="376" spans="2:4" s="6" customFormat="1">
       <c r="B376" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>2</v>
@@ -4674,7 +4731,7 @@
     </row>
     <row r="377" spans="2:4" s="6" customFormat="1">
       <c r="B377" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>2</v>
@@ -4834,7 +4891,7 @@
       </c>
       <c r="C407" s="6">
         <f>COUNTIF(C5:C406,"y")</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D407" s="2"/>
     </row>
@@ -4845,7 +4902,7 @@
       </c>
       <c r="C408" s="6">
         <f>COUNTIF(C5:C406,"n")</f>
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D408" s="2"/>
     </row>
@@ -4867,7 +4924,7 @@
       </c>
       <c r="C410">
         <f>SUM(C407:C409)</f>
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D410" s="2"/>
     </row>
@@ -4879,7 +4936,7 @@
       </c>
       <c r="D411" s="41">
         <f>C407/(C408+C407 + C409)</f>
-        <v>0.2</v>
+        <v>0.25766871165644173</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -4912,12 +4969,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT865"/>
+  <dimension ref="A1:IT866"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O27" sqref="O27"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5252,13 +5309,28 @@
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="44"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="30"/>
+      <c r="A52" s="44">
+        <v>42855</v>
+      </c>
+      <c r="B52" s="4">
+        <v>42</v>
+      </c>
+      <c r="C52" s="4">
+        <v>119</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="28">
+        <v>0</v>
+      </c>
+      <c r="G52" s="30">
+        <f t="shared" ref="G52" si="3">B52/SUM(B52:E52)</f>
+        <v>0.25766871165644173</v>
+      </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:11">
@@ -5267,84 +5339,84 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="31"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="30"/>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="44"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B55" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D55" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E55" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F55" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="38">
-        <f>MIN(G51)</f>
-        <v>0.2</v>
-      </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="39">
-        <f>SUM(B55:D55)</f>
-        <v>160</v>
-      </c>
-      <c r="B55" s="15">
+      <c r="G55" s="38">
+        <f>MIN(G52)</f>
+        <v>0.25766871165644173</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="39">
+        <f>SUM(B56:D56)</f>
+        <v>163</v>
+      </c>
+      <c r="B56" s="15">
         <f>Features!C407</f>
-        <v>32</v>
-      </c>
-      <c r="C55" s="16">
+        <v>42</v>
+      </c>
+      <c r="C56" s="16">
         <f>Features!C408</f>
-        <v>126</v>
-      </c>
-      <c r="D55" s="17">
+        <v>119</v>
+      </c>
+      <c r="D56" s="17">
         <f>Features!C409</f>
         <v>2</v>
       </c>
-      <c r="E55" s="18">
-        <f>MIN(E51)</f>
+      <c r="E56" s="18">
+        <f>MIN(E52)</f>
         <v>0</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="4"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="30"/>
       <c r="H56" s="7"/>
-      <c r="J56" s="36"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="30"/>
       <c r="H57" s="7"/>
+      <c r="J57" s="36"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="4"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -5353,13 +5425,8 @@
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="B59" s="47">
-        <f>A48+A55/B55*(A51-A48)</f>
-        <v>43439</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -5368,8 +5435,13 @@
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="A60" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="47">
+        <f>A48+A56/B56*(A52-A48)</f>
+        <v>43304.428571428572</v>
+      </c>
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -5379,7 +5451,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="4"/>
-      <c r="B61" s="19"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -5399,7 +5471,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -5419,7 +5491,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="7"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -5429,7 +5501,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="7"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -5448,7 +5520,7 @@
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="7"/>
+      <c r="A68" s="4"/>
       <c r="B68" s="20"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
@@ -5459,7 +5531,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -5590,7 +5662,7 @@
     <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
+      <c r="C82" s="4"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -5599,7 +5671,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="7"/>
-      <c r="B83" s="6"/>
+      <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -5607,15 +5679,15 @@
       <c r="G83" s="30"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="4"/>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8" s="2" customFormat="1">
       <c r="A85" s="4"/>
@@ -5789,7 +5861,7 @@
     </row>
     <row r="102" spans="1:8" s="2" customFormat="1">
       <c r="A102" s="4"/>
-      <c r="B102" s="6"/>
+      <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -5799,7 +5871,7 @@
     </row>
     <row r="103" spans="1:8" s="2" customFormat="1">
       <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -5829,7 +5901,7 @@
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1">
       <c r="A106" s="4"/>
-      <c r="B106" s="19"/>
+      <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -5869,7 +5941,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="21"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -5879,7 +5951,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -5889,7 +5961,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="6"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -5899,7 +5971,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="6"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -5909,7 +5981,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="19"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -5929,7 +6001,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -5989,7 +6061,7 @@
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="19"/>
+      <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -6089,7 +6161,7 @@
     </row>
     <row r="132" spans="1:254" s="2" customFormat="1">
       <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -6139,7 +6211,7 @@
     </row>
     <row r="137" spans="1:254" s="2" customFormat="1">
       <c r="A137" s="4"/>
-      <c r="B137" s="19"/>
+      <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -6159,7 +6231,7 @@
     </row>
     <row r="139" spans="1:254" s="2" customFormat="1">
       <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -6198,284 +6270,284 @@
       <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:254" s="2" customFormat="1">
-      <c r="A143" s="21"/>
-      <c r="B143" s="21"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="21"/>
-      <c r="E143" s="21"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="21"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
-      <c r="O143" s="5"/>
-      <c r="P143" s="5"/>
-      <c r="Q143" s="5"/>
-      <c r="R143" s="5"/>
-      <c r="S143" s="5"/>
-      <c r="T143" s="5"/>
-      <c r="U143" s="5"/>
-      <c r="V143" s="5"/>
-      <c r="W143" s="5"/>
-      <c r="X143" s="5"/>
-      <c r="Y143" s="5"/>
-      <c r="Z143" s="5"/>
-      <c r="AA143" s="5"/>
-      <c r="AB143" s="5"/>
-      <c r="AC143" s="5"/>
-      <c r="AD143" s="5"/>
-      <c r="AE143" s="5"/>
-      <c r="AF143" s="5"/>
-      <c r="AG143" s="5"/>
-      <c r="AH143" s="5"/>
-      <c r="AI143" s="5"/>
-      <c r="AJ143" s="5"/>
-      <c r="AK143" s="5"/>
-      <c r="AL143" s="5"/>
-      <c r="AM143" s="5"/>
-      <c r="AN143" s="5"/>
-      <c r="AO143" s="5"/>
-      <c r="AP143" s="5"/>
-      <c r="AQ143" s="5"/>
-      <c r="AR143" s="5"/>
-      <c r="AS143" s="5"/>
-      <c r="AT143" s="5"/>
-      <c r="AU143" s="5"/>
-      <c r="AV143" s="5"/>
-      <c r="AW143" s="5"/>
-      <c r="AX143" s="5"/>
-      <c r="AY143" s="5"/>
-      <c r="AZ143" s="5"/>
-      <c r="BA143" s="5"/>
-      <c r="BB143" s="5"/>
-      <c r="BC143" s="5"/>
-      <c r="BD143" s="5"/>
-      <c r="BE143" s="5"/>
-      <c r="BF143" s="5"/>
-      <c r="BG143" s="5"/>
-      <c r="BH143" s="5"/>
-      <c r="BI143" s="5"/>
-      <c r="BJ143" s="5"/>
-      <c r="BK143" s="5"/>
-      <c r="BL143" s="5"/>
-      <c r="BM143" s="5"/>
-      <c r="BN143" s="5"/>
-      <c r="BO143" s="5"/>
-      <c r="BP143" s="5"/>
-      <c r="BQ143" s="5"/>
-      <c r="BR143" s="5"/>
-      <c r="BS143" s="5"/>
-      <c r="BT143" s="5"/>
-      <c r="BU143" s="5"/>
-      <c r="BV143" s="5"/>
-      <c r="BW143" s="5"/>
-      <c r="BX143" s="5"/>
-      <c r="BY143" s="5"/>
-      <c r="BZ143" s="5"/>
-      <c r="CA143" s="5"/>
-      <c r="CB143" s="5"/>
-      <c r="CC143" s="5"/>
-      <c r="CD143" s="5"/>
-      <c r="CE143" s="5"/>
-      <c r="CF143" s="5"/>
-      <c r="CG143" s="5"/>
-      <c r="CH143" s="5"/>
-      <c r="CI143" s="5"/>
-      <c r="CJ143" s="5"/>
-      <c r="CK143" s="5"/>
-      <c r="CL143" s="5"/>
-      <c r="CM143" s="5"/>
-      <c r="CN143" s="5"/>
-      <c r="CO143" s="5"/>
-      <c r="CP143" s="5"/>
-      <c r="CQ143" s="5"/>
-      <c r="CR143" s="5"/>
-      <c r="CS143" s="5"/>
-      <c r="CT143" s="5"/>
-      <c r="CU143" s="5"/>
-      <c r="CV143" s="5"/>
-      <c r="CW143" s="5"/>
-      <c r="CX143" s="5"/>
-      <c r="CY143" s="5"/>
-      <c r="CZ143" s="5"/>
-      <c r="DA143" s="5"/>
-      <c r="DB143" s="5"/>
-      <c r="DC143" s="5"/>
-      <c r="DD143" s="5"/>
-      <c r="DE143" s="5"/>
-      <c r="DF143" s="5"/>
-      <c r="DG143" s="5"/>
-      <c r="DH143" s="5"/>
-      <c r="DI143" s="5"/>
-      <c r="DJ143" s="5"/>
-      <c r="DK143" s="5"/>
-      <c r="DL143" s="5"/>
-      <c r="DM143" s="5"/>
-      <c r="DN143" s="5"/>
-      <c r="DO143" s="5"/>
-      <c r="DP143" s="5"/>
-      <c r="DQ143" s="5"/>
-      <c r="DR143" s="5"/>
-      <c r="DS143" s="5"/>
-      <c r="DT143" s="5"/>
-      <c r="DU143" s="5"/>
-      <c r="DV143" s="5"/>
-      <c r="DW143" s="5"/>
-      <c r="DX143" s="5"/>
-      <c r="DY143" s="5"/>
-      <c r="DZ143" s="5"/>
-      <c r="EA143" s="5"/>
-      <c r="EB143" s="5"/>
-      <c r="EC143" s="5"/>
-      <c r="ED143" s="5"/>
-      <c r="EE143" s="5"/>
-      <c r="EF143" s="5"/>
-      <c r="EG143" s="5"/>
-      <c r="EH143" s="5"/>
-      <c r="EI143" s="5"/>
-      <c r="EJ143" s="5"/>
-      <c r="EK143" s="5"/>
-      <c r="EL143" s="5"/>
-      <c r="EM143" s="5"/>
-      <c r="EN143" s="5"/>
-      <c r="EO143" s="5"/>
-      <c r="EP143" s="5"/>
-      <c r="EQ143" s="5"/>
-      <c r="ER143" s="5"/>
-      <c r="ES143" s="5"/>
-      <c r="ET143" s="5"/>
-      <c r="EU143" s="5"/>
-      <c r="EV143" s="5"/>
-      <c r="EW143" s="5"/>
-      <c r="EX143" s="5"/>
-      <c r="EY143" s="5"/>
-      <c r="EZ143" s="5"/>
-      <c r="FA143" s="5"/>
-      <c r="FB143" s="5"/>
-      <c r="FC143" s="5"/>
-      <c r="FD143" s="5"/>
-      <c r="FE143" s="5"/>
-      <c r="FF143" s="5"/>
-      <c r="FG143" s="5"/>
-      <c r="FH143" s="5"/>
-      <c r="FI143" s="5"/>
-      <c r="FJ143" s="5"/>
-      <c r="FK143" s="5"/>
-      <c r="FL143" s="5"/>
-      <c r="FM143" s="5"/>
-      <c r="FN143" s="5"/>
-      <c r="FO143" s="5"/>
-      <c r="FP143" s="5"/>
-      <c r="FQ143" s="5"/>
-      <c r="FR143" s="5"/>
-      <c r="FS143" s="5"/>
-      <c r="FT143" s="5"/>
-      <c r="FU143" s="5"/>
-      <c r="FV143" s="5"/>
-      <c r="FW143" s="5"/>
-      <c r="FX143" s="5"/>
-      <c r="FY143" s="5"/>
-      <c r="FZ143" s="5"/>
-      <c r="GA143" s="5"/>
-      <c r="GB143" s="5"/>
-      <c r="GC143" s="5"/>
-      <c r="GD143" s="5"/>
-      <c r="GE143" s="5"/>
-      <c r="GF143" s="5"/>
-      <c r="GG143" s="5"/>
-      <c r="GH143" s="5"/>
-      <c r="GI143" s="5"/>
-      <c r="GJ143" s="5"/>
-      <c r="GK143" s="5"/>
-      <c r="GL143" s="5"/>
-      <c r="GM143" s="5"/>
-      <c r="GN143" s="5"/>
-      <c r="GO143" s="5"/>
-      <c r="GP143" s="5"/>
-      <c r="GQ143" s="5"/>
-      <c r="GR143" s="5"/>
-      <c r="GS143" s="5"/>
-      <c r="GT143" s="5"/>
-      <c r="GU143" s="5"/>
-      <c r="GV143" s="5"/>
-      <c r="GW143" s="5"/>
-      <c r="GX143" s="5"/>
-      <c r="GY143" s="5"/>
-      <c r="GZ143" s="5"/>
-      <c r="HA143" s="5"/>
-      <c r="HB143" s="5"/>
-      <c r="HC143" s="5"/>
-      <c r="HD143" s="5"/>
-      <c r="HE143" s="5"/>
-      <c r="HF143" s="5"/>
-      <c r="HG143" s="5"/>
-      <c r="HH143" s="5"/>
-      <c r="HI143" s="5"/>
-      <c r="HJ143" s="5"/>
-      <c r="HK143" s="5"/>
-      <c r="HL143" s="5"/>
-      <c r="HM143" s="5"/>
-      <c r="HN143" s="5"/>
-      <c r="HO143" s="5"/>
-      <c r="HP143" s="5"/>
-      <c r="HQ143" s="5"/>
-      <c r="HR143" s="5"/>
-      <c r="HS143" s="5"/>
-      <c r="HT143" s="5"/>
-      <c r="HU143" s="5"/>
-      <c r="HV143" s="5"/>
-      <c r="HW143" s="5"/>
-      <c r="HX143" s="5"/>
-      <c r="HY143" s="5"/>
-      <c r="HZ143" s="5"/>
-      <c r="IA143" s="5"/>
-      <c r="IB143" s="5"/>
-      <c r="IC143" s="5"/>
-      <c r="ID143" s="5"/>
-      <c r="IE143" s="5"/>
-      <c r="IF143" s="5"/>
-      <c r="IG143" s="5"/>
-      <c r="IH143" s="5"/>
-      <c r="II143" s="5"/>
-      <c r="IJ143" s="5"/>
-      <c r="IK143" s="5"/>
-      <c r="IL143" s="5"/>
-      <c r="IM143" s="5"/>
-      <c r="IN143" s="5"/>
-      <c r="IO143" s="5"/>
-      <c r="IP143" s="5"/>
-      <c r="IQ143" s="5"/>
-      <c r="IR143" s="5"/>
-      <c r="IS143" s="5"/>
-      <c r="IT143" s="5"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:254" s="2" customFormat="1">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="34"/>
-      <c r="H144" s="4"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="7"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="7"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="35"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
+      <c r="Y144" s="5"/>
+      <c r="Z144" s="5"/>
+      <c r="AA144" s="5"/>
+      <c r="AB144" s="5"/>
+      <c r="AC144" s="5"/>
+      <c r="AD144" s="5"/>
+      <c r="AE144" s="5"/>
+      <c r="AF144" s="5"/>
+      <c r="AG144" s="5"/>
+      <c r="AH144" s="5"/>
+      <c r="AI144" s="5"/>
+      <c r="AJ144" s="5"/>
+      <c r="AK144" s="5"/>
+      <c r="AL144" s="5"/>
+      <c r="AM144" s="5"/>
+      <c r="AN144" s="5"/>
+      <c r="AO144" s="5"/>
+      <c r="AP144" s="5"/>
+      <c r="AQ144" s="5"/>
+      <c r="AR144" s="5"/>
+      <c r="AS144" s="5"/>
+      <c r="AT144" s="5"/>
+      <c r="AU144" s="5"/>
+      <c r="AV144" s="5"/>
+      <c r="AW144" s="5"/>
+      <c r="AX144" s="5"/>
+      <c r="AY144" s="5"/>
+      <c r="AZ144" s="5"/>
+      <c r="BA144" s="5"/>
+      <c r="BB144" s="5"/>
+      <c r="BC144" s="5"/>
+      <c r="BD144" s="5"/>
+      <c r="BE144" s="5"/>
+      <c r="BF144" s="5"/>
+      <c r="BG144" s="5"/>
+      <c r="BH144" s="5"/>
+      <c r="BI144" s="5"/>
+      <c r="BJ144" s="5"/>
+      <c r="BK144" s="5"/>
+      <c r="BL144" s="5"/>
+      <c r="BM144" s="5"/>
+      <c r="BN144" s="5"/>
+      <c r="BO144" s="5"/>
+      <c r="BP144" s="5"/>
+      <c r="BQ144" s="5"/>
+      <c r="BR144" s="5"/>
+      <c r="BS144" s="5"/>
+      <c r="BT144" s="5"/>
+      <c r="BU144" s="5"/>
+      <c r="BV144" s="5"/>
+      <c r="BW144" s="5"/>
+      <c r="BX144" s="5"/>
+      <c r="BY144" s="5"/>
+      <c r="BZ144" s="5"/>
+      <c r="CA144" s="5"/>
+      <c r="CB144" s="5"/>
+      <c r="CC144" s="5"/>
+      <c r="CD144" s="5"/>
+      <c r="CE144" s="5"/>
+      <c r="CF144" s="5"/>
+      <c r="CG144" s="5"/>
+      <c r="CH144" s="5"/>
+      <c r="CI144" s="5"/>
+      <c r="CJ144" s="5"/>
+      <c r="CK144" s="5"/>
+      <c r="CL144" s="5"/>
+      <c r="CM144" s="5"/>
+      <c r="CN144" s="5"/>
+      <c r="CO144" s="5"/>
+      <c r="CP144" s="5"/>
+      <c r="CQ144" s="5"/>
+      <c r="CR144" s="5"/>
+      <c r="CS144" s="5"/>
+      <c r="CT144" s="5"/>
+      <c r="CU144" s="5"/>
+      <c r="CV144" s="5"/>
+      <c r="CW144" s="5"/>
+      <c r="CX144" s="5"/>
+      <c r="CY144" s="5"/>
+      <c r="CZ144" s="5"/>
+      <c r="DA144" s="5"/>
+      <c r="DB144" s="5"/>
+      <c r="DC144" s="5"/>
+      <c r="DD144" s="5"/>
+      <c r="DE144" s="5"/>
+      <c r="DF144" s="5"/>
+      <c r="DG144" s="5"/>
+      <c r="DH144" s="5"/>
+      <c r="DI144" s="5"/>
+      <c r="DJ144" s="5"/>
+      <c r="DK144" s="5"/>
+      <c r="DL144" s="5"/>
+      <c r="DM144" s="5"/>
+      <c r="DN144" s="5"/>
+      <c r="DO144" s="5"/>
+      <c r="DP144" s="5"/>
+      <c r="DQ144" s="5"/>
+      <c r="DR144" s="5"/>
+      <c r="DS144" s="5"/>
+      <c r="DT144" s="5"/>
+      <c r="DU144" s="5"/>
+      <c r="DV144" s="5"/>
+      <c r="DW144" s="5"/>
+      <c r="DX144" s="5"/>
+      <c r="DY144" s="5"/>
+      <c r="DZ144" s="5"/>
+      <c r="EA144" s="5"/>
+      <c r="EB144" s="5"/>
+      <c r="EC144" s="5"/>
+      <c r="ED144" s="5"/>
+      <c r="EE144" s="5"/>
+      <c r="EF144" s="5"/>
+      <c r="EG144" s="5"/>
+      <c r="EH144" s="5"/>
+      <c r="EI144" s="5"/>
+      <c r="EJ144" s="5"/>
+      <c r="EK144" s="5"/>
+      <c r="EL144" s="5"/>
+      <c r="EM144" s="5"/>
+      <c r="EN144" s="5"/>
+      <c r="EO144" s="5"/>
+      <c r="EP144" s="5"/>
+      <c r="EQ144" s="5"/>
+      <c r="ER144" s="5"/>
+      <c r="ES144" s="5"/>
+      <c r="ET144" s="5"/>
+      <c r="EU144" s="5"/>
+      <c r="EV144" s="5"/>
+      <c r="EW144" s="5"/>
+      <c r="EX144" s="5"/>
+      <c r="EY144" s="5"/>
+      <c r="EZ144" s="5"/>
+      <c r="FA144" s="5"/>
+      <c r="FB144" s="5"/>
+      <c r="FC144" s="5"/>
+      <c r="FD144" s="5"/>
+      <c r="FE144" s="5"/>
+      <c r="FF144" s="5"/>
+      <c r="FG144" s="5"/>
+      <c r="FH144" s="5"/>
+      <c r="FI144" s="5"/>
+      <c r="FJ144" s="5"/>
+      <c r="FK144" s="5"/>
+      <c r="FL144" s="5"/>
+      <c r="FM144" s="5"/>
+      <c r="FN144" s="5"/>
+      <c r="FO144" s="5"/>
+      <c r="FP144" s="5"/>
+      <c r="FQ144" s="5"/>
+      <c r="FR144" s="5"/>
+      <c r="FS144" s="5"/>
+      <c r="FT144" s="5"/>
+      <c r="FU144" s="5"/>
+      <c r="FV144" s="5"/>
+      <c r="FW144" s="5"/>
+      <c r="FX144" s="5"/>
+      <c r="FY144" s="5"/>
+      <c r="FZ144" s="5"/>
+      <c r="GA144" s="5"/>
+      <c r="GB144" s="5"/>
+      <c r="GC144" s="5"/>
+      <c r="GD144" s="5"/>
+      <c r="GE144" s="5"/>
+      <c r="GF144" s="5"/>
+      <c r="GG144" s="5"/>
+      <c r="GH144" s="5"/>
+      <c r="GI144" s="5"/>
+      <c r="GJ144" s="5"/>
+      <c r="GK144" s="5"/>
+      <c r="GL144" s="5"/>
+      <c r="GM144" s="5"/>
+      <c r="GN144" s="5"/>
+      <c r="GO144" s="5"/>
+      <c r="GP144" s="5"/>
+      <c r="GQ144" s="5"/>
+      <c r="GR144" s="5"/>
+      <c r="GS144" s="5"/>
+      <c r="GT144" s="5"/>
+      <c r="GU144" s="5"/>
+      <c r="GV144" s="5"/>
+      <c r="GW144" s="5"/>
+      <c r="GX144" s="5"/>
+      <c r="GY144" s="5"/>
+      <c r="GZ144" s="5"/>
+      <c r="HA144" s="5"/>
+      <c r="HB144" s="5"/>
+      <c r="HC144" s="5"/>
+      <c r="HD144" s="5"/>
+      <c r="HE144" s="5"/>
+      <c r="HF144" s="5"/>
+      <c r="HG144" s="5"/>
+      <c r="HH144" s="5"/>
+      <c r="HI144" s="5"/>
+      <c r="HJ144" s="5"/>
+      <c r="HK144" s="5"/>
+      <c r="HL144" s="5"/>
+      <c r="HM144" s="5"/>
+      <c r="HN144" s="5"/>
+      <c r="HO144" s="5"/>
+      <c r="HP144" s="5"/>
+      <c r="HQ144" s="5"/>
+      <c r="HR144" s="5"/>
+      <c r="HS144" s="5"/>
+      <c r="HT144" s="5"/>
+      <c r="HU144" s="5"/>
+      <c r="HV144" s="5"/>
+      <c r="HW144" s="5"/>
+      <c r="HX144" s="5"/>
+      <c r="HY144" s="5"/>
+      <c r="HZ144" s="5"/>
+      <c r="IA144" s="5"/>
+      <c r="IB144" s="5"/>
+      <c r="IC144" s="5"/>
+      <c r="ID144" s="5"/>
+      <c r="IE144" s="5"/>
+      <c r="IF144" s="5"/>
+      <c r="IG144" s="5"/>
+      <c r="IH144" s="5"/>
+      <c r="II144" s="5"/>
+      <c r="IJ144" s="5"/>
+      <c r="IK144" s="5"/>
+      <c r="IL144" s="5"/>
+      <c r="IM144" s="5"/>
+      <c r="IN144" s="5"/>
+      <c r="IO144" s="5"/>
+      <c r="IP144" s="5"/>
+      <c r="IQ144" s="5"/>
+      <c r="IR144" s="5"/>
+      <c r="IS144" s="5"/>
+      <c r="IT144" s="5"/>
+    </row>
+    <row r="145" spans="1:8" s="2" customFormat="1">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="4"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
+      <c r="B146" s="6"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -6485,7 +6557,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="7"/>
-      <c r="B147" s="20"/>
+      <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -6495,7 +6567,7 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -6506,7 +6578,7 @@
     <row r="149" spans="1:8">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
-      <c r="C149" s="4"/>
+      <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
@@ -6546,7 +6618,7 @@
     <row r="153" spans="1:8">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
+      <c r="C153" s="4"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
@@ -6555,7 +6627,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="7"/>
-      <c r="B154" s="22"/>
+      <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -6575,7 +6647,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -6585,7 +6657,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="7"/>
-      <c r="B157" s="20"/>
+      <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -6605,7 +6677,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -6625,7 +6697,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
-      <c r="B161" s="20"/>
+      <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -6645,7 +6717,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -6665,7 +6737,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="20"/>
+      <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -6685,7 +6757,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -6725,7 +6797,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="6"/>
+      <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -6735,8 +6807,8 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
@@ -6745,7 +6817,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7"/>
-      <c r="B173" s="19"/>
+      <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -6815,7 +6887,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="4"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -6825,7 +6897,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="19"/>
+      <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -6835,7 +6907,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="21"/>
+      <c r="B182" s="19"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -6855,7 +6927,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="19"/>
+      <c r="B184" s="21"/>
       <c r="C184" s="4"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -6896,7 +6968,7 @@
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
       <c r="B188" s="19"/>
-      <c r="C188" s="7"/>
+      <c r="C188" s="4"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
@@ -6905,7 +6977,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="4"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -6925,7 +6997,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
-      <c r="B191" s="19"/>
+      <c r="B191" s="4"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -6985,7 +7057,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="7"/>
-      <c r="B197" s="21"/>
+      <c r="B197" s="19"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -7025,7 +7097,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="4"/>
+      <c r="B201" s="21"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -7035,7 +7107,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="6"/>
+      <c r="B202" s="4"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -7045,7 +7117,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="4"/>
+      <c r="B203" s="6"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -7055,7 +7127,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
-      <c r="B204" s="19"/>
+      <c r="B204" s="4"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -7105,7 +7177,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="21"/>
+      <c r="B209" s="19"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -7115,7 +7187,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="7"/>
-      <c r="B210" s="19"/>
+      <c r="B210" s="21"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -7165,7 +7237,7 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="7"/>
-      <c r="B215" s="21"/>
+      <c r="B215" s="19"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -7225,7 +7297,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="4"/>
+      <c r="B221" s="21"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -7235,7 +7307,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="6"/>
+      <c r="B222" s="4"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -7245,8 +7317,8 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
       <c r="F223" s="7"/>
@@ -7255,7 +7327,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="19"/>
+      <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -7265,7 +7337,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="7"/>
+      <c r="B225" s="19"/>
       <c r="C225" s="4"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -7275,7 +7347,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="20"/>
+      <c r="B226" s="7"/>
       <c r="C226" s="4"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -7315,7 +7387,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -7325,7 +7397,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="20"/>
+      <c r="B231" s="7"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -7335,7 +7407,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="23"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -7355,7 +7427,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="20"/>
+      <c r="B234" s="23"/>
       <c r="C234" s="4"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -7395,7 +7467,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -7405,7 +7477,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="20"/>
+      <c r="B239" s="7"/>
       <c r="C239" s="4"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -7455,7 +7527,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -7465,8 +7537,8 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="20"/>
-      <c r="C245" s="7"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="4"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
@@ -7475,7 +7547,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -7485,7 +7557,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="20"/>
+      <c r="B247" s="7"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -7495,7 +7567,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="23"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -7545,8 +7617,8 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="20"/>
-      <c r="C253" s="4"/>
+      <c r="B253" s="23"/>
+      <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
@@ -7555,7 +7627,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="23"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="4"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -7565,7 +7637,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="24"/>
+      <c r="B255" s="23"/>
       <c r="C255" s="4"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -7593,9 +7665,9 @@
       <c r="G257" s="30"/>
       <c r="H257" s="7"/>
     </row>
-    <row r="258" spans="1:8" ht="11.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="7"/>
-      <c r="B258" s="25"/>
+      <c r="B258" s="24"/>
       <c r="C258" s="4"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -7603,9 +7675,9 @@
       <c r="G258" s="30"/>
       <c r="H258" s="7"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" ht="11.25">
       <c r="A259" s="7"/>
-      <c r="B259" s="23"/>
+      <c r="B259" s="25"/>
       <c r="C259" s="4"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -7645,7 +7717,7 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="7"/>
-      <c r="B263" s="24"/>
+      <c r="B263" s="23"/>
       <c r="C263" s="4"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -7675,7 +7747,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="23"/>
+      <c r="B266" s="24"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -7685,7 +7757,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="7"/>
-      <c r="B267" s="24"/>
+      <c r="B267" s="23"/>
       <c r="C267" s="4"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -7693,15 +7765,15 @@
       <c r="G267" s="30"/>
       <c r="H267" s="7"/>
     </row>
-    <row r="268" spans="1:8" s="2" customFormat="1">
-      <c r="A268" s="4"/>
+    <row r="268" spans="1:8">
+      <c r="A268" s="7"/>
       <c r="B268" s="24"/>
       <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="4"/>
-      <c r="G268" s="34"/>
-      <c r="H268" s="4"/>
+      <c r="D268" s="7"/>
+      <c r="E268" s="7"/>
+      <c r="F268" s="7"/>
+      <c r="G268" s="30"/>
+      <c r="H268" s="7"/>
     </row>
     <row r="269" spans="1:8" s="2" customFormat="1">
       <c r="A269" s="4"/>
@@ -7713,19 +7785,19 @@
       <c r="G269" s="34"/>
       <c r="H269" s="4"/>
     </row>
-    <row r="270" spans="1:8">
-      <c r="A270" s="7"/>
+    <row r="270" spans="1:8" s="2" customFormat="1">
+      <c r="A270" s="4"/>
       <c r="B270" s="24"/>
       <c r="C270" s="4"/>
-      <c r="D270" s="7"/>
-      <c r="E270" s="7"/>
-      <c r="F270" s="7"/>
-      <c r="G270" s="30"/>
-      <c r="H270" s="7"/>
+      <c r="D270" s="4"/>
+      <c r="E270" s="4"/>
+      <c r="F270" s="4"/>
+      <c r="G270" s="34"/>
+      <c r="H270" s="4"/>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="23"/>
+      <c r="B271" s="24"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -7735,7 +7807,7 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="7"/>
-      <c r="B272" s="24"/>
+      <c r="B272" s="23"/>
       <c r="C272" s="4"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -7765,7 +7837,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="22"/>
+      <c r="B275" s="24"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -7775,7 +7847,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="7"/>
+      <c r="B276" s="22"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -7795,7 +7867,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="20"/>
+      <c r="B278" s="7"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -7815,7 +7887,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="7"/>
-      <c r="B280" s="7"/>
+      <c r="B280" s="20"/>
       <c r="C280" s="4"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -7846,7 +7918,7 @@
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
-      <c r="C283" s="7"/>
+      <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
       <c r="F283" s="7"/>
@@ -7855,7 +7927,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="6"/>
+      <c r="B284" s="7"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -7865,7 +7937,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
-      <c r="B285" s="7"/>
+      <c r="B285" s="6"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -7945,7 +8017,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="6"/>
+      <c r="B293" s="7"/>
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -7955,8 +8027,8 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="4"/>
-      <c r="C294" s="4"/>
+      <c r="B294" s="6"/>
+      <c r="C294" s="7"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
       <c r="F294" s="7"/>
@@ -7965,7 +8037,7 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="7"/>
-      <c r="B295" s="19"/>
+      <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
@@ -7995,7 +8067,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="7"/>
-      <c r="B298" s="4"/>
+      <c r="B298" s="19"/>
       <c r="C298" s="4"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
@@ -8055,7 +8127,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="7"/>
-      <c r="B304" s="19"/>
+      <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -8075,7 +8147,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="21"/>
+      <c r="B306" s="19"/>
       <c r="C306" s="4"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -8085,8 +8157,8 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="7"/>
-      <c r="C307" s="7"/>
+      <c r="B307" s="21"/>
+      <c r="C307" s="4"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
@@ -8095,7 +8167,7 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="7"/>
-      <c r="B308" s="6"/>
+      <c r="B308" s="7"/>
       <c r="C308" s="7"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
@@ -8103,15 +8175,15 @@
       <c r="G308" s="30"/>
       <c r="H308" s="7"/>
     </row>
-    <row r="309" spans="1:8" s="2" customFormat="1">
-      <c r="A309" s="4"/>
-      <c r="B309" s="4"/>
-      <c r="C309" s="9"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="4"/>
-      <c r="G309" s="34"/>
-      <c r="H309" s="4"/>
+    <row r="309" spans="1:8">
+      <c r="A309" s="7"/>
+      <c r="B309" s="6"/>
+      <c r="C309" s="7"/>
+      <c r="D309" s="7"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="7"/>
+      <c r="G309" s="30"/>
+      <c r="H309" s="7"/>
     </row>
     <row r="310" spans="1:8" s="2" customFormat="1">
       <c r="A310" s="4"/>
@@ -8135,7 +8207,7 @@
     </row>
     <row r="312" spans="1:8" s="2" customFormat="1">
       <c r="A312" s="4"/>
-      <c r="B312" s="19"/>
+      <c r="B312" s="4"/>
       <c r="C312" s="9"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -8185,8 +8257,8 @@
     </row>
     <row r="317" spans="1:8" s="2" customFormat="1">
       <c r="A317" s="4"/>
-      <c r="B317" s="26"/>
-      <c r="C317" s="4"/>
+      <c r="B317" s="19"/>
+      <c r="C317" s="9"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
@@ -8235,7 +8307,7 @@
     </row>
     <row r="322" spans="1:8" s="2" customFormat="1">
       <c r="A322" s="4"/>
-      <c r="B322" s="21"/>
+      <c r="B322" s="26"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -8285,7 +8357,7 @@
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="19"/>
+      <c r="B327" s="21"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -8295,7 +8367,7 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="21"/>
+      <c r="B328" s="19"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -8305,7 +8377,7 @@
     </row>
     <row r="329" spans="1:8" s="2" customFormat="1">
       <c r="A329" s="4"/>
-      <c r="B329" s="4"/>
+      <c r="B329" s="21"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -8313,20 +8385,20 @@
       <c r="G329" s="34"/>
       <c r="H329" s="4"/>
     </row>
-    <row r="330" spans="1:8">
-      <c r="A330" s="7"/>
-      <c r="B330" s="6"/>
-      <c r="C330" s="7"/>
-      <c r="D330" s="7"/>
-      <c r="E330" s="7"/>
-      <c r="F330" s="7"/>
-      <c r="G330" s="30"/>
-      <c r="H330" s="7"/>
+    <row r="330" spans="1:8" s="2" customFormat="1">
+      <c r="A330" s="4"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="4"/>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4"/>
+      <c r="F330" s="4"/>
+      <c r="G330" s="34"/>
+      <c r="H330" s="4"/>
     </row>
     <row r="331" spans="1:8">
       <c r="A331" s="7"/>
-      <c r="B331" s="7"/>
-      <c r="C331" s="4"/>
+      <c r="B331" s="6"/>
+      <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
@@ -8395,7 +8467,7 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="7"/>
-      <c r="B338" s="4"/>
+      <c r="B338" s="7"/>
       <c r="C338" s="4"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
@@ -8406,7 +8478,7 @@
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
       <c r="B339" s="4"/>
-      <c r="C339" s="7"/>
+      <c r="C339" s="4"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
@@ -8415,7 +8487,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="6"/>
+      <c r="B340" s="4"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -8425,7 +8497,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="7"/>
+      <c r="B341" s="6"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -8435,7 +8507,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="22"/>
+      <c r="B342" s="7"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -8445,7 +8517,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
-      <c r="B343" s="7"/>
+      <c r="B343" s="22"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
@@ -8485,7 +8557,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="6"/>
+      <c r="B347" s="7"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -8495,7 +8567,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="7"/>
+      <c r="B348" s="6"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -8505,7 +8577,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="20"/>
+      <c r="B349" s="7"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -8535,7 +8607,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="22"/>
+      <c r="B352" s="20"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -8545,7 +8617,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="20"/>
+      <c r="B353" s="22"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -8565,7 +8637,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="22"/>
+      <c r="B355" s="20"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -8575,7 +8647,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="20"/>
+      <c r="B356" s="22"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -8585,7 +8657,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="22"/>
+      <c r="B357" s="20"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -8595,7 +8667,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="20"/>
+      <c r="B358" s="22"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -8625,7 +8697,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="7"/>
+      <c r="B361" s="20"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -8635,7 +8707,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="27"/>
+      <c r="B362" s="7"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -8645,7 +8717,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="22"/>
+      <c r="B363" s="27"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -8655,8 +8727,8 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="7"/>
-      <c r="C364" s="4"/>
+      <c r="B364" s="22"/>
+      <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
@@ -8665,7 +8737,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="20"/>
+      <c r="B365" s="7"/>
       <c r="C365" s="4"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -8695,7 +8767,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="7"/>
+      <c r="B368" s="20"/>
       <c r="C368" s="4"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -8725,7 +8797,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="20"/>
+      <c r="B371" s="7"/>
       <c r="C371" s="4"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -8745,8 +8817,8 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="7"/>
-      <c r="C373" s="7"/>
+      <c r="B373" s="20"/>
+      <c r="C373" s="4"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
@@ -8755,7 +8827,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="6"/>
+      <c r="B374" s="7"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -8765,7 +8837,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="7"/>
+      <c r="B375" s="6"/>
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -8825,7 +8897,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="6"/>
+      <c r="B381" s="7"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -8835,7 +8907,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="7"/>
+      <c r="B382" s="6"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -8856,7 +8928,7 @@
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
       <c r="B384" s="7"/>
-      <c r="C384" s="4"/>
+      <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
@@ -8865,7 +8937,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="20"/>
+      <c r="B385" s="7"/>
       <c r="C385" s="4"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -8876,7 +8948,7 @@
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
       <c r="B386" s="20"/>
-      <c r="C386" s="7"/>
+      <c r="C386" s="4"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
@@ -8885,7 +8957,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="27"/>
+      <c r="B387" s="20"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -8895,7 +8967,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="22"/>
+      <c r="B388" s="27"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -8945,7 +9017,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="7"/>
+      <c r="B393" s="22"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -8955,7 +9027,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="6"/>
+      <c r="B394" s="7"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -8965,7 +9037,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="7"/>
+      <c r="B395" s="6"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -8975,7 +9047,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="20"/>
+      <c r="B396" s="7"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -8985,7 +9057,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="22"/>
+      <c r="B397" s="20"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -9005,7 +9077,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="20"/>
+      <c r="B399" s="22"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -9045,7 +9117,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="7"/>
+      <c r="B403" s="20"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -9055,7 +9127,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="20"/>
+      <c r="B404" s="7"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -9075,7 +9147,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="22"/>
+      <c r="B406" s="20"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -9085,7 +9157,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="7"/>
+      <c r="B407" s="22"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -9095,7 +9167,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="6"/>
+      <c r="B408" s="7"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -9105,7 +9177,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="7"/>
+      <c r="B409" s="6"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -9125,7 +9197,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="6"/>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -9135,7 +9207,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="6"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -9145,7 +9217,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="20"/>
+      <c r="B413" s="7"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -9165,7 +9237,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="20"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -9175,7 +9247,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="6"/>
+      <c r="B416" s="7"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -9185,7 +9257,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="7"/>
+      <c r="B417" s="6"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -9235,7 +9307,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="6"/>
+      <c r="B422" s="7"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -9245,7 +9317,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="7"/>
+      <c r="B423" s="6"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -9305,7 +9377,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="6"/>
+      <c r="B429" s="7"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -9315,7 +9387,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="7"/>
+      <c r="B430" s="6"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -9335,7 +9407,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="6"/>
+      <c r="B432" s="7"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -9345,7 +9417,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="4"/>
+      <c r="B433" s="6"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -9365,7 +9437,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="7"/>
+      <c r="B435" s="4"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -9395,7 +9467,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="6"/>
+      <c r="B438" s="7"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -9405,8 +9477,8 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="7"/>
-      <c r="C439" s="4"/>
+      <c r="B439" s="6"/>
+      <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
       <c r="F439" s="7"/>
@@ -9456,7 +9528,7 @@
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
       <c r="B444" s="7"/>
-      <c r="C444" s="7"/>
+      <c r="C444" s="4"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
       <c r="F444" s="7"/>
@@ -9465,7 +9537,7 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
-      <c r="B445" s="6"/>
+      <c r="B445" s="7"/>
       <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
@@ -9475,8 +9547,8 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
-      <c r="B446" s="7"/>
-      <c r="C446" s="4"/>
+      <c r="B446" s="6"/>
+      <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
       <c r="F446" s="7"/>
@@ -9516,7 +9588,7 @@
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
       <c r="B450" s="7"/>
-      <c r="C450" s="7"/>
+      <c r="C450" s="4"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
       <c r="F450" s="7"/>
@@ -9525,7 +9597,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="6"/>
+      <c r="B451" s="7"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -9535,7 +9607,7 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
-      <c r="B452" s="22"/>
+      <c r="B452" s="6"/>
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
@@ -9595,7 +9667,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="7"/>
+      <c r="B458" s="22"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -9605,7 +9677,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="6"/>
+      <c r="B459" s="7"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -9615,7 +9687,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="7"/>
-      <c r="B460" s="22"/>
+      <c r="B460" s="6"/>
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
@@ -9644,8 +9716,8 @@
       <c r="H462" s="7"/>
     </row>
     <row r="463" spans="1:8">
-      <c r="A463" s="6"/>
-      <c r="B463" s="7"/>
+      <c r="A463" s="7"/>
+      <c r="B463" s="22"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -9654,7 +9726,7 @@
       <c r="H463" s="7"/>
     </row>
     <row r="464" spans="1:8">
-      <c r="A464" s="7"/>
+      <c r="A464" s="6"/>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
@@ -9695,7 +9767,7 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="7"/>
-      <c r="B468" s="28"/>
+      <c r="B468" s="7"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
@@ -9725,7 +9797,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="7"/>
+      <c r="B471" s="28"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -9735,7 +9807,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="28"/>
+      <c r="B472" s="7"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -9745,7 +9817,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="7"/>
+      <c r="B473" s="28"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
@@ -9755,21 +9827,21 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="29"/>
-      <c r="C474" s="30"/>
+      <c r="B474" s="7"/>
+      <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
-      <c r="F474" s="29"/>
+      <c r="F474" s="7"/>
       <c r="G474" s="30"/>
       <c r="H474" s="7"/>
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="7"/>
-      <c r="C475" s="7"/>
+      <c r="B475" s="29"/>
+      <c r="C475" s="30"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
-      <c r="F475" s="7"/>
+      <c r="F475" s="29"/>
       <c r="G475" s="30"/>
       <c r="H475" s="7"/>
     </row>
@@ -13673,6 +13745,16 @@
       <c r="G865" s="30"/>
       <c r="H865" s="7"/>
     </row>
+    <row r="866" spans="1:8">
+      <c r="A866" s="7"/>
+      <c r="B866" s="7"/>
+      <c r="C866" s="7"/>
+      <c r="D866" s="7"/>
+      <c r="E866" s="7"/>
+      <c r="F866" s="7"/>
+      <c r="G866" s="30"/>
+      <c r="H866" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="198">
   <si>
     <t>Feature</t>
   </si>
@@ -543,6 +543,75 @@
   </si>
   <si>
     <t>ctrl-scroll wheel</t>
+  </si>
+  <si>
+    <t>reset blinking animation cycle on mouse released to avoid flicker</t>
+  </si>
+  <si>
+    <t>double left click selects word</t>
+  </si>
+  <si>
+    <t>configurable word selection logic</t>
+  </si>
+  <si>
+    <t>triple left click selects line</t>
+  </si>
+  <si>
+    <t>get word at marker</t>
+  </si>
+  <si>
+    <t>get text line at marker</t>
+  </si>
+  <si>
+    <t>split selection into lines</t>
+  </si>
+  <si>
+    <t>split selection into words</t>
+  </si>
+  <si>
+    <t>next word</t>
+  </si>
+  <si>
+    <t>next word camel case</t>
+  </si>
+  <si>
+    <t>to uppercase</t>
+  </si>
+  <si>
+    <t>to lowercase</t>
+  </si>
+  <si>
+    <t>selection operations</t>
+  </si>
+  <si>
+    <t>highlight occurrences of the word at cursor</t>
+  </si>
+  <si>
+    <t>highlight occurences of selected text</t>
+  </si>
+  <si>
+    <t>line at caret(s) highlighted</t>
+  </si>
+  <si>
+    <t>line numbers</t>
+  </si>
+  <si>
+    <t>configurable component</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>find and replace</t>
+  </si>
+  <si>
+    <t>highlight matching braces</t>
+  </si>
+  <si>
+    <t>auto close braces</t>
+  </si>
+  <si>
+    <t>pluggable auto completion</t>
   </si>
 </sst>
 </file>
@@ -800,7 +869,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954991"/>
+          <c:w val="0.91978071330955002"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -833,10 +902,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -852,15 +921,18 @@
                 <c:pt idx="4">
                   <c:v>42855</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>42857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$52</c:f>
+              <c:f>Progress!$B$48:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -875,6 +947,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,10 +982,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -926,15 +1001,18 @@
                 <c:pt idx="4">
                   <c:v>42855</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>42857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$52</c:f>
+              <c:f>Progress!$C$48:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -949,6 +1027,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,10 +1062,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1000,15 +1081,18 @@
                 <c:pt idx="4">
                   <c:v>42855</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>42857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$52</c:f>
+              <c:f>Progress!$D$48:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1022,6 +1106,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1055,10 +1142,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1074,15 +1161,18 @@
                 <c:pt idx="4">
                   <c:v>42855</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>42857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$56</c:f>
+              <c:f>Progress!$E$48:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1098,21 +1188,24 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133090688"/>
-        <c:axId val="132781184"/>
+        <c:axId val="124308864"/>
+        <c:axId val="123999360"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="133090688"/>
+        <c:axId val="124308864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132781184"/>
+        <c:crossAx val="123999360"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1155,7 +1248,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="132781184"/>
+        <c:axId val="123999360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,7 +1290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133090688"/>
+        <c:crossAx val="124308864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1219,8 +1312,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.5828229804607774E-2"/>
-          <c:y val="0.33819556996218281"/>
+          <c:x val="4.5828229804607781E-2"/>
+          <c:y val="0.33819556996218286"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1287,7 +1380,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000121" r="0.7500000000000121" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001221" r="0.75000000000001221" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1341,7 +1434,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127345E-2"/>
+          <c:x val="4.4510450248127373E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1376,10 +1469,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1395,15 +1488,18 @@
                 <c:pt idx="4">
                   <c:v>42855</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>42857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$52</c:f>
+              <c:f>Progress!$G$48:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1419,15 +1515,18 @@
                 <c:pt idx="4">
                   <c:v>0.25766871165644173</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23655913978494625</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="132817280"/>
-        <c:axId val="132818816"/>
+        <c:axId val="124039552"/>
+        <c:axId val="124041088"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="132817280"/>
+        <c:axId val="124039552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,13 +1534,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-409]mmmm\ d\,\ yyyy;@" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="132818816"/>
+        <c:crossAx val="124041088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="132818816"/>
+        <c:axId val="124041088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1484,7 +1583,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132817280"/>
+        <c:crossAx val="124039552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1533,7 +1632,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000121" r="0.7500000000000121" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001221" r="0.75000000000001221" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1584,10 +1683,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1603,15 +1702,18 @@
                 <c:pt idx="4">
                   <c:v>42855</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>42857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$52</c:f>
+              <c:f>Progress!$C$48:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1626,6 +1728,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1658,10 +1763,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1677,15 +1782,18 @@
                 <c:pt idx="4">
                   <c:v>42855</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>42857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$52</c:f>
+              <c:f>Progress!$D$48:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1701,15 +1809,18 @@
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="132835584"/>
-        <c:axId val="132841472"/>
+        <c:axId val="124061952"/>
+        <c:axId val="124063744"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="132835584"/>
+        <c:axId val="124061952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,7 +1853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132841472"/>
+        <c:crossAx val="124063744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1753,7 +1864,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="132841472"/>
+        <c:axId val="124063744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132835584"/>
+        <c:crossAx val="124061952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1844,7 +1955,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000121" r="0.7500000000000121" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001221" r="0.75000000000001221" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1894,7 +2005,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2302,10 +2413,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D412"/>
+  <dimension ref="A1:D443"/>
   <sheetViews>
-    <sheetView topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="C268" sqref="C268"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2435,8 +2546,12 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
-      <c r="B18" s="22"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
@@ -2632,16 +2747,16 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="22" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="20" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>14</v>
@@ -2650,7 +2765,7 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>2</v>
@@ -2658,17 +2773,17 @@
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="22" t="s">
-        <v>40</v>
+      <c r="B49" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
-      <c r="B50" s="20" t="s">
-        <v>43</v>
+      <c r="B50" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>2</v>
@@ -2677,7 +2792,7 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="22" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
@@ -2685,35 +2800,31 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="22" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="22" t="s">
-        <v>114</v>
+      <c r="B54" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -2721,8 +2832,8 @@
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="22" t="s">
-        <v>149</v>
+      <c r="B56" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -2730,8 +2841,8 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="20" t="s">
-        <v>150</v>
+      <c r="B57" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -2739,17 +2850,17 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
-      <c r="B58" s="20" t="s">
-        <v>151</v>
+      <c r="B58" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
@@ -2757,31 +2868,35 @@
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="22"/>
-      <c r="C60" s="7"/>
+      <c r="B60" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="22" t="s">
-        <v>33</v>
+      <c r="B61" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="20" t="s">
-        <v>158</v>
+      <c r="B63" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -2789,49 +2904,49 @@
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="22"/>
-      <c r="C65" s="7"/>
+      <c r="B65" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="22" t="s">
-        <v>32</v>
+      <c r="B66" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="20" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="20" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="20" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -2844,109 +2959,109 @@
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="22"/>
-      <c r="C71" s="7"/>
+      <c r="B71" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="22"/>
-      <c r="C72" s="7"/>
+      <c r="B72" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="22"/>
-      <c r="C73" s="7"/>
+      <c r="B73" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="2:4" s="6" customFormat="1">
+      <c r="B75" s="22"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="2:4" s="6" customFormat="1">
+      <c r="B76" s="22"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="2:4" s="6" customFormat="1">
+      <c r="B77" s="22"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="2:4" s="6" customFormat="1">
+      <c r="B78" s="22"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="2:4" s="6" customFormat="1">
+      <c r="B79" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="20" t="s">
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="2:4" s="6" customFormat="1">
+      <c r="B80" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="20" t="s">
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="2:4" s="6" customFormat="1">
+      <c r="B81" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="20"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>14</v>
+        <v>63</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -2954,46 +3069,62 @@
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="20"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="2:4" s="6" customFormat="1">
+      <c r="B86" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" s="6" customFormat="1">
+      <c r="B87" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="2:4" s="6" customFormat="1">
+      <c r="B88" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="2:4" s="6" customFormat="1">
+      <c r="B89" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="2:4" s="6" customFormat="1">
+      <c r="B90" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="20" t="s">
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="2:4" s="6" customFormat="1">
+      <c r="B91" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="22"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="22"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="22"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="22"/>
-      <c r="C91" s="7"/>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
@@ -3077,9 +3208,7 @@
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B108" s="22"/>
       <c r="C108" s="7"/>
       <c r="D108" s="4"/>
     </row>
@@ -3089,71 +3218,73 @@
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22" t="s">
-        <v>125</v>
-      </c>
+      <c r="B110" s="22"/>
       <c r="C110" s="7"/>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B111" s="22"/>
+      <c r="C111" s="7"/>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B112" s="22"/>
+      <c r="C112" s="7"/>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B113" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="7"/>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B114" s="22"/>
+      <c r="C114" s="7"/>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="22"/>
+      <c r="B115" s="22" t="s">
+        <v>125</v>
+      </c>
       <c r="C115" s="7"/>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="22"/>
-      <c r="C116" s="7"/>
+      <c r="B116" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="22"/>
-      <c r="C117" s="7"/>
+      <c r="B117" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="22"/>
-      <c r="C118" s="7"/>
+      <c r="B118" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="22"/>
-      <c r="C119" s="7"/>
+      <c r="B119" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
@@ -3162,30 +3293,18 @@
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B121" s="22"/>
+      <c r="C121" s="7"/>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B122" s="22"/>
+      <c r="C122" s="7"/>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B123" s="22"/>
+      <c r="C123" s="7"/>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
@@ -3194,27 +3313,31 @@
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="20"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="7"/>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="20"/>
-      <c r="C126" s="7"/>
+      <c r="B126" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="22" t="s">
-        <v>55</v>
+      <c r="B127" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
       <c r="B128" s="20" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>14</v>
@@ -3227,13 +3350,21 @@
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="20"/>
-      <c r="C130" s="7"/>
+      <c r="B130" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="22"/>
-      <c r="C131" s="7"/>
+      <c r="B131" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
@@ -3243,7 +3374,7 @@
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
       <c r="B133" s="22" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>14</v>
@@ -3251,12 +3382,8 @@
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B134" s="22"/>
+      <c r="C134" s="7"/>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
@@ -3280,31 +3407,31 @@
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C139" s="7" t="s">
+      <c r="B139" s="20"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="2:4" s="6" customFormat="1">
+      <c r="B140" s="20"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="2:4" s="6" customFormat="1">
+      <c r="B141" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C141" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="22"/>
-      <c r="C141" s="7"/>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="22"/>
-      <c r="C142" s="7"/>
+      <c r="B142" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
@@ -3313,31 +3440,23 @@
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="22"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="7"/>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B145" s="22"/>
+      <c r="C145" s="7"/>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B146" s="22"/>
+      <c r="C146" s="7"/>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="20" t="s">
-        <v>71</v>
+      <c r="B147" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>14</v>
@@ -3345,8 +3464,12 @@
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="22"/>
-      <c r="C148" s="7"/>
+      <c r="B148" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
@@ -3360,26 +3483,18 @@
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B151" s="22"/>
+      <c r="C151" s="7"/>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B152" s="22"/>
+      <c r="C152" s="7"/>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="20" t="s">
-        <v>171</v>
+      <c r="B153" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>14</v>
@@ -3387,8 +3502,12 @@
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="22"/>
-      <c r="C154" s="7"/>
+      <c r="B154" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
@@ -3397,21 +3516,13 @@
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B156" s="22"/>
+      <c r="C156" s="7"/>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B157" s="22"/>
+      <c r="C157" s="7"/>
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
@@ -3420,18 +3531,26 @@
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="22"/>
-      <c r="C159" s="7"/>
+      <c r="B159" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
-      <c r="B160" s="22"/>
-      <c r="C160" s="7"/>
+      <c r="B160" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="22" t="s">
-        <v>76</v>
+      <c r="B161" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>14</v>
@@ -3439,12 +3558,8 @@
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B162" s="22"/>
+      <c r="C162" s="7"/>
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
@@ -3458,22 +3573,26 @@
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="22"/>
-      <c r="C165" s="7"/>
+      <c r="B165" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
-      <c r="B166" s="22" t="s">
-        <v>77</v>
+      <c r="B166" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
       <c r="B167" s="20" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>14</v>
@@ -3491,13 +3610,17 @@
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="22"/>
-      <c r="C170" s="7"/>
+      <c r="B170" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="22" t="s">
-        <v>78</v>
+      <c r="B171" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>14</v>
@@ -3505,21 +3628,13 @@
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B172" s="22"/>
+      <c r="C172" s="7"/>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B173" s="22"/>
+      <c r="C173" s="7"/>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
@@ -3528,46 +3643,50 @@
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="22"/>
-      <c r="C175" s="7"/>
+      <c r="B175" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="22"/>
-      <c r="C176" s="7"/>
+      <c r="B176" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B177" s="22"/>
+      <c r="C177" s="7"/>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B178" s="22"/>
+      <c r="C178" s="7"/>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="20"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="7"/>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="20"/>
-      <c r="C180" s="7"/>
+      <c r="B180" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="22" t="s">
-        <v>129</v>
+      <c r="B181" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>14</v>
@@ -3585,17 +3704,13 @@
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B184" s="22"/>
+      <c r="C184" s="7"/>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="20" t="s">
-        <v>131</v>
+      <c r="B185" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>14</v>
@@ -3603,73 +3718,69 @@
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="22"/>
-      <c r="C186" s="7"/>
+      <c r="B186" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="22"/>
-      <c r="C187" s="7"/>
+      <c r="B187" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C188" s="7" t="s">
+      <c r="B188" s="22"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="2:4" s="6" customFormat="1">
+      <c r="B189" s="22"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="2:4" s="6" customFormat="1">
+      <c r="B190" s="22"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="2:4" s="6" customFormat="1">
+      <c r="B191" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C191" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D188" s="4"/>
-    </row>
-    <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C189" s="7" t="s">
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="2:4" s="6" customFormat="1">
+      <c r="B192" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C192" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="22"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="4"/>
-    </row>
-    <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="22"/>
-      <c r="C192" s="7"/>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B193" s="20"/>
+      <c r="C193" s="7"/>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B194" s="20"/>
+      <c r="C194" s="7"/>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="20" t="s">
-        <v>138</v>
+      <c r="B195" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>14</v>
@@ -3688,7 +3799,7 @@
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
       <c r="B198" s="22" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>14</v>
@@ -3697,7 +3808,7 @@
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="20" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>14</v>
@@ -3705,12 +3816,8 @@
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B200" s="22"/>
+      <c r="C200" s="7"/>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
@@ -3720,7 +3827,7 @@
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
       <c r="B202" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>14</v>
@@ -3729,7 +3836,7 @@
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
       <c r="B203" s="20" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>14</v>
@@ -3756,18 +3863,30 @@
       <c r="D206" s="4"/>
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="22"/>
-      <c r="C207" s="7"/>
+      <c r="B207" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="22"/>
-      <c r="C208" s="7"/>
+      <c r="B208" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
-      <c r="B209" s="22"/>
-      <c r="C209" s="7"/>
+      <c r="B209" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
@@ -3781,18 +3900,26 @@
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="22"/>
-      <c r="C212" s="7"/>
+      <c r="B212" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="20"/>
-      <c r="C213" s="7"/>
+      <c r="B213" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
-      <c r="B214" s="22" t="s">
-        <v>135</v>
+      <c r="B214" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>14</v>
@@ -3800,86 +3927,74 @@
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="20"/>
+      <c r="B215" s="22"/>
       <c r="C215" s="7"/>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="20"/>
-      <c r="C216" s="7"/>
+      <c r="B216" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
-      <c r="B217" s="20"/>
-      <c r="C217" s="7"/>
+      <c r="B217" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="22" t="s">
-        <v>142</v>
+      <c r="B218" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B219" s="22"/>
+      <c r="C219" s="7"/>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
-      <c r="B220" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B220" s="22"/>
+      <c r="C220" s="7"/>
       <c r="D220" s="4"/>
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
-      <c r="B221" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B221" s="22"/>
+      <c r="C221" s="7"/>
       <c r="D221" s="4"/>
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B222" s="22"/>
+      <c r="C222" s="7"/>
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
-      <c r="B223" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B223" s="22"/>
+      <c r="C223" s="7"/>
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
-      <c r="B224" s="20"/>
+      <c r="B224" s="22"/>
       <c r="C224" s="7"/>
       <c r="D224" s="4"/>
     </row>
     <row r="225" spans="2:4" s="6" customFormat="1">
-      <c r="B225" s="20"/>
+      <c r="B225" s="22"/>
       <c r="C225" s="7"/>
       <c r="D225" s="4"/>
     </row>
     <row r="226" spans="2:4" s="6" customFormat="1">
-      <c r="B226" s="20"/>
+      <c r="B226" s="22"/>
       <c r="C226" s="7"/>
       <c r="D226" s="4"/>
     </row>
@@ -3889,8 +4004,12 @@
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="20"/>
-      <c r="C228" s="7"/>
+      <c r="B228" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D228" s="4"/>
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
@@ -3909,246 +4028,260 @@
       <c r="D231" s="4"/>
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="22"/>
-      <c r="C232" s="7"/>
+      <c r="B232" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D232" s="4"/>
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
-      <c r="B233" s="20"/>
-      <c r="C233" s="7"/>
+      <c r="B233" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
-      <c r="B234" s="19"/>
-      <c r="C234" s="7"/>
+      <c r="B234" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D234" s="4"/>
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
-      <c r="B235" s="4"/>
-      <c r="C235" s="7"/>
+      <c r="B235" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D235" s="4"/>
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236" s="4"/>
+    </row>
+    <row r="237" spans="2:4" s="6" customFormat="1">
+      <c r="B237" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" s="4"/>
+    </row>
+    <row r="238" spans="2:4" s="6" customFormat="1">
+      <c r="B238" s="20"/>
+      <c r="C238" s="7"/>
+      <c r="D238" s="4"/>
+    </row>
+    <row r="239" spans="2:4" s="6" customFormat="1">
+      <c r="B239" s="20"/>
+      <c r="C239" s="7"/>
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="2:4" s="6" customFormat="1">
+      <c r="B240" s="20"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="4"/>
+    </row>
+    <row r="241" spans="2:4" s="6" customFormat="1">
+      <c r="B241" s="20"/>
+      <c r="C241" s="7"/>
+      <c r="D241" s="4"/>
+    </row>
+    <row r="242" spans="2:4" s="6" customFormat="1">
+      <c r="B242" s="20"/>
+      <c r="C242" s="7"/>
+      <c r="D242" s="4"/>
+    </row>
+    <row r="243" spans="2:4" s="6" customFormat="1">
+      <c r="B243" s="20"/>
+      <c r="C243" s="7"/>
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="2:4" s="6" customFormat="1">
+      <c r="B244" s="20"/>
+      <c r="C244" s="7"/>
+      <c r="D244" s="4"/>
+    </row>
+    <row r="245" spans="2:4" s="6" customFormat="1">
+      <c r="B245" s="20"/>
+      <c r="C245" s="7"/>
+      <c r="D245" s="4"/>
+    </row>
+    <row r="246" spans="2:4" s="6" customFormat="1">
+      <c r="B246" s="22"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="2:4" s="6" customFormat="1">
+      <c r="B247" s="20"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="2:4" s="6" customFormat="1">
+      <c r="B248" s="19"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="4"/>
+    </row>
+    <row r="249" spans="2:4" s="6" customFormat="1">
+      <c r="B249" s="4"/>
+      <c r="C249" s="7"/>
+      <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="2:4" s="6" customFormat="1">
+      <c r="B250" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C236" s="7"/>
-      <c r="D236" s="4"/>
-    </row>
-    <row r="237" spans="2:4">
-      <c r="C237" s="7"/>
-    </row>
-    <row r="238" spans="2:4">
-      <c r="B238" s="43" t="s">
+      <c r="C250" s="7"/>
+      <c r="D250" s="4"/>
+    </row>
+    <row r="251" spans="2:4">
+      <c r="C251" s="7"/>
+    </row>
+    <row r="252" spans="2:4">
+      <c r="B252" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="C238" s="7"/>
-    </row>
-    <row r="239" spans="2:4">
-      <c r="C239" s="7"/>
-    </row>
-    <row r="240" spans="2:4">
-      <c r="B240" t="s">
+      <c r="C252" s="7"/>
+    </row>
+    <row r="253" spans="2:4">
+      <c r="C253" s="7"/>
+    </row>
+    <row r="254" spans="2:4">
+      <c r="B254" t="s">
         <v>88</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="C254" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="2:3">
-      <c r="B241" t="s">
+    <row r="255" spans="2:4">
+      <c r="B255" t="s">
         <v>89</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="C255" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="2:3">
-      <c r="B242" t="s">
+    <row r="256" spans="2:4">
+      <c r="B256" t="s">
         <v>90</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="C256" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="2:3">
-      <c r="B243" t="s">
+    <row r="257" spans="2:3">
+      <c r="B257" t="s">
         <v>91</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="C257" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="2:3">
-      <c r="B244" t="s">
+    <row r="258" spans="2:3">
+      <c r="B258" t="s">
         <v>92</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="C258" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="2:3">
-      <c r="B245" t="s">
+    <row r="259" spans="2:3">
+      <c r="B259" t="s">
         <v>93</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C259" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="2:3">
-      <c r="B246" t="s">
+    <row r="260" spans="2:3">
+      <c r="B260" t="s">
         <v>94</v>
       </c>
-      <c r="C246" s="9" t="s">
+      <c r="C260" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="2:3">
-      <c r="B247" s="45" t="s">
+    <row r="261" spans="2:3">
+      <c r="B261" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C247" s="9" t="s">
+      <c r="C261" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="2:3">
-      <c r="B248" t="s">
+    <row r="262" spans="2:3">
+      <c r="B262" t="s">
         <v>95</v>
       </c>
-      <c r="C248" s="9" t="s">
+      <c r="C262" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="2:3">
-      <c r="B249" s="45" t="s">
+    <row r="263" spans="2:3">
+      <c r="B263" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C249" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3">
-      <c r="B250" t="s">
-        <v>99</v>
-      </c>
-      <c r="C250" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3">
-      <c r="B251" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C251" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="252" spans="2:3">
-      <c r="B252" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3">
-      <c r="B253" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C253" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3">
-      <c r="B254" s="45"/>
-      <c r="C254" s="9"/>
-    </row>
-    <row r="255" spans="2:3">
-      <c r="B255" s="45"/>
-      <c r="C255" s="9"/>
-    </row>
-    <row r="256" spans="2:3">
-      <c r="B256" s="45"/>
-      <c r="C256" s="9"/>
-    </row>
-    <row r="257" spans="2:3">
-      <c r="C257" s="9"/>
-    </row>
-    <row r="258" spans="2:3">
-      <c r="C258" s="9"/>
-    </row>
-    <row r="259" spans="2:3">
-      <c r="C259" s="9"/>
-    </row>
-    <row r="260" spans="2:3">
-      <c r="C260" s="9"/>
-    </row>
-    <row r="261" spans="2:3">
-      <c r="B261" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="C261" s="9"/>
-    </row>
-    <row r="262" spans="2:3">
-      <c r="C262" s="9"/>
-    </row>
-    <row r="263" spans="2:3">
-      <c r="B263" t="s">
-        <v>118</v>
-      </c>
-      <c r="C263" s="7" t="s">
+      <c r="C263" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="264" spans="2:3">
       <c r="B264" t="s">
-        <v>119</v>
-      </c>
-      <c r="C264" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C264" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" t="s">
-        <v>120</v>
-      </c>
-      <c r="C265" s="7" t="s">
+      <c r="B265" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C265" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" t="s">
-        <v>121</v>
-      </c>
-      <c r="C266" s="7" t="s">
+      <c r="B266" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C266" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" t="s">
-        <v>122</v>
-      </c>
-      <c r="C267" s="7" t="s">
+      <c r="B267" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C267" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="268" spans="2:3">
-      <c r="B268" t="s">
-        <v>123</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B268" s="45"/>
+      <c r="C268" s="9"/>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" t="s">
-        <v>157</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B269" s="45"/>
+      <c r="C269" s="9"/>
     </row>
     <row r="270" spans="2:3">
+      <c r="B270" s="45"/>
       <c r="C270" s="9"/>
     </row>
     <row r="271" spans="2:3">
@@ -4158,41 +4291,39 @@
       <c r="C272" s="9"/>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="43" t="s">
-        <v>147</v>
-      </c>
       <c r="C273" s="9"/>
     </row>
     <row r="274" spans="2:3">
       <c r="C274" s="9"/>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" t="s">
-        <v>143</v>
-      </c>
-      <c r="C275" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B275" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C275" s="9"/>
     </row>
     <row r="276" spans="2:3">
-      <c r="B276" t="s">
-        <v>109</v>
-      </c>
-      <c r="C276" s="9" t="s">
+      <c r="C276" s="9"/>
+    </row>
+    <row r="277" spans="2:3">
+      <c r="B277" t="s">
+        <v>118</v>
+      </c>
+      <c r="C277" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="278" spans="2:3">
       <c r="B278" t="s">
-        <v>87</v>
-      </c>
-      <c r="C278" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C278" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="279" spans="2:3">
       <c r="B279" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>14</v>
@@ -4200,299 +4331,292 @@
     </row>
     <row r="280" spans="2:3">
       <c r="B280" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="281" spans="2:3">
-      <c r="C281" s="9"/>
+      <c r="B281" t="s">
+        <v>122</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C282" s="9" t="s">
+      <c r="B282" t="s">
+        <v>123</v>
+      </c>
+      <c r="C282" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="283" spans="2:3">
-      <c r="C283" s="9"/>
+      <c r="B283" t="s">
+        <v>157</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C284" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C284" s="9"/>
     </row>
     <row r="285" spans="2:3">
-      <c r="B285" t="s">
-        <v>107</v>
-      </c>
-      <c r="C285" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C285" s="9"/>
     </row>
     <row r="286" spans="2:3">
       <c r="C286" s="9"/>
     </row>
     <row r="287" spans="2:3">
+      <c r="B287" s="43" t="s">
+        <v>147</v>
+      </c>
       <c r="C287" s="9"/>
     </row>
     <row r="288" spans="2:3">
       <c r="C288" s="9"/>
     </row>
-    <row r="289" spans="3:3">
-      <c r="C289" s="9"/>
-    </row>
-    <row r="290" spans="3:3">
-      <c r="C290" s="9"/>
-    </row>
-    <row r="291" spans="3:3">
-      <c r="C291" s="9"/>
-    </row>
-    <row r="292" spans="3:3">
-      <c r="C292" s="9"/>
-    </row>
-    <row r="293" spans="3:3">
-      <c r="C293" s="9"/>
-    </row>
-    <row r="294" spans="3:3">
-      <c r="C294" s="9"/>
-    </row>
-    <row r="295" spans="3:3">
+    <row r="289" spans="2:3">
+      <c r="B289" t="s">
+        <v>143</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3">
+      <c r="B290" t="s">
+        <v>109</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3">
+      <c r="B292" t="s">
+        <v>87</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3">
+      <c r="B293" t="s">
+        <v>101</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3">
+      <c r="B294" t="s">
+        <v>102</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3">
       <c r="C295" s="9"/>
     </row>
-    <row r="296" spans="3:3">
-      <c r="C296" s="9"/>
-    </row>
-    <row r="297" spans="3:3">
+    <row r="296" spans="2:3">
+      <c r="B296" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3">
       <c r="C297" s="9"/>
     </row>
-    <row r="298" spans="3:3">
-      <c r="C298" s="9"/>
-    </row>
-    <row r="299" spans="3:3">
-      <c r="C299" s="9"/>
-    </row>
-    <row r="300" spans="3:3">
+    <row r="298" spans="2:3">
+      <c r="B298" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3">
+      <c r="B299" t="s">
+        <v>107</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3">
       <c r="C300" s="9"/>
     </row>
-    <row r="301" spans="3:3">
-      <c r="C301" s="9"/>
-    </row>
-    <row r="302" spans="3:3">
+    <row r="301" spans="2:3">
+      <c r="B301" t="s">
+        <v>196</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3">
       <c r="C302" s="9"/>
     </row>
-    <row r="303" spans="3:3">
+    <row r="303" spans="2:3">
       <c r="C303" s="9"/>
     </row>
-    <row r="304" spans="3:3">
+    <row r="304" spans="2:3">
       <c r="C304" s="9"/>
     </row>
-    <row r="305" spans="2:3">
+    <row r="305" spans="3:3">
       <c r="C305" s="9"/>
     </row>
-    <row r="306" spans="2:3">
+    <row r="306" spans="3:3">
       <c r="C306" s="9"/>
     </row>
-    <row r="307" spans="2:3">
+    <row r="307" spans="3:3">
       <c r="C307" s="9"/>
     </row>
-    <row r="308" spans="2:3">
+    <row r="308" spans="3:3">
       <c r="C308" s="9"/>
     </row>
-    <row r="309" spans="2:3">
+    <row r="309" spans="3:3">
       <c r="C309" s="9"/>
     </row>
-    <row r="310" spans="2:3">
+    <row r="310" spans="3:3">
       <c r="C310" s="9"/>
     </row>
-    <row r="311" spans="2:3">
-      <c r="B311" s="3" t="s">
+    <row r="311" spans="3:3">
+      <c r="C311" s="9"/>
+    </row>
+    <row r="312" spans="3:3">
+      <c r="C312" s="9"/>
+    </row>
+    <row r="313" spans="3:3">
+      <c r="C313" s="9"/>
+    </row>
+    <row r="314" spans="3:3">
+      <c r="C314" s="9"/>
+    </row>
+    <row r="315" spans="3:3">
+      <c r="C315" s="9"/>
+    </row>
+    <row r="316" spans="3:3">
+      <c r="C316" s="9"/>
+    </row>
+    <row r="317" spans="3:3">
+      <c r="C317" s="9"/>
+    </row>
+    <row r="318" spans="3:3">
+      <c r="C318" s="9"/>
+    </row>
+    <row r="319" spans="3:3">
+      <c r="C319" s="9"/>
+    </row>
+    <row r="320" spans="3:3">
+      <c r="C320" s="9"/>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="C321" s="9"/>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="C322" s="9"/>
+    </row>
+    <row r="323" spans="2:3">
+      <c r="C323" s="9"/>
+    </row>
+    <row r="324" spans="2:3">
+      <c r="C324" s="9"/>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="B325" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C311" s="9"/>
-    </row>
-    <row r="312" spans="2:3">
-      <c r="B312" t="s">
+      <c r="C325" s="9"/>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="B326" t="s">
         <v>50</v>
       </c>
-      <c r="C312" s="7" t="s">
+      <c r="C326" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="2:3">
-      <c r="B313" t="s">
+    <row r="327" spans="2:3">
+      <c r="B327" t="s">
         <v>51</v>
       </c>
-      <c r="C313" s="7" t="s">
+      <c r="C327" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="2:3">
-      <c r="B314" t="s">
+    <row r="328" spans="2:3">
+      <c r="B328" t="s">
         <v>52</v>
       </c>
-      <c r="C314" s="7" t="s">
+      <c r="C328" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="2:3">
-      <c r="C315" s="9"/>
-    </row>
-    <row r="316" spans="2:3">
-      <c r="B316" t="s">
+    <row r="329" spans="2:3">
+      <c r="C329" s="9"/>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="B330" t="s">
         <v>104</v>
       </c>
-      <c r="C316" s="7" t="s">
+      <c r="C330" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="2:3">
-      <c r="B317" t="s">
+    <row r="331" spans="2:3">
+      <c r="B331" t="s">
         <v>105</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="C331" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="2:3">
-      <c r="C318" s="9"/>
-    </row>
-    <row r="319" spans="2:3">
-      <c r="B319" t="s">
+    <row r="332" spans="2:3">
+      <c r="C332" s="9"/>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="B333" t="s">
         <v>157</v>
       </c>
-      <c r="C319" s="7" t="s">
+      <c r="C333" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="2:3">
-      <c r="C320" s="9"/>
-    </row>
-    <row r="321" spans="2:4">
-      <c r="C321" s="9"/>
-    </row>
-    <row r="322" spans="2:4">
-      <c r="C322" s="9"/>
-    </row>
-    <row r="323" spans="2:4">
-      <c r="C323" s="9"/>
-    </row>
-    <row r="324" spans="2:4">
-      <c r="C324" s="9"/>
-    </row>
-    <row r="325" spans="2:4">
-      <c r="C325" s="9"/>
-    </row>
-    <row r="326" spans="2:4">
-      <c r="C326" s="9"/>
-    </row>
-    <row r="327" spans="2:4">
-      <c r="C327" s="9"/>
-    </row>
-    <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="3" t="s">
+    <row r="334" spans="2:3">
+      <c r="C334" s="9"/>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="C335" s="9"/>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="C336" s="9"/>
+    </row>
+    <row r="337" spans="2:4">
+      <c r="C337" s="9"/>
+    </row>
+    <row r="338" spans="2:4">
+      <c r="C338" s="9"/>
+    </row>
+    <row r="339" spans="2:4">
+      <c r="C339" s="9"/>
+    </row>
+    <row r="340" spans="2:4">
+      <c r="C340" s="9"/>
+    </row>
+    <row r="341" spans="2:4">
+      <c r="C341" s="9"/>
+    </row>
+    <row r="343" spans="2:4" s="6" customFormat="1">
+      <c r="B343" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C329" s="7"/>
-      <c r="D329" s="4"/>
-    </row>
-    <row r="330" spans="2:4" s="6" customFormat="1">
-      <c r="B330" s="22"/>
-      <c r="C330" s="7"/>
-      <c r="D330" s="4"/>
-    </row>
-    <row r="331" spans="2:4" s="6" customFormat="1">
-      <c r="B331" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C331" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D331" s="4"/>
-    </row>
-    <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C332" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D332" s="4"/>
-    </row>
-    <row r="333" spans="2:4" s="6" customFormat="1">
-      <c r="B333" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C333" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D333" s="4"/>
-    </row>
-    <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="22"/>
-      <c r="C334" s="7"/>
-      <c r="D334" s="4"/>
-    </row>
-    <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C335" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D335" s="4"/>
-    </row>
-    <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C336" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D336" s="4"/>
-    </row>
-    <row r="337" spans="2:4" s="6" customFormat="1">
-      <c r="B337" s="22"/>
-      <c r="C337" s="7"/>
-      <c r="D337" s="4"/>
-    </row>
-    <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" t="s">
-        <v>157</v>
-      </c>
-      <c r="C338" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D338" s="4"/>
-    </row>
-    <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="22"/>
-      <c r="C339" s="7"/>
-      <c r="D339" s="4"/>
-    </row>
-    <row r="340" spans="2:4" s="6" customFormat="1">
-      <c r="B340" s="22"/>
-      <c r="C340" s="7"/>
-      <c r="D340" s="4"/>
-    </row>
-    <row r="341" spans="2:4" s="6" customFormat="1">
-      <c r="B341" s="22"/>
-      <c r="C341" s="7"/>
-      <c r="D341" s="4"/>
-    </row>
-    <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="22"/>
-      <c r="C342" s="7"/>
-      <c r="D342" s="4"/>
-    </row>
-    <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="22"/>
       <c r="C343" s="7"/>
       <c r="D343" s="4"/>
     </row>
@@ -4502,20 +4626,26 @@
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C345" s="7"/>
+      <c r="B345" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D345" s="4"/>
     </row>
     <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="22"/>
-      <c r="C346" s="7"/>
+      <c r="B346" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D346" s="4"/>
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
       <c r="B347" s="22" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>14</v>
@@ -4523,26 +4653,22 @@
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C348" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B348" s="22"/>
+      <c r="C348" s="7"/>
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
       <c r="B349" s="22" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
       <c r="B350" s="22" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>14</v>
@@ -4555,8 +4681,8 @@
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="22" t="s">
-        <v>48</v>
+      <c r="B352" t="s">
+        <v>157</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>14</v>
@@ -4564,22 +4690,22 @@
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C353" s="7" t="s">
+      <c r="B353" s="22"/>
+      <c r="C353" s="7"/>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="2:4" s="6" customFormat="1">
+      <c r="B354" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C354" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D353" s="4"/>
-    </row>
-    <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="22"/>
-      <c r="C354" s="7"/>
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
       <c r="B355" s="22" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>14</v>
@@ -4587,17 +4713,12 @@
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C356" s="7"/>
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="22" t="s">
-        <v>52</v>
+      <c r="B357" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>14</v>
@@ -4611,7 +4732,7 @@
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
       <c r="B359" s="22" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>14</v>
@@ -4624,88 +4745,102 @@
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="22"/>
+      <c r="B361" s="22" t="s">
+        <v>187</v>
+      </c>
       <c r="C361" s="7"/>
       <c r="D361" s="4"/>
     </row>
     <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="22"/>
-      <c r="C362" s="7"/>
+      <c r="B362" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D362" s="4"/>
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="22"/>
-      <c r="C363" s="7"/>
+      <c r="B363" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D363" s="4"/>
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="22"/>
-      <c r="C364" s="7"/>
+      <c r="B364" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D364" s="4"/>
     </row>
     <row r="365" spans="2:4" s="6" customFormat="1">
-      <c r="B365" s="22"/>
-      <c r="C365" s="7"/>
+      <c r="B365" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D365" s="4"/>
     </row>
     <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="22"/>
-      <c r="C366" s="7"/>
+      <c r="B366" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="B367" s="22"/>
       <c r="C367" s="7"/>
       <c r="D367" s="4"/>
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="22"/>
-      <c r="C368" s="7"/>
+      <c r="B368" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D368" s="4"/>
     </row>
     <row r="369" spans="2:4" s="6" customFormat="1">
       <c r="B369" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C369" s="7"/>
+        <v>194</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D369" s="4"/>
     </row>
     <row r="370" spans="2:4" s="6" customFormat="1">
-      <c r="B370" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C370" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B370" s="22"/>
+      <c r="C370" s="7"/>
       <c r="D370" s="4"/>
     </row>
     <row r="371" spans="2:4" s="6" customFormat="1">
-      <c r="B371" s="20" t="s">
-        <v>163</v>
+      <c r="B371" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D371" s="4"/>
     </row>
     <row r="372" spans="2:4" s="6" customFormat="1">
-      <c r="B372" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C372" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B372" s="22"/>
+      <c r="C372" s="7"/>
       <c r="D372" s="4"/>
     </row>
     <row r="373" spans="2:4" s="6" customFormat="1">
-      <c r="B373" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C373" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B373" s="22"/>
+      <c r="C373" s="7"/>
       <c r="D373" s="4"/>
     </row>
     <row r="374" spans="2:4" s="6" customFormat="1">
@@ -4714,48 +4849,56 @@
       <c r="D374" s="4"/>
     </row>
     <row r="375" spans="2:4" s="6" customFormat="1">
-      <c r="B375" s="22" t="s">
-        <v>33</v>
-      </c>
+      <c r="B375" s="22"/>
       <c r="C375" s="7"/>
       <c r="D375" s="4"/>
     </row>
     <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C376" s="7" t="s">
+      <c r="B376" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C376" s="7"/>
+      <c r="D376" s="4"/>
+    </row>
+    <row r="377" spans="2:4" s="6" customFormat="1">
+      <c r="B377" s="22"/>
+      <c r="C377" s="7"/>
+      <c r="D377" s="4"/>
+    </row>
+    <row r="378" spans="2:4" s="6" customFormat="1">
+      <c r="B378" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D378" s="4"/>
+    </row>
+    <row r="379" spans="2:4" s="6" customFormat="1">
+      <c r="B379" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C379" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D376" s="4"/>
-    </row>
-    <row r="377" spans="2:4" s="6" customFormat="1">
-      <c r="B377" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C377" s="7" t="s">
+      <c r="D379" s="4"/>
+    </row>
+    <row r="380" spans="2:4" s="6" customFormat="1">
+      <c r="B380" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C380" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D377" s="4"/>
-    </row>
-    <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="22"/>
-      <c r="C378" s="7"/>
-      <c r="D378" s="4"/>
-    </row>
-    <row r="379" spans="2:4" s="6" customFormat="1">
-      <c r="B379" s="22"/>
-      <c r="C379" s="7"/>
-      <c r="D379" s="4"/>
-    </row>
-    <row r="380" spans="2:4" s="6" customFormat="1">
-      <c r="B380" s="22"/>
-      <c r="C380" s="7"/>
       <c r="D380" s="4"/>
     </row>
     <row r="381" spans="2:4" s="6" customFormat="1">
-      <c r="B381" s="22"/>
-      <c r="C381" s="7"/>
+      <c r="B381" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D381" s="4"/>
     </row>
     <row r="382" spans="2:4" s="6" customFormat="1">
@@ -4764,13 +4907,21 @@
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
-      <c r="B383" s="22"/>
-      <c r="C383" s="7"/>
+      <c r="B383" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D383" s="4"/>
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
-      <c r="B384" s="22"/>
-      <c r="C384" s="7"/>
+      <c r="B384" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D384" s="4"/>
     </row>
     <row r="385" spans="2:4" s="6" customFormat="1">
@@ -4779,18 +4930,30 @@
       <c r="D385" s="4"/>
     </row>
     <row r="386" spans="2:4" s="6" customFormat="1">
-      <c r="B386" s="22"/>
-      <c r="C386" s="7"/>
+      <c r="B386" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D386" s="4"/>
     </row>
     <row r="387" spans="2:4" s="6" customFormat="1">
-      <c r="B387" s="22"/>
-      <c r="C387" s="7"/>
+      <c r="B387" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D387" s="4"/>
     </row>
     <row r="388" spans="2:4" s="6" customFormat="1">
-      <c r="B388" s="22"/>
-      <c r="C388" s="7"/>
+      <c r="B388" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D388" s="4"/>
     </row>
     <row r="389" spans="2:4" s="6" customFormat="1">
@@ -4799,8 +4962,12 @@
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="2:4" s="6" customFormat="1">
-      <c r="B390" s="22"/>
-      <c r="C390" s="7"/>
+      <c r="B390" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D390" s="4"/>
     </row>
     <row r="391" spans="2:4" s="6" customFormat="1">
@@ -4839,7 +5006,9 @@
       <c r="D397" s="4"/>
     </row>
     <row r="398" spans="2:4" s="6" customFormat="1">
-      <c r="B398" s="22"/>
+      <c r="B398" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="C398" s="7"/>
       <c r="D398" s="4"/>
     </row>
@@ -4849,105 +5018,296 @@
       <c r="D399" s="4"/>
     </row>
     <row r="400" spans="2:4" s="6" customFormat="1">
-      <c r="B400" s="22"/>
+      <c r="B400" s="22" t="s">
+        <v>162</v>
+      </c>
       <c r="C400" s="7"/>
       <c r="D400" s="4"/>
     </row>
-    <row r="401" spans="1:4" s="6" customFormat="1">
-      <c r="B401" s="22"/>
-      <c r="C401" s="7"/>
+    <row r="401" spans="2:4" s="6" customFormat="1">
+      <c r="B401" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D401" s="4"/>
     </row>
-    <row r="402" spans="1:4" s="6" customFormat="1">
-      <c r="B402" s="22"/>
-      <c r="C402" s="4"/>
+    <row r="402" spans="2:4" s="6" customFormat="1">
+      <c r="B402" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D402" s="4"/>
     </row>
-    <row r="403" spans="1:4" s="6" customFormat="1">
-      <c r="B403" s="19"/>
-      <c r="C403" s="4"/>
+    <row r="403" spans="2:4" s="6" customFormat="1">
+      <c r="B403" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D403" s="4"/>
     </row>
-    <row r="404" spans="1:4" s="6" customFormat="1">
-      <c r="B404" s="21"/>
-      <c r="C404" s="4"/>
+    <row r="404" spans="2:4" s="6" customFormat="1">
+      <c r="B404" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D404" s="4"/>
     </row>
-    <row r="405" spans="1:4" s="6" customFormat="1">
-      <c r="B405" s="21"/>
-      <c r="C405" s="4"/>
+    <row r="405" spans="2:4" s="6" customFormat="1">
+      <c r="B405" s="22"/>
+      <c r="C405" s="7"/>
       <c r="D405" s="4"/>
     </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="3"/>
-      <c r="B406" s="11"/>
-      <c r="C406" s="11"/>
-      <c r="D406" s="3"/>
-    </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="3"/>
-      <c r="B407" s="8" t="s">
+    <row r="406" spans="2:4" s="6" customFormat="1">
+      <c r="B406" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C406" s="7"/>
+      <c r="D406" s="4"/>
+    </row>
+    <row r="407" spans="2:4" s="6" customFormat="1">
+      <c r="B407" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D407" s="4"/>
+    </row>
+    <row r="408" spans="2:4" s="6" customFormat="1">
+      <c r="B408" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D408" s="4"/>
+    </row>
+    <row r="409" spans="2:4" s="6" customFormat="1">
+      <c r="B409" s="22"/>
+      <c r="C409" s="7"/>
+      <c r="D409" s="4"/>
+    </row>
+    <row r="410" spans="2:4" s="6" customFormat="1">
+      <c r="B410" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D410" s="4"/>
+    </row>
+    <row r="411" spans="2:4" s="6" customFormat="1">
+      <c r="B411" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D411" s="4"/>
+    </row>
+    <row r="412" spans="2:4" s="6" customFormat="1">
+      <c r="B412" s="22"/>
+      <c r="C412" s="7"/>
+      <c r="D412" s="4"/>
+    </row>
+    <row r="413" spans="2:4" s="6" customFormat="1">
+      <c r="B413" s="22"/>
+      <c r="C413" s="7"/>
+      <c r="D413" s="4"/>
+    </row>
+    <row r="414" spans="2:4" s="6" customFormat="1">
+      <c r="B414" s="22"/>
+      <c r="C414" s="7"/>
+      <c r="D414" s="4"/>
+    </row>
+    <row r="415" spans="2:4" s="6" customFormat="1">
+      <c r="B415" s="22"/>
+      <c r="C415" s="7"/>
+      <c r="D415" s="4"/>
+    </row>
+    <row r="416" spans="2:4" s="6" customFormat="1">
+      <c r="B416" s="22"/>
+      <c r="C416" s="7"/>
+      <c r="D416" s="4"/>
+    </row>
+    <row r="417" spans="2:4" s="6" customFormat="1">
+      <c r="B417" s="22"/>
+      <c r="C417" s="7"/>
+      <c r="D417" s="4"/>
+    </row>
+    <row r="418" spans="2:4" s="6" customFormat="1">
+      <c r="B418" s="22"/>
+      <c r="C418" s="7"/>
+      <c r="D418" s="4"/>
+    </row>
+    <row r="419" spans="2:4" s="6" customFormat="1">
+      <c r="B419" s="22"/>
+      <c r="C419" s="7"/>
+      <c r="D419" s="4"/>
+    </row>
+    <row r="420" spans="2:4" s="6" customFormat="1">
+      <c r="B420" s="22"/>
+      <c r="C420" s="7"/>
+      <c r="D420" s="4"/>
+    </row>
+    <row r="421" spans="2:4" s="6" customFormat="1">
+      <c r="B421" s="22"/>
+      <c r="C421" s="7"/>
+      <c r="D421" s="4"/>
+    </row>
+    <row r="422" spans="2:4" s="6" customFormat="1">
+      <c r="B422" s="22"/>
+      <c r="C422" s="7"/>
+      <c r="D422" s="4"/>
+    </row>
+    <row r="423" spans="2:4" s="6" customFormat="1">
+      <c r="B423" s="22"/>
+      <c r="C423" s="7"/>
+      <c r="D423" s="4"/>
+    </row>
+    <row r="424" spans="2:4" s="6" customFormat="1">
+      <c r="B424" s="22"/>
+      <c r="C424" s="7"/>
+      <c r="D424" s="4"/>
+    </row>
+    <row r="425" spans="2:4" s="6" customFormat="1">
+      <c r="B425" s="22"/>
+      <c r="C425" s="7"/>
+      <c r="D425" s="4"/>
+    </row>
+    <row r="426" spans="2:4" s="6" customFormat="1">
+      <c r="B426" s="22"/>
+      <c r="C426" s="7"/>
+      <c r="D426" s="4"/>
+    </row>
+    <row r="427" spans="2:4" s="6" customFormat="1">
+      <c r="B427" s="22"/>
+      <c r="C427" s="7"/>
+      <c r="D427" s="4"/>
+    </row>
+    <row r="428" spans="2:4" s="6" customFormat="1">
+      <c r="B428" s="22"/>
+      <c r="C428" s="7"/>
+      <c r="D428" s="4"/>
+    </row>
+    <row r="429" spans="2:4" s="6" customFormat="1">
+      <c r="B429" s="22"/>
+      <c r="C429" s="7"/>
+      <c r="D429" s="4"/>
+    </row>
+    <row r="430" spans="2:4" s="6" customFormat="1">
+      <c r="B430" s="22"/>
+      <c r="C430" s="7"/>
+      <c r="D430" s="4"/>
+    </row>
+    <row r="431" spans="2:4" s="6" customFormat="1">
+      <c r="B431" s="22"/>
+      <c r="C431" s="7"/>
+      <c r="D431" s="4"/>
+    </row>
+    <row r="432" spans="2:4" s="6" customFormat="1">
+      <c r="B432" s="22"/>
+      <c r="C432" s="7"/>
+      <c r="D432" s="4"/>
+    </row>
+    <row r="433" spans="1:4" s="6" customFormat="1">
+      <c r="B433" s="22"/>
+      <c r="C433" s="4"/>
+      <c r="D433" s="4"/>
+    </row>
+    <row r="434" spans="1:4" s="6" customFormat="1">
+      <c r="B434" s="19"/>
+      <c r="C434" s="4"/>
+      <c r="D434" s="4"/>
+    </row>
+    <row r="435" spans="1:4" s="6" customFormat="1">
+      <c r="B435" s="21"/>
+      <c r="C435" s="4"/>
+      <c r="D435" s="4"/>
+    </row>
+    <row r="436" spans="1:4" s="6" customFormat="1">
+      <c r="B436" s="21"/>
+      <c r="C436" s="4"/>
+      <c r="D436" s="4"/>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="3"/>
+      <c r="B437" s="11"/>
+      <c r="C437" s="11"/>
+      <c r="D437" s="3"/>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="3"/>
+      <c r="B438" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C407" s="6">
-        <f>COUNTIF(C5:C406,"y")</f>
-        <v>42</v>
-      </c>
-      <c r="D407" s="2"/>
-    </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="3"/>
-      <c r="B408" s="8" t="s">
+      <c r="C438" s="6">
+        <f>COUNTIF(C5:C437,"y")</f>
+        <v>44</v>
+      </c>
+      <c r="D438" s="2"/>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="3"/>
+      <c r="B439" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C408" s="6">
-        <f>COUNTIF(C5:C406,"n")</f>
-        <v>119</v>
-      </c>
-      <c r="D408" s="2"/>
-    </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="3"/>
-      <c r="B409" s="8" t="s">
+      <c r="C439" s="6">
+        <f>COUNTIF(C5:C437,"n")</f>
+        <v>140</v>
+      </c>
+      <c r="D439" s="2"/>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="3"/>
+      <c r="B440" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C409" s="7">
-        <f>COUNTIF(C5:C406,"TBD")</f>
+      <c r="C440" s="7">
+        <f>COUNTIF(C5:C437,"TBD")</f>
         <v>2</v>
       </c>
-      <c r="D409" s="2"/>
-    </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="3"/>
-      <c r="B410" s="8" t="s">
+      <c r="D440" s="2"/>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="3"/>
+      <c r="B441" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C410">
-        <f>SUM(C407:C409)</f>
-        <v>163</v>
-      </c>
-      <c r="D410" s="2"/>
-    </row>
-    <row r="411" spans="1:4" ht="18">
-      <c r="A411" s="3"/>
-      <c r="B411" s="10"/>
-      <c r="C411" s="10" t="s">
+      <c r="C441">
+        <f>SUM(C438:C440)</f>
+        <v>186</v>
+      </c>
+      <c r="D441" s="2"/>
+    </row>
+    <row r="442" spans="1:4" ht="18">
+      <c r="A442" s="3"/>
+      <c r="B442" s="10"/>
+      <c r="C442" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D411" s="41">
-        <f>C407/(C408+C407 + C409)</f>
-        <v>0.25766871165644173</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="3"/>
-      <c r="B412" s="11"/>
-      <c r="C412" s="11"/>
-      <c r="D412" s="3"/>
+      <c r="D442" s="41">
+        <f>C438/(C439+C438 + C440)</f>
+        <v>0.23655913978494625</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="3"/>
+      <c r="B443" s="11"/>
+      <c r="C443" s="11"/>
+      <c r="D443" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C329:C65160 C278:C327 C1:C3 C6:C276">
+  <conditionalFormatting sqref="C6:C290 C292:C341 C1:C3 C343:C65191">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -4969,12 +5329,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT866"/>
+  <dimension ref="A1:IT867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O27" sqref="O27"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5303,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="30">
-        <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G52" si="2">B51/SUM(B51:E51)</f>
         <v>0.2</v>
       </c>
       <c r="H51" s="7"/>
@@ -5328,19 +5688,34 @@
         <v>0</v>
       </c>
       <c r="G52" s="30">
-        <f t="shared" ref="G52" si="3">B52/SUM(B52:E52)</f>
+        <f t="shared" si="2"/>
         <v>0.25766871165644173</v>
       </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="44"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="30"/>
+      <c r="A53" s="44">
+        <v>42857</v>
+      </c>
+      <c r="B53" s="4">
+        <v>44</v>
+      </c>
+      <c r="C53" s="4">
+        <v>140</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="28">
+        <v>0</v>
+      </c>
+      <c r="G53" s="30">
+        <f t="shared" ref="G53" si="3">B53/SUM(B53:E53)</f>
+        <v>0.23655913978494625</v>
+      </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:11">
@@ -5349,84 +5724,84 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="31"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="30"/>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="44"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B56" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D56" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E56" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F56" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="38">
-        <f>MIN(G52)</f>
-        <v>0.25766871165644173</v>
-      </c>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="39">
-        <f>SUM(B56:D56)</f>
-        <v>163</v>
-      </c>
-      <c r="B56" s="15">
-        <f>Features!C407</f>
-        <v>42</v>
-      </c>
-      <c r="C56" s="16">
-        <f>Features!C408</f>
-        <v>119</v>
-      </c>
-      <c r="D56" s="17">
-        <f>Features!C409</f>
+      <c r="G56" s="38">
+        <f>MIN(G53)</f>
+        <v>0.23655913978494625</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="39">
+        <f>SUM(B57:D57)</f>
+        <v>186</v>
+      </c>
+      <c r="B57" s="15">
+        <f>Features!C438</f>
+        <v>44</v>
+      </c>
+      <c r="C57" s="16">
+        <f>Features!C439</f>
+        <v>140</v>
+      </c>
+      <c r="D57" s="17">
+        <f>Features!C440</f>
         <v>2</v>
       </c>
-      <c r="E56" s="18">
-        <f>MIN(E52)</f>
+      <c r="E57" s="18">
+        <f>MIN(E53)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="4"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="30"/>
       <c r="H57" s="7"/>
-      <c r="J57" s="36"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="30"/>
       <c r="H58" s="7"/>
+      <c r="J58" s="36"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="4"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -5435,13 +5810,8 @@
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="B60" s="47">
-        <f>A48+A56/B56*(A52-A48)</f>
-        <v>43304.428571428572</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -5450,8 +5820,13 @@
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="A61" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="47">
+        <f>A48+A57/B57*(A53-A48)</f>
+        <v>43366.909090909088</v>
+      </c>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -5461,7 +5836,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="4"/>
-      <c r="B62" s="19"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -5481,7 +5856,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -5501,7 +5876,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
-      <c r="B66" s="7"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -5511,7 +5886,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -5530,7 +5905,7 @@
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="7"/>
+      <c r="A69" s="4"/>
       <c r="B69" s="20"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
@@ -5541,7 +5916,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -5672,7 +6047,7 @@
     <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+      <c r="C83" s="4"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
@@ -5681,7 +6056,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7"/>
-      <c r="B84" s="6"/>
+      <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -5689,15 +6064,15 @@
       <c r="G84" s="30"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" s="2" customFormat="1">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="4"/>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8" s="2" customFormat="1">
       <c r="A86" s="4"/>
@@ -5871,7 +6246,7 @@
     </row>
     <row r="103" spans="1:8" s="2" customFormat="1">
       <c r="A103" s="4"/>
-      <c r="B103" s="6"/>
+      <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -5881,7 +6256,7 @@
     </row>
     <row r="104" spans="1:8" s="2" customFormat="1">
       <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -5911,7 +6286,7 @@
     </row>
     <row r="107" spans="1:8" s="2" customFormat="1">
       <c r="A107" s="4"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -5951,7 +6326,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="21"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -5961,7 +6336,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -5971,7 +6346,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="6"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -5981,7 +6356,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -5991,7 +6366,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="19"/>
+      <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -6011,7 +6386,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -6071,7 +6446,7 @@
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="19"/>
+      <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -6129,7 +6504,7 @@
       <c r="G128" s="34"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:254" s="2" customFormat="1">
+    <row r="129" spans="1:8" s="2" customFormat="1">
       <c r="A129" s="4"/>
       <c r="B129" s="19"/>
       <c r="C129" s="4"/>
@@ -6139,7 +6514,7 @@
       <c r="G129" s="34"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:254" s="2" customFormat="1">
+    <row r="130" spans="1:8" s="2" customFormat="1">
       <c r="A130" s="4"/>
       <c r="B130" s="19"/>
       <c r="C130" s="4"/>
@@ -6149,7 +6524,7 @@
       <c r="G130" s="34"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:254" s="2" customFormat="1">
+    <row r="131" spans="1:8" s="2" customFormat="1">
       <c r="A131" s="4"/>
       <c r="B131" s="19"/>
       <c r="C131" s="4"/>
@@ -6159,7 +6534,7 @@
       <c r="G131" s="34"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:254" s="2" customFormat="1">
+    <row r="132" spans="1:8" s="2" customFormat="1">
       <c r="A132" s="4"/>
       <c r="B132" s="19"/>
       <c r="C132" s="4"/>
@@ -6169,9 +6544,9 @@
       <c r="G132" s="34"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="1:254" s="2" customFormat="1">
+    <row r="133" spans="1:8" s="2" customFormat="1">
       <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -6179,7 +6554,7 @@
       <c r="G133" s="34"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="1:254" s="2" customFormat="1">
+    <row r="134" spans="1:8" s="2" customFormat="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6189,7 +6564,7 @@
       <c r="G134" s="34"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:254" s="2" customFormat="1">
+    <row r="135" spans="1:8" s="2" customFormat="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6199,7 +6574,7 @@
       <c r="G135" s="34"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="1:254" s="2" customFormat="1">
+    <row r="136" spans="1:8" s="2" customFormat="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -6209,7 +6584,7 @@
       <c r="G136" s="34"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:254" s="2" customFormat="1">
+    <row r="137" spans="1:8" s="2" customFormat="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -6219,9 +6594,9 @@
       <c r="G137" s="34"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="1:254" s="2" customFormat="1">
+    <row r="138" spans="1:8" s="2" customFormat="1">
       <c r="A138" s="4"/>
-      <c r="B138" s="19"/>
+      <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -6229,7 +6604,7 @@
       <c r="G138" s="34"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="1:254" s="2" customFormat="1">
+    <row r="139" spans="1:8" s="2" customFormat="1">
       <c r="A139" s="4"/>
       <c r="B139" s="19"/>
       <c r="C139" s="4"/>
@@ -6239,9 +6614,9 @@
       <c r="G139" s="34"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="1:254" s="2" customFormat="1">
+    <row r="140" spans="1:8" s="2" customFormat="1">
       <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -6249,7 +6624,7 @@
       <c r="G140" s="34"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="1:254" s="2" customFormat="1">
+    <row r="141" spans="1:8" s="2" customFormat="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -6259,7 +6634,7 @@
       <c r="G141" s="34"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="1:254" s="2" customFormat="1">
+    <row r="142" spans="1:8" s="2" customFormat="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -6269,7 +6644,7 @@
       <c r="G142" s="34"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="1:254" s="2" customFormat="1">
+    <row r="143" spans="1:8" s="2" customFormat="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -6279,285 +6654,285 @@
       <c r="G143" s="34"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:254" s="2" customFormat="1">
-      <c r="A144" s="21"/>
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="21"/>
-      <c r="E144" s="21"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="21"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="5"/>
-      <c r="U144" s="5"/>
-      <c r="V144" s="5"/>
-      <c r="W144" s="5"/>
-      <c r="X144" s="5"/>
-      <c r="Y144" s="5"/>
-      <c r="Z144" s="5"/>
-      <c r="AA144" s="5"/>
-      <c r="AB144" s="5"/>
-      <c r="AC144" s="5"/>
-      <c r="AD144" s="5"/>
-      <c r="AE144" s="5"/>
-      <c r="AF144" s="5"/>
-      <c r="AG144" s="5"/>
-      <c r="AH144" s="5"/>
-      <c r="AI144" s="5"/>
-      <c r="AJ144" s="5"/>
-      <c r="AK144" s="5"/>
-      <c r="AL144" s="5"/>
-      <c r="AM144" s="5"/>
-      <c r="AN144" s="5"/>
-      <c r="AO144" s="5"/>
-      <c r="AP144" s="5"/>
-      <c r="AQ144" s="5"/>
-      <c r="AR144" s="5"/>
-      <c r="AS144" s="5"/>
-      <c r="AT144" s="5"/>
-      <c r="AU144" s="5"/>
-      <c r="AV144" s="5"/>
-      <c r="AW144" s="5"/>
-      <c r="AX144" s="5"/>
-      <c r="AY144" s="5"/>
-      <c r="AZ144" s="5"/>
-      <c r="BA144" s="5"/>
-      <c r="BB144" s="5"/>
-      <c r="BC144" s="5"/>
-      <c r="BD144" s="5"/>
-      <c r="BE144" s="5"/>
-      <c r="BF144" s="5"/>
-      <c r="BG144" s="5"/>
-      <c r="BH144" s="5"/>
-      <c r="BI144" s="5"/>
-      <c r="BJ144" s="5"/>
-      <c r="BK144" s="5"/>
-      <c r="BL144" s="5"/>
-      <c r="BM144" s="5"/>
-      <c r="BN144" s="5"/>
-      <c r="BO144" s="5"/>
-      <c r="BP144" s="5"/>
-      <c r="BQ144" s="5"/>
-      <c r="BR144" s="5"/>
-      <c r="BS144" s="5"/>
-      <c r="BT144" s="5"/>
-      <c r="BU144" s="5"/>
-      <c r="BV144" s="5"/>
-      <c r="BW144" s="5"/>
-      <c r="BX144" s="5"/>
-      <c r="BY144" s="5"/>
-      <c r="BZ144" s="5"/>
-      <c r="CA144" s="5"/>
-      <c r="CB144" s="5"/>
-      <c r="CC144" s="5"/>
-      <c r="CD144" s="5"/>
-      <c r="CE144" s="5"/>
-      <c r="CF144" s="5"/>
-      <c r="CG144" s="5"/>
-      <c r="CH144" s="5"/>
-      <c r="CI144" s="5"/>
-      <c r="CJ144" s="5"/>
-      <c r="CK144" s="5"/>
-      <c r="CL144" s="5"/>
-      <c r="CM144" s="5"/>
-      <c r="CN144" s="5"/>
-      <c r="CO144" s="5"/>
-      <c r="CP144" s="5"/>
-      <c r="CQ144" s="5"/>
-      <c r="CR144" s="5"/>
-      <c r="CS144" s="5"/>
-      <c r="CT144" s="5"/>
-      <c r="CU144" s="5"/>
-      <c r="CV144" s="5"/>
-      <c r="CW144" s="5"/>
-      <c r="CX144" s="5"/>
-      <c r="CY144" s="5"/>
-      <c r="CZ144" s="5"/>
-      <c r="DA144" s="5"/>
-      <c r="DB144" s="5"/>
-      <c r="DC144" s="5"/>
-      <c r="DD144" s="5"/>
-      <c r="DE144" s="5"/>
-      <c r="DF144" s="5"/>
-      <c r="DG144" s="5"/>
-      <c r="DH144" s="5"/>
-      <c r="DI144" s="5"/>
-      <c r="DJ144" s="5"/>
-      <c r="DK144" s="5"/>
-      <c r="DL144" s="5"/>
-      <c r="DM144" s="5"/>
-      <c r="DN144" s="5"/>
-      <c r="DO144" s="5"/>
-      <c r="DP144" s="5"/>
-      <c r="DQ144" s="5"/>
-      <c r="DR144" s="5"/>
-      <c r="DS144" s="5"/>
-      <c r="DT144" s="5"/>
-      <c r="DU144" s="5"/>
-      <c r="DV144" s="5"/>
-      <c r="DW144" s="5"/>
-      <c r="DX144" s="5"/>
-      <c r="DY144" s="5"/>
-      <c r="DZ144" s="5"/>
-      <c r="EA144" s="5"/>
-      <c r="EB144" s="5"/>
-      <c r="EC144" s="5"/>
-      <c r="ED144" s="5"/>
-      <c r="EE144" s="5"/>
-      <c r="EF144" s="5"/>
-      <c r="EG144" s="5"/>
-      <c r="EH144" s="5"/>
-      <c r="EI144" s="5"/>
-      <c r="EJ144" s="5"/>
-      <c r="EK144" s="5"/>
-      <c r="EL144" s="5"/>
-      <c r="EM144" s="5"/>
-      <c r="EN144" s="5"/>
-      <c r="EO144" s="5"/>
-      <c r="EP144" s="5"/>
-      <c r="EQ144" s="5"/>
-      <c r="ER144" s="5"/>
-      <c r="ES144" s="5"/>
-      <c r="ET144" s="5"/>
-      <c r="EU144" s="5"/>
-      <c r="EV144" s="5"/>
-      <c r="EW144" s="5"/>
-      <c r="EX144" s="5"/>
-      <c r="EY144" s="5"/>
-      <c r="EZ144" s="5"/>
-      <c r="FA144" s="5"/>
-      <c r="FB144" s="5"/>
-      <c r="FC144" s="5"/>
-      <c r="FD144" s="5"/>
-      <c r="FE144" s="5"/>
-      <c r="FF144" s="5"/>
-      <c r="FG144" s="5"/>
-      <c r="FH144" s="5"/>
-      <c r="FI144" s="5"/>
-      <c r="FJ144" s="5"/>
-      <c r="FK144" s="5"/>
-      <c r="FL144" s="5"/>
-      <c r="FM144" s="5"/>
-      <c r="FN144" s="5"/>
-      <c r="FO144" s="5"/>
-      <c r="FP144" s="5"/>
-      <c r="FQ144" s="5"/>
-      <c r="FR144" s="5"/>
-      <c r="FS144" s="5"/>
-      <c r="FT144" s="5"/>
-      <c r="FU144" s="5"/>
-      <c r="FV144" s="5"/>
-      <c r="FW144" s="5"/>
-      <c r="FX144" s="5"/>
-      <c r="FY144" s="5"/>
-      <c r="FZ144" s="5"/>
-      <c r="GA144" s="5"/>
-      <c r="GB144" s="5"/>
-      <c r="GC144" s="5"/>
-      <c r="GD144" s="5"/>
-      <c r="GE144" s="5"/>
-      <c r="GF144" s="5"/>
-      <c r="GG144" s="5"/>
-      <c r="GH144" s="5"/>
-      <c r="GI144" s="5"/>
-      <c r="GJ144" s="5"/>
-      <c r="GK144" s="5"/>
-      <c r="GL144" s="5"/>
-      <c r="GM144" s="5"/>
-      <c r="GN144" s="5"/>
-      <c r="GO144" s="5"/>
-      <c r="GP144" s="5"/>
-      <c r="GQ144" s="5"/>
-      <c r="GR144" s="5"/>
-      <c r="GS144" s="5"/>
-      <c r="GT144" s="5"/>
-      <c r="GU144" s="5"/>
-      <c r="GV144" s="5"/>
-      <c r="GW144" s="5"/>
-      <c r="GX144" s="5"/>
-      <c r="GY144" s="5"/>
-      <c r="GZ144" s="5"/>
-      <c r="HA144" s="5"/>
-      <c r="HB144" s="5"/>
-      <c r="HC144" s="5"/>
-      <c r="HD144" s="5"/>
-      <c r="HE144" s="5"/>
-      <c r="HF144" s="5"/>
-      <c r="HG144" s="5"/>
-      <c r="HH144" s="5"/>
-      <c r="HI144" s="5"/>
-      <c r="HJ144" s="5"/>
-      <c r="HK144" s="5"/>
-      <c r="HL144" s="5"/>
-      <c r="HM144" s="5"/>
-      <c r="HN144" s="5"/>
-      <c r="HO144" s="5"/>
-      <c r="HP144" s="5"/>
-      <c r="HQ144" s="5"/>
-      <c r="HR144" s="5"/>
-      <c r="HS144" s="5"/>
-      <c r="HT144" s="5"/>
-      <c r="HU144" s="5"/>
-      <c r="HV144" s="5"/>
-      <c r="HW144" s="5"/>
-      <c r="HX144" s="5"/>
-      <c r="HY144" s="5"/>
-      <c r="HZ144" s="5"/>
-      <c r="IA144" s="5"/>
-      <c r="IB144" s="5"/>
-      <c r="IC144" s="5"/>
-      <c r="ID144" s="5"/>
-      <c r="IE144" s="5"/>
-      <c r="IF144" s="5"/>
-      <c r="IG144" s="5"/>
-      <c r="IH144" s="5"/>
-      <c r="II144" s="5"/>
-      <c r="IJ144" s="5"/>
-      <c r="IK144" s="5"/>
-      <c r="IL144" s="5"/>
-      <c r="IM144" s="5"/>
-      <c r="IN144" s="5"/>
-      <c r="IO144" s="5"/>
-      <c r="IP144" s="5"/>
-      <c r="IQ144" s="5"/>
-      <c r="IR144" s="5"/>
-      <c r="IS144" s="5"/>
-      <c r="IT144" s="5"/>
-    </row>
-    <row r="145" spans="1:8" s="2" customFormat="1">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="34"/>
-      <c r="H145" s="4"/>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="7"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="7"/>
-    </row>
-    <row r="147" spans="1:8">
+    <row r="144" spans="1:8" s="2" customFormat="1">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="1:254" s="2" customFormat="1">
+      <c r="A145" s="21"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="35"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+      <c r="V145" s="5"/>
+      <c r="W145" s="5"/>
+      <c r="X145" s="5"/>
+      <c r="Y145" s="5"/>
+      <c r="Z145" s="5"/>
+      <c r="AA145" s="5"/>
+      <c r="AB145" s="5"/>
+      <c r="AC145" s="5"/>
+      <c r="AD145" s="5"/>
+      <c r="AE145" s="5"/>
+      <c r="AF145" s="5"/>
+      <c r="AG145" s="5"/>
+      <c r="AH145" s="5"/>
+      <c r="AI145" s="5"/>
+      <c r="AJ145" s="5"/>
+      <c r="AK145" s="5"/>
+      <c r="AL145" s="5"/>
+      <c r="AM145" s="5"/>
+      <c r="AN145" s="5"/>
+      <c r="AO145" s="5"/>
+      <c r="AP145" s="5"/>
+      <c r="AQ145" s="5"/>
+      <c r="AR145" s="5"/>
+      <c r="AS145" s="5"/>
+      <c r="AT145" s="5"/>
+      <c r="AU145" s="5"/>
+      <c r="AV145" s="5"/>
+      <c r="AW145" s="5"/>
+      <c r="AX145" s="5"/>
+      <c r="AY145" s="5"/>
+      <c r="AZ145" s="5"/>
+      <c r="BA145" s="5"/>
+      <c r="BB145" s="5"/>
+      <c r="BC145" s="5"/>
+      <c r="BD145" s="5"/>
+      <c r="BE145" s="5"/>
+      <c r="BF145" s="5"/>
+      <c r="BG145" s="5"/>
+      <c r="BH145" s="5"/>
+      <c r="BI145" s="5"/>
+      <c r="BJ145" s="5"/>
+      <c r="BK145" s="5"/>
+      <c r="BL145" s="5"/>
+      <c r="BM145" s="5"/>
+      <c r="BN145" s="5"/>
+      <c r="BO145" s="5"/>
+      <c r="BP145" s="5"/>
+      <c r="BQ145" s="5"/>
+      <c r="BR145" s="5"/>
+      <c r="BS145" s="5"/>
+      <c r="BT145" s="5"/>
+      <c r="BU145" s="5"/>
+      <c r="BV145" s="5"/>
+      <c r="BW145" s="5"/>
+      <c r="BX145" s="5"/>
+      <c r="BY145" s="5"/>
+      <c r="BZ145" s="5"/>
+      <c r="CA145" s="5"/>
+      <c r="CB145" s="5"/>
+      <c r="CC145" s="5"/>
+      <c r="CD145" s="5"/>
+      <c r="CE145" s="5"/>
+      <c r="CF145" s="5"/>
+      <c r="CG145" s="5"/>
+      <c r="CH145" s="5"/>
+      <c r="CI145" s="5"/>
+      <c r="CJ145" s="5"/>
+      <c r="CK145" s="5"/>
+      <c r="CL145" s="5"/>
+      <c r="CM145" s="5"/>
+      <c r="CN145" s="5"/>
+      <c r="CO145" s="5"/>
+      <c r="CP145" s="5"/>
+      <c r="CQ145" s="5"/>
+      <c r="CR145" s="5"/>
+      <c r="CS145" s="5"/>
+      <c r="CT145" s="5"/>
+      <c r="CU145" s="5"/>
+      <c r="CV145" s="5"/>
+      <c r="CW145" s="5"/>
+      <c r="CX145" s="5"/>
+      <c r="CY145" s="5"/>
+      <c r="CZ145" s="5"/>
+      <c r="DA145" s="5"/>
+      <c r="DB145" s="5"/>
+      <c r="DC145" s="5"/>
+      <c r="DD145" s="5"/>
+      <c r="DE145" s="5"/>
+      <c r="DF145" s="5"/>
+      <c r="DG145" s="5"/>
+      <c r="DH145" s="5"/>
+      <c r="DI145" s="5"/>
+      <c r="DJ145" s="5"/>
+      <c r="DK145" s="5"/>
+      <c r="DL145" s="5"/>
+      <c r="DM145" s="5"/>
+      <c r="DN145" s="5"/>
+      <c r="DO145" s="5"/>
+      <c r="DP145" s="5"/>
+      <c r="DQ145" s="5"/>
+      <c r="DR145" s="5"/>
+      <c r="DS145" s="5"/>
+      <c r="DT145" s="5"/>
+      <c r="DU145" s="5"/>
+      <c r="DV145" s="5"/>
+      <c r="DW145" s="5"/>
+      <c r="DX145" s="5"/>
+      <c r="DY145" s="5"/>
+      <c r="DZ145" s="5"/>
+      <c r="EA145" s="5"/>
+      <c r="EB145" s="5"/>
+      <c r="EC145" s="5"/>
+      <c r="ED145" s="5"/>
+      <c r="EE145" s="5"/>
+      <c r="EF145" s="5"/>
+      <c r="EG145" s="5"/>
+      <c r="EH145" s="5"/>
+      <c r="EI145" s="5"/>
+      <c r="EJ145" s="5"/>
+      <c r="EK145" s="5"/>
+      <c r="EL145" s="5"/>
+      <c r="EM145" s="5"/>
+      <c r="EN145" s="5"/>
+      <c r="EO145" s="5"/>
+      <c r="EP145" s="5"/>
+      <c r="EQ145" s="5"/>
+      <c r="ER145" s="5"/>
+      <c r="ES145" s="5"/>
+      <c r="ET145" s="5"/>
+      <c r="EU145" s="5"/>
+      <c r="EV145" s="5"/>
+      <c r="EW145" s="5"/>
+      <c r="EX145" s="5"/>
+      <c r="EY145" s="5"/>
+      <c r="EZ145" s="5"/>
+      <c r="FA145" s="5"/>
+      <c r="FB145" s="5"/>
+      <c r="FC145" s="5"/>
+      <c r="FD145" s="5"/>
+      <c r="FE145" s="5"/>
+      <c r="FF145" s="5"/>
+      <c r="FG145" s="5"/>
+      <c r="FH145" s="5"/>
+      <c r="FI145" s="5"/>
+      <c r="FJ145" s="5"/>
+      <c r="FK145" s="5"/>
+      <c r="FL145" s="5"/>
+      <c r="FM145" s="5"/>
+      <c r="FN145" s="5"/>
+      <c r="FO145" s="5"/>
+      <c r="FP145" s="5"/>
+      <c r="FQ145" s="5"/>
+      <c r="FR145" s="5"/>
+      <c r="FS145" s="5"/>
+      <c r="FT145" s="5"/>
+      <c r="FU145" s="5"/>
+      <c r="FV145" s="5"/>
+      <c r="FW145" s="5"/>
+      <c r="FX145" s="5"/>
+      <c r="FY145" s="5"/>
+      <c r="FZ145" s="5"/>
+      <c r="GA145" s="5"/>
+      <c r="GB145" s="5"/>
+      <c r="GC145" s="5"/>
+      <c r="GD145" s="5"/>
+      <c r="GE145" s="5"/>
+      <c r="GF145" s="5"/>
+      <c r="GG145" s="5"/>
+      <c r="GH145" s="5"/>
+      <c r="GI145" s="5"/>
+      <c r="GJ145" s="5"/>
+      <c r="GK145" s="5"/>
+      <c r="GL145" s="5"/>
+      <c r="GM145" s="5"/>
+      <c r="GN145" s="5"/>
+      <c r="GO145" s="5"/>
+      <c r="GP145" s="5"/>
+      <c r="GQ145" s="5"/>
+      <c r="GR145" s="5"/>
+      <c r="GS145" s="5"/>
+      <c r="GT145" s="5"/>
+      <c r="GU145" s="5"/>
+      <c r="GV145" s="5"/>
+      <c r="GW145" s="5"/>
+      <c r="GX145" s="5"/>
+      <c r="GY145" s="5"/>
+      <c r="GZ145" s="5"/>
+      <c r="HA145" s="5"/>
+      <c r="HB145" s="5"/>
+      <c r="HC145" s="5"/>
+      <c r="HD145" s="5"/>
+      <c r="HE145" s="5"/>
+      <c r="HF145" s="5"/>
+      <c r="HG145" s="5"/>
+      <c r="HH145" s="5"/>
+      <c r="HI145" s="5"/>
+      <c r="HJ145" s="5"/>
+      <c r="HK145" s="5"/>
+      <c r="HL145" s="5"/>
+      <c r="HM145" s="5"/>
+      <c r="HN145" s="5"/>
+      <c r="HO145" s="5"/>
+      <c r="HP145" s="5"/>
+      <c r="HQ145" s="5"/>
+      <c r="HR145" s="5"/>
+      <c r="HS145" s="5"/>
+      <c r="HT145" s="5"/>
+      <c r="HU145" s="5"/>
+      <c r="HV145" s="5"/>
+      <c r="HW145" s="5"/>
+      <c r="HX145" s="5"/>
+      <c r="HY145" s="5"/>
+      <c r="HZ145" s="5"/>
+      <c r="IA145" s="5"/>
+      <c r="IB145" s="5"/>
+      <c r="IC145" s="5"/>
+      <c r="ID145" s="5"/>
+      <c r="IE145" s="5"/>
+      <c r="IF145" s="5"/>
+      <c r="IG145" s="5"/>
+      <c r="IH145" s="5"/>
+      <c r="II145" s="5"/>
+      <c r="IJ145" s="5"/>
+      <c r="IK145" s="5"/>
+      <c r="IL145" s="5"/>
+      <c r="IM145" s="5"/>
+      <c r="IN145" s="5"/>
+      <c r="IO145" s="5"/>
+      <c r="IP145" s="5"/>
+      <c r="IQ145" s="5"/>
+      <c r="IR145" s="5"/>
+      <c r="IS145" s="5"/>
+      <c r="IT145" s="5"/>
+    </row>
+    <row r="146" spans="1:254" s="2" customFormat="1">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:254">
       <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
+      <c r="B147" s="6"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -6565,9 +6940,9 @@
       <c r="G147" s="30"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:254">
       <c r="A148" s="7"/>
-      <c r="B148" s="20"/>
+      <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -6575,9 +6950,9 @@
       <c r="G148" s="30"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:254">
       <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -6585,17 +6960,17 @@
       <c r="G149" s="30"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:254">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
-      <c r="C150" s="4"/>
+      <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
       <c r="G150" s="30"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:254">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="4"/>
@@ -6605,7 +6980,7 @@
       <c r="G151" s="30"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:254">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="4"/>
@@ -6615,7 +6990,7 @@
       <c r="G152" s="30"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:254">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="4"/>
@@ -6625,19 +7000,19 @@
       <c r="G153" s="30"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:254">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
+      <c r="C154" s="4"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
       <c r="G154" s="30"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:254">
       <c r="A155" s="7"/>
-      <c r="B155" s="22"/>
+      <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -6645,7 +7020,7 @@
       <c r="G155" s="30"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:254">
       <c r="A156" s="7"/>
       <c r="B156" s="22"/>
       <c r="C156" s="7"/>
@@ -6655,9 +7030,9 @@
       <c r="G156" s="30"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:254">
       <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -6665,9 +7040,9 @@
       <c r="G157" s="30"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:254">
       <c r="A158" s="7"/>
-      <c r="B158" s="20"/>
+      <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -6675,7 +7050,7 @@
       <c r="G158" s="30"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:254">
       <c r="A159" s="7"/>
       <c r="B159" s="20"/>
       <c r="C159" s="7"/>
@@ -6685,9 +7060,9 @@
       <c r="G159" s="30"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:254">
       <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -6707,7 +7082,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="20"/>
+      <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -6727,7 +7102,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -6747,7 +7122,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="20"/>
+      <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -6767,7 +7142,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -6807,7 +7182,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="6"/>
+      <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -6817,8 +7192,8 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
@@ -6827,7 +7202,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="7"/>
-      <c r="B174" s="19"/>
+      <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -6897,7 +7272,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="4"/>
+      <c r="B181" s="19"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -6907,7 +7282,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="19"/>
+      <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -6917,7 +7292,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="21"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -6937,7 +7312,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7"/>
-      <c r="B185" s="19"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="4"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -6978,7 +7353,7 @@
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
       <c r="B189" s="19"/>
-      <c r="C189" s="7"/>
+      <c r="C189" s="4"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
@@ -6987,7 +7362,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="4"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -7007,7 +7382,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
-      <c r="B192" s="19"/>
+      <c r="B192" s="4"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -7067,7 +7442,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="7"/>
-      <c r="B198" s="21"/>
+      <c r="B198" s="19"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -7107,7 +7482,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="4"/>
+      <c r="B202" s="21"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -7117,7 +7492,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="6"/>
+      <c r="B203" s="4"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -7127,7 +7502,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
-      <c r="B204" s="4"/>
+      <c r="B204" s="6"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -7137,7 +7512,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
-      <c r="B205" s="19"/>
+      <c r="B205" s="4"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -7187,7 +7562,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="7"/>
-      <c r="B210" s="21"/>
+      <c r="B210" s="19"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -7197,7 +7572,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="7"/>
-      <c r="B211" s="19"/>
+      <c r="B211" s="21"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -7247,7 +7622,7 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="7"/>
-      <c r="B216" s="21"/>
+      <c r="B216" s="19"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -7307,7 +7682,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="4"/>
+      <c r="B222" s="21"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -7317,7 +7692,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="6"/>
+      <c r="B223" s="4"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -7327,8 +7702,8 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
       <c r="F224" s="7"/>
@@ -7337,7 +7712,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="19"/>
+      <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -7347,7 +7722,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="7"/>
+      <c r="B226" s="19"/>
       <c r="C226" s="4"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -7357,7 +7732,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="20"/>
+      <c r="B227" s="7"/>
       <c r="C227" s="4"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -7397,7 +7772,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="7"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -7407,7 +7782,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="20"/>
+      <c r="B232" s="7"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -7417,7 +7792,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="23"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -7437,7 +7812,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="20"/>
+      <c r="B235" s="23"/>
       <c r="C235" s="4"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -7477,7 +7852,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="7"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="4"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -7487,7 +7862,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="20"/>
+      <c r="B240" s="7"/>
       <c r="C240" s="4"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -7537,7 +7912,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="4"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -7547,8 +7922,8 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="20"/>
-      <c r="C246" s="7"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="4"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
@@ -7557,7 +7932,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -7567,7 +7942,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="20"/>
+      <c r="B248" s="7"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -7577,7 +7952,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="23"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -7627,8 +8002,8 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="20"/>
-      <c r="C254" s="4"/>
+      <c r="B254" s="23"/>
+      <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
       <c r="F254" s="7"/>
@@ -7637,7 +8012,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="23"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="4"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -7647,7 +8022,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="24"/>
+      <c r="B256" s="23"/>
       <c r="C256" s="4"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -7675,9 +8050,9 @@
       <c r="G258" s="30"/>
       <c r="H258" s="7"/>
     </row>
-    <row r="259" spans="1:8" ht="11.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="7"/>
-      <c r="B259" s="25"/>
+      <c r="B259" s="24"/>
       <c r="C259" s="4"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -7685,9 +8060,9 @@
       <c r="G259" s="30"/>
       <c r="H259" s="7"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" ht="11.25">
       <c r="A260" s="7"/>
-      <c r="B260" s="23"/>
+      <c r="B260" s="25"/>
       <c r="C260" s="4"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -7727,7 +8102,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="24"/>
+      <c r="B264" s="23"/>
       <c r="C264" s="4"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -7757,7 +8132,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="7"/>
-      <c r="B267" s="23"/>
+      <c r="B267" s="24"/>
       <c r="C267" s="4"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -7767,7 +8142,7 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="7"/>
-      <c r="B268" s="24"/>
+      <c r="B268" s="23"/>
       <c r="C268" s="4"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -7775,15 +8150,15 @@
       <c r="G268" s="30"/>
       <c r="H268" s="7"/>
     </row>
-    <row r="269" spans="1:8" s="2" customFormat="1">
-      <c r="A269" s="4"/>
+    <row r="269" spans="1:8">
+      <c r="A269" s="7"/>
       <c r="B269" s="24"/>
       <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
-      <c r="E269" s="4"/>
-      <c r="F269" s="4"/>
-      <c r="G269" s="34"/>
-      <c r="H269" s="4"/>
+      <c r="D269" s="7"/>
+      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
+      <c r="G269" s="30"/>
+      <c r="H269" s="7"/>
     </row>
     <row r="270" spans="1:8" s="2" customFormat="1">
       <c r="A270" s="4"/>
@@ -7795,19 +8170,19 @@
       <c r="G270" s="34"/>
       <c r="H270" s="4"/>
     </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="7"/>
+    <row r="271" spans="1:8" s="2" customFormat="1">
+      <c r="A271" s="4"/>
       <c r="B271" s="24"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="7"/>
-      <c r="E271" s="7"/>
-      <c r="F271" s="7"/>
-      <c r="G271" s="30"/>
-      <c r="H271" s="7"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="4"/>
+      <c r="F271" s="4"/>
+      <c r="G271" s="34"/>
+      <c r="H271" s="4"/>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="7"/>
-      <c r="B272" s="23"/>
+      <c r="B272" s="24"/>
       <c r="C272" s="4"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -7817,7 +8192,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="24"/>
+      <c r="B273" s="23"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -7847,7 +8222,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="22"/>
+      <c r="B276" s="24"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -7857,7 +8232,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="7"/>
+      <c r="B277" s="22"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -7877,7 +8252,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="20"/>
+      <c r="B279" s="7"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -7897,7 +8272,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
-      <c r="B281" s="7"/>
+      <c r="B281" s="20"/>
       <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -7928,7 +8303,7 @@
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
-      <c r="C284" s="7"/>
+      <c r="C284" s="4"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
       <c r="F284" s="7"/>
@@ -7937,7 +8312,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
-      <c r="B285" s="6"/>
+      <c r="B285" s="7"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -7947,7 +8322,7 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="7"/>
-      <c r="B286" s="7"/>
+      <c r="B286" s="6"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -8027,7 +8402,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="6"/>
+      <c r="B294" s="7"/>
       <c r="C294" s="7"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -8037,8 +8412,8 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="7"/>
-      <c r="B295" s="4"/>
-      <c r="C295" s="4"/>
+      <c r="B295" s="6"/>
+      <c r="C295" s="7"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
@@ -8047,7 +8422,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="19"/>
+      <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -8077,7 +8452,7 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="7"/>
-      <c r="B299" s="4"/>
+      <c r="B299" s="19"/>
       <c r="C299" s="4"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
@@ -8137,7 +8512,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="19"/>
+      <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -8157,7 +8532,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="21"/>
+      <c r="B307" s="19"/>
       <c r="C307" s="4"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -8167,8 +8542,8 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="7"/>
-      <c r="B308" s="7"/>
-      <c r="C308" s="7"/>
+      <c r="B308" s="21"/>
+      <c r="C308" s="4"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
@@ -8177,7 +8552,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="7"/>
-      <c r="B309" s="6"/>
+      <c r="B309" s="7"/>
       <c r="C309" s="7"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
@@ -8185,15 +8560,15 @@
       <c r="G309" s="30"/>
       <c r="H309" s="7"/>
     </row>
-    <row r="310" spans="1:8" s="2" customFormat="1">
-      <c r="A310" s="4"/>
-      <c r="B310" s="4"/>
-      <c r="C310" s="9"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
-      <c r="F310" s="4"/>
-      <c r="G310" s="34"/>
-      <c r="H310" s="4"/>
+    <row r="310" spans="1:8">
+      <c r="A310" s="7"/>
+      <c r="B310" s="6"/>
+      <c r="C310" s="7"/>
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" s="30"/>
+      <c r="H310" s="7"/>
     </row>
     <row r="311" spans="1:8" s="2" customFormat="1">
       <c r="A311" s="4"/>
@@ -8217,7 +8592,7 @@
     </row>
     <row r="313" spans="1:8" s="2" customFormat="1">
       <c r="A313" s="4"/>
-      <c r="B313" s="19"/>
+      <c r="B313" s="4"/>
       <c r="C313" s="9"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -8267,8 +8642,8 @@
     </row>
     <row r="318" spans="1:8" s="2" customFormat="1">
       <c r="A318" s="4"/>
-      <c r="B318" s="26"/>
-      <c r="C318" s="4"/>
+      <c r="B318" s="19"/>
+      <c r="C318" s="9"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
@@ -8317,7 +8692,7 @@
     </row>
     <row r="323" spans="1:8" s="2" customFormat="1">
       <c r="A323" s="4"/>
-      <c r="B323" s="21"/>
+      <c r="B323" s="26"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -8367,7 +8742,7 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="19"/>
+      <c r="B328" s="21"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -8377,7 +8752,7 @@
     </row>
     <row r="329" spans="1:8" s="2" customFormat="1">
       <c r="A329" s="4"/>
-      <c r="B329" s="21"/>
+      <c r="B329" s="19"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -8387,7 +8762,7 @@
     </row>
     <row r="330" spans="1:8" s="2" customFormat="1">
       <c r="A330" s="4"/>
-      <c r="B330" s="4"/>
+      <c r="B330" s="21"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -8395,20 +8770,20 @@
       <c r="G330" s="34"/>
       <c r="H330" s="4"/>
     </row>
-    <row r="331" spans="1:8">
-      <c r="A331" s="7"/>
-      <c r="B331" s="6"/>
-      <c r="C331" s="7"/>
-      <c r="D331" s="7"/>
-      <c r="E331" s="7"/>
-      <c r="F331" s="7"/>
-      <c r="G331" s="30"/>
-      <c r="H331" s="7"/>
+    <row r="331" spans="1:8" s="2" customFormat="1">
+      <c r="A331" s="4"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4"/>
+      <c r="F331" s="4"/>
+      <c r="G331" s="34"/>
+      <c r="H331" s="4"/>
     </row>
     <row r="332" spans="1:8">
       <c r="A332" s="7"/>
-      <c r="B332" s="7"/>
-      <c r="C332" s="4"/>
+      <c r="B332" s="6"/>
+      <c r="C332" s="7"/>
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
@@ -8477,7 +8852,7 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
-      <c r="B339" s="4"/>
+      <c r="B339" s="7"/>
       <c r="C339" s="4"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
@@ -8488,7 +8863,7 @@
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
       <c r="B340" s="4"/>
-      <c r="C340" s="7"/>
+      <c r="C340" s="4"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
@@ -8497,7 +8872,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="6"/>
+      <c r="B341" s="4"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -8507,7 +8882,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="7"/>
+      <c r="B342" s="6"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -8517,7 +8892,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
-      <c r="B343" s="22"/>
+      <c r="B343" s="7"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
@@ -8527,7 +8902,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="7"/>
-      <c r="B344" s="7"/>
+      <c r="B344" s="22"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -8567,7 +8942,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="6"/>
+      <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -8577,7 +8952,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="7"/>
+      <c r="B349" s="6"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -8587,7 +8962,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="20"/>
+      <c r="B350" s="7"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -8617,7 +8992,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="22"/>
+      <c r="B353" s="20"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -8627,7 +9002,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="20"/>
+      <c r="B354" s="22"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -8647,7 +9022,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="22"/>
+      <c r="B356" s="20"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -8657,7 +9032,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="20"/>
+      <c r="B357" s="22"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -8667,7 +9042,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="22"/>
+      <c r="B358" s="20"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -8677,7 +9052,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="20"/>
+      <c r="B359" s="22"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -8707,7 +9082,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="7"/>
+      <c r="B362" s="20"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -8717,7 +9092,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="27"/>
+      <c r="B363" s="7"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -8727,7 +9102,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="22"/>
+      <c r="B364" s="27"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -8737,8 +9112,8 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="7"/>
-      <c r="C365" s="4"/>
+      <c r="B365" s="22"/>
+      <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
@@ -8747,7 +9122,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="20"/>
+      <c r="B366" s="7"/>
       <c r="C366" s="4"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -8777,7 +9152,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="7"/>
+      <c r="B369" s="20"/>
       <c r="C369" s="4"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -8807,7 +9182,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="20"/>
+      <c r="B372" s="7"/>
       <c r="C372" s="4"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -8827,8 +9202,8 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="7"/>
-      <c r="C374" s="7"/>
+      <c r="B374" s="20"/>
+      <c r="C374" s="4"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
@@ -8837,7 +9212,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="6"/>
+      <c r="B375" s="7"/>
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -8847,7 +9222,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="7"/>
+      <c r="B376" s="6"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
@@ -8907,7 +9282,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="6"/>
+      <c r="B382" s="7"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -8917,7 +9292,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="7"/>
+      <c r="B383" s="6"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -8938,7 +9313,7 @@
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
-      <c r="C385" s="4"/>
+      <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
@@ -8947,7 +9322,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="20"/>
+      <c r="B386" s="7"/>
       <c r="C386" s="4"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -8958,7 +9333,7 @@
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
       <c r="B387" s="20"/>
-      <c r="C387" s="7"/>
+      <c r="C387" s="4"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
@@ -8967,7 +9342,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="27"/>
+      <c r="B388" s="20"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -8977,7 +9352,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
-      <c r="B389" s="22"/>
+      <c r="B389" s="27"/>
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -9027,7 +9402,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="7"/>
+      <c r="B394" s="22"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -9037,7 +9412,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="6"/>
+      <c r="B395" s="7"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -9047,7 +9422,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="7"/>
+      <c r="B396" s="6"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -9057,7 +9432,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="20"/>
+      <c r="B397" s="7"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -9067,7 +9442,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="22"/>
+      <c r="B398" s="20"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -9087,7 +9462,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="20"/>
+      <c r="B400" s="22"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -9127,7 +9502,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="7"/>
+      <c r="B404" s="20"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -9137,7 +9512,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="20"/>
+      <c r="B405" s="7"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -9157,7 +9532,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="22"/>
+      <c r="B407" s="20"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -9167,7 +9542,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="7"/>
+      <c r="B408" s="22"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -9177,7 +9552,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="6"/>
+      <c r="B409" s="7"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -9187,7 +9562,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="6"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -9207,7 +9582,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="6"/>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -9217,7 +9592,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="6"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -9227,7 +9602,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="20"/>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -9247,7 +9622,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="20"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -9257,7 +9632,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="6"/>
+      <c r="B417" s="7"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -9267,7 +9642,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="7"/>
+      <c r="B418" s="6"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -9317,7 +9692,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="6"/>
+      <c r="B423" s="7"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -9327,7 +9702,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="7"/>
+      <c r="B424" s="6"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -9387,7 +9762,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="6"/>
+      <c r="B430" s="7"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -9397,7 +9772,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="7"/>
+      <c r="B431" s="6"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -9417,7 +9792,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="6"/>
+      <c r="B433" s="7"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -9427,7 +9802,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="4"/>
+      <c r="B434" s="6"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -9447,7 +9822,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="7"/>
+      <c r="B436" s="4"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -9477,7 +9852,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="6"/>
+      <c r="B439" s="7"/>
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
@@ -9487,8 +9862,8 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="7"/>
-      <c r="C440" s="4"/>
+      <c r="B440" s="6"/>
+      <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
       <c r="F440" s="7"/>
@@ -9538,7 +9913,7 @@
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
-      <c r="C445" s="7"/>
+      <c r="C445" s="4"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
@@ -9547,7 +9922,7 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
-      <c r="B446" s="6"/>
+      <c r="B446" s="7"/>
       <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
@@ -9557,8 +9932,8 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="7"/>
-      <c r="B447" s="7"/>
-      <c r="C447" s="4"/>
+      <c r="B447" s="6"/>
+      <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
       <c r="F447" s="7"/>
@@ -9598,7 +9973,7 @@
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
       <c r="B451" s="7"/>
-      <c r="C451" s="7"/>
+      <c r="C451" s="4"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
@@ -9607,7 +9982,7 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
-      <c r="B452" s="6"/>
+      <c r="B452" s="7"/>
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
@@ -9617,7 +9992,7 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
-      <c r="B453" s="22"/>
+      <c r="B453" s="6"/>
       <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -9677,7 +10052,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="7"/>
+      <c r="B459" s="22"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -9687,7 +10062,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="7"/>
-      <c r="B460" s="6"/>
+      <c r="B460" s="7"/>
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
@@ -9697,7 +10072,7 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="7"/>
-      <c r="B461" s="22"/>
+      <c r="B461" s="6"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -9726,8 +10101,8 @@
       <c r="H463" s="7"/>
     </row>
     <row r="464" spans="1:8">
-      <c r="A464" s="6"/>
-      <c r="B464" s="7"/>
+      <c r="A464" s="7"/>
+      <c r="B464" s="22"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
@@ -9736,7 +10111,7 @@
       <c r="H464" s="7"/>
     </row>
     <row r="465" spans="1:8">
-      <c r="A465" s="7"/>
+      <c r="A465" s="6"/>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
       <c r="D465" s="7"/>
@@ -9777,7 +10152,7 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="7"/>
-      <c r="B469" s="28"/>
+      <c r="B469" s="7"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -9807,7 +10182,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="7"/>
+      <c r="B472" s="28"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -9817,7 +10192,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="28"/>
+      <c r="B473" s="7"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
@@ -9827,7 +10202,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
+      <c r="B474" s="28"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
@@ -9837,21 +10212,21 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="29"/>
-      <c r="C475" s="30"/>
+      <c r="B475" s="7"/>
+      <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
-      <c r="F475" s="29"/>
+      <c r="F475" s="7"/>
       <c r="G475" s="30"/>
       <c r="H475" s="7"/>
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="7"/>
-      <c r="C476" s="7"/>
+      <c r="B476" s="29"/>
+      <c r="C476" s="30"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
-      <c r="F476" s="7"/>
+      <c r="F476" s="29"/>
       <c r="G476" s="30"/>
       <c r="H476" s="7"/>
     </row>
@@ -13755,6 +14130,16 @@
       <c r="G866" s="30"/>
       <c r="H866" s="7"/>
     </row>
+    <row r="867" spans="1:8">
+      <c r="A867" s="7"/>
+      <c r="B867" s="7"/>
+      <c r="C867" s="7"/>
+      <c r="D867" s="7"/>
+      <c r="E867" s="7"/>
+      <c r="F867" s="7"/>
+      <c r="G867" s="30"/>
+      <c r="H867" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="202">
   <si>
     <t>Feature</t>
   </si>
@@ -125,9 +125,6 @@
     <t>selection</t>
   </si>
   <si>
-    <t>current line</t>
-  </si>
-  <si>
     <t>display line unwrapped</t>
   </si>
   <si>
@@ -612,6 +609,21 @@
   </si>
   <si>
     <t>pluggable auto completion</t>
+  </si>
+  <si>
+    <t>selection highlight</t>
+  </si>
+  <si>
+    <t>correctly highlights selection of LTR + RTL text</t>
+  </si>
+  <si>
+    <t>content pane</t>
+  </si>
+  <si>
+    <t>caret line</t>
+  </si>
+  <si>
+    <t>adjusts horizontal scroll bar when needed</t>
   </si>
 </sst>
 </file>
@@ -869,7 +881,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955002"/>
+          <c:w val="0.91978071330955014"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -949,7 +961,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1029,7 +1041,7 @@
                   <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>140</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,11 +1213,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="124308864"/>
-        <c:axId val="123999360"/>
+        <c:axId val="125816192"/>
+        <c:axId val="125510784"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="124308864"/>
+        <c:axId val="125816192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,7 +1250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123999360"/>
+        <c:crossAx val="125510784"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1248,7 +1260,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="123999360"/>
+        <c:axId val="125510784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124308864"/>
+        <c:crossAx val="125816192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1312,8 +1324,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.5828229804607781E-2"/>
-          <c:y val="0.33819556996218286"/>
+          <c:x val="4.5828229804607788E-2"/>
+          <c:y val="0.33819556996218292"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1380,7 +1392,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001221" r="0.75000000000001221" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001232" r="0.75000000000001232" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1434,7 +1446,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127373E-2"/>
+          <c:x val="4.4510450248127387E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1516,17 +1528,17 @@
                   <c:v>0.25766871165644173</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23655913978494625</c:v>
+                  <c:v>0.23809523809523808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="124039552"/>
-        <c:axId val="124041088"/>
+        <c:axId val="125542784"/>
+        <c:axId val="125544320"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="124039552"/>
+        <c:axId val="125542784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,13 +1546,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-409]mmmm\ d\,\ yyyy;@" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="124041088"/>
+        <c:crossAx val="125544320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="124041088"/>
+        <c:axId val="125544320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1583,7 +1595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124039552"/>
+        <c:crossAx val="125542784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1632,7 +1644,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001221" r="0.75000000000001221" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001232" r="0.75000000000001232" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1730,7 +1742,7 @@
                   <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>140</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,11 +1828,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="124061952"/>
-        <c:axId val="124063744"/>
+        <c:axId val="125561088"/>
+        <c:axId val="125562880"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="124061952"/>
+        <c:axId val="125561088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +1865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124063744"/>
+        <c:crossAx val="125562880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1864,7 +1876,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="124063744"/>
+        <c:axId val="125562880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +1918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124061952"/>
+        <c:crossAx val="125561088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1955,7 +1967,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001221" r="0.75000000000001221" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001232" r="0.75000000000001232" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2413,10 +2425,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D443"/>
+  <dimension ref="A1:D446"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2533,7 +2545,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2547,7 +2559,7 @@
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
       <c r="B18" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>14</v>
@@ -2581,7 +2593,7 @@
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="4"/>
@@ -2593,7 +2605,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -2602,7 +2614,7 @@
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
       <c r="B27" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -2611,7 +2623,7 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>14</v>
@@ -2620,7 +2632,7 @@
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>14</v>
@@ -2629,7 +2641,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -2638,7 +2650,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>14</v>
@@ -2652,7 +2664,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>14</v>
@@ -2661,7 +2673,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>14</v>
@@ -2670,7 +2682,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>14</v>
@@ -2679,7 +2691,7 @@
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>14</v>
@@ -2688,7 +2700,7 @@
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
       <c r="B37" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>14</v>
@@ -2724,7 +2736,7 @@
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>14</v>
@@ -2733,7 +2745,7 @@
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
@@ -2747,7 +2759,7 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>14</v>
@@ -2756,7 +2768,7 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>14</v>
@@ -2765,7 +2777,7 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>2</v>
@@ -2774,7 +2786,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>14</v>
@@ -2783,7 +2795,7 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>2</v>
@@ -2792,7 +2804,7 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
@@ -2800,34 +2812,34 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="22"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="22" t="s">
-        <v>40</v>
+      <c r="B53" s="20" t="s">
+        <v>198</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D55" s="4"/>
     </row>
@@ -2836,13 +2848,13 @@
         <v>42</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -2850,8 +2862,8 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
-      <c r="B58" s="22" t="s">
-        <v>114</v>
+      <c r="B58" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -2860,7 +2872,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
@@ -2869,66 +2881,66 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="2:4" s="6" customFormat="1">
+      <c r="B61" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="2:4" s="6" customFormat="1">
+      <c r="B62" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="2:4" s="6" customFormat="1">
+      <c r="B63" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="20" t="s">
+      <c r="C63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="2:4" s="6" customFormat="1">
+      <c r="B64" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="22"/>
-      <c r="C64" s="7"/>
+      <c r="C64" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="2:4" s="6" customFormat="1">
+      <c r="B66" s="22"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="2:4" s="6" customFormat="1">
+      <c r="B67" s="27" t="s">
         <v>33</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>2</v>
@@ -2937,7 +2949,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="20" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>2</v>
@@ -2946,39 +2958,39 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="22"/>
-      <c r="C70" s="7"/>
+      <c r="B70" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="2:4" s="6" customFormat="1">
+      <c r="B72" s="22"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="2:4" s="6" customFormat="1">
+      <c r="B73" s="27" t="s">
         <v>32</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="20" t="s">
-        <v>34</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>14</v>
@@ -2987,7 +2999,7 @@
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
       <c r="B74" s="20" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>14</v>
@@ -2995,18 +3007,30 @@
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="22"/>
-      <c r="C75" s="7"/>
+      <c r="B75" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="22"/>
-      <c r="C76" s="7"/>
+      <c r="B76" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="22"/>
-      <c r="C77" s="7"/>
+      <c r="B77" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
@@ -3015,35 +3039,23 @@
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B80" s="22"/>
+      <c r="C80" s="7"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="20" t="s">
-        <v>63</v>
+      <c r="B82" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>2</v>
@@ -3052,7 +3064,7 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>2</v>
@@ -3061,39 +3073,43 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="20"/>
-      <c r="C85" s="9"/>
+      <c r="B85" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>14</v>
+      <c r="B86" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="20" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>14</v>
@@ -3101,50 +3117,62 @@
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B89" s="20"/>
+      <c r="C89" s="9"/>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C90" s="7" t="s">
+      <c r="B90" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="22"/>
-      <c r="C92" s="7"/>
+      <c r="B92" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="22"/>
-      <c r="C93" s="7"/>
+      <c r="B93" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="22"/>
-      <c r="C94" s="7"/>
+      <c r="B94" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="22"/>
-      <c r="C95" s="7"/>
+      <c r="B95" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
@@ -3233,9 +3261,7 @@
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B113" s="22"/>
       <c r="C113" s="7"/>
       <c r="D113" s="4"/>
     </row>
@@ -3245,66 +3271,68 @@
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="22" t="s">
-        <v>125</v>
-      </c>
+      <c r="B115" s="22"/>
       <c r="C115" s="7"/>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="22"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="2:4" s="6" customFormat="1">
+      <c r="B117" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="2:4" s="6" customFormat="1">
+      <c r="B118" s="22"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="2:4" s="6" customFormat="1">
+      <c r="B119" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="2:4" s="6" customFormat="1">
+      <c r="B120" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="2:4" s="6" customFormat="1">
+      <c r="B121" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="20" t="s">
+      <c r="C121" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="2:4" s="6" customFormat="1">
+      <c r="B122" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C117" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="22"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="22"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="22"/>
-      <c r="C122" s="7"/>
+      <c r="C122" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="22"/>
-      <c r="C123" s="7"/>
+      <c r="B123" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
@@ -3318,49 +3346,41 @@
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C126" s="7" t="s">
+      <c r="B126" s="22"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="2:4" s="6" customFormat="1">
+      <c r="B127" s="22"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="2:4" s="6" customFormat="1">
+      <c r="B128" s="22"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="2:4" s="6" customFormat="1">
+      <c r="B129" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C127" s="7" t="s">
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="2:4" s="6" customFormat="1">
+      <c r="B130" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C130" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="22"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
       <c r="B131" s="20" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>14</v>
@@ -3374,7 +3394,7 @@
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
       <c r="B133" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>14</v>
@@ -3382,8 +3402,12 @@
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="22"/>
-      <c r="C134" s="7"/>
+      <c r="B134" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
@@ -3392,8 +3416,12 @@
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="22"/>
-      <c r="C136" s="7"/>
+      <c r="B136" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
@@ -3407,46 +3435,46 @@
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="20"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="7"/>
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="20"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="7"/>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B141" s="22"/>
+      <c r="C141" s="7"/>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="22"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="7"/>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="20"/>
-      <c r="C144" s="7"/>
+      <c r="B144" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="22"/>
-      <c r="C145" s="7"/>
+      <c r="B145" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
@@ -3455,21 +3483,13 @@
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B147" s="20"/>
+      <c r="C147" s="7"/>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B148" s="22"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
@@ -3478,13 +3498,21 @@
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="22"/>
-      <c r="C150" s="7"/>
+      <c r="B150" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="22"/>
-      <c r="C151" s="7"/>
+      <c r="B151" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
@@ -3493,21 +3521,13 @@
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B153" s="22"/>
+      <c r="C153" s="7"/>
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="B154" s="22"/>
+      <c r="C154" s="7"/>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
@@ -3516,13 +3536,21 @@
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="22"/>
-      <c r="C156" s="7"/>
+      <c r="B156" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="22"/>
-      <c r="C157" s="7"/>
+      <c r="B157" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
@@ -3531,87 +3559,83 @@
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="22" t="s">
+      <c r="B159" s="22"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="2:4" s="6" customFormat="1">
+      <c r="B160" s="22"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="2:4" s="6" customFormat="1">
+      <c r="B161" s="22"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="2:4" s="6" customFormat="1">
+      <c r="B162" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="2:4" s="6" customFormat="1">
+      <c r="B163" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D159" s="4"/>
-    </row>
-    <row r="160" spans="2:4" s="6" customFormat="1">
-      <c r="B160" s="20" t="s">
+      <c r="C163" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="2:4" s="6" customFormat="1">
+      <c r="B164" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C160" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" s="4"/>
-    </row>
-    <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="20" t="s">
+      <c r="C164" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="2:4" s="6" customFormat="1">
+      <c r="B165" s="22"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="2:4" s="6" customFormat="1">
+      <c r="B166" s="22"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="2:4" s="6" customFormat="1">
+      <c r="B167" s="22"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="2:4" s="6" customFormat="1">
+      <c r="B168" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="2:4" s="6" customFormat="1">
+      <c r="B169" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="22"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="22"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="4"/>
-    </row>
-    <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="22"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="4"/>
-    </row>
-    <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C165" s="7" t="s">
+      <c r="C169" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D165" s="4"/>
-    </row>
-    <row r="166" spans="2:4" s="6" customFormat="1">
-      <c r="B166" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D166" s="4"/>
-    </row>
-    <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" s="4"/>
-    </row>
-    <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="22"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="4"/>
-    </row>
-    <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="22"/>
-      <c r="C169" s="7"/>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="22" t="s">
-        <v>74</v>
+      <c r="B170" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>14</v>
@@ -3619,12 +3643,8 @@
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B171" s="22"/>
+      <c r="C171" s="7"/>
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
@@ -3633,31 +3653,31 @@
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="22"/>
-      <c r="C173" s="7"/>
+      <c r="B173" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="22"/>
-      <c r="C174" s="7"/>
+      <c r="B174" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B175" s="22"/>
+      <c r="C175" s="7"/>
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B176" s="22"/>
+      <c r="C176" s="7"/>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
@@ -3666,31 +3686,31 @@
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="22"/>
-      <c r="C178" s="7"/>
+      <c r="B178" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="22"/>
-      <c r="C179" s="7"/>
+      <c r="B179" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B180" s="22"/>
+      <c r="C180" s="7"/>
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B181" s="22"/>
+      <c r="C181" s="7"/>
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
@@ -3699,88 +3719,92 @@
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="22"/>
-      <c r="C183" s="7"/>
+      <c r="B183" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="22"/>
-      <c r="C184" s="7"/>
+      <c r="B184" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B185" s="22"/>
+      <c r="C185" s="7"/>
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B186" s="22"/>
+      <c r="C186" s="7"/>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B187" s="22"/>
+      <c r="C187" s="7"/>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="22"/>
-      <c r="C188" s="7"/>
+      <c r="B188" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="22"/>
-      <c r="C189" s="7"/>
+      <c r="B189" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="22"/>
-      <c r="C190" s="7"/>
+      <c r="B190" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B191" s="22"/>
+      <c r="C191" s="7"/>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B192" s="22"/>
+      <c r="C192" s="7"/>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="20"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="7"/>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="20"/>
-      <c r="C194" s="7"/>
+      <c r="B194" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="22" t="s">
-        <v>129</v>
+      <c r="B195" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>14</v>
@@ -3788,18 +3812,18 @@
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="22"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="7"/>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="22"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="7"/>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
       <c r="B198" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>14</v>
@@ -3807,12 +3831,8 @@
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B199" s="22"/>
+      <c r="C199" s="7"/>
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
@@ -3821,119 +3841,119 @@
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="22"/>
-      <c r="C201" s="7"/>
+      <c r="B201" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="22" t="s">
+      <c r="B202" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="2:4" s="6" customFormat="1">
+      <c r="B203" s="22"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="2:4" s="6" customFormat="1">
+      <c r="B204" s="22"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="4"/>
+    </row>
+    <row r="205" spans="2:4" s="6" customFormat="1">
+      <c r="B205" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" s="4"/>
+    </row>
+    <row r="206" spans="2:4" s="6" customFormat="1">
+      <c r="B206" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C202" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D202" s="4"/>
-    </row>
-    <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="20" t="s">
+      <c r="C206" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" s="4"/>
+    </row>
+    <row r="207" spans="2:4" s="6" customFormat="1">
+      <c r="B207" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C203" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D203" s="4"/>
-    </row>
-    <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D204" s="4"/>
-    </row>
-    <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="22"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="4"/>
-    </row>
-    <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="22"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="4"/>
-    </row>
-    <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="22" t="s">
+      <c r="C207" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="2:4" s="6" customFormat="1">
+      <c r="B208" s="22"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="4"/>
+    </row>
+    <row r="209" spans="2:4" s="6" customFormat="1">
+      <c r="B209" s="22"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="4"/>
+    </row>
+    <row r="210" spans="2:4" s="6" customFormat="1">
+      <c r="B210" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D210" s="4"/>
+    </row>
+    <row r="211" spans="2:4" s="6" customFormat="1">
+      <c r="B211" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" s="4"/>
+    </row>
+    <row r="212" spans="2:4" s="6" customFormat="1">
+      <c r="B212" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C207" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D207" s="4"/>
-    </row>
-    <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D208" s="4"/>
-    </row>
-    <row r="209" spans="2:4" s="6" customFormat="1">
-      <c r="B209" s="20" t="s">
+      <c r="C212" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D212" s="4"/>
+    </row>
+    <row r="213" spans="2:4" s="6" customFormat="1">
+      <c r="B213" s="22"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="4"/>
+    </row>
+    <row r="214" spans="2:4" s="6" customFormat="1">
+      <c r="B214" s="22"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="2:4" s="6" customFormat="1">
+      <c r="B215" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C209" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D209" s="4"/>
-    </row>
-    <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="22"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="4"/>
-    </row>
-    <row r="211" spans="2:4" s="6" customFormat="1">
-      <c r="B211" s="22"/>
-      <c r="C211" s="7"/>
-      <c r="D211" s="4"/>
-    </row>
-    <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D212" s="4"/>
-    </row>
-    <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D213" s="4"/>
-    </row>
-    <row r="214" spans="2:4" s="6" customFormat="1">
-      <c r="B214" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D214" s="4"/>
-    </row>
-    <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="22"/>
-      <c r="C215" s="7"/>
+      <c r="C215" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="22" t="s">
-        <v>140</v>
+      <c r="B216" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>14</v>
@@ -3942,7 +3962,7 @@
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
       <c r="B217" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>14</v>
@@ -3950,27 +3970,35 @@
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B218" s="22"/>
+      <c r="C218" s="7"/>
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="22"/>
-      <c r="C219" s="7"/>
+      <c r="B219" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
-      <c r="B220" s="22"/>
-      <c r="C220" s="7"/>
+      <c r="B220" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D220" s="4"/>
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
-      <c r="B221" s="22"/>
-      <c r="C221" s="7"/>
+      <c r="B221" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D221" s="4"/>
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
@@ -3999,21 +4027,17 @@
       <c r="D226" s="4"/>
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
-      <c r="B227" s="20"/>
+      <c r="B227" s="22"/>
       <c r="C227" s="7"/>
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B228" s="22"/>
+      <c r="C228" s="7"/>
       <c r="D228" s="4"/>
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
-      <c r="B229" s="20"/>
+      <c r="B229" s="22"/>
       <c r="C229" s="7"/>
       <c r="D229" s="4"/>
     </row>
@@ -4023,40 +4047,32 @@
       <c r="D230" s="4"/>
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
-      <c r="B231" s="20"/>
-      <c r="C231" s="7"/>
+      <c r="B231" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D231" s="4"/>
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B232" s="20"/>
+      <c r="C232" s="7"/>
       <c r="D232" s="4"/>
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
-      <c r="B233" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B233" s="20"/>
+      <c r="C233" s="7"/>
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
-      <c r="B234" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B234" s="20"/>
+      <c r="C234" s="7"/>
       <c r="D234" s="4"/>
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
       <c r="B235" s="22" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>2</v>
@@ -4065,7 +4081,7 @@
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
       <c r="B236" s="20" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>2</v>
@@ -4074,7 +4090,7 @@
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
       <c r="B237" s="20" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>2</v>
@@ -4082,18 +4098,30 @@
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
-      <c r="B238" s="20"/>
-      <c r="C238" s="7"/>
+      <c r="B238" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D238" s="4"/>
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
-      <c r="B239" s="20"/>
-      <c r="C239" s="7"/>
+      <c r="B239" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D239" s="4"/>
     </row>
     <row r="240" spans="2:4" s="6" customFormat="1">
-      <c r="B240" s="20"/>
-      <c r="C240" s="7"/>
+      <c r="B240" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="2:4" s="6" customFormat="1">
@@ -4122,7 +4150,7 @@
       <c r="D245" s="4"/>
     </row>
     <row r="246" spans="2:4" s="6" customFormat="1">
-      <c r="B246" s="22"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="7"/>
       <c r="D246" s="4"/>
     </row>
@@ -4132,61 +4160,52 @@
       <c r="D247" s="4"/>
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
-      <c r="B248" s="19"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="7"/>
       <c r="D248" s="4"/>
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
-      <c r="B249" s="4"/>
+      <c r="B249" s="22"/>
       <c r="C249" s="7"/>
       <c r="D249" s="4"/>
     </row>
     <row r="250" spans="2:4" s="6" customFormat="1">
-      <c r="B250" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B250" s="20"/>
       <c r="C250" s="7"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="2:4">
+    <row r="251" spans="2:4" s="6" customFormat="1">
+      <c r="B251" s="19"/>
       <c r="C251" s="7"/>
-    </row>
-    <row r="252" spans="2:4">
-      <c r="B252" s="43" t="s">
-        <v>145</v>
-      </c>
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="2:4" s="6" customFormat="1">
+      <c r="B252" s="4"/>
       <c r="C252" s="7"/>
-    </row>
-    <row r="253" spans="2:4">
+      <c r="D252" s="4"/>
+    </row>
+    <row r="253" spans="2:4" s="6" customFormat="1">
+      <c r="B253" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C253" s="7"/>
+      <c r="D253" s="4"/>
     </row>
     <row r="254" spans="2:4">
-      <c r="B254" t="s">
-        <v>88</v>
-      </c>
-      <c r="C254" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C254" s="7"/>
     </row>
     <row r="255" spans="2:4">
-      <c r="B255" t="s">
-        <v>89</v>
-      </c>
-      <c r="C255" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B255" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C255" s="7"/>
     </row>
     <row r="256" spans="2:4">
-      <c r="B256" t="s">
-        <v>90</v>
-      </c>
-      <c r="C256" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C256" s="7"/>
     </row>
     <row r="257" spans="2:3">
       <c r="B257" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C257" s="9" t="s">
         <v>14</v>
@@ -4194,144 +4213,144 @@
     </row>
     <row r="258" spans="2:3">
       <c r="B258" t="s">
-        <v>92</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>2</v>
+        <v>88</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="2:3">
       <c r="B259" t="s">
-        <v>93</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="2:3">
       <c r="B260" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C260" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C261" s="9" t="s">
-        <v>14</v>
+      <c r="B261" t="s">
+        <v>91</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="2:3">
       <c r="B262" t="s">
+        <v>92</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" t="s">
+        <v>93</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C262" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="263" spans="2:3">
-      <c r="B263" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="264" spans="2:3">
-      <c r="B264" t="s">
+      <c r="C264" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" t="s">
+        <v>94</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" t="s">
+        <v>98</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C264" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="2:3">
-      <c r="B265" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C265" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="266" spans="2:3">
-      <c r="B266" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="C266" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="267" spans="2:3">
-      <c r="B267" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C267" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="268" spans="2:3">
-      <c r="B268" s="45"/>
-      <c r="C268" s="9"/>
+      <c r="C268" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="45"/>
-      <c r="C269" s="9"/>
+      <c r="B269" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="45"/>
-      <c r="C270" s="9"/>
+      <c r="B270" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="271" spans="2:3">
+      <c r="B271" s="45"/>
       <c r="C271" s="9"/>
     </row>
     <row r="272" spans="2:3">
+      <c r="B272" s="45"/>
       <c r="C272" s="9"/>
     </row>
     <row r="273" spans="2:3">
+      <c r="B273" s="45"/>
       <c r="C273" s="9"/>
     </row>
     <row r="274" spans="2:3">
       <c r="C274" s="9"/>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" s="43" t="s">
-        <v>146</v>
-      </c>
       <c r="C275" s="9"/>
     </row>
     <row r="276" spans="2:3">
       <c r="C276" s="9"/>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" t="s">
-        <v>118</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C277" s="9"/>
     </row>
     <row r="278" spans="2:3">
-      <c r="B278" t="s">
-        <v>119</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B278" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C278" s="9"/>
     </row>
     <row r="279" spans="2:3">
-      <c r="B279" t="s">
-        <v>120</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C279" s="9"/>
     </row>
     <row r="280" spans="2:3">
       <c r="B280" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>14</v>
@@ -4339,7 +4358,7 @@
     </row>
     <row r="281" spans="2:3">
       <c r="B281" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>14</v>
@@ -4347,7 +4366,7 @@
     </row>
     <row r="282" spans="2:3">
       <c r="B282" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>14</v>
@@ -4355,49 +4374,57 @@
     </row>
     <row r="283" spans="2:3">
       <c r="B283" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="C283" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3">
+      <c r="B284" t="s">
+        <v>121</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3">
+      <c r="B285" t="s">
+        <v>122</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3">
+      <c r="B286" t="s">
+        <v>156</v>
+      </c>
+      <c r="C286" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="2:3">
-      <c r="C284" s="9"/>
-    </row>
-    <row r="285" spans="2:3">
-      <c r="C285" s="9"/>
-    </row>
-    <row r="286" spans="2:3">
-      <c r="C286" s="9"/>
-    </row>
     <row r="287" spans="2:3">
-      <c r="B287" s="43" t="s">
-        <v>147</v>
-      </c>
       <c r="C287" s="9"/>
     </row>
     <row r="288" spans="2:3">
       <c r="C288" s="9"/>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" t="s">
-        <v>143</v>
-      </c>
-      <c r="C289" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C289" s="9"/>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" t="s">
-        <v>109</v>
-      </c>
-      <c r="C290" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B290" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C290" s="9"/>
+    </row>
+    <row r="291" spans="2:3">
+      <c r="C291" s="9"/>
     </row>
     <row r="292" spans="2:3">
       <c r="B292" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>14</v>
@@ -4405,44 +4432,41 @@
     </row>
     <row r="293" spans="2:3">
       <c r="B293" t="s">
+        <v>108</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3">
+      <c r="B295" t="s">
+        <v>86</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3">
+      <c r="B296" t="s">
+        <v>100</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3">
+      <c r="B297" t="s">
         <v>101</v>
       </c>
-      <c r="C293" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="294" spans="2:3">
-      <c r="B294" t="s">
-        <v>102</v>
-      </c>
-      <c r="C294" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="295" spans="2:3">
-      <c r="C295" s="9"/>
-    </row>
-    <row r="296" spans="2:3">
-      <c r="B296" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C296" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="297" spans="2:3">
-      <c r="C297" s="9"/>
+      <c r="C297" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="298" spans="2:3">
-      <c r="B298" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C298" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C298" s="9"/>
     </row>
     <row r="299" spans="2:3">
-      <c r="B299" t="s">
+      <c r="B299" s="46" t="s">
         <v>107</v>
       </c>
       <c r="C299" s="9" t="s">
@@ -4453,21 +4477,31 @@
       <c r="C300" s="9"/>
     </row>
     <row r="301" spans="2:3">
-      <c r="B301" t="s">
-        <v>196</v>
-      </c>
-      <c r="C301" s="7" t="s">
+      <c r="B301" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C301" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="302" spans="2:3">
-      <c r="C302" s="9"/>
+      <c r="B302" t="s">
+        <v>106</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="303" spans="2:3">
       <c r="C303" s="9"/>
     </row>
     <row r="304" spans="2:3">
-      <c r="C304" s="9"/>
+      <c r="B304" t="s">
+        <v>195</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="305" spans="3:3">
       <c r="C305" s="9"/>
@@ -4530,41 +4564,31 @@
       <c r="C324" s="9"/>
     </row>
     <row r="325" spans="2:3">
-      <c r="B325" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="C325" s="9"/>
     </row>
     <row r="326" spans="2:3">
-      <c r="B326" t="s">
-        <v>50</v>
-      </c>
-      <c r="C326" s="7" t="s">
+      <c r="C326" s="9"/>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="C327" s="9"/>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="B328" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C328" s="9"/>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="B329" t="s">
+        <v>49</v>
+      </c>
+      <c r="C329" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="327" spans="2:3">
-      <c r="B327" t="s">
-        <v>51</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="328" spans="2:3">
-      <c r="B328" t="s">
-        <v>52</v>
-      </c>
-      <c r="C328" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="329" spans="2:3">
-      <c r="C329" s="9"/>
     </row>
     <row r="330" spans="2:3">
       <c r="B330" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>14</v>
@@ -4572,7 +4596,7 @@
     </row>
     <row r="331" spans="2:3">
       <c r="B331" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>14</v>
@@ -4583,20 +4607,30 @@
     </row>
     <row r="333" spans="2:3">
       <c r="B333" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="334" spans="2:3">
-      <c r="C334" s="9"/>
+      <c r="B334" t="s">
+        <v>104</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="335" spans="2:3">
       <c r="C335" s="9"/>
     </row>
     <row r="336" spans="2:3">
-      <c r="C336" s="9"/>
+      <c r="B336" t="s">
+        <v>156</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="337" spans="2:4">
       <c r="C337" s="9"/>
@@ -4613,53 +4647,39 @@
     <row r="341" spans="2:4">
       <c r="C341" s="9"/>
     </row>
-    <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="3" t="s">
+    <row r="342" spans="2:4">
+      <c r="C342" s="9"/>
+    </row>
+    <row r="343" spans="2:4">
+      <c r="C343" s="9"/>
+    </row>
+    <row r="344" spans="2:4">
+      <c r="C344" s="9"/>
+    </row>
+    <row r="346" spans="2:4" s="6" customFormat="1">
+      <c r="B346" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C343" s="7"/>
-      <c r="D343" s="4"/>
-    </row>
-    <row r="344" spans="2:4" s="6" customFormat="1">
-      <c r="B344" s="22"/>
-      <c r="C344" s="7"/>
-      <c r="D344" s="4"/>
-    </row>
-    <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C345" s="7" t="s">
+      <c r="C346" s="7"/>
+      <c r="D346" s="4"/>
+    </row>
+    <row r="347" spans="2:4" s="6" customFormat="1">
+      <c r="B347" s="22"/>
+      <c r="C347" s="7"/>
+      <c r="D347" s="4"/>
+    </row>
+    <row r="348" spans="2:4" s="6" customFormat="1">
+      <c r="B348" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C348" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D345" s="4"/>
-    </row>
-    <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C346" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D346" s="4"/>
-    </row>
-    <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C347" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D347" s="4"/>
-    </row>
-    <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="22"/>
-      <c r="C348" s="7"/>
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
       <c r="B349" s="22" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>14</v>
@@ -4668,7 +4688,7 @@
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
       <c r="B350" s="22" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>14</v>
@@ -4681,8 +4701,8 @@
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" t="s">
-        <v>157</v>
+      <c r="B352" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>14</v>
@@ -4690,22 +4710,22 @@
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="22"/>
-      <c r="C353" s="7"/>
+      <c r="B353" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D353" s="4"/>
     </row>
     <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C354" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B354" s="22"/>
+      <c r="C354" s="7"/>
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="22" t="s">
-        <v>184</v>
+      <c r="B355" t="s">
+        <v>156</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>14</v>
@@ -4713,12 +4733,13 @@
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
+      <c r="B356" s="22"/>
       <c r="C356" s="7"/>
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="9" t="s">
-        <v>188</v>
+      <c r="B357" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>14</v>
@@ -4726,34 +4747,35 @@
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="22"/>
-      <c r="C358" s="7"/>
+      <c r="B358" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D358" s="4"/>
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C359" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C359" s="7"/>
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="22"/>
-      <c r="C360" s="7"/>
+      <c r="B360" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="22" t="s">
-        <v>187</v>
-      </c>
+      <c r="B361" s="22"/>
       <c r="C361" s="7"/>
       <c r="D361" s="4"/>
     </row>
     <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="20" t="s">
-        <v>181</v>
+      <c r="B362" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>14</v>
@@ -4761,26 +4783,20 @@
       <c r="D362" s="4"/>
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C363" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B363" s="22"/>
+      <c r="C363" s="7"/>
       <c r="D363" s="4"/>
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C364" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B364" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C364" s="7"/>
       <c r="D364" s="4"/>
     </row>
     <row r="365" spans="2:4" s="6" customFormat="1">
       <c r="B365" s="20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>14</v>
@@ -4789,7 +4805,7 @@
     </row>
     <row r="366" spans="2:4" s="6" customFormat="1">
       <c r="B366" s="20" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>14</v>
@@ -4797,13 +4813,17 @@
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="22"/>
-      <c r="C367" s="7"/>
+      <c r="B367" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D367" s="4"/>
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="22" t="s">
-        <v>193</v>
+      <c r="B368" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>14</v>
@@ -4811,8 +4831,8 @@
       <c r="D368" s="4"/>
     </row>
     <row r="369" spans="2:4" s="6" customFormat="1">
-      <c r="B369" s="22" t="s">
-        <v>194</v>
+      <c r="B369" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>14</v>
@@ -4826,7 +4846,7 @@
     </row>
     <row r="371" spans="2:4" s="6" customFormat="1">
       <c r="B371" s="22" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>14</v>
@@ -4834,8 +4854,12 @@
       <c r="D371" s="4"/>
     </row>
     <row r="372" spans="2:4" s="6" customFormat="1">
-      <c r="B372" s="22"/>
-      <c r="C372" s="7"/>
+      <c r="B372" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D372" s="4"/>
     </row>
     <row r="373" spans="2:4" s="6" customFormat="1">
@@ -4844,8 +4868,12 @@
       <c r="D373" s="4"/>
     </row>
     <row r="374" spans="2:4" s="6" customFormat="1">
-      <c r="B374" s="22"/>
-      <c r="C374" s="7"/>
+      <c r="B374" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D374" s="4"/>
     </row>
     <row r="375" spans="2:4" s="6" customFormat="1">
@@ -4854,9 +4882,7 @@
       <c r="D375" s="4"/>
     </row>
     <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B376" s="22"/>
       <c r="C376" s="7"/>
       <c r="D376" s="4"/>
     </row>
@@ -4866,35 +4892,25 @@
       <c r="D377" s="4"/>
     </row>
     <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C378" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B378" s="22"/>
+      <c r="C378" s="7"/>
       <c r="D378" s="4"/>
     </row>
     <row r="379" spans="2:4" s="6" customFormat="1">
-      <c r="B379" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C379" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B379" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C379" s="7"/>
       <c r="D379" s="4"/>
     </row>
     <row r="380" spans="2:4" s="6" customFormat="1">
-      <c r="B380" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C380" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B380" s="22"/>
+      <c r="C380" s="7"/>
       <c r="D380" s="4"/>
     </row>
     <row r="381" spans="2:4" s="6" customFormat="1">
       <c r="B381" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>14</v>
@@ -4902,22 +4918,26 @@
       <c r="D381" s="4"/>
     </row>
     <row r="382" spans="2:4" s="6" customFormat="1">
-      <c r="B382" s="22"/>
-      <c r="C382" s="7"/>
+      <c r="B382" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
       <c r="B383" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D383" s="4"/>
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
       <c r="B384" s="22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>14</v>
@@ -4931,7 +4951,7 @@
     </row>
     <row r="386" spans="2:4" s="6" customFormat="1">
       <c r="B386" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>14</v>
@@ -4940,7 +4960,7 @@
     </row>
     <row r="387" spans="2:4" s="6" customFormat="1">
       <c r="B387" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>14</v>
@@ -4948,22 +4968,22 @@
       <c r="D387" s="4"/>
     </row>
     <row r="388" spans="2:4" s="6" customFormat="1">
-      <c r="B388" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C388" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B388" s="22"/>
+      <c r="C388" s="7"/>
       <c r="D388" s="4"/>
     </row>
     <row r="389" spans="2:4" s="6" customFormat="1">
-      <c r="B389" s="22"/>
-      <c r="C389" s="7"/>
+      <c r="B389" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="2:4" s="6" customFormat="1">
       <c r="B390" s="22" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>14</v>
@@ -4971,8 +4991,12 @@
       <c r="D390" s="4"/>
     </row>
     <row r="391" spans="2:4" s="6" customFormat="1">
-      <c r="B391" s="22"/>
-      <c r="C391" s="7"/>
+      <c r="B391" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D391" s="4"/>
     </row>
     <row r="392" spans="2:4" s="6" customFormat="1">
@@ -4981,8 +5005,12 @@
       <c r="D392" s="4"/>
     </row>
     <row r="393" spans="2:4" s="6" customFormat="1">
-      <c r="B393" s="22"/>
-      <c r="C393" s="7"/>
+      <c r="B393" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D393" s="4"/>
     </row>
     <row r="394" spans="2:4" s="6" customFormat="1">
@@ -5006,9 +5034,7 @@
       <c r="D397" s="4"/>
     </row>
     <row r="398" spans="2:4" s="6" customFormat="1">
-      <c r="B398" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="B398" s="22"/>
       <c r="C398" s="7"/>
       <c r="D398" s="4"/>
     </row>
@@ -5018,42 +5044,32 @@
       <c r="D399" s="4"/>
     </row>
     <row r="400" spans="2:4" s="6" customFormat="1">
-      <c r="B400" s="22" t="s">
-        <v>162</v>
-      </c>
+      <c r="B400" s="22"/>
       <c r="C400" s="7"/>
       <c r="D400" s="4"/>
     </row>
     <row r="401" spans="2:4" s="6" customFormat="1">
-      <c r="B401" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C401" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B401" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C401" s="7"/>
       <c r="D401" s="4"/>
     </row>
     <row r="402" spans="2:4" s="6" customFormat="1">
-      <c r="B402" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C402" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B402" s="22"/>
+      <c r="C402" s="7"/>
       <c r="D402" s="4"/>
     </row>
     <row r="403" spans="2:4" s="6" customFormat="1">
-      <c r="B403" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C403" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B403" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C403" s="7"/>
       <c r="D403" s="4"/>
     </row>
     <row r="404" spans="2:4" s="6" customFormat="1">
       <c r="B404" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>2</v>
@@ -5061,20 +5077,26 @@
       <c r="D404" s="4"/>
     </row>
     <row r="405" spans="2:4" s="6" customFormat="1">
-      <c r="B405" s="22"/>
-      <c r="C405" s="7"/>
+      <c r="B405" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D405" s="4"/>
     </row>
     <row r="406" spans="2:4" s="6" customFormat="1">
-      <c r="B406" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C406" s="7"/>
+      <c r="B406" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D406" s="4"/>
     </row>
     <row r="407" spans="2:4" s="6" customFormat="1">
       <c r="B407" s="20" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C407" s="7" t="s">
         <v>2</v>
@@ -5082,34 +5104,32 @@
       <c r="D407" s="4"/>
     </row>
     <row r="408" spans="2:4" s="6" customFormat="1">
-      <c r="B408" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C408" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B408" s="22"/>
+      <c r="C408" s="7"/>
       <c r="D408" s="4"/>
     </row>
     <row r="409" spans="2:4" s="6" customFormat="1">
-      <c r="B409" s="22"/>
+      <c r="B409" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="C409" s="7"/>
       <c r="D409" s="4"/>
     </row>
     <row r="410" spans="2:4" s="6" customFormat="1">
-      <c r="B410" s="22" t="s">
-        <v>179</v>
+      <c r="B410" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D410" s="4"/>
     </row>
     <row r="411" spans="2:4" s="6" customFormat="1">
-      <c r="B411" s="22" t="s">
-        <v>180</v>
+      <c r="B411" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D411" s="4"/>
     </row>
@@ -5119,13 +5139,21 @@
       <c r="D412" s="4"/>
     </row>
     <row r="413" spans="2:4" s="6" customFormat="1">
-      <c r="B413" s="22"/>
-      <c r="C413" s="7"/>
+      <c r="B413" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D413" s="4"/>
     </row>
     <row r="414" spans="2:4" s="6" customFormat="1">
-      <c r="B414" s="22"/>
-      <c r="C414" s="7"/>
+      <c r="B414" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D414" s="4"/>
     </row>
     <row r="415" spans="2:4" s="6" customFormat="1">
@@ -5220,94 +5248,109 @@
     </row>
     <row r="433" spans="1:4" s="6" customFormat="1">
       <c r="B433" s="22"/>
-      <c r="C433" s="4"/>
+      <c r="C433" s="7"/>
       <c r="D433" s="4"/>
     </row>
     <row r="434" spans="1:4" s="6" customFormat="1">
-      <c r="B434" s="19"/>
-      <c r="C434" s="4"/>
+      <c r="B434" s="22"/>
+      <c r="C434" s="7"/>
       <c r="D434" s="4"/>
     </row>
     <row r="435" spans="1:4" s="6" customFormat="1">
-      <c r="B435" s="21"/>
-      <c r="C435" s="4"/>
+      <c r="B435" s="22"/>
+      <c r="C435" s="7"/>
       <c r="D435" s="4"/>
     </row>
     <row r="436" spans="1:4" s="6" customFormat="1">
-      <c r="B436" s="21"/>
+      <c r="B436" s="22"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
     </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="3"/>
-      <c r="B437" s="11"/>
-      <c r="C437" s="11"/>
-      <c r="D437" s="3"/>
-    </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="3"/>
-      <c r="B438" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C438" s="6">
-        <f>COUNTIF(C5:C437,"y")</f>
-        <v>44</v>
-      </c>
-      <c r="D438" s="2"/>
-    </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="3"/>
-      <c r="B439" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C439" s="6">
-        <f>COUNTIF(C5:C437,"n")</f>
-        <v>140</v>
-      </c>
-      <c r="D439" s="2"/>
+    <row r="437" spans="1:4" s="6" customFormat="1">
+      <c r="B437" s="19"/>
+      <c r="C437" s="4"/>
+      <c r="D437" s="4"/>
+    </row>
+    <row r="438" spans="1:4" s="6" customFormat="1">
+      <c r="B438" s="21"/>
+      <c r="C438" s="4"/>
+      <c r="D438" s="4"/>
+    </row>
+    <row r="439" spans="1:4" s="6" customFormat="1">
+      <c r="B439" s="21"/>
+      <c r="C439" s="4"/>
+      <c r="D439" s="4"/>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="3"/>
-      <c r="B440" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C440" s="7">
-        <f>COUNTIF(C5:C437,"TBD")</f>
-        <v>2</v>
-      </c>
-      <c r="D440" s="2"/>
+      <c r="B440" s="11"/>
+      <c r="C440" s="11"/>
+      <c r="D440" s="3"/>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="3"/>
       <c r="B441" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C441">
-        <f>SUM(C438:C440)</f>
-        <v>186</v>
+        <v>6</v>
+      </c>
+      <c r="C441" s="6">
+        <f>COUNTIF(C5:C440,"y")</f>
+        <v>45</v>
       </c>
       <c r="D441" s="2"/>
     </row>
-    <row r="442" spans="1:4" ht="18">
+    <row r="442" spans="1:4">
       <c r="A442" s="3"/>
-      <c r="B442" s="10"/>
-      <c r="C442" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D442" s="41">
-        <f>C438/(C439+C438 + C440)</f>
-        <v>0.23655913978494625</v>
-      </c>
+      <c r="B442" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C442" s="6">
+        <f>COUNTIF(C5:C440,"n")</f>
+        <v>144</v>
+      </c>
+      <c r="D442" s="2"/>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="3"/>
-      <c r="B443" s="11"/>
-      <c r="C443" s="11"/>
-      <c r="D443" s="3"/>
+      <c r="B443" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C443" s="7">
+        <f>COUNTIF(C5:C440,"TBD")</f>
+        <v>1</v>
+      </c>
+      <c r="D443" s="2"/>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="3"/>
+      <c r="B444" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C444">
+        <f>SUM(C441:C443)</f>
+        <v>190</v>
+      </c>
+      <c r="D444" s="2"/>
+    </row>
+    <row r="445" spans="1:4" ht="18">
+      <c r="A445" s="3"/>
+      <c r="B445" s="10"/>
+      <c r="C445" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D445" s="41">
+        <f>C441/(C442+C441 + C443)</f>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="3"/>
+      <c r="B446" s="11"/>
+      <c r="C446" s="11"/>
+      <c r="D446" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C6:C290 C292:C341 C1:C3 C343:C65191">
+  <conditionalFormatting sqref="C295:C344 C346:C65194 C1:C3 C6:C293">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5331,7 +5374,7 @@
   </sheetPr>
   <dimension ref="A1:IT867"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O27" sqref="O27"/>
       <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
@@ -5698,10 +5741,10 @@
         <v>42857</v>
       </c>
       <c r="B53" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C53" s="4">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
@@ -5714,7 +5757,7 @@
       </c>
       <c r="G53" s="30">
         <f t="shared" ref="G53" si="3">B53/SUM(B53:E53)</f>
-        <v>0.23655913978494625</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -5759,26 +5802,26 @@
       </c>
       <c r="G56" s="38">
         <f>MIN(G53)</f>
-        <v>0.23655913978494625</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="39">
         <f>SUM(B57:D57)</f>
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B57" s="15">
-        <f>Features!C438</f>
-        <v>44</v>
+        <f>Features!C441</f>
+        <v>45</v>
       </c>
       <c r="C57" s="16">
-        <f>Features!C439</f>
-        <v>140</v>
+        <f>Features!C442</f>
+        <v>144</v>
       </c>
       <c r="D57" s="17">
-        <f>Features!C440</f>
-        <v>2</v>
+        <f>Features!C443</f>
+        <v>1</v>
       </c>
       <c r="E57" s="18">
         <f>MIN(E53)</f>
@@ -5821,11 +5864,11 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B61" s="47">
         <f>A48+A57/B57*(A53-A48)</f>
-        <v>43366.909090909088</v>
+        <v>43366.111111111109</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
